--- a/analyses/data/Summer 2015 Tree Traits.xlsx
+++ b/analyses/data/Summer 2015 Tree Traits.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -7359,7 +7359,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -12187,23 +12187,25 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W807"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="18" width="7.33203125" customWidth="1"/>
+    <col min="22" max="22" width="13.5" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="11" customFormat="1" ht="24">
@@ -20407,7 +20409,7 @@
         <v>431.86019900000002</v>
       </c>
     </row>
-    <row r="235" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="235" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="22" t="s">
         <v>528</v>
       </c>
@@ -20449,7 +20451,7 @@
       <c r="P235" s="22"/>
       <c r="U235" s="22"/>
     </row>
-    <row r="236" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="236" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="22" t="s">
         <v>529</v>
       </c>
@@ -20487,7 +20489,7 @@
       <c r="P236" s="22"/>
       <c r="U236" s="22"/>
     </row>
-    <row r="237" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="237" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A237" s="22" t="s">
         <v>530</v>
       </c>
@@ -20529,7 +20531,7 @@
       <c r="P237" s="22"/>
       <c r="U237" s="22"/>
     </row>
-    <row r="238" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="238" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A238" s="22" t="s">
         <v>531</v>
       </c>
@@ -20571,7 +20573,7 @@
       <c r="P238" s="22"/>
       <c r="U238" s="22"/>
     </row>
-    <row r="239" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="239" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="22" t="s">
         <v>532</v>
       </c>
@@ -20614,7 +20616,7 @@
       <c r="T239" s="25"/>
       <c r="U239" s="22"/>
     </row>
-    <row r="240" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="240" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A240" s="22" t="s">
         <v>533</v>
       </c>
@@ -20656,7 +20658,7 @@
       <c r="P240" s="22"/>
       <c r="U240" s="22"/>
     </row>
-    <row r="241" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="241" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A241" s="22" t="s">
         <v>534</v>
       </c>
@@ -20698,7 +20700,7 @@
       <c r="P241" s="22"/>
       <c r="U241" s="22"/>
     </row>
-    <row r="242" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="242" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="22" t="s">
         <v>535</v>
       </c>
@@ -20740,7 +20742,7 @@
       <c r="P242" s="22"/>
       <c r="U242" s="22"/>
     </row>
-    <row r="243" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="243" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A243" s="22" t="s">
         <v>536</v>
       </c>
@@ -20782,7 +20784,7 @@
       <c r="P243" s="22"/>
       <c r="U243" s="22"/>
     </row>
-    <row r="244" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="244" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A244" s="22" t="s">
         <v>537</v>
       </c>
@@ -20824,7 +20826,7 @@
       <c r="P244" s="22"/>
       <c r="U244" s="22"/>
     </row>
-    <row r="245" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="245" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A245" s="22" t="s">
         <v>538</v>
       </c>
@@ -20866,7 +20868,7 @@
       <c r="P245" s="22"/>
       <c r="U245" s="22"/>
     </row>
-    <row r="246" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="246" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A246" s="22" t="s">
         <v>539</v>
       </c>
@@ -20908,7 +20910,7 @@
       <c r="P246" s="22"/>
       <c r="U246" s="22"/>
     </row>
-    <row r="247" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="247" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A247" s="22" t="s">
         <v>540</v>
       </c>
@@ -20950,7 +20952,7 @@
       <c r="P247" s="22"/>
       <c r="U247" s="22"/>
     </row>
-    <row r="248" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="248" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="22" t="s">
         <v>541</v>
       </c>
@@ -20992,7 +20994,7 @@
       <c r="P248" s="22"/>
       <c r="U248" s="22"/>
     </row>
-    <row r="249" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="249" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="22" t="s">
         <v>542</v>
       </c>
@@ -21034,7 +21036,7 @@
       <c r="P249" s="22"/>
       <c r="U249" s="22"/>
     </row>
-    <row r="250" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="250" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="22" t="s">
         <v>543</v>
       </c>
@@ -21076,7 +21078,7 @@
       <c r="P250" s="22"/>
       <c r="U250" s="22"/>
     </row>
-    <row r="251" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="251" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="22" t="s">
         <v>544</v>
       </c>
@@ -21118,7 +21120,7 @@
       <c r="P251" s="22"/>
       <c r="U251" s="22"/>
     </row>
-    <row r="252" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="252" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="22" t="s">
         <v>545</v>
       </c>
@@ -21160,7 +21162,7 @@
       <c r="P252" s="22"/>
       <c r="U252" s="22"/>
     </row>
-    <row r="253" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="253" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="22" t="s">
         <v>546</v>
       </c>
@@ -21202,7 +21204,7 @@
       <c r="P253" s="22"/>
       <c r="U253" s="22"/>
     </row>
-    <row r="254" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="254" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A254" s="22" t="s">
         <v>547</v>
       </c>
@@ -21244,7 +21246,7 @@
       <c r="P254" s="22"/>
       <c r="U254" s="22"/>
     </row>
-    <row r="255" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="255" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A255" s="22" t="s">
         <v>548</v>
       </c>
@@ -21286,7 +21288,7 @@
       <c r="P255" s="22"/>
       <c r="U255" s="22"/>
     </row>
-    <row r="256" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="256" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="22" t="s">
         <v>549</v>
       </c>
@@ -21328,7 +21330,7 @@
       <c r="P256" s="22"/>
       <c r="U256" s="22"/>
     </row>
-    <row r="257" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="257" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A257" s="22" t="s">
         <v>550</v>
       </c>
@@ -21370,7 +21372,7 @@
       <c r="P257" s="22"/>
       <c r="U257" s="22"/>
     </row>
-    <row r="258" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="258" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A258" s="22" t="s">
         <v>551</v>
       </c>
@@ -21412,7 +21414,7 @@
       <c r="P258" s="22"/>
       <c r="U258" s="22"/>
     </row>
-    <row r="259" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="259" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="22" t="s">
         <v>552</v>
       </c>
@@ -21454,7 +21456,7 @@
       <c r="P259" s="22"/>
       <c r="U259" s="22"/>
     </row>
-    <row r="260" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="260" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="22" t="s">
         <v>553</v>
       </c>
@@ -21496,7 +21498,7 @@
       <c r="P260" s="22"/>
       <c r="U260" s="22"/>
     </row>
-    <row r="261" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="261" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="22" t="s">
         <v>554</v>
       </c>
@@ -21538,7 +21540,7 @@
       <c r="P261" s="22"/>
       <c r="U261" s="22"/>
     </row>
-    <row r="262" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="262" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="22" t="s">
         <v>555</v>
       </c>
@@ -21580,7 +21582,7 @@
       <c r="P262" s="22"/>
       <c r="U262" s="22"/>
     </row>
-    <row r="263" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="263" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="22" t="s">
         <v>556</v>
       </c>
@@ -21622,7 +21624,7 @@
       <c r="P263" s="22"/>
       <c r="U263" s="22"/>
     </row>
-    <row r="264" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="264" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="22" t="s">
         <v>557</v>
       </c>
@@ -21665,7 +21667,7 @@
       <c r="T264" s="25"/>
       <c r="U264" s="22"/>
     </row>
-    <row r="265" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="265" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A265" s="22" t="s">
         <v>558</v>
       </c>
@@ -21707,7 +21709,7 @@
       <c r="P265" s="22"/>
       <c r="U265" s="22"/>
     </row>
-    <row r="266" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="266" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A266" s="22" t="s">
         <v>559</v>
       </c>
@@ -21749,7 +21751,7 @@
       <c r="P266" s="22"/>
       <c r="U266" s="22"/>
     </row>
-    <row r="267" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="267" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="22" t="s">
         <v>560</v>
       </c>
@@ -21791,7 +21793,7 @@
       <c r="P267" s="22"/>
       <c r="U267" s="22"/>
     </row>
-    <row r="268" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="268" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="22" t="s">
         <v>561</v>
       </c>
@@ -21833,7 +21835,7 @@
       <c r="P268" s="22"/>
       <c r="U268" s="22"/>
     </row>
-    <row r="269" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="269" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A269" s="22" t="s">
         <v>562</v>
       </c>
@@ -21875,7 +21877,7 @@
       <c r="P269" s="22"/>
       <c r="U269" s="22"/>
     </row>
-    <row r="270" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="270" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A270" s="22" t="s">
         <v>563</v>
       </c>
@@ -21917,7 +21919,7 @@
       <c r="P270" s="22"/>
       <c r="U270" s="22"/>
     </row>
-    <row r="271" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="271" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="22" t="s">
         <v>564</v>
       </c>
@@ -21959,7 +21961,7 @@
       <c r="P271" s="22"/>
       <c r="U271" s="22"/>
     </row>
-    <row r="272" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="272" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A272" s="22" t="s">
         <v>565</v>
       </c>
@@ -22001,7 +22003,7 @@
       <c r="P272" s="22"/>
       <c r="U272" s="22"/>
     </row>
-    <row r="273" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="273" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A273" s="22" t="s">
         <v>566</v>
       </c>
@@ -22043,7 +22045,7 @@
       <c r="P273" s="22"/>
       <c r="U273" s="22"/>
     </row>
-    <row r="274" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="274" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A274" s="22" t="s">
         <v>567</v>
       </c>
@@ -22085,7 +22087,7 @@
       <c r="P274" s="22"/>
       <c r="U274" s="22"/>
     </row>
-    <row r="275" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="275" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A275" s="22" t="s">
         <v>568</v>
       </c>
@@ -22127,7 +22129,7 @@
       <c r="P275" s="22"/>
       <c r="U275" s="22"/>
     </row>
-    <row r="276" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="276" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A276" s="22" t="s">
         <v>569</v>
       </c>
@@ -22169,7 +22171,7 @@
       <c r="P276" s="22"/>
       <c r="U276" s="22"/>
     </row>
-    <row r="277" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="277" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A277" s="22" t="s">
         <v>570</v>
       </c>
@@ -22211,7 +22213,7 @@
       <c r="P277" s="22"/>
       <c r="U277" s="22"/>
     </row>
-    <row r="278" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="278" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A278" s="22" t="s">
         <v>571</v>
       </c>
@@ -22253,7 +22255,7 @@
       <c r="P278" s="22"/>
       <c r="U278" s="22"/>
     </row>
-    <row r="279" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="279" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A279" s="22" t="s">
         <v>572</v>
       </c>
@@ -22295,7 +22297,7 @@
       <c r="P279" s="22"/>
       <c r="U279" s="22"/>
     </row>
-    <row r="280" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="280" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A280" s="22" t="s">
         <v>573</v>
       </c>
@@ -22337,7 +22339,7 @@
       <c r="P280" s="22"/>
       <c r="U280" s="22"/>
     </row>
-    <row r="281" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="281" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A281" s="22" t="s">
         <v>574</v>
       </c>
@@ -22379,7 +22381,7 @@
       <c r="P281" s="22"/>
       <c r="U281" s="22"/>
     </row>
-    <row r="282" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="282" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A282" s="22" t="s">
         <v>575</v>
       </c>
@@ -22421,7 +22423,7 @@
       <c r="P282" s="22"/>
       <c r="U282" s="22"/>
     </row>
-    <row r="283" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="283" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A283" s="22" t="s">
         <v>576</v>
       </c>
@@ -22463,7 +22465,7 @@
       <c r="P283" s="22"/>
       <c r="U283" s="22"/>
     </row>
-    <row r="284" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="284" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A284" s="22" t="s">
         <v>577</v>
       </c>
@@ -22505,7 +22507,7 @@
       <c r="P284" s="22"/>
       <c r="U284" s="22"/>
     </row>
-    <row r="285" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="285" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A285" s="22" t="s">
         <v>578</v>
       </c>
@@ -22547,7 +22549,7 @@
       <c r="P285" s="22"/>
       <c r="U285" s="22"/>
     </row>
-    <row r="286" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="286" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A286" s="22" t="s">
         <v>579</v>
       </c>
@@ -22589,7 +22591,7 @@
       <c r="P286" s="22"/>
       <c r="U286" s="22"/>
     </row>
-    <row r="287" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="287" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A287" s="22" t="s">
         <v>580</v>
       </c>
@@ -22631,7 +22633,7 @@
       <c r="P287" s="22"/>
       <c r="U287" s="22"/>
     </row>
-    <row r="288" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="288" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A288" s="22" t="s">
         <v>581</v>
       </c>
@@ -22673,7 +22675,7 @@
       <c r="P288" s="22"/>
       <c r="U288" s="22"/>
     </row>
-    <row r="289" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="289" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A289" s="22" t="s">
         <v>582</v>
       </c>
@@ -22715,7 +22717,7 @@
       <c r="P289" s="22"/>
       <c r="U289" s="22"/>
     </row>
-    <row r="290" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="290" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A290" s="22" t="s">
         <v>583</v>
       </c>
@@ -22757,7 +22759,7 @@
       <c r="P290" s="22"/>
       <c r="U290" s="22"/>
     </row>
-    <row r="291" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="291" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A291" s="22" t="s">
         <v>584</v>
       </c>
@@ -22799,7 +22801,7 @@
       <c r="P291" s="22"/>
       <c r="U291" s="22"/>
     </row>
-    <row r="292" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="292" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A292" s="22" t="s">
         <v>585</v>
       </c>
@@ -22841,7 +22843,7 @@
       <c r="P292" s="22"/>
       <c r="U292" s="22"/>
     </row>
-    <row r="293" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="293" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A293" s="22" t="s">
         <v>586</v>
       </c>
@@ -22883,7 +22885,7 @@
       <c r="P293" s="22"/>
       <c r="U293" s="22"/>
     </row>
-    <row r="294" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="294" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A294" s="22" t="s">
         <v>587</v>
       </c>
@@ -22925,7 +22927,7 @@
       <c r="P294" s="22"/>
       <c r="U294" s="22"/>
     </row>
-    <row r="295" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="295" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A295" s="22" t="s">
         <v>588</v>
       </c>
@@ -22967,7 +22969,7 @@
       <c r="P295" s="22"/>
       <c r="U295" s="22"/>
     </row>
-    <row r="296" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="296" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A296" s="22" t="s">
         <v>589</v>
       </c>
@@ -23009,7 +23011,7 @@
       <c r="P296" s="22"/>
       <c r="U296" s="22"/>
     </row>
-    <row r="297" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="297" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A297" s="22" t="s">
         <v>590</v>
       </c>
@@ -23051,7 +23053,7 @@
       <c r="P297" s="22"/>
       <c r="U297" s="22"/>
     </row>
-    <row r="298" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="298" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A298" s="22" t="s">
         <v>591</v>
       </c>
@@ -23093,7 +23095,7 @@
       <c r="P298" s="22"/>
       <c r="U298" s="22"/>
     </row>
-    <row r="299" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="299" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A299" s="22" t="s">
         <v>592</v>
       </c>
@@ -23137,7 +23139,7 @@
       </c>
       <c r="U299" s="22"/>
     </row>
-    <row r="300" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="300" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A300" s="22" t="s">
         <v>593</v>
       </c>
@@ -23179,7 +23181,7 @@
       <c r="P300" s="22"/>
       <c r="U300" s="22"/>
     </row>
-    <row r="301" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="301" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A301" s="22" t="s">
         <v>594</v>
       </c>
@@ -23221,7 +23223,7 @@
       <c r="P301" s="22"/>
       <c r="U301" s="22"/>
     </row>
-    <row r="302" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="302" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A302" s="22" t="s">
         <v>595</v>
       </c>
@@ -23263,7 +23265,7 @@
       <c r="P302" s="22"/>
       <c r="U302" s="22"/>
     </row>
-    <row r="303" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="303" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A303" s="22" t="s">
         <v>596</v>
       </c>
@@ -23305,7 +23307,7 @@
       <c r="P303" s="22"/>
       <c r="U303" s="22"/>
     </row>
-    <row r="304" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="304" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A304" s="22" t="s">
         <v>597</v>
       </c>
@@ -23347,7 +23349,7 @@
       <c r="P304" s="22"/>
       <c r="U304" s="22"/>
     </row>
-    <row r="305" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="305" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A305" s="22" t="s">
         <v>598</v>
       </c>
@@ -23389,7 +23391,7 @@
       <c r="P305" s="22"/>
       <c r="U305" s="22"/>
     </row>
-    <row r="306" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="306" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A306" s="22" t="s">
         <v>599</v>
       </c>
@@ -23431,7 +23433,7 @@
       <c r="P306" s="22"/>
       <c r="U306" s="22"/>
     </row>
-    <row r="307" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="307" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A307" s="22" t="s">
         <v>600</v>
       </c>
@@ -23474,7 +23476,7 @@
       <c r="T307" s="25"/>
       <c r="U307" s="22"/>
     </row>
-    <row r="308" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="308" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A308" s="22" t="s">
         <v>601</v>
       </c>
@@ -23516,7 +23518,7 @@
       <c r="P308" s="22"/>
       <c r="U308" s="22"/>
     </row>
-    <row r="309" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="309" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A309" s="22" t="s">
         <v>602</v>
       </c>
@@ -23558,7 +23560,7 @@
       <c r="P309" s="22"/>
       <c r="U309" s="22"/>
     </row>
-    <row r="310" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="310" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A310" s="22" t="s">
         <v>603</v>
       </c>
@@ -23600,7 +23602,7 @@
       <c r="P310" s="22"/>
       <c r="U310" s="22"/>
     </row>
-    <row r="311" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="311" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A311" s="22" t="s">
         <v>604</v>
       </c>
@@ -23639,7 +23641,7 @@
       <c r="P311" s="22"/>
       <c r="U311" s="22"/>
     </row>
-    <row r="312" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="312" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A312" s="22" t="s">
         <v>605</v>
       </c>
@@ -23681,7 +23683,7 @@
       <c r="P312" s="22"/>
       <c r="U312" s="22"/>
     </row>
-    <row r="313" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="313" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A313" s="22" t="s">
         <v>606</v>
       </c>
@@ -23723,7 +23725,7 @@
       <c r="P313" s="22"/>
       <c r="U313" s="22"/>
     </row>
-    <row r="314" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="314" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A314" s="22" t="s">
         <v>607</v>
       </c>
@@ -23765,7 +23767,7 @@
       <c r="P314" s="22"/>
       <c r="U314" s="22"/>
     </row>
-    <row r="315" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="315" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A315" s="22" t="s">
         <v>608</v>
       </c>
@@ -23807,7 +23809,7 @@
       <c r="P315" s="22"/>
       <c r="U315" s="22"/>
     </row>
-    <row r="316" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="316" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A316" s="22" t="s">
         <v>609</v>
       </c>
@@ -23850,7 +23852,7 @@
       <c r="T316" s="25"/>
       <c r="U316" s="22"/>
     </row>
-    <row r="317" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="317" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A317" s="22" t="s">
         <v>610</v>
       </c>
@@ -23893,7 +23895,7 @@
       <c r="T317" s="25"/>
       <c r="U317" s="22"/>
     </row>
-    <row r="318" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="318" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A318" s="22" t="s">
         <v>611</v>
       </c>
@@ -23927,7 +23929,7 @@
       <c r="T318" s="25"/>
       <c r="U318" s="22"/>
     </row>
-    <row r="319" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="319" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A319" s="22" t="s">
         <v>612</v>
       </c>
@@ -23969,7 +23971,7 @@
       <c r="P319" s="22"/>
       <c r="U319" s="22"/>
     </row>
-    <row r="320" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="320" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A320" s="22" t="s">
         <v>613</v>
       </c>
@@ -24011,7 +24013,7 @@
       <c r="P320" s="22"/>
       <c r="U320" s="22"/>
     </row>
-    <row r="321" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="321" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A321" s="22" t="s">
         <v>614</v>
       </c>
@@ -24053,7 +24055,7 @@
       <c r="P321" s="22"/>
       <c r="U321" s="22"/>
     </row>
-    <row r="322" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="322" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A322" s="22" t="s">
         <v>615</v>
       </c>
@@ -24095,7 +24097,7 @@
       <c r="P322" s="22"/>
       <c r="U322" s="22"/>
     </row>
-    <row r="323" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="323" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A323" s="22" t="s">
         <v>616</v>
       </c>
@@ -24137,7 +24139,7 @@
       <c r="P323" s="22"/>
       <c r="U323" s="22"/>
     </row>
-    <row r="324" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="324" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A324" s="22" t="s">
         <v>617</v>
       </c>
@@ -24179,7 +24181,7 @@
       <c r="P324" s="22"/>
       <c r="U324" s="22"/>
     </row>
-    <row r="325" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="325" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A325" s="22" t="s">
         <v>618</v>
       </c>
@@ -24221,7 +24223,7 @@
       <c r="P325" s="22"/>
       <c r="U325" s="22"/>
     </row>
-    <row r="326" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="326" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A326" s="22" t="s">
         <v>619</v>
       </c>
@@ -24263,7 +24265,7 @@
       <c r="P326" s="22"/>
       <c r="U326" s="22"/>
     </row>
-    <row r="327" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="327" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A327" s="22" t="s">
         <v>620</v>
       </c>
@@ -24305,7 +24307,7 @@
       <c r="P327" s="22"/>
       <c r="U327" s="22"/>
     </row>
-    <row r="328" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="328" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A328" s="22" t="s">
         <v>621</v>
       </c>
@@ -24347,7 +24349,7 @@
       <c r="P328" s="22"/>
       <c r="U328" s="22"/>
     </row>
-    <row r="329" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="329" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A329" s="22" t="s">
         <v>622</v>
       </c>
@@ -24389,7 +24391,7 @@
       <c r="P329" s="22"/>
       <c r="U329" s="22"/>
     </row>
-    <row r="330" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="330" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A330" s="22" t="s">
         <v>623</v>
       </c>
@@ -24428,7 +24430,7 @@
       <c r="P330" s="22"/>
       <c r="U330" s="22"/>
     </row>
-    <row r="331" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="331" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A331" s="22" t="s">
         <v>624</v>
       </c>
@@ -24470,7 +24472,7 @@
       <c r="P331" s="22"/>
       <c r="U331" s="22"/>
     </row>
-    <row r="332" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="332" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A332" s="22" t="s">
         <v>625</v>
       </c>
@@ -24512,7 +24514,7 @@
       <c r="P332" s="22"/>
       <c r="U332" s="22"/>
     </row>
-    <row r="333" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="333" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A333" s="22" t="s">
         <v>626</v>
       </c>
@@ -24554,7 +24556,7 @@
       <c r="P333" s="22"/>
       <c r="U333" s="22"/>
     </row>
-    <row r="334" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="334" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A334" s="22" t="s">
         <v>627</v>
       </c>
@@ -24596,7 +24598,7 @@
       <c r="P334" s="22"/>
       <c r="U334" s="22"/>
     </row>
-    <row r="335" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="335" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A335" s="22" t="s">
         <v>628</v>
       </c>
@@ -24638,7 +24640,7 @@
       <c r="P335" s="22"/>
       <c r="U335" s="22"/>
     </row>
-    <row r="336" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="336" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A336" s="22" t="s">
         <v>629</v>
       </c>
@@ -24680,7 +24682,7 @@
       <c r="P336" s="22"/>
       <c r="U336" s="22"/>
     </row>
-    <row r="337" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="337" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A337" s="22" t="s">
         <v>630</v>
       </c>
@@ -24722,7 +24724,7 @@
       <c r="P337" s="22"/>
       <c r="U337" s="22"/>
     </row>
-    <row r="338" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="338" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A338" s="22" t="s">
         <v>631</v>
       </c>
@@ -24764,7 +24766,7 @@
       <c r="P338" s="22"/>
       <c r="U338" s="22"/>
     </row>
-    <row r="339" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="339" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A339" s="22" t="s">
         <v>632</v>
       </c>
@@ -24806,7 +24808,7 @@
       <c r="P339" s="22"/>
       <c r="U339" s="22"/>
     </row>
-    <row r="340" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="340" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A340" s="22" t="s">
         <v>633</v>
       </c>
@@ -24848,7 +24850,7 @@
       <c r="P340" s="22"/>
       <c r="U340" s="22"/>
     </row>
-    <row r="341" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="341" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A341" s="22" t="s">
         <v>634</v>
       </c>
@@ -24890,7 +24892,7 @@
       <c r="P341" s="22"/>
       <c r="U341" s="22"/>
     </row>
-    <row r="342" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="342" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A342" s="22" t="s">
         <v>635</v>
       </c>
@@ -24933,7 +24935,7 @@
       <c r="T342" s="25"/>
       <c r="U342" s="22"/>
     </row>
-    <row r="343" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="343" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A343" s="22" t="s">
         <v>636</v>
       </c>
@@ -24975,7 +24977,7 @@
       <c r="P343" s="22"/>
       <c r="U343" s="22"/>
     </row>
-    <row r="344" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="344" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A344" s="22" t="s">
         <v>637</v>
       </c>
@@ -25017,7 +25019,7 @@
       <c r="P344" s="22"/>
       <c r="U344" s="22"/>
     </row>
-    <row r="345" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="345" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A345" s="22" t="s">
         <v>638</v>
       </c>
@@ -25059,7 +25061,7 @@
       <c r="P345" s="22"/>
       <c r="U345" s="22"/>
     </row>
-    <row r="346" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="346" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A346" s="22" t="s">
         <v>639</v>
       </c>
@@ -25102,7 +25104,7 @@
       <c r="T346" s="25"/>
       <c r="U346" s="22"/>
     </row>
-    <row r="347" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="347" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A347" s="22" t="s">
         <v>640</v>
       </c>
@@ -25145,7 +25147,7 @@
       <c r="T347" s="25"/>
       <c r="U347" s="22"/>
     </row>
-    <row r="348" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="348" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A348" s="22" t="s">
         <v>641</v>
       </c>
@@ -25188,7 +25190,7 @@
       <c r="T348" s="25"/>
       <c r="U348" s="22"/>
     </row>
-    <row r="349" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="349" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A349" s="22" t="s">
         <v>642</v>
       </c>
@@ -25231,7 +25233,7 @@
       <c r="T349" s="25"/>
       <c r="U349" s="22"/>
     </row>
-    <row r="350" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="350" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A350" s="22" t="s">
         <v>643</v>
       </c>
@@ -25273,7 +25275,7 @@
       <c r="P350" s="22"/>
       <c r="U350" s="22"/>
     </row>
-    <row r="351" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="351" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A351" s="22" t="s">
         <v>644</v>
       </c>
@@ -25315,7 +25317,7 @@
       <c r="P351" s="22"/>
       <c r="U351" s="22"/>
     </row>
-    <row r="352" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="352" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A352" s="22" t="s">
         <v>645</v>
       </c>
@@ -25357,7 +25359,7 @@
       <c r="P352" s="22"/>
       <c r="U352" s="22"/>
     </row>
-    <row r="353" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="353" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A353" s="22" t="s">
         <v>646</v>
       </c>
@@ -25399,7 +25401,7 @@
       <c r="P353" s="22"/>
       <c r="U353" s="22"/>
     </row>
-    <row r="354" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="354" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A354" s="22" t="s">
         <v>647</v>
       </c>
@@ -25441,7 +25443,7 @@
       <c r="P354" s="22"/>
       <c r="U354" s="22"/>
     </row>
-    <row r="355" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="355" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A355" s="22" t="s">
         <v>648</v>
       </c>
@@ -25483,7 +25485,7 @@
       <c r="P355" s="22"/>
       <c r="U355" s="22"/>
     </row>
-    <row r="356" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="356" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A356" s="22" t="s">
         <v>649</v>
       </c>
@@ -25525,7 +25527,7 @@
       <c r="P356" s="22"/>
       <c r="U356" s="22"/>
     </row>
-    <row r="357" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="357" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A357" s="22" t="s">
         <v>650</v>
       </c>
@@ -25567,7 +25569,7 @@
       <c r="P357" s="22"/>
       <c r="U357" s="22"/>
     </row>
-    <row r="358" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="358" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A358" s="22" t="s">
         <v>651</v>
       </c>
@@ -25609,7 +25611,7 @@
       <c r="P358" s="22"/>
       <c r="U358" s="22"/>
     </row>
-    <row r="359" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="359" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A359" s="22" t="s">
         <v>652</v>
       </c>
@@ -25651,7 +25653,7 @@
       <c r="P359" s="22"/>
       <c r="U359" s="22"/>
     </row>
-    <row r="360" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="360" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A360" s="22" t="s">
         <v>653</v>
       </c>
@@ -25693,7 +25695,7 @@
       <c r="P360" s="22"/>
       <c r="U360" s="22"/>
     </row>
-    <row r="361" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="361" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A361" s="22" t="s">
         <v>654</v>
       </c>
@@ -25735,7 +25737,7 @@
       <c r="P361" s="22"/>
       <c r="U361" s="22"/>
     </row>
-    <row r="362" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="362" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A362" s="22" t="s">
         <v>655</v>
       </c>
@@ -25771,7 +25773,7 @@
       <c r="P362" s="22"/>
       <c r="U362" s="22"/>
     </row>
-    <row r="363" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="363" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A363" s="22" t="s">
         <v>656</v>
       </c>
@@ -25813,7 +25815,7 @@
       <c r="P363" s="22"/>
       <c r="U363" s="22"/>
     </row>
-    <row r="364" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="364" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A364" s="22" t="s">
         <v>657</v>
       </c>
@@ -25856,7 +25858,7 @@
       <c r="T364" s="25"/>
       <c r="U364" s="22"/>
     </row>
-    <row r="365" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="365" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A365" s="22" t="s">
         <v>658</v>
       </c>
@@ -25898,7 +25900,7 @@
       <c r="P365" s="22"/>
       <c r="U365" s="22"/>
     </row>
-    <row r="366" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="366" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A366" s="22" t="s">
         <v>659</v>
       </c>
@@ -25940,7 +25942,7 @@
       <c r="P366" s="22"/>
       <c r="U366" s="22"/>
     </row>
-    <row r="367" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="367" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A367" s="22" t="s">
         <v>660</v>
       </c>
@@ -25982,7 +25984,7 @@
       <c r="P367" s="22"/>
       <c r="U367" s="22"/>
     </row>
-    <row r="368" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="368" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A368" s="22" t="s">
         <v>661</v>
       </c>
@@ -26024,7 +26026,7 @@
       <c r="P368" s="22"/>
       <c r="U368" s="22"/>
     </row>
-    <row r="369" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="369" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A369" s="22" t="s">
         <v>662</v>
       </c>
@@ -26063,7 +26065,7 @@
       <c r="P369" s="22"/>
       <c r="U369" s="22"/>
     </row>
-    <row r="370" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="370" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A370" s="22" t="s">
         <v>663</v>
       </c>
@@ -26105,7 +26107,7 @@
       <c r="P370" s="22"/>
       <c r="U370" s="22"/>
     </row>
-    <row r="371" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="371" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A371" s="22" t="s">
         <v>664</v>
       </c>
@@ -26148,7 +26150,7 @@
       <c r="T371" s="25"/>
       <c r="U371" s="22"/>
     </row>
-    <row r="372" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="372" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A372" s="22" t="s">
         <v>665</v>
       </c>
@@ -26191,7 +26193,7 @@
       <c r="T372" s="25"/>
       <c r="U372" s="22"/>
     </row>
-    <row r="373" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="373" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A373" s="22" t="s">
         <v>666</v>
       </c>
@@ -26234,7 +26236,7 @@
       <c r="T373" s="25"/>
       <c r="U373" s="22"/>
     </row>
-    <row r="374" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="374" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A374" s="22" t="s">
         <v>667</v>
       </c>
@@ -26276,7 +26278,7 @@
       <c r="P374" s="22"/>
       <c r="U374" s="22"/>
     </row>
-    <row r="375" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="375" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A375" s="22" t="s">
         <v>668</v>
       </c>
@@ -26318,7 +26320,7 @@
       <c r="P375" s="22"/>
       <c r="U375" s="22"/>
     </row>
-    <row r="376" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="376" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A376" s="22" t="s">
         <v>669</v>
       </c>
@@ -26360,7 +26362,7 @@
       <c r="P376" s="22"/>
       <c r="U376" s="22"/>
     </row>
-    <row r="377" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="377" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A377" s="22" t="s">
         <v>670</v>
       </c>
@@ -26402,7 +26404,7 @@
       <c r="P377" s="22"/>
       <c r="U377" s="22"/>
     </row>
-    <row r="378" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="378" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A378" s="22" t="s">
         <v>671</v>
       </c>
@@ -26444,7 +26446,7 @@
       <c r="P378" s="22"/>
       <c r="U378" s="22"/>
     </row>
-    <row r="379" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="379" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A379" s="22" t="s">
         <v>672</v>
       </c>
@@ -26486,7 +26488,7 @@
       <c r="P379" s="22"/>
       <c r="U379" s="22"/>
     </row>
-    <row r="380" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="380" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A380" s="22" t="s">
         <v>673</v>
       </c>
@@ -26528,7 +26530,7 @@
       <c r="P380" s="22"/>
       <c r="U380" s="22"/>
     </row>
-    <row r="381" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="381" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A381" s="22" t="s">
         <v>674</v>
       </c>
@@ -26570,7 +26572,7 @@
       <c r="P381" s="22"/>
       <c r="U381" s="22"/>
     </row>
-    <row r="382" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="382" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A382" s="22" t="s">
         <v>675</v>
       </c>
@@ -26612,7 +26614,7 @@
       <c r="P382" s="22"/>
       <c r="U382" s="22"/>
     </row>
-    <row r="383" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="383" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A383" s="22" t="s">
         <v>676</v>
       </c>
@@ -26654,7 +26656,7 @@
       <c r="P383" s="22"/>
       <c r="U383" s="22"/>
     </row>
-    <row r="384" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="384" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A384" s="22" t="s">
         <v>677</v>
       </c>
@@ -26696,7 +26698,7 @@
       <c r="P384" s="22"/>
       <c r="U384" s="22"/>
     </row>
-    <row r="385" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="385" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A385" s="22" t="s">
         <v>678</v>
       </c>
@@ -26738,7 +26740,7 @@
       <c r="P385" s="22"/>
       <c r="U385" s="22"/>
     </row>
-    <row r="386" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="386" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A386" s="22" t="s">
         <v>679</v>
       </c>
@@ -26780,7 +26782,7 @@
       <c r="P386" s="22"/>
       <c r="U386" s="22"/>
     </row>
-    <row r="387" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="387" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A387" s="22" t="s">
         <v>680</v>
       </c>
@@ -26822,7 +26824,7 @@
       <c r="P387" s="22"/>
       <c r="U387" s="22"/>
     </row>
-    <row r="388" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="388" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A388" s="22" t="s">
         <v>681</v>
       </c>
@@ -26864,7 +26866,7 @@
       <c r="P388" s="22"/>
       <c r="U388" s="22"/>
     </row>
-    <row r="389" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="389" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A389" s="22" t="s">
         <v>682</v>
       </c>
@@ -26906,7 +26908,7 @@
       <c r="P389" s="22"/>
       <c r="U389" s="22"/>
     </row>
-    <row r="390" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="390" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A390" s="22" t="s">
         <v>683</v>
       </c>
@@ -26948,7 +26950,7 @@
       <c r="P390" s="22"/>
       <c r="U390" s="22"/>
     </row>
-    <row r="391" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="391" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A391" s="22" t="s">
         <v>684</v>
       </c>
@@ -26990,7 +26992,7 @@
       <c r="P391" s="22"/>
       <c r="U391" s="22"/>
     </row>
-    <row r="392" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="392" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A392" s="22" t="s">
         <v>685</v>
       </c>
@@ -27032,7 +27034,7 @@
       <c r="P392" s="22"/>
       <c r="U392" s="22"/>
     </row>
-    <row r="393" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="393" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A393" s="22" t="s">
         <v>686</v>
       </c>
@@ -27074,7 +27076,7 @@
       <c r="P393" s="22"/>
       <c r="U393" s="22"/>
     </row>
-    <row r="394" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="394" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A394" s="22" t="s">
         <v>687</v>
       </c>
@@ -27116,7 +27118,7 @@
       <c r="P394" s="22"/>
       <c r="U394" s="22"/>
     </row>
-    <row r="395" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="395" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A395" s="22" t="s">
         <v>688</v>
       </c>
@@ -27158,7 +27160,7 @@
       <c r="P395" s="22"/>
       <c r="U395" s="22"/>
     </row>
-    <row r="396" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="396" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A396" s="22" t="s">
         <v>689</v>
       </c>
@@ -27200,7 +27202,7 @@
       <c r="P396" s="22"/>
       <c r="U396" s="22"/>
     </row>
-    <row r="397" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="397" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A397" s="22" t="s">
         <v>690</v>
       </c>
@@ -27242,7 +27244,7 @@
       <c r="P397" s="22"/>
       <c r="U397" s="22"/>
     </row>
-    <row r="398" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="398" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A398" s="22" t="s">
         <v>691</v>
       </c>
@@ -27284,7 +27286,7 @@
       <c r="P398" s="22"/>
       <c r="U398" s="22"/>
     </row>
-    <row r="399" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="399" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A399" s="22" t="s">
         <v>692</v>
       </c>
@@ -27326,7 +27328,7 @@
       <c r="P399" s="22"/>
       <c r="U399" s="22"/>
     </row>
-    <row r="400" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="400" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A400" s="22" t="s">
         <v>693</v>
       </c>
@@ -27368,7 +27370,7 @@
       <c r="P400" s="22"/>
       <c r="U400" s="22"/>
     </row>
-    <row r="401" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="401" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A401" s="22" t="s">
         <v>694</v>
       </c>
@@ -27410,7 +27412,7 @@
       <c r="P401" s="22"/>
       <c r="U401" s="22"/>
     </row>
-    <row r="402" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="402" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A402" s="22" t="s">
         <v>695</v>
       </c>
@@ -27452,7 +27454,7 @@
       <c r="P402" s="22"/>
       <c r="U402" s="22"/>
     </row>
-    <row r="403" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="403" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A403" s="22" t="s">
         <v>696</v>
       </c>
@@ -27494,7 +27496,7 @@
       <c r="P403" s="22"/>
       <c r="U403" s="22"/>
     </row>
-    <row r="404" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="404" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A404" s="22" t="s">
         <v>697</v>
       </c>
@@ -27536,7 +27538,7 @@
       <c r="P404" s="22"/>
       <c r="U404" s="22"/>
     </row>
-    <row r="405" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="405" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A405" s="22" t="s">
         <v>698</v>
       </c>
@@ -27578,7 +27580,7 @@
       <c r="P405" s="22"/>
       <c r="U405" s="22"/>
     </row>
-    <row r="406" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="406" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A406" s="22" t="s">
         <v>699</v>
       </c>
@@ -27620,7 +27622,7 @@
       <c r="P406" s="22"/>
       <c r="U406" s="22"/>
     </row>
-    <row r="407" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="407" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A407" s="22" t="s">
         <v>700</v>
       </c>
@@ -27662,7 +27664,7 @@
       <c r="P407" s="22"/>
       <c r="U407" s="22"/>
     </row>
-    <row r="408" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="408" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A408" s="22" t="s">
         <v>701</v>
       </c>
@@ -27704,7 +27706,7 @@
       <c r="P408" s="22"/>
       <c r="U408" s="22"/>
     </row>
-    <row r="409" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="409" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A409" s="22" t="s">
         <v>702</v>
       </c>
@@ -27746,7 +27748,7 @@
       <c r="P409" s="22"/>
       <c r="U409" s="22"/>
     </row>
-    <row r="410" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="410" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A410" s="22" t="s">
         <v>703</v>
       </c>
@@ -27788,7 +27790,7 @@
       <c r="P410" s="22"/>
       <c r="U410" s="22"/>
     </row>
-    <row r="411" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="411" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A411" s="22" t="s">
         <v>704</v>
       </c>
@@ -27831,7 +27833,7 @@
       <c r="T411" s="25"/>
       <c r="U411" s="22"/>
     </row>
-    <row r="412" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="412" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A412" s="22" t="s">
         <v>705</v>
       </c>
@@ -27874,7 +27876,7 @@
       <c r="T412" s="25"/>
       <c r="U412" s="22"/>
     </row>
-    <row r="413" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="413" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A413" s="22" t="s">
         <v>706</v>
       </c>
@@ -27917,7 +27919,7 @@
       <c r="T413" s="25"/>
       <c r="U413" s="22"/>
     </row>
-    <row r="414" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="414" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A414" s="22" t="s">
         <v>705</v>
       </c>
@@ -27960,7 +27962,7 @@
       <c r="T414" s="25"/>
       <c r="U414" s="22"/>
     </row>
-    <row r="415" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="415" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A415" s="26" t="s">
         <v>756</v>
       </c>
@@ -28015,7 +28017,7 @@
         <v>46.504219055175781</v>
       </c>
     </row>
-    <row r="416" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="416" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A416" s="26" t="s">
         <v>757</v>
       </c>
@@ -28070,7 +28072,7 @@
         <v>47.249778747558594</v>
       </c>
     </row>
-    <row r="417" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="417" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A417" s="26" t="s">
         <v>726</v>
       </c>
@@ -28129,7 +28131,7 @@
         <v>47.013458251953125</v>
       </c>
     </row>
-    <row r="418" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="418" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A418" s="26" t="s">
         <v>727</v>
       </c>
@@ -28188,7 +28190,7 @@
         <v>47.910102844238281</v>
       </c>
     </row>
-    <row r="419" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="419" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A419" s="26" t="s">
         <v>758</v>
       </c>
@@ -28243,7 +28245,7 @@
         <v>46.813705444335938</v>
       </c>
     </row>
-    <row r="420" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="420" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A420" s="26" t="s">
         <v>733</v>
       </c>
@@ -28302,7 +28304,7 @@
         <v>47.471855163574219</v>
       </c>
     </row>
-    <row r="421" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="421" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A421" s="26" t="s">
         <v>759</v>
       </c>
@@ -28357,7 +28359,7 @@
         <v>49.896781921386719</v>
       </c>
     </row>
-    <row r="422" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="422" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A422" s="26" t="s">
         <v>760</v>
       </c>
@@ -28412,7 +28414,7 @@
         <v>48.87286376953125</v>
       </c>
     </row>
-    <row r="423" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="423" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A423" s="26" t="s">
         <v>761</v>
       </c>
@@ -28467,7 +28469,7 @@
         <v>49.282939910888672</v>
       </c>
     </row>
-    <row r="424" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="424" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A424" s="26" t="s">
         <v>762</v>
       </c>
@@ -28522,7 +28524,7 @@
         <v>49.107826232910156</v>
       </c>
     </row>
-    <row r="425" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="425" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A425" s="26" t="s">
         <v>763</v>
       </c>
@@ -28577,7 +28579,7 @@
         <v>49.317405700683594</v>
       </c>
     </row>
-    <row r="426" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="426" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A426" s="26" t="s">
         <v>764</v>
       </c>
@@ -28632,7 +28634,7 @@
         <v>49.925582885742188</v>
       </c>
     </row>
-    <row r="427" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="427" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A427" s="26" t="s">
         <v>765</v>
       </c>
@@ -28687,7 +28689,7 @@
         <v>46.900230407714844</v>
       </c>
     </row>
-    <row r="428" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="428" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A428" s="26" t="s">
         <v>766</v>
       </c>
@@ -28742,7 +28744,7 @@
         <v>47.921794891357422</v>
       </c>
     </row>
-    <row r="429" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="429" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A429" s="26" t="s">
         <v>725</v>
       </c>
@@ -28801,7 +28803,7 @@
         <v>47.444461822509766</v>
       </c>
     </row>
-    <row r="430" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="430" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A430" s="26" t="s">
         <v>737</v>
       </c>
@@ -28860,7 +28862,7 @@
         <v>47.812065124511719</v>
       </c>
     </row>
-    <row r="431" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="431" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A431" s="26" t="s">
         <v>767</v>
       </c>
@@ -28917,7 +28919,7 @@
         <v>47.713325500488281</v>
       </c>
     </row>
-    <row r="432" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="432" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A432" s="26" t="s">
         <v>768</v>
       </c>
@@ -28966,7 +28968,7 @@
         <v>46.914936065673828</v>
       </c>
     </row>
-    <row r="433" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="433" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A433" s="26" t="s">
         <v>728</v>
       </c>
@@ -29025,7 +29027,7 @@
         <v>50.832294464111328</v>
       </c>
     </row>
-    <row r="434" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="434" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A434" s="26" t="s">
         <v>730</v>
       </c>
@@ -29084,7 +29086,7 @@
         <v>47.927730560302734</v>
       </c>
     </row>
-    <row r="435" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="435" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A435" s="26" t="s">
         <v>717</v>
       </c>
@@ -29143,7 +29145,7 @@
         <v>50.644515991210938</v>
       </c>
     </row>
-    <row r="436" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="436" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A436" s="26" t="s">
         <v>732</v>
       </c>
@@ -29202,7 +29204,7 @@
         <v>49.819347381591797</v>
       </c>
     </row>
-    <row r="437" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="437" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A437" s="26" t="s">
         <v>769</v>
       </c>
@@ -29257,7 +29259,7 @@
         <v>48.676601409912109</v>
       </c>
     </row>
-    <row r="438" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="438" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A438" s="26" t="s">
         <v>731</v>
       </c>
@@ -29316,7 +29318,7 @@
         <v>47.606288909912109</v>
       </c>
     </row>
-    <row r="439" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="439" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A439" s="26" t="s">
         <v>770</v>
       </c>
@@ -29371,7 +29373,7 @@
         <v>48.831161499023438</v>
       </c>
     </row>
-    <row r="440" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="440" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A440" s="26" t="s">
         <v>771</v>
       </c>
@@ -29420,7 +29422,7 @@
         <v>47.127212524414062</v>
       </c>
     </row>
-    <row r="441" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="441" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A441" s="26" t="s">
         <v>772</v>
       </c>
@@ -29469,7 +29471,7 @@
         <v>47.913642883300781</v>
       </c>
     </row>
-    <row r="442" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="442" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A442" s="26" t="s">
         <v>773</v>
       </c>
@@ -29518,7 +29520,7 @@
         <v>47.210594177246094</v>
       </c>
     </row>
-    <row r="443" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="443" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A443" s="26" t="s">
         <v>774</v>
       </c>
@@ -29567,7 +29569,7 @@
         <v>46.864116668701172</v>
       </c>
     </row>
-    <row r="444" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="444" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A444" s="26" t="s">
         <v>775</v>
       </c>
@@ -29616,7 +29618,7 @@
         <v>46.447967529296875</v>
       </c>
     </row>
-    <row r="445" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="445" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A445" s="26" t="s">
         <v>776</v>
       </c>
@@ -29671,7 +29673,7 @@
         <v>46.119483947753906</v>
       </c>
     </row>
-    <row r="446" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="446" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A446" s="26" t="s">
         <v>777</v>
       </c>
@@ -29726,7 +29728,7 @@
         <v>47.021778106689453</v>
       </c>
     </row>
-    <row r="447" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="447" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A447" s="26" t="s">
         <v>778</v>
       </c>
@@ -29781,7 +29783,7 @@
         <v>46.668357849121094</v>
       </c>
     </row>
-    <row r="448" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="448" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A448" s="26" t="s">
         <v>779</v>
       </c>
@@ -29836,7 +29838,7 @@
         <v>46.436817169189453</v>
       </c>
     </row>
-    <row r="449" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="449" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A449" s="26" t="s">
         <v>780</v>
       </c>
@@ -29891,7 +29893,7 @@
         <v>46.316917419433594</v>
       </c>
     </row>
-    <row r="450" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="450" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A450" s="26" t="s">
         <v>781</v>
       </c>
@@ -29946,7 +29948,7 @@
         <v>47.411052703857422</v>
       </c>
     </row>
-    <row r="451" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="451" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A451" s="26" t="s">
         <v>782</v>
       </c>
@@ -30003,7 +30005,7 @@
         <v>47.471641540527344</v>
       </c>
     </row>
-    <row r="452" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="452" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A452" s="26" t="s">
         <v>783</v>
       </c>
@@ -30060,7 +30062,7 @@
         <v>47.90655517578125</v>
       </c>
     </row>
-    <row r="453" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="453" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A453" s="26" t="s">
         <v>784</v>
       </c>
@@ -30115,7 +30117,7 @@
         <v>47.509220123291016</v>
       </c>
     </row>
-    <row r="454" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="454" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A454" s="26" t="s">
         <v>785</v>
       </c>
@@ -30170,7 +30172,7 @@
         <v>47.105663299560547</v>
       </c>
     </row>
-    <row r="455" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="455" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A455" s="26" t="s">
         <v>786</v>
       </c>
@@ -30225,7 +30227,7 @@
         <v>47.228816986083984</v>
       </c>
     </row>
-    <row r="456" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="456" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A456" s="26" t="s">
         <v>787</v>
       </c>
@@ -30278,7 +30280,7 @@
         <v>45.514572143554688</v>
       </c>
     </row>
-    <row r="457" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="457" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A457" s="26" t="s">
         <v>736</v>
       </c>
@@ -30337,7 +30339,7 @@
         <v>46.22808837890625</v>
       </c>
     </row>
-    <row r="458" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="458" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A458" s="26" t="s">
         <v>788</v>
       </c>
@@ -30392,7 +30394,7 @@
         <v>45.234603881835938</v>
       </c>
     </row>
-    <row r="459" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="459" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A459" s="26" t="s">
         <v>789</v>
       </c>
@@ -30441,7 +30443,7 @@
         <v>45.050449371337891</v>
       </c>
     </row>
-    <row r="460" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="460" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A460" s="26" t="s">
         <v>790</v>
       </c>
@@ -30490,7 +30492,7 @@
         <v>44.044944763183594</v>
       </c>
     </row>
-    <row r="461" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="461" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A461" s="26" t="s">
         <v>791</v>
       </c>
@@ -30537,7 +30539,7 @@
         <v>44.012218475341797</v>
       </c>
     </row>
-    <row r="462" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="462" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A462" s="26" t="s">
         <v>792</v>
       </c>
@@ -30586,7 +30588,7 @@
         <v>44.17901611328125</v>
       </c>
     </row>
-    <row r="463" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="463" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A463" s="26" t="s">
         <v>793</v>
       </c>
@@ -30635,7 +30637,7 @@
         <v>45.044589996337891</v>
       </c>
     </row>
-    <row r="464" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="464" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A464" s="26" t="s">
         <v>794</v>
       </c>
@@ -30684,7 +30686,7 @@
         <v>45.255538940429688</v>
       </c>
     </row>
-    <row r="465" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="465" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A465" s="26" t="s">
         <v>795</v>
       </c>
@@ -30739,7 +30741,7 @@
         <v>46.899845123291016</v>
       </c>
     </row>
-    <row r="466" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="466" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A466" s="26" t="s">
         <v>796</v>
       </c>
@@ -30794,7 +30796,7 @@
         <v>46.445976257324219</v>
       </c>
     </row>
-    <row r="467" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="467" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A467" s="26" t="s">
         <v>718</v>
       </c>
@@ -30851,7 +30853,7 @@
         <v>46.869121551513672</v>
       </c>
     </row>
-    <row r="468" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="468" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A468" s="26" t="s">
         <v>797</v>
       </c>
@@ -30908,7 +30910,7 @@
         <v>46.753223419189453</v>
       </c>
     </row>
-    <row r="469" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="469" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A469" s="26" t="s">
         <v>798</v>
       </c>
@@ -30965,7 +30967,7 @@
         <v>46.504138946533203</v>
       </c>
     </row>
-    <row r="470" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="470" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A470" s="26" t="s">
         <v>799</v>
       </c>
@@ -31022,7 +31024,7 @@
         <v>45.175601959228516</v>
       </c>
     </row>
-    <row r="471" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="471" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A471" s="26" t="s">
         <v>714</v>
       </c>
@@ -31081,7 +31083,7 @@
         <v>47.221279144287109</v>
       </c>
     </row>
-    <row r="472" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="472" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A472" s="26" t="s">
         <v>800</v>
       </c>
@@ -31136,7 +31138,7 @@
         <v>47.057445526123047</v>
       </c>
     </row>
-    <row r="473" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="473" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A473" s="26" t="s">
         <v>801</v>
       </c>
@@ -31191,7 +31193,7 @@
         <v>48.099262237548828</v>
       </c>
     </row>
-    <row r="474" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="474" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A474" s="26" t="s">
         <v>802</v>
       </c>
@@ -31246,7 +31248,7 @@
         <v>47.785682678222656</v>
       </c>
     </row>
-    <row r="475" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="475" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A475" s="26" t="s">
         <v>803</v>
       </c>
@@ -31301,7 +31303,7 @@
         <v>47.690925598144531</v>
       </c>
     </row>
-    <row r="476" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="476" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A476" s="26" t="s">
         <v>804</v>
       </c>
@@ -31356,7 +31358,7 @@
         <v>47.661865234375</v>
       </c>
     </row>
-    <row r="477" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="477" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A477" s="26" t="s">
         <v>805</v>
       </c>
@@ -31411,7 +31413,7 @@
         <v>47.976593017578125</v>
       </c>
     </row>
-    <row r="478" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="478" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A478" s="26" t="s">
         <v>806</v>
       </c>
@@ -31466,7 +31468,7 @@
         <v>44.866504669189453</v>
       </c>
     </row>
-    <row r="479" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="479" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A479" s="26" t="s">
         <v>807</v>
       </c>
@@ -31521,7 +31523,7 @@
         <v>45.626701354980469</v>
       </c>
     </row>
-    <row r="480" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="480" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A480" s="26" t="s">
         <v>808</v>
       </c>
@@ -31576,7 +31578,7 @@
         <v>46.408428192138672</v>
       </c>
     </row>
-    <row r="481" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="481" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A481" s="26" t="s">
         <v>809</v>
       </c>
@@ -31631,7 +31633,7 @@
         <v>45.691715240478516</v>
       </c>
     </row>
-    <row r="482" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="482" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A482" s="26" t="s">
         <v>810</v>
       </c>
@@ -31686,7 +31688,7 @@
         <v>44.831638336181641</v>
       </c>
     </row>
-    <row r="483" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="483" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A483" s="26" t="s">
         <v>811</v>
       </c>
@@ -31741,7 +31743,7 @@
         <v>45.345321655273438</v>
       </c>
     </row>
-    <row r="484" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="484" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A484" s="26" t="s">
         <v>716</v>
       </c>
@@ -31800,7 +31802,7 @@
         <v>49.407119750976562</v>
       </c>
     </row>
-    <row r="485" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="485" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A485" s="26" t="s">
         <v>720</v>
       </c>
@@ -31859,7 +31861,7 @@
         <v>49.495273590087891</v>
       </c>
     </row>
-    <row r="486" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="486" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A486" s="26" t="s">
         <v>812</v>
       </c>
@@ -31914,7 +31916,7 @@
         <v>50.404838562011719</v>
       </c>
     </row>
-    <row r="487" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="487" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A487" s="26" t="s">
         <v>708</v>
       </c>
@@ -31973,7 +31975,7 @@
         <v>48.855987548828125</v>
       </c>
     </row>
-    <row r="488" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="488" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A488" s="26" t="s">
         <v>813</v>
       </c>
@@ -32028,7 +32030,7 @@
         <v>49.152496337890625</v>
       </c>
     </row>
-    <row r="489" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="489" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A489" s="26" t="s">
         <v>710</v>
       </c>
@@ -32087,7 +32089,7 @@
         <v>49.416854858398438</v>
       </c>
     </row>
-    <row r="490" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="490" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A490" s="26" t="s">
         <v>814</v>
       </c>
@@ -32142,7 +32144,7 @@
         <v>52.407707214355469</v>
       </c>
     </row>
-    <row r="491" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="491" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A491" s="26" t="s">
         <v>815</v>
       </c>
@@ -32197,7 +32199,7 @@
         <v>53.471836090087891</v>
       </c>
     </row>
-    <row r="492" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="492" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A492" s="26" t="s">
         <v>816</v>
       </c>
@@ -32252,7 +32254,7 @@
         <v>53.378993988037109</v>
       </c>
     </row>
-    <row r="493" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="493" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A493" s="26" t="s">
         <v>817</v>
       </c>
@@ -32307,7 +32309,7 @@
         <v>53.616657257080078</v>
       </c>
     </row>
-    <row r="494" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="494" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A494" s="26" t="s">
         <v>818</v>
       </c>
@@ -32362,7 +32364,7 @@
         <v>54.204105377197266</v>
       </c>
     </row>
-    <row r="495" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="495" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A495" s="26" t="s">
         <v>819</v>
       </c>
@@ -32417,7 +32419,7 @@
         <v>53.904201507568359</v>
       </c>
     </row>
-    <row r="496" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="496" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A496" s="26" t="s">
         <v>820</v>
       </c>
@@ -32472,7 +32474,7 @@
         <v>45.071773529052734</v>
       </c>
     </row>
-    <row r="497" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="497" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A497" s="26" t="s">
         <v>821</v>
       </c>
@@ -32525,7 +32527,7 @@
         <v>45.908878326416016</v>
       </c>
     </row>
-    <row r="498" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="498" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A498" s="26" t="s">
         <v>822</v>
       </c>
@@ -32574,7 +32576,7 @@
         <v>45.367847442626953</v>
       </c>
     </row>
-    <row r="499" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="499" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A499" s="26" t="s">
         <v>823</v>
       </c>
@@ -32629,7 +32631,7 @@
         <v>45.501029968261719</v>
       </c>
     </row>
-    <row r="500" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="500" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A500" s="26" t="s">
         <v>824</v>
       </c>
@@ -32678,7 +32680,7 @@
         <v>44.522567749023438</v>
       </c>
     </row>
-    <row r="501" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="501" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A501" s="26" t="s">
         <v>825</v>
       </c>
@@ -32727,7 +32729,7 @@
         <v>45.018909454345703</v>
       </c>
     </row>
-    <row r="502" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="502" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A502" s="26" t="s">
         <v>826</v>
       </c>
@@ -32782,7 +32784,7 @@
         <v>50.332965850830078</v>
       </c>
     </row>
-    <row r="503" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="503" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A503" s="26" t="s">
         <v>827</v>
       </c>
@@ -32837,7 +32839,7 @@
         <v>49.529426574707031</v>
       </c>
     </row>
-    <row r="504" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="504" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A504" s="26" t="s">
         <v>828</v>
       </c>
@@ -32892,7 +32894,7 @@
         <v>51.126293182373047</v>
       </c>
     </row>
-    <row r="505" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="505" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A505" s="26" t="s">
         <v>829</v>
       </c>
@@ -32947,7 +32949,7 @@
         <v>44.654010772705078</v>
       </c>
     </row>
-    <row r="506" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="506" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A506" s="26" t="s">
         <v>830</v>
       </c>
@@ -32996,7 +32998,7 @@
         <v>50.964508056640625</v>
       </c>
     </row>
-    <row r="507" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="507" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A507" s="26" t="s">
         <v>831</v>
       </c>
@@ -33043,7 +33045,7 @@
         <v>51.009674072265625</v>
       </c>
     </row>
-    <row r="508" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="508" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A508" s="26" t="s">
         <v>832</v>
       </c>
@@ -33098,7 +33100,7 @@
         <v>49.424354553222656</v>
       </c>
     </row>
-    <row r="509" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="509" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A509" s="26" t="s">
         <v>833</v>
       </c>
@@ -33153,7 +33155,7 @@
         <v>51.437549591064453</v>
       </c>
     </row>
-    <row r="510" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="510" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A510" s="26" t="s">
         <v>834</v>
       </c>
@@ -33208,7 +33210,7 @@
         <v>49.278923034667969</v>
       </c>
     </row>
-    <row r="511" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="511" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A511" s="26" t="s">
         <v>835</v>
       </c>
@@ -33263,7 +33265,7 @@
         <v>51.311775207519531</v>
       </c>
     </row>
-    <row r="512" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="512" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A512" s="26" t="s">
         <v>836</v>
       </c>
@@ -33318,7 +33320,7 @@
         <v>51.053848266601562</v>
       </c>
     </row>
-    <row r="513" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="513" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A513" s="26" t="s">
         <v>837</v>
       </c>
@@ -33375,7 +33377,7 @@
         <v>49.078205108642578</v>
       </c>
     </row>
-    <row r="514" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="514" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A514" s="26" t="s">
         <v>838</v>
       </c>
@@ -33430,7 +33432,7 @@
         <v>50.175323486328125</v>
       </c>
     </row>
-    <row r="515" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="515" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A515" s="26" t="s">
         <v>839</v>
       </c>
@@ -33485,7 +33487,7 @@
         <v>51.059253692626953</v>
       </c>
     </row>
-    <row r="516" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="516" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A516" s="26" t="s">
         <v>840</v>
       </c>
@@ -33540,7 +33542,7 @@
         <v>50.959335327148438</v>
       </c>
     </row>
-    <row r="517" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="517" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A517" s="26" t="s">
         <v>841</v>
       </c>
@@ -33597,7 +33599,7 @@
         <v>50.795654296875</v>
       </c>
     </row>
-    <row r="518" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="518" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A518" s="26" t="s">
         <v>842</v>
       </c>
@@ -33646,7 +33648,7 @@
         <v>49.752334594726562</v>
       </c>
     </row>
-    <row r="519" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="519" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A519" s="26" t="s">
         <v>843</v>
       </c>
@@ -33695,7 +33697,7 @@
         <v>48.866832733154297</v>
       </c>
     </row>
-    <row r="520" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="520" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A520" s="26" t="s">
         <v>844</v>
       </c>
@@ -33750,7 +33752,7 @@
         <v>48.024559020996094</v>
       </c>
     </row>
-    <row r="521" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="521" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A521" s="26" t="s">
         <v>845</v>
       </c>
@@ -33805,7 +33807,7 @@
         <v>48.430690765380859</v>
       </c>
     </row>
-    <row r="522" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="522" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A522" s="26" t="s">
         <v>738</v>
       </c>
@@ -33864,7 +33866,7 @@
         <v>50.561370849609375</v>
       </c>
     </row>
-    <row r="523" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="523" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A523" s="26" t="s">
         <v>846</v>
       </c>
@@ -33919,7 +33921,7 @@
         <v>49.121337890625</v>
       </c>
     </row>
-    <row r="524" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="524" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A524" s="26" t="s">
         <v>847</v>
       </c>
@@ -33974,7 +33976,7 @@
         <v>49.883686065673828</v>
       </c>
     </row>
-    <row r="525" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="525" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A525" s="26" t="s">
         <v>848</v>
       </c>
@@ -34029,7 +34031,7 @@
         <v>49.224933624267578</v>
       </c>
     </row>
-    <row r="526" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="526" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A526" s="26" t="s">
         <v>849</v>
       </c>
@@ -34080,7 +34082,7 @@
         <v>49.3494873046875</v>
       </c>
     </row>
-    <row r="527" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="527" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A527" s="26" t="s">
         <v>850</v>
       </c>
@@ -34133,7 +34135,7 @@
         <v>49.224231719970703</v>
       </c>
     </row>
-    <row r="528" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="528" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A528" s="26" t="s">
         <v>721</v>
       </c>
@@ -34192,7 +34194,7 @@
         <v>50.121871948242188</v>
       </c>
     </row>
-    <row r="529" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="529" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A529" s="26" t="s">
         <v>851</v>
       </c>
@@ -34247,7 +34249,7 @@
         <v>48.436553955078125</v>
       </c>
     </row>
-    <row r="530" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="530" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A530" s="26" t="s">
         <v>852</v>
       </c>
@@ -34302,7 +34304,7 @@
         <v>48.713176727294922</v>
       </c>
     </row>
-    <row r="531" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="531" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A531" s="26" t="s">
         <v>853</v>
       </c>
@@ -34357,7 +34359,7 @@
         <v>48.853618621826172</v>
       </c>
     </row>
-    <row r="532" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="532" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A532" s="26" t="s">
         <v>854</v>
       </c>
@@ -34406,7 +34408,7 @@
         <v>49.761692047119141</v>
       </c>
     </row>
-    <row r="533" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="533" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A533" s="26" t="s">
         <v>855</v>
       </c>
@@ -34455,7 +34457,7 @@
         <v>46.463855743408203</v>
       </c>
     </row>
-    <row r="534" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="534" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A534" s="26" t="s">
         <v>856</v>
       </c>
@@ -34504,7 +34506,7 @@
         <v>45.715484619140625</v>
       </c>
     </row>
-    <row r="535" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="535" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A535" s="26" t="s">
         <v>857</v>
       </c>
@@ -34553,7 +34555,7 @@
         <v>46.275470733642578</v>
       </c>
     </row>
-    <row r="536" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="536" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A536" s="26" t="s">
         <v>858</v>
       </c>
@@ -34602,7 +34604,7 @@
         <v>45.367473602294922</v>
       </c>
     </row>
-    <row r="537" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="537" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A537" s="26" t="s">
         <v>859</v>
       </c>
@@ -34657,7 +34659,7 @@
         <v>46.248783111572266</v>
       </c>
     </row>
-    <row r="538" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="538" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A538" s="26" t="s">
         <v>723</v>
       </c>
@@ -34716,7 +34718,7 @@
         <v>49.074092864990234</v>
       </c>
     </row>
-    <row r="539" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="539" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A539" s="26" t="s">
         <v>724</v>
       </c>
@@ -34775,7 +34777,7 @@
         <v>48.106792449951172</v>
       </c>
     </row>
-    <row r="540" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="540" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A540" s="26" t="s">
         <v>860</v>
       </c>
@@ -34830,7 +34832,7 @@
         <v>49.087989807128906</v>
       </c>
     </row>
-    <row r="541" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="541" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A541" s="26" t="s">
         <v>719</v>
       </c>
@@ -34889,7 +34891,7 @@
         <v>48.16595458984375</v>
       </c>
     </row>
-    <row r="542" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="542" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A542" s="26" t="s">
         <v>715</v>
       </c>
@@ -34948,7 +34950,7 @@
         <v>49.467506408691406</v>
       </c>
     </row>
-    <row r="543" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="543" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A543" s="26" t="s">
         <v>734</v>
       </c>
@@ -35007,7 +35009,7 @@
         <v>49.201316833496094</v>
       </c>
     </row>
-    <row r="544" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="544" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A544" s="26" t="s">
         <v>861</v>
       </c>
@@ -35062,7 +35064,7 @@
         <v>49.467727661132812</v>
       </c>
     </row>
-    <row r="545" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="545" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A545" s="26" t="s">
         <v>862</v>
       </c>
@@ -35117,7 +35119,7 @@
         <v>47.352935791015625</v>
       </c>
     </row>
-    <row r="546" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="546" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A546" s="26" t="s">
         <v>863</v>
       </c>
@@ -35172,7 +35174,7 @@
         <v>48.549995422363281</v>
       </c>
     </row>
-    <row r="547" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="547" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A547" s="26" t="s">
         <v>864</v>
       </c>
@@ -35227,7 +35229,7 @@
         <v>49.611007690429688</v>
       </c>
     </row>
-    <row r="548" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="548" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A548" s="26" t="s">
         <v>865</v>
       </c>
@@ -35282,7 +35284,7 @@
         <v>51.05950927734375</v>
       </c>
     </row>
-    <row r="549" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="549" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A549" s="26" t="s">
         <v>866</v>
       </c>
@@ -35337,7 +35339,7 @@
         <v>51.005580902099609</v>
       </c>
     </row>
-    <row r="550" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="550" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A550" s="26" t="s">
         <v>867</v>
       </c>
@@ -35392,7 +35394,7 @@
         <v>50.535247802734375</v>
       </c>
     </row>
-    <row r="551" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="551" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A551" s="26" t="s">
         <v>868</v>
       </c>
@@ -35443,7 +35445,7 @@
         <v>49.712066650390625</v>
       </c>
     </row>
-    <row r="552" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="552" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A552" s="26" t="s">
         <v>869</v>
       </c>
@@ -35492,7 +35494,7 @@
         <v>49.682098388671875</v>
       </c>
     </row>
-    <row r="553" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="553" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A553" s="26" t="s">
         <v>739</v>
       </c>
@@ -35551,7 +35553,7 @@
         <v>46.613964080810547</v>
       </c>
     </row>
-    <row r="554" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="554" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A554" s="26" t="s">
         <v>870</v>
       </c>
@@ -35606,7 +35608,7 @@
         <v>43.113986968994141</v>
       </c>
     </row>
-    <row r="555" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="555" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A555" s="26" t="s">
         <v>735</v>
       </c>
@@ -35665,7 +35667,7 @@
         <v>46.352901458740234</v>
       </c>
     </row>
-    <row r="556" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="556" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A556" s="26" t="s">
         <v>722</v>
       </c>
@@ -35724,7 +35726,7 @@
         <v>45.919822692871094</v>
       </c>
     </row>
-    <row r="557" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="557" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A557" s="26" t="s">
         <v>871</v>
       </c>
@@ -35771,7 +35773,7 @@
         <v>45.353404998779297</v>
       </c>
     </row>
-    <row r="558" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="558" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A558" s="26" t="s">
         <v>729</v>
       </c>
@@ -35824,7 +35826,7 @@
         <v>46.785659790039062</v>
       </c>
     </row>
-    <row r="559" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="559" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A559" s="26" t="s">
         <v>872</v>
       </c>
@@ -35879,7 +35881,7 @@
         <v>45.251754760742188</v>
       </c>
     </row>
-    <row r="560" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="560" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A560" s="26" t="s">
         <v>873</v>
       </c>
@@ -35934,7 +35936,7 @@
         <v>50.603302001953125</v>
       </c>
     </row>
-    <row r="561" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="561" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A561" s="26" t="s">
         <v>874</v>
       </c>
@@ -35989,7 +35991,7 @@
         <v>48.506248474121094</v>
       </c>
     </row>
-    <row r="562" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="562" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A562" s="26" t="s">
         <v>875</v>
       </c>
@@ -36044,7 +36046,7 @@
         <v>50.214302062988281</v>
       </c>
     </row>
-    <row r="563" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="563" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A563" s="26" t="s">
         <v>876</v>
       </c>
@@ -36099,7 +36101,7 @@
         <v>49.983024597167969</v>
       </c>
     </row>
-    <row r="564" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="564" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A564" s="26" t="s">
         <v>877</v>
       </c>
@@ -36154,7 +36156,7 @@
         <v>49.971355438232422</v>
       </c>
     </row>
-    <row r="565" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="565" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A565" s="26" t="s">
         <v>878</v>
       </c>
@@ -36209,7 +36211,7 @@
         <v>49.982532501220703</v>
       </c>
     </row>
-    <row r="566" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="566" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A566" s="26" t="s">
         <v>879</v>
       </c>
@@ -36264,7 +36266,7 @@
         <v>49.278709411621094</v>
       </c>
     </row>
-    <row r="567" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="567" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A567" s="26" t="s">
         <v>880</v>
       </c>
@@ -36315,7 +36317,7 @@
         <v>48.560085296630859</v>
       </c>
     </row>
-    <row r="568" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="568" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A568" s="26" t="s">
         <v>711</v>
       </c>
@@ -36374,7 +36376,7 @@
         <v>50.170482635498047</v>
       </c>
     </row>
-    <row r="569" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="569" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A569" s="26" t="s">
         <v>881</v>
       </c>
@@ -36429,7 +36431,7 @@
         <v>49.0501708984375</v>
       </c>
     </row>
-    <row r="570" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="570" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A570" s="26" t="s">
         <v>882</v>
       </c>
@@ -36484,7 +36486,7 @@
         <v>49.969120025634766</v>
       </c>
     </row>
-    <row r="571" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="571" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A571" s="26" t="s">
         <v>712</v>
       </c>
@@ -36543,7 +36545,7 @@
         <v>48.561668395996094</v>
       </c>
     </row>
-    <row r="572" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="572" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A572" s="26" t="s">
         <v>883</v>
       </c>
@@ -36600,7 +36602,7 @@
         <v>47.398250579833984</v>
       </c>
     </row>
-    <row r="573" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="573" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A573" s="26" t="s">
         <v>884</v>
       </c>
@@ -36655,7 +36657,7 @@
         <v>47.717971801757812</v>
       </c>
     </row>
-    <row r="574" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="574" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A574" s="26" t="s">
         <v>885</v>
       </c>
@@ -36710,7 +36712,7 @@
         <v>48.0804443359375</v>
       </c>
     </row>
-    <row r="575" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="575" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A575" s="26" t="s">
         <v>886</v>
       </c>
@@ -36765,7 +36767,7 @@
         <v>47.190845489501953</v>
       </c>
     </row>
-    <row r="576" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="576" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A576" s="26" t="s">
         <v>887</v>
       </c>
@@ -36820,7 +36822,7 @@
         <v>46.551116943359375</v>
       </c>
     </row>
-    <row r="577" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="577" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A577" s="26" t="s">
         <v>888</v>
       </c>
@@ -36875,7 +36877,7 @@
         <v>47.977687835693359</v>
       </c>
     </row>
-    <row r="578" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="578" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A578" s="26" t="s">
         <v>317</v>
       </c>
@@ -36928,7 +36930,7 @@
         <v>49.052486419677734</v>
       </c>
     </row>
-    <row r="579" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="579" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A579" s="26" t="s">
         <v>314</v>
       </c>
@@ -36981,7 +36983,7 @@
         <v>46.2130394</v>
       </c>
     </row>
-    <row r="580" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="580" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A580" s="26" t="s">
         <v>315</v>
       </c>
@@ -37034,7 +37036,7 @@
         <v>46.568904879999998</v>
       </c>
     </row>
-    <row r="581" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="581" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A581" s="26" t="s">
         <v>316</v>
       </c>
@@ -37089,7 +37091,7 @@
         <v>47.341175079999999</v>
       </c>
     </row>
-    <row r="582" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="582" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A582" s="26" t="s">
         <v>318</v>
       </c>
@@ -37144,7 +37146,7 @@
         <v>49.218467712402344</v>
       </c>
     </row>
-    <row r="583" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="583" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A583" s="26" t="s">
         <v>312</v>
       </c>
@@ -37197,7 +37199,7 @@
         <v>48.557830810546875</v>
       </c>
     </row>
-    <row r="584" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="584" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A584" s="26" t="s">
         <v>319</v>
       </c>
@@ -37252,7 +37254,7 @@
         <v>49.051891326904297</v>
       </c>
     </row>
-    <row r="585" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="585" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A585" s="26" t="s">
         <v>320</v>
       </c>
@@ -37305,7 +37307,7 @@
         <v>49.345607757568359</v>
       </c>
     </row>
-    <row r="586" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="586" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A586" s="26" t="s">
         <v>321</v>
       </c>
@@ -37360,7 +37362,7 @@
         <v>49.125007629394531</v>
       </c>
     </row>
-    <row r="587" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="587" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A587" s="26" t="s">
         <v>322</v>
       </c>
@@ -37413,7 +37415,7 @@
         <v>48.561359405517578</v>
       </c>
     </row>
-    <row r="588" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="588" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A588" s="26" t="s">
         <v>323</v>
       </c>
@@ -37466,7 +37468,7 @@
         <v>47.716403961181641</v>
       </c>
     </row>
-    <row r="589" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="589" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A589" s="26" t="s">
         <v>328</v>
       </c>
@@ -37519,7 +37521,7 @@
         <v>48.258674621582031</v>
       </c>
     </row>
-    <row r="590" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="590" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A590" s="26" t="s">
         <v>325</v>
       </c>
@@ -37572,7 +37574,7 @@
         <v>47.735332489013672</v>
       </c>
     </row>
-    <row r="591" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="591" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A591" s="26" t="s">
         <v>326</v>
       </c>
@@ -37627,7 +37629,7 @@
         <v>48.199459075927734</v>
       </c>
     </row>
-    <row r="592" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="592" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A592" s="26" t="s">
         <v>327</v>
       </c>
@@ -37680,7 +37682,7 @@
         <v>48.538341522216797</v>
       </c>
     </row>
-    <row r="593" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="593" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A593" s="26" t="s">
         <v>329</v>
       </c>
@@ -37733,7 +37735,7 @@
         <v>47.500476837158203</v>
       </c>
     </row>
-    <row r="594" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="594" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A594" s="26" t="s">
         <v>324</v>
       </c>
@@ -37786,7 +37788,7 @@
         <v>49.263923645019531</v>
       </c>
     </row>
-    <row r="595" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="595" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A595" s="26" t="s">
         <v>333</v>
       </c>
@@ -37839,7 +37841,7 @@
         <v>50.071628570556641</v>
       </c>
     </row>
-    <row r="596" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="596" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A596" s="26" t="s">
         <v>334</v>
       </c>
@@ -37892,7 +37894,7 @@
         <v>49.7767333984375</v>
       </c>
     </row>
-    <row r="597" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="597" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A597" s="26" t="s">
         <v>335</v>
       </c>
@@ -37949,7 +37951,7 @@
         <v>50.925487518310547</v>
       </c>
     </row>
-    <row r="598" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="598" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A598" s="26" t="s">
         <v>330</v>
       </c>
@@ -38006,7 +38008,7 @@
         <v>49.426540374755859</v>
       </c>
     </row>
-    <row r="599" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="599" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A599" s="26" t="s">
         <v>331</v>
       </c>
@@ -38061,7 +38063,7 @@
         <v>48.925716400146484</v>
       </c>
     </row>
-    <row r="600" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="600" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A600" s="26" t="s">
         <v>332</v>
       </c>
@@ -38114,7 +38116,7 @@
         <v>48.61175537109375</v>
       </c>
     </row>
-    <row r="601" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="601" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A601" s="26" t="s">
         <v>336</v>
       </c>
@@ -38167,7 +38169,7 @@
         <v>48.329219818115234</v>
       </c>
     </row>
-    <row r="602" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="602" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A602" s="26" t="s">
         <v>337</v>
       </c>
@@ -38220,7 +38222,7 @@
         <v>47.174858093261719</v>
       </c>
     </row>
-    <row r="603" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="603" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A603" s="26" t="s">
         <v>338</v>
       </c>
@@ -38273,7 +38275,7 @@
         <v>46.634689331054688</v>
       </c>
     </row>
-    <row r="604" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="604" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A604" s="26" t="s">
         <v>339</v>
       </c>
@@ -38326,7 +38328,7 @@
         <v>45.247032165527344</v>
       </c>
     </row>
-    <row r="605" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="605" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A605" s="26" t="s">
         <v>340</v>
       </c>
@@ -38379,7 +38381,7 @@
         <v>47.905838012695312</v>
       </c>
     </row>
-    <row r="606" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="606" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A606" s="26" t="s">
         <v>740</v>
       </c>
@@ -38428,7 +38430,7 @@
         <v>48.144386291503906</v>
       </c>
     </row>
-    <row r="607" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="607" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A607" s="26" t="s">
         <v>341</v>
       </c>
@@ -38481,7 +38483,7 @@
         <v>47.461299896240234</v>
       </c>
     </row>
-    <row r="608" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="608" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A608" s="26" t="s">
         <v>342</v>
       </c>
@@ -38534,7 +38536,7 @@
         <v>48.000148773193359</v>
       </c>
     </row>
-    <row r="609" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="609" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A609" s="26" t="s">
         <v>343</v>
       </c>
@@ -38589,7 +38591,7 @@
         <v>48.887962341308594</v>
       </c>
     </row>
-    <row r="610" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="610" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A610" s="26" t="s">
         <v>344</v>
       </c>
@@ -38642,7 +38644,7 @@
         <v>47.566974639892578</v>
       </c>
     </row>
-    <row r="611" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="611" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A611" s="26" t="s">
         <v>345</v>
       </c>
@@ -38695,7 +38697,7 @@
         <v>48.381656646728516</v>
       </c>
     </row>
-    <row r="612" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="612" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A612" s="26" t="s">
         <v>346</v>
       </c>
@@ -38748,7 +38750,7 @@
         <v>49.101116180419922</v>
       </c>
     </row>
-    <row r="613" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="613" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A613" s="26" t="s">
         <v>351</v>
       </c>
@@ -38801,7 +38803,7 @@
         <v>47.581733703613281</v>
       </c>
     </row>
-    <row r="614" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="614" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A614" s="26" t="s">
         <v>352</v>
       </c>
@@ -38854,7 +38856,7 @@
         <v>47.170574188232422</v>
       </c>
     </row>
-    <row r="615" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="615" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A615" s="26" t="s">
         <v>347</v>
       </c>
@@ -38907,7 +38909,7 @@
         <v>48.271633148193359</v>
       </c>
     </row>
-    <row r="616" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="616" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A616" s="26" t="s">
         <v>348</v>
       </c>
@@ -38960,7 +38962,7 @@
         <v>47.706356048583984</v>
       </c>
     </row>
-    <row r="617" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="617" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A617" s="26" t="s">
         <v>349</v>
       </c>
@@ -39013,7 +39015,7 @@
         <v>45.971992492675781</v>
       </c>
     </row>
-    <row r="618" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="618" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A618" s="26" t="s">
         <v>350</v>
       </c>
@@ -39068,7 +39070,7 @@
         <v>47.788066864013672</v>
       </c>
     </row>
-    <row r="619" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="619" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A619" s="26" t="s">
         <v>353</v>
       </c>
@@ -39121,7 +39123,7 @@
         <v>45.730186459999999</v>
       </c>
     </row>
-    <row r="620" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="620" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A620" s="26" t="s">
         <v>354</v>
       </c>
@@ -39174,7 +39176,7 @@
         <v>46.23198318</v>
       </c>
     </row>
-    <row r="621" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="621" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A621" s="26" t="s">
         <v>355</v>
       </c>
@@ -39227,7 +39229,7 @@
         <v>46.204505920000003</v>
       </c>
     </row>
-    <row r="622" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="622" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A622" s="26" t="s">
         <v>356</v>
       </c>
@@ -39280,7 +39282,7 @@
         <v>46.01323318</v>
       </c>
     </row>
-    <row r="623" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="623" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A623" s="26" t="s">
         <v>357</v>
       </c>
@@ -39333,7 +39335,7 @@
         <v>46.398815159999998</v>
       </c>
     </row>
-    <row r="624" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="624" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A624" s="26" t="s">
         <v>358</v>
       </c>
@@ -39386,7 +39388,7 @@
         <v>45.380187990000003</v>
       </c>
     </row>
-    <row r="625" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="625" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A625" s="26" t="s">
         <v>359</v>
       </c>
@@ -39439,7 +39441,7 @@
         <v>45.814720153808594</v>
       </c>
     </row>
-    <row r="626" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="626" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A626" s="26" t="s">
         <v>360</v>
       </c>
@@ -39492,7 +39494,7 @@
         <v>45.650859830000002</v>
       </c>
     </row>
-    <row r="627" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="627" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A627" s="26" t="s">
         <v>361</v>
       </c>
@@ -39545,7 +39547,7 @@
         <v>47.375934600830078</v>
       </c>
     </row>
-    <row r="628" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="628" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A628" s="26" t="s">
         <v>362</v>
       </c>
@@ -39598,7 +39600,7 @@
         <v>48.118972778320312</v>
       </c>
     </row>
-    <row r="629" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="629" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A629" s="26" t="s">
         <v>363</v>
       </c>
@@ -39651,7 +39653,7 @@
         <v>49.411567687988281</v>
       </c>
     </row>
-    <row r="630" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="630" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A630" s="26" t="s">
         <v>364</v>
       </c>
@@ -39704,7 +39706,7 @@
         <v>48.424087524414062</v>
       </c>
     </row>
-    <row r="631" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="631" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A631" s="26" t="s">
         <v>365</v>
       </c>
@@ -39757,7 +39759,7 @@
         <v>48.853462219238281</v>
       </c>
     </row>
-    <row r="632" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="632" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A632" s="26" t="s">
         <v>366</v>
       </c>
@@ -39810,7 +39812,7 @@
         <v>47.977367401123047</v>
       </c>
     </row>
-    <row r="633" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="633" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A633" s="26" t="s">
         <v>368</v>
       </c>
@@ -39863,7 +39865,7 @@
         <v>50.11785888671875</v>
       </c>
     </row>
-    <row r="634" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="634" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A634" s="26" t="s">
         <v>372</v>
       </c>
@@ -39916,7 +39918,7 @@
         <v>49.406627655029297</v>
       </c>
     </row>
-    <row r="635" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="635" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A635" s="26" t="s">
         <v>369</v>
       </c>
@@ -39969,7 +39971,7 @@
         <v>50.727062225341797</v>
       </c>
     </row>
-    <row r="636" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="636" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A636" s="26" t="s">
         <v>370</v>
       </c>
@@ -40022,7 +40024,7 @@
         <v>48.292884826660156</v>
       </c>
     </row>
-    <row r="637" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="637" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A637" s="26" t="s">
         <v>371</v>
       </c>
@@ -40075,7 +40077,7 @@
         <v>48.200222015380859</v>
       </c>
     </row>
-    <row r="638" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="638" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A638" s="26" t="s">
         <v>367</v>
       </c>
@@ -40128,7 +40130,7 @@
         <v>47.082511901855469</v>
       </c>
     </row>
-    <row r="639" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="639" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A639" s="26" t="s">
         <v>742</v>
       </c>
@@ -40175,7 +40177,7 @@
         <v>45.302154541015625</v>
       </c>
     </row>
-    <row r="640" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="640" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A640" s="26" t="s">
         <v>743</v>
       </c>
@@ -40224,7 +40226,7 @@
         <v>44.774188995361328</v>
       </c>
     </row>
-    <row r="641" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="641" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A641" s="26" t="s">
         <v>744</v>
       </c>
@@ -40273,7 +40275,7 @@
         <v>44.894687652587891</v>
       </c>
     </row>
-    <row r="642" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="642" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A642" s="26" t="s">
         <v>745</v>
       </c>
@@ -40322,7 +40324,7 @@
         <v>45.203166961669922</v>
       </c>
     </row>
-    <row r="643" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="643" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A643" s="26" t="s">
         <v>746</v>
       </c>
@@ -40371,7 +40373,7 @@
         <v>45.220943450927734</v>
       </c>
     </row>
-    <row r="644" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="644" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A644" s="26" t="s">
         <v>747</v>
       </c>
@@ -40420,7 +40422,7 @@
         <v>44.343254089355469</v>
       </c>
     </row>
-    <row r="645" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="645" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A645" s="26" t="s">
         <v>378</v>
       </c>
@@ -40475,7 +40477,7 @@
         <v>34.947116851806641</v>
       </c>
     </row>
-    <row r="646" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="646" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A646" s="26" t="s">
         <v>373</v>
       </c>
@@ -40530,7 +40532,7 @@
         <v>48.617645263671875</v>
       </c>
     </row>
-    <row r="647" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="647" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A647" s="26" t="s">
         <v>374</v>
       </c>
@@ -40583,7 +40585,7 @@
         <v>48.559349060058594</v>
       </c>
     </row>
-    <row r="648" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="648" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A648" s="26" t="s">
         <v>375</v>
       </c>
@@ -40640,7 +40642,7 @@
         <v>48.591083526611328</v>
       </c>
     </row>
-    <row r="649" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="649" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A649" s="26" t="s">
         <v>376</v>
       </c>
@@ -40695,7 +40697,7 @@
         <v>48.546360015869141</v>
       </c>
     </row>
-    <row r="650" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="650" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A650" s="26" t="s">
         <v>377</v>
       </c>
@@ -40748,7 +40750,7 @@
         <v>48.313865661621094</v>
       </c>
     </row>
-    <row r="651" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="651" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A651" s="26" t="s">
         <v>379</v>
       </c>
@@ -40803,7 +40805,7 @@
         <v>47.700431823730469</v>
       </c>
     </row>
-    <row r="652" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="652" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A652" s="26" t="s">
         <v>380</v>
       </c>
@@ -40856,7 +40858,7 @@
         <v>47.737274169921875</v>
       </c>
     </row>
-    <row r="653" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="653" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A653" s="26" t="s">
         <v>381</v>
       </c>
@@ -40909,7 +40911,7 @@
         <v>47.464408874511719</v>
       </c>
     </row>
-    <row r="654" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="654" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A654" s="26" t="s">
         <v>382</v>
       </c>
@@ -40962,7 +40964,7 @@
         <v>47.188529969999998</v>
       </c>
     </row>
-    <row r="655" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="655" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A655" s="26" t="s">
         <v>383</v>
       </c>
@@ -41015,7 +41017,7 @@
         <v>46.953277589999999</v>
       </c>
     </row>
-    <row r="656" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="656" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A656" s="26" t="s">
         <v>384</v>
       </c>
@@ -41070,7 +41072,7 @@
         <v>47.154697419999998</v>
       </c>
     </row>
-    <row r="657" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="657" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A657" s="26" t="s">
         <v>385</v>
       </c>
@@ -41123,7 +41125,7 @@
         <v>44.00250244140625</v>
       </c>
     </row>
-    <row r="658" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="658" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A658" s="26" t="s">
         <v>386</v>
       </c>
@@ -41176,7 +41178,7 @@
         <v>43.858131408691406</v>
       </c>
     </row>
-    <row r="659" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="659" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A659" s="26" t="s">
         <v>387</v>
       </c>
@@ -41229,7 +41231,7 @@
         <v>45.764030456542969</v>
       </c>
     </row>
-    <row r="660" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="660" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A660" s="26" t="s">
         <v>388</v>
       </c>
@@ -41282,7 +41284,7 @@
         <v>46.781581878662109</v>
       </c>
     </row>
-    <row r="661" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="661" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A661" s="26" t="s">
         <v>389</v>
       </c>
@@ -41335,7 +41337,7 @@
         <v>47.166412353515625</v>
       </c>
     </row>
-    <row r="662" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="662" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A662" s="26" t="s">
         <v>390</v>
       </c>
@@ -41388,7 +41390,7 @@
         <v>46.764701843261719</v>
       </c>
     </row>
-    <row r="663" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="663" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A663" s="26" t="s">
         <v>391</v>
       </c>
@@ -41441,7 +41443,7 @@
         <v>46.707923889160156</v>
       </c>
     </row>
-    <row r="664" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="664" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A664" s="26" t="s">
         <v>392</v>
       </c>
@@ -41494,7 +41496,7 @@
         <v>46.716182708740234</v>
       </c>
     </row>
-    <row r="665" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="665" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A665" s="26" t="s">
         <v>393</v>
       </c>
@@ -41547,7 +41549,7 @@
         <v>47.350696563720703</v>
       </c>
     </row>
-    <row r="666" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="666" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A666" s="26" t="s">
         <v>395</v>
       </c>
@@ -41600,7 +41602,7 @@
         <v>47.482395172119141</v>
       </c>
     </row>
-    <row r="667" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="667" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A667" s="26" t="s">
         <v>394</v>
       </c>
@@ -41653,7 +41655,7 @@
         <v>46.677337646484375</v>
       </c>
     </row>
-    <row r="668" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="668" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A668" s="26" t="s">
         <v>396</v>
       </c>
@@ -41706,7 +41708,7 @@
         <v>46.466773986816406</v>
       </c>
     </row>
-    <row r="669" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="669" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A669" s="26" t="s">
         <v>397</v>
       </c>
@@ -41759,7 +41761,7 @@
         <v>47.979976654052734</v>
       </c>
     </row>
-    <row r="670" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="670" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A670" s="26" t="s">
         <v>399</v>
       </c>
@@ -41812,7 +41814,7 @@
         <v>46.457107540000003</v>
       </c>
     </row>
-    <row r="671" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="671" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A671" s="26" t="s">
         <v>400</v>
       </c>
@@ -41865,7 +41867,7 @@
         <v>46.876052856445312</v>
       </c>
     </row>
-    <row r="672" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="672" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A672" s="26" t="s">
         <v>401</v>
       </c>
@@ -41918,7 +41920,7 @@
         <v>46.318084716796875</v>
       </c>
     </row>
-    <row r="673" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="673" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A673" s="26" t="s">
         <v>398</v>
       </c>
@@ -41975,7 +41977,7 @@
         <v>46.528377532958984</v>
       </c>
     </row>
-    <row r="674" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="674" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A674" s="26" t="s">
         <v>402</v>
       </c>
@@ -42028,7 +42030,7 @@
         <v>46.811447143554688</v>
       </c>
     </row>
-    <row r="675" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="675" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A675" s="26" t="s">
         <v>407</v>
       </c>
@@ -42083,7 +42085,7 @@
         <v>49.16009521484375</v>
       </c>
     </row>
-    <row r="676" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="676" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A676" s="26" t="s">
         <v>408</v>
       </c>
@@ -42136,7 +42138,7 @@
         <v>50.361583709716797</v>
       </c>
     </row>
-    <row r="677" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="677" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A677" s="26" t="s">
         <v>406</v>
       </c>
@@ -42189,7 +42191,7 @@
         <v>51.637130737304688</v>
       </c>
     </row>
-    <row r="678" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="678" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A678" s="26" t="s">
         <v>403</v>
       </c>
@@ -42242,7 +42244,7 @@
         <v>50.424823760986328</v>
       </c>
     </row>
-    <row r="679" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="679" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A679" s="26" t="s">
         <v>404</v>
       </c>
@@ -42299,7 +42301,7 @@
         <v>47.474815368652344</v>
       </c>
     </row>
-    <row r="680" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="680" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A680" s="26" t="s">
         <v>405</v>
       </c>
@@ -42352,7 +42354,7 @@
         <v>51.492019653320312</v>
       </c>
     </row>
-    <row r="681" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="681" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A681" s="26" t="s">
         <v>748</v>
       </c>
@@ -42401,7 +42403,7 @@
         <v>50.404842376708984</v>
       </c>
     </row>
-    <row r="682" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="682" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A682" s="26" t="s">
         <v>414</v>
       </c>
@@ -42450,7 +42452,7 @@
         <v>51.677627559999998</v>
       </c>
     </row>
-    <row r="683" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="683" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A683" s="26" t="s">
         <v>415</v>
       </c>
@@ -42503,7 +42505,7 @@
         <v>52.926261901855469</v>
       </c>
     </row>
-    <row r="684" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="684" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A684" s="26" t="s">
         <v>409</v>
       </c>
@@ -42556,7 +42558,7 @@
         <v>53.843662261962891</v>
       </c>
     </row>
-    <row r="685" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="685" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A685" s="26" t="s">
         <v>410</v>
       </c>
@@ -42609,7 +42611,7 @@
         <v>51.080951690673828</v>
       </c>
     </row>
-    <row r="686" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="686" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A686" s="26" t="s">
         <v>411</v>
       </c>
@@ -42666,7 +42668,7 @@
         <v>53.596469879150391</v>
       </c>
     </row>
-    <row r="687" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="687" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A687" s="26" t="s">
         <v>412</v>
       </c>
@@ -42721,7 +42723,7 @@
         <v>52.244510650634766</v>
       </c>
     </row>
-    <row r="688" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="688" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A688" s="26" t="s">
         <v>413</v>
       </c>
@@ -42774,7 +42776,7 @@
         <v>53.721324920654297</v>
       </c>
     </row>
-    <row r="689" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="689" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A689" s="26" t="s">
         <v>417</v>
       </c>
@@ -42827,7 +42829,7 @@
         <v>46.318782806396484</v>
       </c>
     </row>
-    <row r="690" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="690" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A690" s="26" t="s">
         <v>418</v>
       </c>
@@ -42876,7 +42878,7 @@
         <v>45.403434753417969</v>
       </c>
     </row>
-    <row r="691" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="691" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A691" s="26" t="s">
         <v>419</v>
       </c>
@@ -42925,7 +42927,7 @@
         <v>46.059452056884766</v>
       </c>
     </row>
-    <row r="692" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="692" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A692" s="26" t="s">
         <v>420</v>
       </c>
@@ -42974,7 +42976,7 @@
         <v>46.731754302978516</v>
       </c>
     </row>
-    <row r="693" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="693" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A693" s="26" t="s">
         <v>421</v>
       </c>
@@ -43023,7 +43025,7 @@
         <v>46.118404388427734</v>
       </c>
     </row>
-    <row r="694" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="694" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A694" s="26" t="s">
         <v>416</v>
       </c>
@@ -43076,7 +43078,7 @@
         <v>46.6771240234375</v>
       </c>
     </row>
-    <row r="695" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="695" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A695" s="26" t="s">
         <v>427</v>
       </c>
@@ -43133,7 +43135,7 @@
         <v>49.871139526367188</v>
       </c>
     </row>
-    <row r="696" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="696" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A696" s="26" t="s">
         <v>422</v>
       </c>
@@ -43186,7 +43188,7 @@
         <v>50.569465637207031</v>
       </c>
     </row>
-    <row r="697" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="697" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A697" s="26" t="s">
         <v>423</v>
       </c>
@@ -43239,7 +43241,7 @@
         <v>50.005977630615234</v>
       </c>
     </row>
-    <row r="698" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="698" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A698" s="26" t="s">
         <v>424</v>
       </c>
@@ -43292,7 +43294,7 @@
         <v>49.163887023925781</v>
       </c>
     </row>
-    <row r="699" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="699" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A699" s="26" t="s">
         <v>425</v>
       </c>
@@ -43345,7 +43347,7 @@
         <v>49.992687225341797</v>
       </c>
     </row>
-    <row r="700" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="700" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A700" s="26" t="s">
         <v>426</v>
       </c>
@@ -43398,7 +43400,7 @@
         <v>48.314701080322266</v>
       </c>
     </row>
-    <row r="701" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="701" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A701" s="26" t="s">
         <v>428</v>
       </c>
@@ -43447,7 +43449,7 @@
         <v>48.704833984375</v>
       </c>
     </row>
-    <row r="702" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="702" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A702" s="26" t="s">
         <v>749</v>
       </c>
@@ -43496,7 +43498,7 @@
         <v>51.017574310302734</v>
       </c>
     </row>
-    <row r="703" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="703" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A703" s="26" t="s">
         <v>750</v>
       </c>
@@ -43541,7 +43543,7 @@
         <v>50.724063873291016</v>
       </c>
     </row>
-    <row r="704" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="704" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A704" s="26" t="s">
         <v>429</v>
       </c>
@@ -43596,7 +43598,7 @@
         <v>49.937225341796875</v>
       </c>
     </row>
-    <row r="705" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="705" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A705" s="26" t="s">
         <v>430</v>
       </c>
@@ -43649,7 +43651,7 @@
         <v>50.023799896240234</v>
       </c>
     </row>
-    <row r="706" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="706" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A706" s="26" t="s">
         <v>431</v>
       </c>
@@ -43702,7 +43704,7 @@
         <v>48.763805389404297</v>
       </c>
     </row>
-    <row r="707" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="707" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A707" s="26" t="s">
         <v>751</v>
       </c>
@@ -43751,7 +43753,7 @@
         <v>50.819957733154297</v>
       </c>
     </row>
-    <row r="708" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="708" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A708" s="26" t="s">
         <v>752</v>
       </c>
@@ -43800,7 +43802,7 @@
         <v>50.966148376464844</v>
       </c>
     </row>
-    <row r="709" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="709" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A709" s="26" t="s">
         <v>437</v>
       </c>
@@ -43853,7 +43855,7 @@
         <v>46.729179382324219</v>
       </c>
     </row>
-    <row r="710" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="710" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A710" s="26" t="s">
         <v>432</v>
       </c>
@@ -43906,7 +43908,7 @@
         <v>47.1026611328125</v>
       </c>
     </row>
-    <row r="711" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="711" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A711" s="26" t="s">
         <v>433</v>
       </c>
@@ -43959,7 +43961,7 @@
         <v>46.677555084228516</v>
       </c>
     </row>
-    <row r="712" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="712" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A712" s="26" t="s">
         <v>434</v>
       </c>
@@ -44012,7 +44014,7 @@
         <v>46.044048309326172</v>
       </c>
     </row>
-    <row r="713" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="713" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A713" s="26" t="s">
         <v>435</v>
       </c>
@@ -44065,7 +44067,7 @@
         <v>46.052345275878906</v>
       </c>
     </row>
-    <row r="714" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="714" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A714" s="26" t="s">
         <v>436</v>
       </c>
@@ -44118,7 +44120,7 @@
         <v>46.522415161132812</v>
       </c>
     </row>
-    <row r="715" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="715" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A715" s="26" t="s">
         <v>439</v>
       </c>
@@ -44169,7 +44171,7 @@
         <v>49.551082611083984</v>
       </c>
     </row>
-    <row r="716" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="716" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A716" s="26" t="s">
         <v>438</v>
       </c>
@@ -44218,7 +44220,7 @@
         <v>50.57196044921875</v>
       </c>
     </row>
-    <row r="717" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="717" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A717" s="26" t="s">
         <v>440</v>
       </c>
@@ -44269,7 +44271,7 @@
         <v>56.98085785</v>
       </c>
     </row>
-    <row r="718" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="718" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A718" s="26" t="s">
         <v>441</v>
       </c>
@@ -44322,7 +44324,7 @@
         <v>45.008270263671875</v>
       </c>
     </row>
-    <row r="719" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="719" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A719" s="26" t="s">
         <v>442</v>
       </c>
@@ -44375,7 +44377,7 @@
         <v>43.576835632324219</v>
       </c>
     </row>
-    <row r="720" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="720" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A720" s="26" t="s">
         <v>443</v>
       </c>
@@ -44428,7 +44430,7 @@
         <v>49.265117645263672</v>
       </c>
     </row>
-    <row r="721" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="721" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A721" s="26" t="s">
         <v>444</v>
       </c>
@@ -44481,7 +44483,7 @@
         <v>49.451702117919922</v>
       </c>
     </row>
-    <row r="722" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="722" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A722" s="26" t="s">
         <v>445</v>
       </c>
@@ -44534,7 +44536,7 @@
         <v>49.564117431640625</v>
       </c>
     </row>
-    <row r="723" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="723" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A723" s="26" t="s">
         <v>448</v>
       </c>
@@ -44587,7 +44589,7 @@
         <v>46.995590209960938</v>
       </c>
     </row>
-    <row r="724" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="724" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A724" s="26" t="s">
         <v>446</v>
       </c>
@@ -44642,7 +44644,7 @@
         <v>49.260360717773438</v>
       </c>
     </row>
-    <row r="725" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="725" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A725" s="26" t="s">
         <v>447</v>
       </c>
@@ -44695,7 +44697,7 @@
         <v>48.585121154785156</v>
       </c>
     </row>
-    <row r="726" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="726" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A726" s="26" t="s">
         <v>449</v>
       </c>
@@ -44746,7 +44748,7 @@
         <v>47.529808044433594</v>
       </c>
     </row>
-    <row r="727" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="727" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A727" s="26" t="s">
         <v>450</v>
       </c>
@@ -44797,7 +44799,7 @@
         <v>48.029220581054688</v>
       </c>
     </row>
-    <row r="728" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="728" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A728" s="26" t="s">
         <v>451</v>
       </c>
@@ -44848,7 +44850,7 @@
         <v>49.705001831054688</v>
       </c>
     </row>
-    <row r="729" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="729" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A729" s="26" t="s">
         <v>456</v>
       </c>
@@ -44897,7 +44899,7 @@
         <v>48.783817291259766</v>
       </c>
     </row>
-    <row r="730" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="730" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A730" s="26" t="s">
         <v>453</v>
       </c>
@@ -44950,7 +44952,7 @@
         <v>49.143836975097656</v>
       </c>
     </row>
-    <row r="731" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="731" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A731" s="26" t="s">
         <v>454</v>
       </c>
@@ -45003,7 +45005,7 @@
         <v>46.991909027099609</v>
       </c>
     </row>
-    <row r="732" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="732" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A732" s="26" t="s">
         <v>455</v>
       </c>
@@ -45056,7 +45058,7 @@
         <v>49.044326782226562</v>
       </c>
     </row>
-    <row r="733" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="733" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A733" s="26" t="s">
         <v>452</v>
       </c>
@@ -45109,7 +45111,7 @@
         <v>48.819026947021484</v>
       </c>
     </row>
-    <row r="734" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="734" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A734" s="26" t="s">
         <v>457</v>
       </c>
@@ -45158,7 +45160,7 @@
         <v>48.893424987792969</v>
       </c>
     </row>
-    <row r="735" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="735" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A735" s="26" t="s">
         <v>459</v>
       </c>
@@ -45211,7 +45213,7 @@
         <v>87.92230224609375</v>
       </c>
     </row>
-    <row r="736" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="736" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A736" s="26" t="s">
         <v>460</v>
       </c>
@@ -45264,7 +45266,7 @@
         <v>47.951923370361328</v>
       </c>
     </row>
-    <row r="737" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="737" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A737" s="26" t="s">
         <v>461</v>
       </c>
@@ -45317,7 +45319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="738" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A738" s="26" t="s">
         <v>462</v>
       </c>
@@ -45370,7 +45372,7 @@
         <v>49.620449066162109</v>
       </c>
     </row>
-    <row r="739" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="739" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A739" s="26" t="s">
         <v>754</v>
       </c>
@@ -45415,7 +45417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="740" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A740" s="26" t="s">
         <v>463</v>
       </c>
@@ -45466,7 +45468,7 @@
         <v>48.47438812</v>
       </c>
     </row>
-    <row r="741" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="741" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A741" s="26" t="s">
         <v>464</v>
       </c>
@@ -45517,7 +45519,7 @@
         <v>47.128639221191406</v>
       </c>
     </row>
-    <row r="742" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="742" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A742" s="26" t="s">
         <v>458</v>
       </c>
@@ -45621,7 +45623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="744" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A744" s="26" t="s">
         <v>468</v>
       </c>
@@ -45674,7 +45676,7 @@
         <v>97.826202392578125</v>
       </c>
     </row>
-    <row r="745" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="745" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A745" s="26" t="s">
         <v>469</v>
       </c>
@@ -45727,7 +45729,7 @@
         <v>48.948459625244141</v>
       </c>
     </row>
-    <row r="746" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="746" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A746" s="26" t="s">
         <v>470</v>
       </c>
@@ -45782,7 +45784,7 @@
         <v>48.426162719726562</v>
       </c>
     </row>
-    <row r="747" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="747" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A747" s="26" t="s">
         <v>465</v>
       </c>
@@ -45835,7 +45837,7 @@
         <v>48.872230529785156</v>
       </c>
     </row>
-    <row r="748" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="748" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A748" s="26" t="s">
         <v>466</v>
       </c>
@@ -45888,7 +45890,7 @@
         <v>48.912967681884766</v>
       </c>
     </row>
-    <row r="749" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="749" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A749" s="26" t="s">
         <v>471</v>
       </c>
@@ -45943,7 +45945,7 @@
         <v>47.055023193359375</v>
       </c>
     </row>
-    <row r="750" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="750" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A750" s="26" t="s">
         <v>472</v>
       </c>
@@ -46000,7 +46002,7 @@
         <v>46.296733856201172</v>
       </c>
     </row>
-    <row r="751" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="751" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A751" s="26" t="s">
         <v>473</v>
       </c>
@@ -46053,7 +46055,7 @@
         <v>48.180347442626953</v>
       </c>
     </row>
-    <row r="752" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="752" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A752" s="26" t="s">
         <v>474</v>
       </c>
@@ -46110,7 +46112,7 @@
         <v>47.225124359130859</v>
       </c>
     </row>
-    <row r="753" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="753" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A753" s="26" t="s">
         <v>475</v>
       </c>
@@ -46165,7 +46167,7 @@
         <v>46.986869812011719</v>
       </c>
     </row>
-    <row r="754" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="754" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A754" s="26" t="s">
         <v>476</v>
       </c>
@@ -46218,7 +46220,7 @@
         <v>46.816238403320312</v>
       </c>
     </row>
-    <row r="755" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="755" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A755" s="26" t="s">
         <v>477</v>
       </c>
@@ -46271,7 +46273,7 @@
         <v>48.869956970214844</v>
       </c>
     </row>
-    <row r="756" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="756" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A756" s="26" t="s">
         <v>478</v>
       </c>
@@ -46328,7 +46330,7 @@
         <v>47.639114379882812</v>
       </c>
     </row>
-    <row r="757" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="757" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A757" s="26" t="s">
         <v>479</v>
       </c>
@@ -46383,7 +46385,7 @@
         <v>47.296329498291016</v>
       </c>
     </row>
-    <row r="758" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="758" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A758" s="26" t="s">
         <v>480</v>
       </c>
@@ -46436,7 +46438,7 @@
         <v>48.371627807617188</v>
       </c>
     </row>
-    <row r="759" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="759" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A759" s="26" t="s">
         <v>481</v>
       </c>
@@ -46489,7 +46491,7 @@
         <v>49.542675018310547</v>
       </c>
     </row>
-    <row r="760" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="760" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A760" s="26" t="s">
         <v>482</v>
       </c>
@@ -46542,7 +46544,7 @@
         <v>47.595314025878906</v>
       </c>
     </row>
-    <row r="761" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="761" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A761" s="26" t="s">
         <v>483</v>
       </c>
@@ -46595,7 +46597,7 @@
         <v>46.852527618408203</v>
       </c>
     </row>
-    <row r="762" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="762" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A762" s="26" t="s">
         <v>484</v>
       </c>
@@ -46648,7 +46650,7 @@
         <v>46.911426544189453</v>
       </c>
     </row>
-    <row r="763" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="763" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A763" s="26" t="s">
         <v>485</v>
       </c>
@@ -46701,7 +46703,7 @@
         <v>43.36279296875</v>
       </c>
     </row>
-    <row r="764" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="764" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A764" s="26" t="s">
         <v>486</v>
       </c>
@@ -46754,7 +46756,7 @@
         <v>48.403995513916016</v>
       </c>
     </row>
-    <row r="765" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="765" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A765" s="26" t="s">
         <v>487</v>
       </c>
@@ -46807,7 +46809,7 @@
         <v>48.123992919921875</v>
       </c>
     </row>
-    <row r="766" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="766" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A766" s="26" t="s">
         <v>488</v>
       </c>
@@ -46860,7 +46862,7 @@
         <v>47.440841674804688</v>
       </c>
     </row>
-    <row r="767" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="767" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A767" s="26" t="s">
         <v>492</v>
       </c>
@@ -46913,7 +46915,7 @@
         <v>49.2791748046875</v>
       </c>
     </row>
-    <row r="768" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="768" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A768" s="26" t="s">
         <v>490</v>
       </c>
@@ -46966,7 +46968,7 @@
         <v>48.718448638916016</v>
       </c>
     </row>
-    <row r="769" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="769" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A769" s="26" t="s">
         <v>494</v>
       </c>
@@ -47015,7 +47017,7 @@
         <v>48.558864593505859</v>
       </c>
     </row>
-    <row r="770" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="770" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A770" s="26" t="s">
         <v>489</v>
       </c>
@@ -47068,7 +47070,7 @@
         <v>49.714954376220703</v>
       </c>
     </row>
-    <row r="771" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="771" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A771" s="26" t="s">
         <v>491</v>
       </c>
@@ -47121,7 +47123,7 @@
         <v>49.294193267822266</v>
       </c>
     </row>
-    <row r="772" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="772" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A772" s="26" t="s">
         <v>493</v>
       </c>
@@ -47174,7 +47176,7 @@
         <v>48.853374481201172</v>
       </c>
     </row>
-    <row r="773" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="773" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A773" s="26" t="s">
         <v>495</v>
       </c>
@@ -47227,7 +47229,7 @@
         <v>48.90570068359375</v>
       </c>
     </row>
-    <row r="774" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="774" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A774" s="26" t="s">
         <v>496</v>
       </c>
@@ -47280,7 +47282,7 @@
         <v>48.783832550048828</v>
       </c>
     </row>
-    <row r="775" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="775" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A775" s="26" t="s">
         <v>497</v>
       </c>
@@ -47333,7 +47335,7 @@
         <v>49.030220031738281</v>
       </c>
     </row>
-    <row r="776" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="776" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A776" s="26" t="s">
         <v>498</v>
       </c>
@@ -47386,7 +47388,7 @@
         <v>49.355293273925781</v>
       </c>
     </row>
-    <row r="777" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="777" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A777" s="26" t="s">
         <v>499</v>
       </c>
@@ -47439,7 +47441,7 @@
         <v>48.015159606933594</v>
       </c>
     </row>
-    <row r="778" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="778" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A778" s="26" t="s">
         <v>500</v>
       </c>
@@ -47496,7 +47498,7 @@
         <v>50.119232177734375</v>
       </c>
     </row>
-    <row r="779" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="779" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A779" s="26" t="s">
         <v>501</v>
       </c>
@@ -47549,7 +47551,7 @@
         <v>45.900760650634766</v>
       </c>
     </row>
-    <row r="780" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="780" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A780" s="26" t="s">
         <v>502</v>
       </c>
@@ -47602,7 +47604,7 @@
         <v>45.344173431396484</v>
       </c>
     </row>
-    <row r="781" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="781" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A781" s="26" t="s">
         <v>503</v>
       </c>
@@ -47655,7 +47657,7 @@
         <v>47.070499420166016</v>
       </c>
     </row>
-    <row r="782" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="782" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A782" s="26" t="s">
         <v>504</v>
       </c>
@@ -47704,7 +47706,7 @@
         <v>45.962955474853516</v>
       </c>
     </row>
-    <row r="783" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="783" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A783" s="26" t="s">
         <v>505</v>
       </c>
@@ -47753,7 +47755,7 @@
         <v>46.703392028808594</v>
       </c>
     </row>
-    <row r="784" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="784" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A784" s="26" t="s">
         <v>506</v>
       </c>
@@ -47806,7 +47808,7 @@
         <v>46.578365325927734</v>
       </c>
     </row>
-    <row r="785" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="785" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A785" s="26" t="s">
         <v>507</v>
       </c>
@@ -47861,7 +47863,7 @@
         <v>44.096504211425781</v>
       </c>
     </row>
-    <row r="786" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="786" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A786" s="26" t="s">
         <v>508</v>
       </c>
@@ -47914,7 +47916,7 @@
         <v>44.949844360351562</v>
       </c>
     </row>
-    <row r="787" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="787" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A787" s="26" t="s">
         <v>509</v>
       </c>
@@ -47963,7 +47965,7 @@
         <v>44.464786529541016</v>
       </c>
     </row>
-    <row r="788" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="788" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A788" s="26" t="s">
         <v>755</v>
       </c>
@@ -48012,7 +48014,7 @@
         <v>44.781131744384766</v>
       </c>
     </row>
-    <row r="789" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="789" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A789" s="26" t="s">
         <v>510</v>
       </c>
@@ -48065,7 +48067,7 @@
         <v>50.043720245361328</v>
       </c>
     </row>
-    <row r="790" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="790" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A790" s="26" t="s">
         <v>511</v>
       </c>
@@ -48118,7 +48120,7 @@
         <v>49.443557739257812</v>
       </c>
     </row>
-    <row r="791" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="791" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A791" s="26" t="s">
         <v>512</v>
       </c>
@@ -48167,7 +48169,7 @@
         <v>49.555194854736328</v>
       </c>
     </row>
-    <row r="792" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="792" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A792" s="26" t="s">
         <v>513</v>
       </c>
@@ -48216,7 +48218,7 @@
         <v>49.711639404296875</v>
       </c>
     </row>
-    <row r="793" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="793" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A793" s="26" t="s">
         <v>514</v>
       </c>
@@ -48265,7 +48267,7 @@
         <v>49.784774780273438</v>
       </c>
     </row>
-    <row r="794" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="794" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A794" s="26" t="s">
         <v>515</v>
       </c>
@@ -48314,7 +48316,7 @@
         <v>50.074428558349609</v>
       </c>
     </row>
-    <row r="795" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="795" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A795" s="26" t="s">
         <v>516</v>
       </c>
@@ -48367,7 +48369,7 @@
         <v>48.005973815917969</v>
       </c>
     </row>
-    <row r="796" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="796" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A796" s="26" t="s">
         <v>519</v>
       </c>
@@ -48422,7 +48424,7 @@
         <v>48.7952880859375</v>
       </c>
     </row>
-    <row r="797" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="797" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A797" s="26" t="s">
         <v>517</v>
       </c>
@@ -48475,7 +48477,7 @@
         <v>49.255126953125</v>
       </c>
     </row>
-    <row r="798" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="798" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A798" s="26" t="s">
         <v>518</v>
       </c>
@@ -48528,7 +48530,7 @@
         <v>49.537654876708984</v>
       </c>
     </row>
-    <row r="799" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="799" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A799" s="26" t="s">
         <v>520</v>
       </c>
@@ -48581,7 +48583,7 @@
         <v>47.319087982177734</v>
       </c>
     </row>
-    <row r="800" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="800" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A800" s="26" t="s">
         <v>521</v>
       </c>
@@ -48634,7 +48636,7 @@
         <v>46.155834197998047</v>
       </c>
     </row>
-    <row r="801" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="801" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A801" s="26" t="s">
         <v>713</v>
       </c>
@@ -48687,7 +48689,7 @@
         <v>48.023929595947266</v>
       </c>
     </row>
-    <row r="802" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="802" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A802" s="26" t="s">
         <v>526</v>
       </c>
@@ -48740,7 +48742,7 @@
         <v>47.555675506591797</v>
       </c>
     </row>
-    <row r="803" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="803" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A803" s="26" t="s">
         <v>523</v>
       </c>
@@ -48797,7 +48799,7 @@
         <v>48.115947723388672</v>
       </c>
     </row>
-    <row r="804" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="804" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A804" s="26" t="s">
         <v>524</v>
       </c>
@@ -48850,7 +48852,7 @@
         <v>47.937004089355469</v>
       </c>
     </row>
-    <row r="805" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="805" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A805" s="26" t="s">
         <v>522</v>
       </c>
@@ -48899,7 +48901,7 @@
         <v>47.745338439941406</v>
       </c>
     </row>
-    <row r="806" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="806" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A806" s="26" t="s">
         <v>527</v>
       </c>
@@ -48952,7 +48954,7 @@
         <v>46.803779602050781</v>
       </c>
     </row>
-    <row r="807" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="807" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A807" s="26" t="s">
         <v>525</v>
       </c>
@@ -49007,6 +49009,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W807">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="GR"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -49051,7 +49058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/analyses/data/Summer 2015 Tree Traits.xlsx
+++ b/analyses/data/Summer 2015 Tree Traits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24060" yWindow="0" windowWidth="27140" windowHeight="28340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="Summary" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Traits!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Traits!$A$1:$AA$857</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="1249">
   <si>
     <t>Individual</t>
   </si>
@@ -7919,7 +7919,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -12744,13 +12744,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AA857"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -12850,7 +12851,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -13069,7 +13070,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -13111,7 +13112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>1176</v>
       </c>
@@ -13137,7 +13138,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>1201</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>1211</v>
       </c>
@@ -13183,7 +13184,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>1214</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
@@ -13263,7 +13264,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
@@ -13417,7 +13418,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>16</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>17</v>
       </c>
@@ -13501,7 +13502,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+    <row r="18" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -13537,7 +13538,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1">
+    <row r="19" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
+    <row r="20" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
+    <row r="21" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -13621,7 +13622,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
+    <row r="22" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -13657,7 +13658,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
+    <row r="23" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
@@ -13726,7 +13727,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>25</v>
       </c>
@@ -13768,7 +13769,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>26</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>27</v>
       </c>
@@ -13869,7 +13870,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>28</v>
       </c>
@@ -13918,7 +13919,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
@@ -13970,7 +13971,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>30</v>
       </c>
@@ -14019,7 +14020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1">
+    <row r="33" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>34</v>
       </c>
@@ -14196,7 +14197,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1">
+    <row r="35" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" customHeight="1">
+    <row r="36" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -14253,7 +14254,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1">
+    <row r="37" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -14280,7 +14281,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" customHeight="1">
+    <row r="38" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1">
+    <row r="39" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -14343,7 +14344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" customHeight="1">
+    <row r="40" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" customHeight="1">
+    <row r="41" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" customHeight="1">
+    <row r="42" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>1203</v>
       </c>
@@ -14421,7 +14422,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" customHeight="1">
+    <row r="43" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>1213</v>
       </c>
@@ -14448,7 +14449,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>42</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>43</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>44</v>
       </c>
@@ -14583,7 +14584,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>45</v>
       </c>
@@ -14625,7 +14626,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>46</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>47</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>48</v>
       </c>
@@ -14785,7 +14786,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" customHeight="1">
+    <row r="51" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>243</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>244</v>
       </c>
@@ -14899,7 +14900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="15" t="s">
         <v>245</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>246</v>
       </c>
@@ -15001,7 +15002,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="15" t="s">
         <v>247</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>248</v>
       </c>
@@ -15109,7 +15110,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="15" t="s">
         <v>1218</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="15" t="s">
         <v>249</v>
       </c>
@@ -15181,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="15" t="s">
         <v>250</v>
       </c>
@@ -15235,7 +15236,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="15" t="s">
         <v>251</v>
       </c>
@@ -15282,7 +15283,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="15" t="s">
         <v>252</v>
       </c>
@@ -15324,7 +15325,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="15" t="s">
         <v>253</v>
       </c>
@@ -15366,7 +15367,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>254</v>
       </c>
@@ -15420,7 +15421,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="15" t="s">
         <v>50</v>
       </c>
@@ -15468,7 +15469,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="15" t="s">
         <v>51</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="15" t="s">
         <v>52</v>
       </c>
@@ -15564,7 +15565,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="15" t="s">
         <v>53</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="15" t="s">
         <v>54</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="15" t="s">
         <v>55</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="15" t="s">
         <v>56</v>
       </c>
@@ -15761,7 +15762,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="15" t="s">
         <v>57</v>
       </c>
@@ -15819,7 +15820,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="15" t="s">
         <v>58</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" customHeight="1">
+    <row r="74" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>59</v>
       </c>
@@ -15896,7 +15897,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="15" t="s">
         <v>60</v>
       </c>
@@ -15947,7 +15948,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="15" t="s">
         <v>61</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="15" t="s">
         <v>1212</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="15" t="s">
         <v>62</v>
       </c>
@@ -16065,7 +16066,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="15" t="s">
         <v>63</v>
       </c>
@@ -16113,7 +16114,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="15" t="s">
         <v>64</v>
       </c>
@@ -16168,7 +16169,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="15" t="s">
         <v>65</v>
       </c>
@@ -16230,7 +16231,7 @@
       </c>
       <c r="W81" s="51"/>
     </row>
-    <row r="82" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="15" t="s">
         <v>66</v>
       </c>
@@ -16282,7 +16283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="15" t="s">
         <v>67</v>
       </c>
@@ -16340,7 +16341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15" customHeight="1">
+    <row r="84" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>68</v>
       </c>
@@ -16370,7 +16371,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:27" s="19" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>306</v>
       </c>
@@ -16394,7 +16395,7 @@
       <c r="Z85"/>
       <c r="AA85"/>
     </row>
-    <row r="86" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:27" s="19" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="17" t="s">
         <v>307</v>
       </c>
@@ -16425,7 +16426,7 @@
       <c r="Z86"/>
       <c r="AA86"/>
     </row>
-    <row r="87" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:27" s="19" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="17" t="s">
         <v>1181</v>
       </c>
@@ -16464,7 +16465,7 @@
       <c r="Z87"/>
       <c r="AA87"/>
     </row>
-    <row r="88" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="15" t="s">
         <v>69</v>
       </c>
@@ -16506,7 +16507,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15" customHeight="1">
+    <row r="89" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>70</v>
       </c>
@@ -16536,7 +16537,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="15" t="s">
         <v>71</v>
       </c>
@@ -16578,7 +16579,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="15" t="s">
         <v>72</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="15" t="s">
         <v>73</v>
       </c>
@@ -16674,7 +16675,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="15" t="s">
         <v>255</v>
       </c>
@@ -16719,7 +16720,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="15" t="s">
         <v>281</v>
       </c>
@@ -16770,7 +16771,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="15" t="s">
         <v>1189</v>
       </c>
@@ -16789,7 +16790,7 @@
       </c>
       <c r="U95" s="51"/>
     </row>
-    <row r="96" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="15" t="s">
         <v>1204</v>
       </c>
@@ -16816,7 +16817,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="15" t="s">
         <v>74</v>
       </c>
@@ -16861,7 +16862,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="15" t="s">
         <v>75</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="15" t="s">
         <v>76</v>
       </c>
@@ -16957,7 +16958,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="15" t="s">
         <v>77</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="15" t="s">
         <v>78</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="15" t="s">
         <v>79</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="15" t="s">
         <v>80</v>
       </c>
@@ -17167,7 +17168,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="15" t="s">
         <v>294</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15" customHeight="1">
+    <row r="105" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="6" t="s">
         <v>81</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="15" customHeight="1">
+    <row r="106" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="6" t="s">
         <v>82</v>
       </c>
@@ -17255,7 +17256,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15" customHeight="1">
+    <row r="107" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>83</v>
       </c>
@@ -17288,7 +17289,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="15" customHeight="1">
+    <row r="108" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>84</v>
       </c>
@@ -17318,7 +17319,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15" customHeight="1">
+    <row r="109" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="6" t="s">
         <v>85</v>
       </c>
@@ -17348,7 +17349,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="15" customHeight="1">
+    <row r="110" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="6" t="s">
         <v>86</v>
       </c>
@@ -17375,7 +17376,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="111" spans="1:27" s="16" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="6" t="s">
         <v>87</v>
       </c>
@@ -17421,7 +17422,7 @@
       <c r="Z111"/>
       <c r="AA111"/>
     </row>
-    <row r="112" spans="1:27" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="112" spans="1:27" s="16" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="6" t="s">
         <v>88</v>
       </c>
@@ -17467,7 +17468,7 @@
       <c r="Z112"/>
       <c r="AA112"/>
     </row>
-    <row r="113" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="1:27" s="13" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="6" t="s">
         <v>89</v>
       </c>
@@ -17517,7 +17518,7 @@
       <c r="Z113"/>
       <c r="AA113"/>
     </row>
-    <row r="114" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="15" t="s">
         <v>90</v>
       </c>
@@ -17566,7 +17567,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="15" t="s">
         <v>91</v>
       </c>
@@ -17608,7 +17609,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="116" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="15" t="s">
         <v>92</v>
       </c>
@@ -17656,7 +17657,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="117" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="15" t="s">
         <v>93</v>
       </c>
@@ -17707,7 +17708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="118" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="15" t="s">
         <v>94</v>
       </c>
@@ -17749,7 +17750,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="15" t="s">
         <v>95</v>
       </c>
@@ -17798,7 +17799,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="120" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="15" t="s">
         <v>1205</v>
       </c>
@@ -17821,7 +17822,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="121" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="15" t="s">
         <v>1207</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="122" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="15" t="s">
         <v>1208</v>
       </c>
@@ -17864,7 +17865,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="123" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="15" t="s">
         <v>1217</v>
       </c>
@@ -17884,7 +17885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="15" customHeight="1">
+    <row r="124" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="6" t="s">
         <v>96</v>
       </c>
@@ -17914,7 +17915,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="125" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="15" t="s">
         <v>97</v>
       </c>
@@ -17959,7 +17960,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="126" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="126" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="15" t="s">
         <v>98</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="127" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="15" t="s">
         <v>256</v>
       </c>
@@ -18046,7 +18047,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="128" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="128" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="15" t="s">
         <v>298</v>
       </c>
@@ -18070,7 +18071,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="129" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="15" t="s">
         <v>282</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="130" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="15" t="s">
         <v>283</v>
       </c>
@@ -18148,7 +18149,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="15" t="s">
         <v>99</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="15" t="s">
         <v>100</v>
       </c>
@@ -18232,7 +18233,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="15" t="s">
         <v>101</v>
       </c>
@@ -18274,7 +18275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="134" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="15" t="s">
         <v>102</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="15" t="s">
         <v>103</v>
       </c>
@@ -18358,7 +18359,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="136" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="15" t="s">
         <v>104</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="137" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="15" t="s">
         <v>105</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="138" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="15" t="s">
         <v>106</v>
       </c>
@@ -18484,7 +18485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="15" t="s">
         <v>1192</v>
       </c>
@@ -18507,7 +18508,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="15" t="s">
         <v>107</v>
       </c>
@@ -18549,7 +18550,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="15" t="s">
         <v>108</v>
       </c>
@@ -18594,7 +18595,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="15" t="s">
         <v>109</v>
       </c>
@@ -18636,7 +18637,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="15" t="s">
         <v>110</v>
       </c>
@@ -18687,7 +18688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="15" t="s">
         <v>111</v>
       </c>
@@ -18735,7 +18736,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="15" t="s">
         <v>257</v>
       </c>
@@ -18777,7 +18778,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="146" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="15" t="s">
         <v>1183</v>
       </c>
@@ -18795,7 +18796,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="147" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="15" t="s">
         <v>1184</v>
       </c>
@@ -18816,7 +18817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="15" t="s">
         <v>1215</v>
       </c>
@@ -18837,7 +18838,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="149" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="15" t="s">
         <v>1216</v>
       </c>
@@ -18855,7 +18856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="150" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="15" t="s">
         <v>284</v>
       </c>
@@ -18897,7 +18898,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="151" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="15" t="s">
         <v>285</v>
       </c>
@@ -18939,7 +18940,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="152" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="15" t="s">
         <v>286</v>
       </c>
@@ -18981,7 +18982,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="153" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="15" t="s">
         <v>287</v>
       </c>
@@ -19023,7 +19024,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="154" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="15" t="s">
         <v>288</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="155" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="15" t="s">
         <v>289</v>
       </c>
@@ -19089,7 +19090,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="156" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="156" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="15" t="s">
         <v>112</v>
       </c>
@@ -19134,7 +19135,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="157" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="157" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="15" t="s">
         <v>113</v>
       </c>
@@ -19191,7 +19192,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="158" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="15" t="s">
         <v>114</v>
       </c>
@@ -19239,7 +19240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="159" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="15" t="s">
         <v>114</v>
       </c>
@@ -19281,7 +19282,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15" customHeight="1">
+    <row r="160" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="6" t="s">
         <v>115</v>
       </c>
@@ -19308,7 +19309,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="161" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="15" t="s">
         <v>116</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="162" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="15" t="s">
         <v>117</v>
       </c>
@@ -19398,7 +19399,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="163" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="15" t="s">
         <v>118</v>
       </c>
@@ -19443,7 +19444,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="164" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="15" t="s">
         <v>1188</v>
       </c>
@@ -19466,7 +19467,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="165" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="15" t="s">
         <v>258</v>
       </c>
@@ -19508,7 +19509,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="166" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="15" t="s">
         <v>259</v>
       </c>
@@ -19550,7 +19551,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="167" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="15" t="s">
         <v>260</v>
       </c>
@@ -19592,7 +19593,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="168" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="15" t="s">
         <v>261</v>
       </c>
@@ -19634,7 +19635,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="169" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="15" t="s">
         <v>262</v>
       </c>
@@ -19667,7 +19668,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="170" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="15" t="s">
         <v>263</v>
       </c>
@@ -19709,7 +19710,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="171" spans="1:27" s="13" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="6" t="s">
         <v>119</v>
       </c>
@@ -19755,7 +19756,7 @@
       <c r="Z171"/>
       <c r="AA171"/>
     </row>
-    <row r="172" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="172" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="15" t="s">
         <v>120</v>
       </c>
@@ -19804,7 +19805,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="173" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="15" t="s">
         <v>121</v>
       </c>
@@ -19853,7 +19854,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="174" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="174" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="15" t="s">
         <v>122</v>
       </c>
@@ -19895,7 +19896,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="175" spans="1:27" s="13" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="6" t="s">
         <v>123</v>
       </c>
@@ -19941,7 +19942,7 @@
       <c r="Z175"/>
       <c r="AA175"/>
     </row>
-    <row r="176" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="176" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="15" t="s">
         <v>124</v>
       </c>
@@ -19983,7 +19984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="177" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="15" t="s">
         <v>264</v>
       </c>
@@ -20038,7 +20039,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="15" t="s">
         <v>1175</v>
       </c>
@@ -20056,7 +20057,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="179" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="179" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="15" t="s">
         <v>125</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15" customHeight="1">
+    <row r="180" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="6" t="s">
         <v>126</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="181" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="15" t="s">
         <v>127</v>
       </c>
@@ -20182,7 +20183,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="182" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="15" t="s">
         <v>128</v>
       </c>
@@ -20227,7 +20228,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="183" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="183" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="15" t="s">
         <v>129</v>
       </c>
@@ -20272,7 +20273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="184" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="15" t="s">
         <v>130</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="15" customHeight="1">
+    <row r="185" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="6" t="s">
         <v>131</v>
       </c>
@@ -20347,7 +20348,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15" customHeight="1">
+    <row r="186" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="6" t="s">
         <v>132</v>
       </c>
@@ -20374,7 +20375,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="187" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="187" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="15" t="s">
         <v>265</v>
       </c>
@@ -20425,7 +20426,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="188" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="188" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="15" t="s">
         <v>1187</v>
       </c>
@@ -20443,7 +20444,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="189" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="189" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="15" t="s">
         <v>266</v>
       </c>
@@ -20491,7 +20492,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="190" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="190" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="15" t="s">
         <v>267</v>
       </c>
@@ -20536,7 +20537,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="191" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="15" t="s">
         <v>133</v>
       </c>
@@ -20578,7 +20579,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="192" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="192" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A192" s="15" t="s">
         <v>268</v>
       </c>
@@ -20620,7 +20621,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="193" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="193" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="15" t="s">
         <v>269</v>
       </c>
@@ -20662,7 +20663,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="194" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="194" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="15" t="s">
         <v>290</v>
       </c>
@@ -20695,7 +20696,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="195" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="195" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="15" t="s">
         <v>291</v>
       </c>
@@ -20728,7 +20729,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="196" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="196" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="15" t="s">
         <v>134</v>
       </c>
@@ -20773,7 +20774,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="197" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="197" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="15" t="s">
         <v>270</v>
       </c>
@@ -20810,7 +20811,7 @@
       </c>
       <c r="R197" s="46"/>
     </row>
-    <row r="198" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="198" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="15" t="s">
         <v>271</v>
       </c>
@@ -20847,7 +20848,7 @@
       </c>
       <c r="R198" s="46"/>
     </row>
-    <row r="199" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="199" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="15" t="s">
         <v>272</v>
       </c>
@@ -20883,7 +20884,7 @@
       </c>
       <c r="R199" s="46"/>
     </row>
-    <row r="200" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="200" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="15" t="s">
         <v>292</v>
       </c>
@@ -20924,7 +20925,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="201" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="15" t="s">
         <v>293</v>
       </c>
@@ -20960,7 +20961,7 @@
       </c>
       <c r="R201" s="46"/>
     </row>
-    <row r="202" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="202" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="15" t="s">
         <v>1199</v>
       </c>
@@ -20990,7 +20991,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="203" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A203" s="15" t="s">
         <v>1210</v>
       </c>
@@ -21010,7 +21011,7 @@
       <c r="U203" s="51"/>
       <c r="V203" s="51"/>
     </row>
-    <row r="204" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="204" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="15" t="s">
         <v>135</v>
       </c>
@@ -21061,7 +21062,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="205" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="205" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="15" t="s">
         <v>136</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="206" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="206" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="15" t="s">
         <v>137</v>
       </c>
@@ -21151,7 +21152,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="15" t="s">
         <v>138</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="208" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="208" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="15" t="s">
         <v>139</v>
       </c>
@@ -21262,7 +21263,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="209" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="209" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="15" t="s">
         <v>140</v>
       </c>
@@ -21304,7 +21305,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="210" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="210" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="15" t="s">
         <v>1191</v>
       </c>
@@ -21325,7 +21326,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="211" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="211" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="15" t="s">
         <v>1198</v>
       </c>
@@ -21346,7 +21347,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="212" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="212" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="15" t="s">
         <v>1200</v>
       </c>
@@ -21370,7 +21371,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="213" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="213" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="15" t="s">
         <v>141</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="214" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="15" t="s">
         <v>142</v>
       </c>
@@ -21454,7 +21455,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="215" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="215" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A215" s="15" t="s">
         <v>143</v>
       </c>
@@ -21496,7 +21497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="216" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="15" t="s">
         <v>144</v>
       </c>
@@ -21544,7 +21545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="217" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A217" s="15" t="s">
         <v>273</v>
       </c>
@@ -21595,7 +21596,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="218" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="218" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="15" t="s">
         <v>274</v>
       </c>
@@ -21637,7 +21638,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="219" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="219" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="15" t="s">
         <v>275</v>
       </c>
@@ -21679,7 +21680,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="220" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="220" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="15" t="s">
         <v>1202</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="221" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="221" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="15" t="s">
         <v>145</v>
       </c>
@@ -21745,7 +21746,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="222" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="222" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="15" t="s">
         <v>146</v>
       </c>
@@ -21793,7 +21794,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="223" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="223" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="15" t="s">
         <v>147</v>
       </c>
@@ -21838,7 +21839,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="224" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="224" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="15" t="s">
         <v>148</v>
       </c>
@@ -21880,7 +21881,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="225" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="225" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="15" t="s">
         <v>149</v>
       </c>
@@ -21922,7 +21923,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="226" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="226" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A226" s="15" t="s">
         <v>150</v>
       </c>
@@ -21970,7 +21971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="227" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="227" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="15" t="s">
         <v>151</v>
       </c>
@@ -22015,7 +22016,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15" customHeight="1">
+    <row r="228" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="6" t="s">
         <v>152</v>
       </c>
@@ -22046,7 +22047,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="229" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="229" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="15" t="s">
         <v>153</v>
       </c>
@@ -22091,7 +22092,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="230" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="230" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="15" t="s">
         <v>154</v>
       </c>
@@ -22139,7 +22140,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="231" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="231" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="15" t="s">
         <v>155</v>
       </c>
@@ -22184,7 +22185,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="232" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="232" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="15" t="s">
         <v>276</v>
       </c>
@@ -22229,7 +22230,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="233" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="15" t="s">
         <v>277</v>
       </c>
@@ -22281,7 +22282,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="234" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="234" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="15" t="s">
         <v>278</v>
       </c>
@@ -22330,7 +22331,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="235" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="235" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="15" t="s">
         <v>279</v>
       </c>
@@ -22379,7 +22380,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="236" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="236" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="15" t="s">
         <v>280</v>
       </c>
@@ -22428,7 +22429,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="237" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="237" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A237" s="15" t="s">
         <v>1174</v>
       </c>
@@ -22446,7 +22447,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="238" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="238" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A238" s="15" t="s">
         <v>1193</v>
       </c>
@@ -22461,7 +22462,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="239" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="239" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="15" t="s">
         <v>1194</v>
       </c>
@@ -22482,7 +22483,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="240" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="240" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A240" s="15" t="s">
         <v>1195</v>
       </c>
@@ -22500,7 +22501,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="241" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="241" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A241" s="15" t="s">
         <v>1196</v>
       </c>
@@ -22515,7 +22516,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="242" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="242" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="15" t="s">
         <v>1197</v>
       </c>
@@ -22533,7 +22534,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="243" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="243" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A243" s="15" t="s">
         <v>1209</v>
       </c>
@@ -22548,7 +22549,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="244" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="244" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A244" s="15" t="s">
         <v>156</v>
       </c>
@@ -22590,7 +22591,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="245" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A245" s="15" t="s">
         <v>157</v>
       </c>
@@ -22632,7 +22633,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="246" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="246" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A246" s="15" t="s">
         <v>158</v>
       </c>
@@ -22677,7 +22678,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="247" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A247" s="15" t="s">
         <v>159</v>
       </c>
@@ -22722,7 +22723,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="248" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="248" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="15" t="s">
         <v>160</v>
       </c>
@@ -22767,7 +22768,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="249" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="249" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="15" t="s">
         <v>161</v>
       </c>
@@ -22809,7 +22810,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="15" customHeight="1">
+    <row r="250" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="6" t="s">
         <v>162</v>
       </c>
@@ -22839,7 +22840,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="251" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="251" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="15" t="s">
         <v>163</v>
       </c>
@@ -22887,7 +22888,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="252" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="252" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="15" t="s">
         <v>164</v>
       </c>
@@ -22938,7 +22939,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="253" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="15" t="s">
         <v>165</v>
       </c>
@@ -22983,7 +22984,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="254" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="254" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A254" s="15" t="s">
         <v>166</v>
       </c>
@@ -23034,7 +23035,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="255" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="255" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A255" s="15" t="s">
         <v>167</v>
       </c>
@@ -23085,7 +23086,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="256" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="256" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="15" t="s">
         <v>168</v>
       </c>
@@ -23133,7 +23134,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="15" customHeight="1">
+    <row r="257" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A257" s="6" t="s">
         <v>169</v>
       </c>
@@ -23160,7 +23161,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="15" customHeight="1">
+    <row r="258" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A258" s="6" t="s">
         <v>170</v>
       </c>
@@ -23190,7 +23191,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="15" customHeight="1">
+    <row r="259" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="6" t="s">
         <v>172</v>
       </c>
@@ -23217,7 +23218,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="15" customHeight="1">
+    <row r="260" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="6" t="s">
         <v>173</v>
       </c>
@@ -23247,7 +23248,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="15" customHeight="1">
+    <row r="261" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="6" t="s">
         <v>174</v>
       </c>
@@ -23286,7 +23287,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="15" customHeight="1">
+    <row r="262" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="6" t="s">
         <v>171</v>
       </c>
@@ -23307,7 +23308,7 @@
         <v>450.73297100000002</v>
       </c>
     </row>
-    <row r="263" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="263" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="15" t="s">
         <v>175</v>
       </c>
@@ -23358,7 +23359,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="264" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="264" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="15" t="s">
         <v>176</v>
       </c>
@@ -23403,7 +23404,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="265" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="265" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A265" s="15" t="s">
         <v>177</v>
       </c>
@@ -23445,7 +23446,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="266" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="266" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A266" s="15" t="s">
         <v>178</v>
       </c>
@@ -23487,7 +23488,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="267" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="267" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="15" t="s">
         <v>179</v>
       </c>
@@ -23529,7 +23530,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="268" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="268" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="15" t="s">
         <v>180</v>
       </c>
@@ -23574,7 +23575,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="269" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A269" s="15" t="s">
         <v>181</v>
       </c>
@@ -23616,7 +23617,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="15" customHeight="1">
+    <row r="270" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A270" s="6" t="s">
         <v>182</v>
       </c>
@@ -23643,7 +23644,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="271" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="271" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="22" t="s">
         <v>524</v>
       </c>
@@ -23701,7 +23702,7 @@
       </c>
       <c r="Y271" s="22"/>
     </row>
-    <row r="272" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="272" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A272" s="22" t="s">
         <v>525</v>
       </c>
@@ -23749,7 +23750,7 @@
       </c>
       <c r="Y272" s="22"/>
     </row>
-    <row r="273" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="273" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A273" s="22" t="s">
         <v>526</v>
       </c>
@@ -23801,7 +23802,7 @@
       </c>
       <c r="Y273" s="22"/>
     </row>
-    <row r="274" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="274" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A274" s="22" t="s">
         <v>527</v>
       </c>
@@ -23853,7 +23854,7 @@
       </c>
       <c r="Y274" s="22"/>
     </row>
-    <row r="275" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="275" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A275" s="22" t="s">
         <v>1240</v>
       </c>
@@ -23894,7 +23895,7 @@
       </c>
       <c r="Y275" s="22"/>
     </row>
-    <row r="276" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="276" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A276" s="22" t="s">
         <v>1235</v>
       </c>
@@ -23922,7 +23923,7 @@
       <c r="S276" s="54"/>
       <c r="Y276" s="22"/>
     </row>
-    <row r="277" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="277" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A277" s="22" t="s">
         <v>1236</v>
       </c>
@@ -23950,7 +23951,7 @@
       <c r="S277" s="54"/>
       <c r="Y277" s="22"/>
     </row>
-    <row r="278" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="278" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A278" s="22" t="s">
         <v>528</v>
       </c>
@@ -24003,7 +24004,7 @@
       <c r="X278" s="25"/>
       <c r="Y278" s="22"/>
     </row>
-    <row r="279" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="279" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A279" s="22" t="s">
         <v>529</v>
       </c>
@@ -24055,7 +24056,7 @@
       </c>
       <c r="Y279" s="22"/>
     </row>
-    <row r="280" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="280" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A280" s="22" t="s">
         <v>530</v>
       </c>
@@ -24111,7 +24112,9 @@
       <c r="A281" s="22" t="s">
         <v>1239</v>
       </c>
-      <c r="B281" s="22"/>
+      <c r="B281" s="22" t="s">
+        <v>703</v>
+      </c>
       <c r="C281" s="22" t="str">
         <f t="shared" si="14"/>
         <v>ACEPEN</v>
@@ -24143,7 +24146,7 @@
       </c>
       <c r="Y281" s="22"/>
     </row>
-    <row r="282" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="282" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A282" s="22" t="s">
         <v>531</v>
       </c>
@@ -24197,7 +24200,7 @@
       </c>
       <c r="Y282" s="22"/>
     </row>
-    <row r="283" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="283" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A283" s="22" t="s">
         <v>532</v>
       </c>
@@ -24255,7 +24258,7 @@
       </c>
       <c r="Y283" s="22"/>
     </row>
-    <row r="284" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="284" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A284" s="22" t="s">
         <v>533</v>
       </c>
@@ -24307,7 +24310,7 @@
       </c>
       <c r="Y284" s="22"/>
     </row>
-    <row r="285" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="285" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A285" s="22" t="s">
         <v>534</v>
       </c>
@@ -24359,7 +24362,7 @@
       </c>
       <c r="Y285" s="22"/>
     </row>
-    <row r="286" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="286" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A286" s="22" t="s">
         <v>535</v>
       </c>
@@ -24420,7 +24423,7 @@
       </c>
       <c r="Y286" s="22"/>
     </row>
-    <row r="287" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="287" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A287" s="22" t="s">
         <v>536</v>
       </c>
@@ -24468,7 +24471,7 @@
       </c>
       <c r="Y287" s="22"/>
     </row>
-    <row r="288" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="288" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A288" s="22" t="s">
         <v>537</v>
       </c>
@@ -24520,7 +24523,7 @@
       </c>
       <c r="Y288" s="22"/>
     </row>
-    <row r="289" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="289" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A289" s="22" t="s">
         <v>538</v>
       </c>
@@ -24572,7 +24575,7 @@
       </c>
       <c r="Y289" s="22"/>
     </row>
-    <row r="290" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="290" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A290" s="22" t="s">
         <v>539</v>
       </c>
@@ -24624,7 +24627,7 @@
       </c>
       <c r="Y290" s="22"/>
     </row>
-    <row r="291" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="291" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A291" s="22" t="s">
         <v>540</v>
       </c>
@@ -24676,7 +24679,7 @@
       </c>
       <c r="Y291" s="22"/>
     </row>
-    <row r="292" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="292" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A292" s="22" t="s">
         <v>541</v>
       </c>
@@ -24728,7 +24731,7 @@
       </c>
       <c r="Y292" s="22"/>
     </row>
-    <row r="293" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="293" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A293" s="22" t="s">
         <v>542</v>
       </c>
@@ -24780,7 +24783,7 @@
       </c>
       <c r="Y293" s="22"/>
     </row>
-    <row r="294" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="294" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A294" s="22" t="s">
         <v>1222</v>
       </c>
@@ -24817,7 +24820,7 @@
       </c>
       <c r="Y294" s="22"/>
     </row>
-    <row r="295" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="295" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A295" s="22" t="s">
         <v>1223</v>
       </c>
@@ -24848,7 +24851,7 @@
       </c>
       <c r="Y295" s="22"/>
     </row>
-    <row r="296" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="296" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A296" s="22" t="s">
         <v>543</v>
       </c>
@@ -24902,7 +24905,7 @@
       </c>
       <c r="Y296" s="22"/>
     </row>
-    <row r="297" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="297" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A297" s="22" t="s">
         <v>544</v>
       </c>
@@ -24962,7 +24965,7 @@
       </c>
       <c r="Y297" s="22"/>
     </row>
-    <row r="298" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="298" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A298" s="22" t="s">
         <v>545</v>
       </c>
@@ -25022,7 +25025,7 @@
       </c>
       <c r="Y298" s="22"/>
     </row>
-    <row r="299" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="299" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A299" s="22" t="s">
         <v>546</v>
       </c>
@@ -25082,7 +25085,7 @@
       </c>
       <c r="Y299" s="22"/>
     </row>
-    <row r="300" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="300" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A300" s="22" t="s">
         <v>547</v>
       </c>
@@ -25142,7 +25145,7 @@
       </c>
       <c r="Y300" s="22"/>
     </row>
-    <row r="301" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="301" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A301" s="22" t="s">
         <v>548</v>
       </c>
@@ -25196,7 +25199,7 @@
       </c>
       <c r="Y301" s="22"/>
     </row>
-    <row r="302" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="302" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A302" s="22" t="s">
         <v>549</v>
       </c>
@@ -25247,7 +25250,7 @@
       </c>
       <c r="Y302" s="22"/>
     </row>
-    <row r="303" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="303" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A303" s="22" t="s">
         <v>550</v>
       </c>
@@ -25298,7 +25301,7 @@
       </c>
       <c r="Y303" s="22"/>
     </row>
-    <row r="304" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="304" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A304" s="22" t="s">
         <v>551</v>
       </c>
@@ -25346,7 +25349,7 @@
       </c>
       <c r="Y304" s="22"/>
     </row>
-    <row r="305" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="305" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A305" s="22" t="s">
         <v>552</v>
       </c>
@@ -25394,7 +25397,7 @@
       </c>
       <c r="Y305" s="22"/>
     </row>
-    <row r="306" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="306" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A306" s="22" t="s">
         <v>553</v>
       </c>
@@ -25446,7 +25449,7 @@
       <c r="X306" s="25"/>
       <c r="Y306" s="22"/>
     </row>
-    <row r="307" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="307" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A307" s="22" t="s">
         <v>554</v>
       </c>
@@ -25497,7 +25500,7 @@
       </c>
       <c r="Y307" s="22"/>
     </row>
-    <row r="308" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="308" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A308" s="22" t="s">
         <v>555</v>
       </c>
@@ -25545,7 +25548,7 @@
       </c>
       <c r="Y308" s="22"/>
     </row>
-    <row r="309" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="309" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A309" s="22" t="s">
         <v>556</v>
       </c>
@@ -25593,7 +25596,7 @@
       </c>
       <c r="Y309" s="22"/>
     </row>
-    <row r="310" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="310" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A310" s="22" t="s">
         <v>557</v>
       </c>
@@ -25647,7 +25650,7 @@
       </c>
       <c r="Y310" s="22"/>
     </row>
-    <row r="311" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="311" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A311" s="22" t="s">
         <v>558</v>
       </c>
@@ -25695,7 +25698,7 @@
       </c>
       <c r="Y311" s="22"/>
     </row>
-    <row r="312" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="312" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A312" s="22" t="s">
         <v>559</v>
       </c>
@@ -25743,7 +25746,7 @@
       </c>
       <c r="Y312" s="22"/>
     </row>
-    <row r="313" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="313" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A313" s="22" t="s">
         <v>560</v>
       </c>
@@ -25791,7 +25794,7 @@
       </c>
       <c r="Y313" s="22"/>
     </row>
-    <row r="314" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="314" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A314" s="22" t="s">
         <v>561</v>
       </c>
@@ -25851,7 +25854,7 @@
       </c>
       <c r="Y314" s="22"/>
     </row>
-    <row r="315" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="315" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A315" s="22" t="s">
         <v>562</v>
       </c>
@@ -25899,7 +25902,7 @@
       </c>
       <c r="Y315" s="22"/>
     </row>
-    <row r="316" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="316" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A316" s="22" t="s">
         <v>563</v>
       </c>
@@ -25947,7 +25950,7 @@
       </c>
       <c r="Y316" s="22"/>
     </row>
-    <row r="317" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="317" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A317" s="22" t="s">
         <v>564</v>
       </c>
@@ -25995,7 +25998,7 @@
       </c>
       <c r="Y317" s="22"/>
     </row>
-    <row r="318" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="318" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A318" s="22" t="s">
         <v>565</v>
       </c>
@@ -26043,7 +26046,7 @@
       </c>
       <c r="Y318" s="22"/>
     </row>
-    <row r="319" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="319" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A319" s="22" t="s">
         <v>566</v>
       </c>
@@ -26091,7 +26094,7 @@
       </c>
       <c r="Y319" s="22"/>
     </row>
-    <row r="320" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="320" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A320" s="22" t="s">
         <v>567</v>
       </c>
@@ -26139,7 +26142,7 @@
       </c>
       <c r="Y320" s="22"/>
     </row>
-    <row r="321" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="321" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A321" s="22" t="s">
         <v>568</v>
       </c>
@@ -26191,7 +26194,7 @@
       </c>
       <c r="Y321" s="22"/>
     </row>
-    <row r="322" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="322" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A322" s="22" t="s">
         <v>569</v>
       </c>
@@ -26243,7 +26246,7 @@
       </c>
       <c r="Y322" s="22"/>
     </row>
-    <row r="323" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="323" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A323" s="22" t="s">
         <v>570</v>
       </c>
@@ -26295,7 +26298,7 @@
       </c>
       <c r="Y323" s="22"/>
     </row>
-    <row r="324" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="324" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A324" s="22" t="s">
         <v>571</v>
       </c>
@@ -26347,7 +26350,7 @@
       </c>
       <c r="Y324" s="22"/>
     </row>
-    <row r="325" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="325" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A325" s="22" t="s">
         <v>572</v>
       </c>
@@ -26399,7 +26402,7 @@
       </c>
       <c r="Y325" s="22"/>
     </row>
-    <row r="326" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="326" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A326" s="22" t="s">
         <v>573</v>
       </c>
@@ -26451,7 +26454,7 @@
       </c>
       <c r="Y326" s="22"/>
     </row>
-    <row r="327" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="327" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A327" s="22" t="s">
         <v>574</v>
       </c>
@@ -26506,7 +26509,7 @@
       </c>
       <c r="Y327" s="22"/>
     </row>
-    <row r="328" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="328" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A328" s="22" t="s">
         <v>575</v>
       </c>
@@ -26558,7 +26561,7 @@
       </c>
       <c r="Y328" s="22"/>
     </row>
-    <row r="329" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="329" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A329" s="22" t="s">
         <v>576</v>
       </c>
@@ -26610,7 +26613,7 @@
       </c>
       <c r="Y329" s="22"/>
     </row>
-    <row r="330" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="330" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A330" s="22" t="s">
         <v>577</v>
       </c>
@@ -26662,7 +26665,7 @@
       </c>
       <c r="Y330" s="22"/>
     </row>
-    <row r="331" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="331" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A331" s="22" t="s">
         <v>578</v>
       </c>
@@ -26714,7 +26717,7 @@
       </c>
       <c r="Y331" s="22"/>
     </row>
-    <row r="332" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="332" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A332" s="22" t="s">
         <v>579</v>
       </c>
@@ -26766,7 +26769,7 @@
       </c>
       <c r="Y332" s="22"/>
     </row>
-    <row r="333" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="333" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A333" s="22" t="s">
         <v>580</v>
       </c>
@@ -26818,7 +26821,7 @@
       </c>
       <c r="Y333" s="22"/>
     </row>
-    <row r="334" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="334" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A334" s="22" t="s">
         <v>581</v>
       </c>
@@ -26866,7 +26869,7 @@
       </c>
       <c r="Y334" s="22"/>
     </row>
-    <row r="335" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="335" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A335" s="22" t="s">
         <v>582</v>
       </c>
@@ -26924,7 +26927,7 @@
       </c>
       <c r="Y335" s="22"/>
     </row>
-    <row r="336" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="336" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A336" s="22" t="s">
         <v>583</v>
       </c>
@@ -26985,7 +26988,7 @@
       </c>
       <c r="Y336" s="22"/>
     </row>
-    <row r="337" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="337" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A337" s="22" t="s">
         <v>584</v>
       </c>
@@ -27037,7 +27040,7 @@
       </c>
       <c r="Y337" s="22"/>
     </row>
-    <row r="338" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="338" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A338" s="22" t="s">
         <v>585</v>
       </c>
@@ -27089,7 +27092,7 @@
       </c>
       <c r="Y338" s="22"/>
     </row>
-    <row r="339" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="339" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A339" s="22" t="s">
         <v>586</v>
       </c>
@@ -27147,7 +27150,7 @@
       </c>
       <c r="Y339" s="22"/>
     </row>
-    <row r="340" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="340" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A340" s="22" t="s">
         <v>1227</v>
       </c>
@@ -27178,7 +27181,7 @@
       </c>
       <c r="Y340" s="22"/>
     </row>
-    <row r="341" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="341" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A341" s="22" t="s">
         <v>1228</v>
       </c>
@@ -27209,7 +27212,7 @@
       </c>
       <c r="Y341" s="22"/>
     </row>
-    <row r="342" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="342" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A342" s="22" t="s">
         <v>587</v>
       </c>
@@ -27260,7 +27263,7 @@
       </c>
       <c r="Y342" s="22"/>
     </row>
-    <row r="343" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="343" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A343" s="22" t="s">
         <v>588</v>
       </c>
@@ -27311,7 +27314,7 @@
       </c>
       <c r="Y343" s="22"/>
     </row>
-    <row r="344" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="344" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A344" s="22" t="s">
         <v>589</v>
       </c>
@@ -27359,7 +27362,7 @@
       </c>
       <c r="Y344" s="22"/>
     </row>
-    <row r="345" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="345" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A345" s="22" t="s">
         <v>590</v>
       </c>
@@ -27407,7 +27410,7 @@
       </c>
       <c r="Y345" s="22"/>
     </row>
-    <row r="346" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="346" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A346" s="22" t="s">
         <v>591</v>
       </c>
@@ -27455,7 +27458,7 @@
       </c>
       <c r="Y346" s="22"/>
     </row>
-    <row r="347" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="347" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A347" s="22" t="s">
         <v>592</v>
       </c>
@@ -27503,7 +27506,7 @@
       </c>
       <c r="Y347" s="22"/>
     </row>
-    <row r="348" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="348" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A348" s="22" t="s">
         <v>1247</v>
       </c>
@@ -27534,7 +27537,7 @@
       </c>
       <c r="Y348" s="22"/>
     </row>
-    <row r="349" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="349" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A349" s="22" t="s">
         <v>593</v>
       </c>
@@ -27582,7 +27585,7 @@
       </c>
       <c r="Y349" s="22"/>
     </row>
-    <row r="350" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="350" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A350" s="22" t="s">
         <v>594</v>
       </c>
@@ -27633,7 +27636,7 @@
       </c>
       <c r="Y350" s="22"/>
     </row>
-    <row r="351" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="351" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A351" s="22" t="s">
         <v>595</v>
       </c>
@@ -27687,7 +27690,7 @@
       </c>
       <c r="Y351" s="22"/>
     </row>
-    <row r="352" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="352" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A352" s="22" t="s">
         <v>596</v>
       </c>
@@ -27732,7 +27735,7 @@
       <c r="X352" s="25"/>
       <c r="Y352" s="22"/>
     </row>
-    <row r="353" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="353" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A353" s="22" t="s">
         <v>597</v>
       </c>
@@ -27792,7 +27795,7 @@
       </c>
       <c r="Y353" s="22"/>
     </row>
-    <row r="354" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="354" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A354" s="22" t="s">
         <v>598</v>
       </c>
@@ -27849,7 +27852,7 @@
       </c>
       <c r="Y354" s="22"/>
     </row>
-    <row r="355" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="355" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A355" s="22" t="s">
         <v>1241</v>
       </c>
@@ -27886,7 +27889,7 @@
       </c>
       <c r="Y355" s="22"/>
     </row>
-    <row r="356" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="356" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A356" s="22" t="s">
         <v>1224</v>
       </c>
@@ -27917,7 +27920,7 @@
       </c>
       <c r="Y356" s="22"/>
     </row>
-    <row r="357" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="357" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A357" s="22" t="s">
         <v>599</v>
       </c>
@@ -27972,7 +27975,7 @@
       </c>
       <c r="Y357" s="22"/>
     </row>
-    <row r="358" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="358" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A358" s="22" t="s">
         <v>600</v>
       </c>
@@ -28024,7 +28027,7 @@
       </c>
       <c r="Y358" s="22"/>
     </row>
-    <row r="359" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="359" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A359" s="22" t="s">
         <v>601</v>
       </c>
@@ -28076,7 +28079,7 @@
       </c>
       <c r="Y359" s="22"/>
     </row>
-    <row r="360" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="360" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A360" s="22" t="s">
         <v>602</v>
       </c>
@@ -28128,7 +28131,7 @@
       </c>
       <c r="Y360" s="22"/>
     </row>
-    <row r="361" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="361" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A361" s="22" t="s">
         <v>603</v>
       </c>
@@ -28180,7 +28183,7 @@
       </c>
       <c r="Y361" s="22"/>
     </row>
-    <row r="362" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="362" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A362" s="22" t="s">
         <v>604</v>
       </c>
@@ -28232,7 +28235,7 @@
       </c>
       <c r="Y362" s="22"/>
     </row>
-    <row r="363" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="363" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A363" s="22" t="s">
         <v>605</v>
       </c>
@@ -28285,7 +28288,7 @@
       <c r="X363" s="25"/>
       <c r="Y363" s="22"/>
     </row>
-    <row r="364" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="364" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A364" s="22" t="s">
         <v>606</v>
       </c>
@@ -28338,7 +28341,7 @@
       <c r="X364" s="25"/>
       <c r="Y364" s="22"/>
     </row>
-    <row r="365" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="365" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A365" s="22" t="s">
         <v>1244</v>
       </c>
@@ -28377,7 +28380,7 @@
       <c r="X365" s="25"/>
       <c r="Y365" s="22"/>
     </row>
-    <row r="366" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="366" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A366" s="22" t="s">
         <v>607</v>
       </c>
@@ -28421,7 +28424,7 @@
       <c r="X366" s="25"/>
       <c r="Y366" s="22"/>
     </row>
-    <row r="367" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="367" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A367" s="22" t="s">
         <v>608</v>
       </c>
@@ -28473,7 +28476,7 @@
       </c>
       <c r="Y367" s="22"/>
     </row>
-    <row r="368" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="368" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A368" s="22" t="s">
         <v>609</v>
       </c>
@@ -28525,7 +28528,7 @@
       </c>
       <c r="Y368" s="22"/>
     </row>
-    <row r="369" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="369" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A369" s="22" t="s">
         <v>610</v>
       </c>
@@ -28577,7 +28580,7 @@
       </c>
       <c r="Y369" s="22"/>
     </row>
-    <row r="370" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="370" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A370" s="22" t="s">
         <v>611</v>
       </c>
@@ -28629,7 +28632,7 @@
       </c>
       <c r="Y370" s="22"/>
     </row>
-    <row r="371" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="371" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A371" s="22" t="s">
         <v>612</v>
       </c>
@@ -28681,7 +28684,7 @@
       </c>
       <c r="Y371" s="22"/>
     </row>
-    <row r="372" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="372" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A372" s="22" t="s">
         <v>613</v>
       </c>
@@ -28729,7 +28732,7 @@
       </c>
       <c r="Y372" s="22"/>
     </row>
-    <row r="373" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="373" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A373" s="22" t="s">
         <v>614</v>
       </c>
@@ -28777,7 +28780,7 @@
       </c>
       <c r="Y373" s="22"/>
     </row>
-    <row r="374" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="374" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A374" s="22" t="s">
         <v>615</v>
       </c>
@@ -28825,7 +28828,7 @@
       </c>
       <c r="Y374" s="22"/>
     </row>
-    <row r="375" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="375" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A375" s="22" t="s">
         <v>616</v>
       </c>
@@ -28873,7 +28876,7 @@
       </c>
       <c r="Y375" s="22"/>
     </row>
-    <row r="376" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="376" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A376" s="22" t="s">
         <v>617</v>
       </c>
@@ -28933,7 +28936,7 @@
       </c>
       <c r="Y376" s="22"/>
     </row>
-    <row r="377" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="377" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A377" s="22" t="s">
         <v>618</v>
       </c>
@@ -28979,7 +28982,7 @@
       <c r="R377" s="49"/>
       <c r="Y377" s="22"/>
     </row>
-    <row r="378" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="378" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A378" s="22" t="s">
         <v>619</v>
       </c>
@@ -29027,7 +29030,7 @@
       </c>
       <c r="Y378" s="22"/>
     </row>
-    <row r="379" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="379" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A379" s="22" t="s">
         <v>620</v>
       </c>
@@ -29075,7 +29078,7 @@
       </c>
       <c r="Y379" s="22"/>
     </row>
-    <row r="380" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="380" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A380" s="22" t="s">
         <v>621</v>
       </c>
@@ -29132,7 +29135,7 @@
       </c>
       <c r="Y380" s="22"/>
     </row>
-    <row r="381" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="381" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A381" s="22" t="s">
         <v>622</v>
       </c>
@@ -29186,7 +29189,7 @@
       </c>
       <c r="Y381" s="22"/>
     </row>
-    <row r="382" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="382" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A382" s="22" t="s">
         <v>623</v>
       </c>
@@ -29237,7 +29240,7 @@
       </c>
       <c r="Y382" s="22"/>
     </row>
-    <row r="383" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="383" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A383" s="22" t="s">
         <v>624</v>
       </c>
@@ -29294,7 +29297,7 @@
       </c>
       <c r="Y383" s="22"/>
     </row>
-    <row r="384" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="384" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A384" s="22" t="s">
         <v>625</v>
       </c>
@@ -29342,7 +29345,7 @@
       </c>
       <c r="Y384" s="22"/>
     </row>
-    <row r="385" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="385" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A385" s="22" t="s">
         <v>626</v>
       </c>
@@ -29390,7 +29393,7 @@
       </c>
       <c r="Y385" s="22"/>
     </row>
-    <row r="386" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="386" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A386" s="22" t="s">
         <v>627</v>
       </c>
@@ -29438,7 +29441,7 @@
       </c>
       <c r="Y386" s="22"/>
     </row>
-    <row r="387" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="387" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A387" s="22" t="s">
         <v>628</v>
       </c>
@@ -29486,7 +29489,7 @@
       </c>
       <c r="Y387" s="22"/>
     </row>
-    <row r="388" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="388" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A388" s="22" t="s">
         <v>629</v>
       </c>
@@ -29534,7 +29537,7 @@
       </c>
       <c r="Y388" s="22"/>
     </row>
-    <row r="389" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="389" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A389" s="22" t="s">
         <v>630</v>
       </c>
@@ -29582,7 +29585,7 @@
       </c>
       <c r="Y389" s="22"/>
     </row>
-    <row r="390" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="390" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A390" s="22" t="s">
         <v>631</v>
       </c>
@@ -29631,7 +29634,7 @@
       <c r="X390" s="25"/>
       <c r="Y390" s="22"/>
     </row>
-    <row r="391" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="391" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A391" s="22" t="s">
         <v>632</v>
       </c>
@@ -29679,7 +29682,7 @@
       </c>
       <c r="Y391" s="22"/>
     </row>
-    <row r="392" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="392" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A392" s="22" t="s">
         <v>633</v>
       </c>
@@ -29727,7 +29730,7 @@
       </c>
       <c r="Y392" s="22"/>
     </row>
-    <row r="393" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="393" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A393" s="22" t="s">
         <v>634</v>
       </c>
@@ -29775,7 +29778,7 @@
       </c>
       <c r="Y393" s="22"/>
     </row>
-    <row r="394" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="394" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A394" s="22" t="s">
         <v>635</v>
       </c>
@@ -29824,7 +29827,7 @@
       <c r="X394" s="25"/>
       <c r="Y394" s="22"/>
     </row>
-    <row r="395" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="395" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A395" s="22" t="s">
         <v>636</v>
       </c>
@@ -29873,7 +29876,7 @@
       <c r="X395" s="25"/>
       <c r="Y395" s="22"/>
     </row>
-    <row r="396" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="396" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A396" s="22" t="s">
         <v>637</v>
       </c>
@@ -29922,7 +29925,7 @@
       <c r="X396" s="25"/>
       <c r="Y396" s="22"/>
     </row>
-    <row r="397" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="397" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A397" s="22" t="s">
         <v>638</v>
       </c>
@@ -29971,7 +29974,7 @@
       <c r="X397" s="25"/>
       <c r="Y397" s="22"/>
     </row>
-    <row r="398" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="398" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A398" s="22" t="s">
         <v>639</v>
       </c>
@@ -30019,7 +30022,7 @@
       </c>
       <c r="Y398" s="22"/>
     </row>
-    <row r="399" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="399" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A399" s="22" t="s">
         <v>640</v>
       </c>
@@ -30071,7 +30074,7 @@
       </c>
       <c r="Y399" s="22"/>
     </row>
-    <row r="400" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="400" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A400" s="22" t="s">
         <v>641</v>
       </c>
@@ -30123,7 +30126,7 @@
       </c>
       <c r="Y400" s="22"/>
     </row>
-    <row r="401" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="401" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A401" s="22" t="s">
         <v>642</v>
       </c>
@@ -30178,7 +30181,7 @@
       </c>
       <c r="Y401" s="22"/>
     </row>
-    <row r="402" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="402" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A402" s="22" t="s">
         <v>643</v>
       </c>
@@ -30230,7 +30233,7 @@
       </c>
       <c r="Y402" s="22"/>
     </row>
-    <row r="403" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="403" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A403" s="22" t="s">
         <v>644</v>
       </c>
@@ -30285,7 +30288,7 @@
       </c>
       <c r="Y403" s="22"/>
     </row>
-    <row r="404" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="404" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A404" s="22" t="s">
         <v>645</v>
       </c>
@@ -30329,7 +30332,7 @@
       <c r="R404" s="49"/>
       <c r="Y404" s="22"/>
     </row>
-    <row r="405" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="405" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A405" s="22" t="s">
         <v>646</v>
       </c>
@@ -30377,7 +30380,7 @@
       </c>
       <c r="Y405" s="22"/>
     </row>
-    <row r="406" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="406" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A406" s="22" t="s">
         <v>647</v>
       </c>
@@ -30429,7 +30432,7 @@
       </c>
       <c r="Y406" s="22"/>
     </row>
-    <row r="407" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="407" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A407" s="22" t="s">
         <v>648</v>
       </c>
@@ -30484,7 +30487,7 @@
       </c>
       <c r="Y407" s="22"/>
     </row>
-    <row r="408" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="408" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A408" s="22" t="s">
         <v>649</v>
       </c>
@@ -30535,7 +30538,7 @@
       </c>
       <c r="Y408" s="22"/>
     </row>
-    <row r="409" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="409" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A409" s="22" t="s">
         <v>650</v>
       </c>
@@ -30583,7 +30586,7 @@
       </c>
       <c r="Y409" s="22"/>
     </row>
-    <row r="410" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="410" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A410" s="22" t="s">
         <v>651</v>
       </c>
@@ -30625,7 +30628,7 @@
       </c>
       <c r="Y410" s="22"/>
     </row>
-    <row r="411" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="411" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A411" s="22" t="s">
         <v>652</v>
       </c>
@@ -30677,7 +30680,7 @@
       </c>
       <c r="Y411" s="22"/>
     </row>
-    <row r="412" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="412" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A412" s="22" t="s">
         <v>653</v>
       </c>
@@ -30730,7 +30733,7 @@
       <c r="X412" s="25"/>
       <c r="Y412" s="22"/>
     </row>
-    <row r="413" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="413" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A413" s="22" t="s">
         <v>654</v>
       </c>
@@ -30782,7 +30785,7 @@
       </c>
       <c r="Y413" s="22"/>
     </row>
-    <row r="414" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="414" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A414" s="22" t="s">
         <v>655</v>
       </c>
@@ -30834,7 +30837,7 @@
       </c>
       <c r="Y414" s="22"/>
     </row>
-    <row r="415" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="415" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A415" s="22" t="s">
         <v>656</v>
       </c>
@@ -30889,7 +30892,7 @@
       </c>
       <c r="Y415" s="22"/>
     </row>
-    <row r="416" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="416" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A416" s="22" t="s">
         <v>657</v>
       </c>
@@ -30941,7 +30944,7 @@
       </c>
       <c r="Y416" s="22"/>
     </row>
-    <row r="417" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="417" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A417" s="22" t="s">
         <v>658</v>
       </c>
@@ -30986,7 +30989,7 @@
       </c>
       <c r="Y417" s="22"/>
     </row>
-    <row r="418" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="418" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A418" s="22" t="s">
         <v>659</v>
       </c>
@@ -31034,7 +31037,7 @@
       </c>
       <c r="Y418" s="22"/>
     </row>
-    <row r="419" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="419" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A419" s="22" t="s">
         <v>660</v>
       </c>
@@ -31083,7 +31086,7 @@
       <c r="X419" s="25"/>
       <c r="Y419" s="22"/>
     </row>
-    <row r="420" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="420" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A420" s="22" t="s">
         <v>661</v>
       </c>
@@ -31132,7 +31135,7 @@
       <c r="X420" s="25"/>
       <c r="Y420" s="22"/>
     </row>
-    <row r="421" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="421" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A421" s="22" t="s">
         <v>662</v>
       </c>
@@ -31181,7 +31184,7 @@
       <c r="X421" s="25"/>
       <c r="Y421" s="22"/>
     </row>
-    <row r="422" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="422" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A422" s="22" t="s">
         <v>663</v>
       </c>
@@ -31229,7 +31232,7 @@
       </c>
       <c r="Y422" s="22"/>
     </row>
-    <row r="423" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="423" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A423" s="22" t="s">
         <v>664</v>
       </c>
@@ -31277,7 +31280,7 @@
       </c>
       <c r="Y423" s="22"/>
     </row>
-    <row r="424" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="424" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A424" s="22" t="s">
         <v>665</v>
       </c>
@@ -31325,7 +31328,7 @@
       </c>
       <c r="Y424" s="22"/>
     </row>
-    <row r="425" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="425" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A425" s="22" t="s">
         <v>666</v>
       </c>
@@ -31373,7 +31376,7 @@
       </c>
       <c r="Y425" s="22"/>
     </row>
-    <row r="426" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="426" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A426" s="22" t="s">
         <v>667</v>
       </c>
@@ -31421,7 +31424,7 @@
       </c>
       <c r="Y426" s="22"/>
     </row>
-    <row r="427" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="427" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A427" s="22" t="s">
         <v>668</v>
       </c>
@@ -31469,7 +31472,7 @@
       </c>
       <c r="Y427" s="22"/>
     </row>
-    <row r="428" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="428" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A428" s="22" t="s">
         <v>669</v>
       </c>
@@ -31517,7 +31520,7 @@
       </c>
       <c r="Y428" s="22"/>
     </row>
-    <row r="429" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="429" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A429" s="22" t="s">
         <v>670</v>
       </c>
@@ -31565,7 +31568,7 @@
       </c>
       <c r="Y429" s="22"/>
     </row>
-    <row r="430" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="430" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A430" s="22" t="s">
         <v>671</v>
       </c>
@@ -31613,7 +31616,7 @@
       </c>
       <c r="Y430" s="22"/>
     </row>
-    <row r="431" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="431" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A431" s="22" t="s">
         <v>672</v>
       </c>
@@ -31661,7 +31664,7 @@
       </c>
       <c r="Y431" s="22"/>
     </row>
-    <row r="432" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="432" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A432" s="22" t="s">
         <v>673</v>
       </c>
@@ -31709,7 +31712,7 @@
       </c>
       <c r="Y432" s="22"/>
     </row>
-    <row r="433" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="433" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A433" s="22" t="s">
         <v>674</v>
       </c>
@@ -31757,7 +31760,7 @@
       </c>
       <c r="Y433" s="22"/>
     </row>
-    <row r="434" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="434" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A434" s="22" t="s">
         <v>675</v>
       </c>
@@ -31805,7 +31808,7 @@
       </c>
       <c r="Y434" s="22"/>
     </row>
-    <row r="435" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="435" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A435" s="22" t="s">
         <v>676</v>
       </c>
@@ -31853,7 +31856,7 @@
       </c>
       <c r="Y435" s="22"/>
     </row>
-    <row r="436" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="436" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A436" s="22" t="s">
         <v>677</v>
       </c>
@@ -31905,7 +31908,7 @@
       </c>
       <c r="Y436" s="22"/>
     </row>
-    <row r="437" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="437" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A437" s="22" t="s">
         <v>678</v>
       </c>
@@ -31957,7 +31960,7 @@
       </c>
       <c r="Y437" s="22"/>
     </row>
-    <row r="438" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="438" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A438" s="22" t="s">
         <v>679</v>
       </c>
@@ -32009,7 +32012,7 @@
       </c>
       <c r="Y438" s="22"/>
     </row>
-    <row r="439" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="439" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A439" s="22" t="s">
         <v>680</v>
       </c>
@@ -32061,7 +32064,7 @@
       </c>
       <c r="Y439" s="22"/>
     </row>
-    <row r="440" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="440" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A440" s="22" t="s">
         <v>681</v>
       </c>
@@ -32113,7 +32116,7 @@
       </c>
       <c r="Y440" s="22"/>
     </row>
-    <row r="441" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="441" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A441" s="22" t="s">
         <v>682</v>
       </c>
@@ -32165,7 +32168,7 @@
       </c>
       <c r="Y441" s="22"/>
     </row>
-    <row r="442" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="442" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A442" s="22" t="s">
         <v>683</v>
       </c>
@@ -32213,7 +32216,7 @@
       </c>
       <c r="Y442" s="22"/>
     </row>
-    <row r="443" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="443" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A443" s="22" t="s">
         <v>684</v>
       </c>
@@ -32261,7 +32264,7 @@
       </c>
       <c r="Y443" s="22"/>
     </row>
-    <row r="444" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="444" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A444" s="22" t="s">
         <v>685</v>
       </c>
@@ -32309,7 +32312,7 @@
       </c>
       <c r="Y444" s="22"/>
     </row>
-    <row r="445" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="445" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A445" s="22" t="s">
         <v>686</v>
       </c>
@@ -32357,7 +32360,7 @@
       </c>
       <c r="Y445" s="22"/>
     </row>
-    <row r="446" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="446" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A446" s="22" t="s">
         <v>687</v>
       </c>
@@ -32405,7 +32408,7 @@
       </c>
       <c r="Y446" s="22"/>
     </row>
-    <row r="447" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="447" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A447" s="22" t="s">
         <v>688</v>
       </c>
@@ -32453,7 +32456,7 @@
       </c>
       <c r="Y447" s="22"/>
     </row>
-    <row r="448" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="448" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A448" s="22" t="s">
         <v>689</v>
       </c>
@@ -32501,7 +32504,7 @@
       </c>
       <c r="Y448" s="22"/>
     </row>
-    <row r="449" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="449" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A449" s="22" t="s">
         <v>690</v>
       </c>
@@ -32549,7 +32552,7 @@
       </c>
       <c r="Y449" s="22"/>
     </row>
-    <row r="450" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="450" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A450" s="22" t="s">
         <v>691</v>
       </c>
@@ -32597,7 +32600,7 @@
       </c>
       <c r="Y450" s="22"/>
     </row>
-    <row r="451" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="451" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A451" s="22" t="s">
         <v>692</v>
       </c>
@@ -32645,7 +32648,7 @@
       </c>
       <c r="Y451" s="22"/>
     </row>
-    <row r="452" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="452" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A452" s="22" t="s">
         <v>693</v>
       </c>
@@ -32696,7 +32699,7 @@
       </c>
       <c r="Y452" s="22"/>
     </row>
-    <row r="453" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="453" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A453" s="22" t="s">
         <v>694</v>
       </c>
@@ -32756,7 +32759,7 @@
       </c>
       <c r="Y453" s="22"/>
     </row>
-    <row r="454" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="454" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A454" s="22" t="s">
         <v>695</v>
       </c>
@@ -32804,7 +32807,7 @@
       </c>
       <c r="Y454" s="22"/>
     </row>
-    <row r="455" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="455" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A455" s="22" t="s">
         <v>696</v>
       </c>
@@ -32861,7 +32864,7 @@
       </c>
       <c r="Y455" s="22"/>
     </row>
-    <row r="456" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="456" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A456" s="22" t="s">
         <v>697</v>
       </c>
@@ -32912,7 +32915,7 @@
       </c>
       <c r="Y456" s="22"/>
     </row>
-    <row r="457" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="457" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A457" s="22" t="s">
         <v>698</v>
       </c>
@@ -32960,7 +32963,7 @@
       </c>
       <c r="Y457" s="22"/>
     </row>
-    <row r="458" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="458" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A458" s="22" t="s">
         <v>699</v>
       </c>
@@ -33008,7 +33011,7 @@
       </c>
       <c r="Y458" s="22"/>
     </row>
-    <row r="459" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="459" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A459" s="22" t="s">
         <v>700</v>
       </c>
@@ -33057,7 +33060,7 @@
       <c r="X459" s="25"/>
       <c r="Y459" s="22"/>
     </row>
-    <row r="460" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="460" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A460" s="22" t="s">
         <v>701</v>
       </c>
@@ -33106,7 +33109,7 @@
       <c r="X460" s="25"/>
       <c r="Y460" s="22"/>
     </row>
-    <row r="461" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="461" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A461" s="22" t="s">
         <v>702</v>
       </c>
@@ -33155,7 +33158,7 @@
       <c r="X461" s="25"/>
       <c r="Y461" s="22"/>
     </row>
-    <row r="462" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="462" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A462" s="22" t="s">
         <v>701</v>
       </c>
@@ -33200,7 +33203,7 @@
       <c r="X462" s="25"/>
       <c r="Y462" s="22"/>
     </row>
-    <row r="463" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="463" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A463" s="26" t="s">
         <v>752</v>
       </c>
@@ -33256,7 +33259,7 @@
         <v>46.504219055175781</v>
       </c>
     </row>
-    <row r="464" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="464" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A464" s="26" t="s">
         <v>753</v>
       </c>
@@ -33312,7 +33315,7 @@
         <v>47.249778747558594</v>
       </c>
     </row>
-    <row r="465" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="465" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A465" s="26" t="s">
         <v>722</v>
       </c>
@@ -33375,7 +33378,7 @@
         <v>47.013458251953125</v>
       </c>
     </row>
-    <row r="466" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="466" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A466" s="26" t="s">
         <v>723</v>
       </c>
@@ -33438,7 +33441,7 @@
         <v>47.910102844238281</v>
       </c>
     </row>
-    <row r="467" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="467" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A467" s="26" t="s">
         <v>754</v>
       </c>
@@ -33494,7 +33497,7 @@
         <v>46.813705444335938</v>
       </c>
     </row>
-    <row r="468" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="468" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A468" s="26" t="s">
         <v>729</v>
       </c>
@@ -33557,7 +33560,7 @@
         <v>47.471855163574219</v>
       </c>
     </row>
-    <row r="469" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="469" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A469" s="26" t="s">
         <v>755</v>
       </c>
@@ -33613,7 +33616,7 @@
         <v>49.896781921386719</v>
       </c>
     </row>
-    <row r="470" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="470" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A470" s="26" t="s">
         <v>756</v>
       </c>
@@ -33669,7 +33672,7 @@
         <v>48.87286376953125</v>
       </c>
     </row>
-    <row r="471" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="471" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A471" s="26" t="s">
         <v>757</v>
       </c>
@@ -33725,7 +33728,7 @@
         <v>49.282939910888672</v>
       </c>
     </row>
-    <row r="472" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="472" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A472" s="26" t="s">
         <v>758</v>
       </c>
@@ -33781,7 +33784,7 @@
         <v>49.107826232910156</v>
       </c>
     </row>
-    <row r="473" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="473" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A473" s="26" t="s">
         <v>759</v>
       </c>
@@ -33837,7 +33840,7 @@
         <v>49.317405700683594</v>
       </c>
     </row>
-    <row r="474" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="474" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A474" s="26" t="s">
         <v>760</v>
       </c>
@@ -33893,7 +33896,7 @@
         <v>49.925582885742188</v>
       </c>
     </row>
-    <row r="475" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="475" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A475" s="26" t="s">
         <v>761</v>
       </c>
@@ -33949,7 +33952,7 @@
         <v>46.900230407714844</v>
       </c>
     </row>
-    <row r="476" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="476" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A476" s="26" t="s">
         <v>762</v>
       </c>
@@ -34005,7 +34008,7 @@
         <v>47.921794891357422</v>
       </c>
     </row>
-    <row r="477" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="477" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A477" s="26" t="s">
         <v>721</v>
       </c>
@@ -34068,7 +34071,7 @@
         <v>47.444461822509766</v>
       </c>
     </row>
-    <row r="478" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="478" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A478" s="26" t="s">
         <v>733</v>
       </c>
@@ -34131,7 +34134,7 @@
         <v>47.812065124511719</v>
       </c>
     </row>
-    <row r="479" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="479" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A479" s="26" t="s">
         <v>763</v>
       </c>
@@ -34188,7 +34191,7 @@
         <v>47.713325500488281</v>
       </c>
     </row>
-    <row r="480" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="480" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A480" s="26" t="s">
         <v>764</v>
       </c>
@@ -34237,7 +34240,7 @@
         <v>46.914936065673828</v>
       </c>
     </row>
-    <row r="481" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="481" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A481" s="26" t="s">
         <v>724</v>
       </c>
@@ -34300,7 +34303,7 @@
         <v>50.832294464111328</v>
       </c>
     </row>
-    <row r="482" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="482" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A482" s="26" t="s">
         <v>726</v>
       </c>
@@ -34363,7 +34366,7 @@
         <v>47.927730560302734</v>
       </c>
     </row>
-    <row r="483" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="483" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A483" s="26" t="s">
         <v>713</v>
       </c>
@@ -34426,7 +34429,7 @@
         <v>50.644515991210938</v>
       </c>
     </row>
-    <row r="484" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="484" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A484" s="26" t="s">
         <v>728</v>
       </c>
@@ -34489,7 +34492,7 @@
         <v>49.819347381591797</v>
       </c>
     </row>
-    <row r="485" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="485" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A485" s="26" t="s">
         <v>765</v>
       </c>
@@ -34545,7 +34548,7 @@
         <v>48.676601409912109</v>
       </c>
     </row>
-    <row r="486" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="486" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A486" s="26" t="s">
         <v>727</v>
       </c>
@@ -34608,7 +34611,7 @@
         <v>47.606288909912109</v>
       </c>
     </row>
-    <row r="487" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="487" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A487" s="26" t="s">
         <v>766</v>
       </c>
@@ -34664,7 +34667,7 @@
         <v>48.831161499023438</v>
       </c>
     </row>
-    <row r="488" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="488" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A488" s="26" t="s">
         <v>767</v>
       </c>
@@ -34714,7 +34717,7 @@
         <v>47.127212524414062</v>
       </c>
     </row>
-    <row r="489" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="489" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A489" s="26" t="s">
         <v>768</v>
       </c>
@@ -34767,7 +34770,7 @@
         <v>47.913642883300781</v>
       </c>
     </row>
-    <row r="490" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="490" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A490" s="26" t="s">
         <v>769</v>
       </c>
@@ -34816,7 +34819,7 @@
         <v>47.210594177246094</v>
       </c>
     </row>
-    <row r="491" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="491" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A491" s="26" t="s">
         <v>770</v>
       </c>
@@ -34865,7 +34868,7 @@
         <v>46.864116668701172</v>
       </c>
     </row>
-    <row r="492" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="492" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A492" s="26" t="s">
         <v>771</v>
       </c>
@@ -34919,7 +34922,7 @@
         <v>46.447967529296875</v>
       </c>
     </row>
-    <row r="493" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="493" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A493" s="26" t="s">
         <v>772</v>
       </c>
@@ -34974,7 +34977,7 @@
         <v>46.119483947753906</v>
       </c>
     </row>
-    <row r="494" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="494" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A494" s="26" t="s">
         <v>773</v>
       </c>
@@ -35029,7 +35032,7 @@
         <v>47.021778106689453</v>
       </c>
     </row>
-    <row r="495" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="495" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A495" s="26" t="s">
         <v>774</v>
       </c>
@@ -35084,7 +35087,7 @@
         <v>46.668357849121094</v>
       </c>
     </row>
-    <row r="496" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="496" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A496" s="26" t="s">
         <v>775</v>
       </c>
@@ -35139,7 +35142,7 @@
         <v>46.436817169189453</v>
       </c>
     </row>
-    <row r="497" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="497" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A497" s="26" t="s">
         <v>776</v>
       </c>
@@ -35194,7 +35197,7 @@
         <v>46.316917419433594</v>
       </c>
     </row>
-    <row r="498" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="498" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A498" s="26" t="s">
         <v>777</v>
       </c>
@@ -35249,7 +35252,7 @@
         <v>47.411052703857422</v>
       </c>
     </row>
-    <row r="499" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="499" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A499" s="26" t="s">
         <v>778</v>
       </c>
@@ -35306,7 +35309,7 @@
         <v>47.471641540527344</v>
       </c>
     </row>
-    <row r="500" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="500" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A500" s="26" t="s">
         <v>779</v>
       </c>
@@ -35363,7 +35366,7 @@
         <v>47.90655517578125</v>
       </c>
     </row>
-    <row r="501" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="501" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A501" s="26" t="s">
         <v>780</v>
       </c>
@@ -35418,7 +35421,7 @@
         <v>47.509220123291016</v>
       </c>
     </row>
-    <row r="502" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="502" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A502" s="26" t="s">
         <v>781</v>
       </c>
@@ -35473,7 +35476,7 @@
         <v>47.105663299560547</v>
       </c>
     </row>
-    <row r="503" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="503" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A503" s="26" t="s">
         <v>782</v>
       </c>
@@ -35528,7 +35531,7 @@
         <v>47.228816986083984</v>
       </c>
     </row>
-    <row r="504" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="504" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A504" s="26" t="s">
         <v>783</v>
       </c>
@@ -35585,7 +35588,7 @@
         <v>45.514572143554688</v>
       </c>
     </row>
-    <row r="505" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="505" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A505" s="26" t="s">
         <v>732</v>
       </c>
@@ -35648,7 +35651,7 @@
         <v>46.22808837890625</v>
       </c>
     </row>
-    <row r="506" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="506" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A506" s="26" t="s">
         <v>784</v>
       </c>
@@ -35704,7 +35707,7 @@
         <v>45.234603881835938</v>
       </c>
     </row>
-    <row r="507" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="507" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A507" s="26" t="s">
         <v>785</v>
       </c>
@@ -35754,7 +35757,7 @@
         <v>45.050449371337891</v>
       </c>
     </row>
-    <row r="508" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="508" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A508" s="26" t="s">
         <v>786</v>
       </c>
@@ -35804,7 +35807,7 @@
         <v>44.044944763183594</v>
       </c>
     </row>
-    <row r="509" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="509" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A509" s="26" t="s">
         <v>787</v>
       </c>
@@ -35852,7 +35855,7 @@
         <v>44.012218475341797</v>
       </c>
     </row>
-    <row r="510" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="510" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A510" s="26" t="s">
         <v>788</v>
       </c>
@@ -35902,7 +35905,7 @@
         <v>44.17901611328125</v>
       </c>
     </row>
-    <row r="511" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="511" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A511" s="26" t="s">
         <v>789</v>
       </c>
@@ -35952,7 +35955,7 @@
         <v>45.044589996337891</v>
       </c>
     </row>
-    <row r="512" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="512" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A512" s="26" t="s">
         <v>790</v>
       </c>
@@ -36002,7 +36005,7 @@
         <v>45.255538940429688</v>
       </c>
     </row>
-    <row r="513" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="513" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A513" s="26" t="s">
         <v>791</v>
       </c>
@@ -36058,7 +36061,7 @@
         <v>46.899845123291016</v>
       </c>
     </row>
-    <row r="514" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="514" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A514" s="26" t="s">
         <v>792</v>
       </c>
@@ -36114,7 +36117,7 @@
         <v>46.445976257324219</v>
       </c>
     </row>
-    <row r="515" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="515" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A515" s="26" t="s">
         <v>714</v>
       </c>
@@ -36175,7 +36178,7 @@
         <v>46.869121551513672</v>
       </c>
     </row>
-    <row r="516" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="516" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A516" s="26" t="s">
         <v>793</v>
       </c>
@@ -36232,7 +36235,7 @@
         <v>46.753223419189453</v>
       </c>
     </row>
-    <row r="517" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="517" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A517" s="26" t="s">
         <v>794</v>
       </c>
@@ -36289,7 +36292,7 @@
         <v>46.504138946533203</v>
       </c>
     </row>
-    <row r="518" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="518" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A518" s="26" t="s">
         <v>795</v>
       </c>
@@ -36346,7 +36349,7 @@
         <v>45.175601959228516</v>
       </c>
     </row>
-    <row r="519" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="519" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A519" s="26" t="s">
         <v>710</v>
       </c>
@@ -36409,7 +36412,7 @@
         <v>47.221279144287109</v>
       </c>
     </row>
-    <row r="520" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="520" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A520" s="26" t="s">
         <v>796</v>
       </c>
@@ -36465,7 +36468,7 @@
         <v>47.057445526123047</v>
       </c>
     </row>
-    <row r="521" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="521" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A521" s="26" t="s">
         <v>797</v>
       </c>
@@ -36521,7 +36524,7 @@
         <v>48.099262237548828</v>
       </c>
     </row>
-    <row r="522" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="522" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A522" s="26" t="s">
         <v>798</v>
       </c>
@@ -36577,7 +36580,7 @@
         <v>47.785682678222656</v>
       </c>
     </row>
-    <row r="523" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="523" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A523" s="26" t="s">
         <v>799</v>
       </c>
@@ -36633,7 +36636,7 @@
         <v>47.690925598144531</v>
       </c>
     </row>
-    <row r="524" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="524" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A524" s="26" t="s">
         <v>800</v>
       </c>
@@ -36689,7 +36692,7 @@
         <v>47.661865234375</v>
       </c>
     </row>
-    <row r="525" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="525" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A525" s="26" t="s">
         <v>801</v>
       </c>
@@ -36745,7 +36748,7 @@
         <v>47.976593017578125</v>
       </c>
     </row>
-    <row r="526" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="526" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A526" s="26" t="s">
         <v>802</v>
       </c>
@@ -36801,7 +36804,7 @@
         <v>44.866504669189453</v>
       </c>
     </row>
-    <row r="527" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="527" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A527" s="26" t="s">
         <v>803</v>
       </c>
@@ -36857,7 +36860,7 @@
         <v>45.626701354980469</v>
       </c>
     </row>
-    <row r="528" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="528" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A528" s="26" t="s">
         <v>804</v>
       </c>
@@ -36913,7 +36916,7 @@
         <v>46.408428192138672</v>
       </c>
     </row>
-    <row r="529" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="529" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A529" s="26" t="s">
         <v>805</v>
       </c>
@@ -36969,7 +36972,7 @@
         <v>45.691715240478516</v>
       </c>
     </row>
-    <row r="530" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="530" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A530" s="26" t="s">
         <v>806</v>
       </c>
@@ -37025,7 +37028,7 @@
         <v>44.831638336181641</v>
       </c>
     </row>
-    <row r="531" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="531" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A531" s="26" t="s">
         <v>807</v>
       </c>
@@ -37081,7 +37084,7 @@
         <v>45.345321655273438</v>
       </c>
     </row>
-    <row r="532" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="532" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A532" s="26" t="s">
         <v>712</v>
       </c>
@@ -37144,7 +37147,7 @@
         <v>49.407119750976562</v>
       </c>
     </row>
-    <row r="533" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="533" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A533" s="26" t="s">
         <v>716</v>
       </c>
@@ -37207,7 +37210,7 @@
         <v>49.495273590087891</v>
       </c>
     </row>
-    <row r="534" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="534" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A534" s="26" t="s">
         <v>808</v>
       </c>
@@ -37263,7 +37266,7 @@
         <v>50.404838562011719</v>
       </c>
     </row>
-    <row r="535" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="535" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A535" s="26" t="s">
         <v>704</v>
       </c>
@@ -37326,7 +37329,7 @@
         <v>48.855987548828125</v>
       </c>
     </row>
-    <row r="536" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="536" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A536" s="26" t="s">
         <v>809</v>
       </c>
@@ -37382,7 +37385,7 @@
         <v>49.152496337890625</v>
       </c>
     </row>
-    <row r="537" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="537" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A537" s="26" t="s">
         <v>706</v>
       </c>
@@ -37445,7 +37448,7 @@
         <v>49.416854858398438</v>
       </c>
     </row>
-    <row r="538" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="538" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A538" s="26" t="s">
         <v>810</v>
       </c>
@@ -37500,7 +37503,7 @@
         <v>52.407707214355469</v>
       </c>
     </row>
-    <row r="539" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="539" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A539" s="26" t="s">
         <v>811</v>
       </c>
@@ -37555,7 +37558,7 @@
         <v>53.471836090087891</v>
       </c>
     </row>
-    <row r="540" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="540" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A540" s="26" t="s">
         <v>812</v>
       </c>
@@ -37610,7 +37613,7 @@
         <v>53.378993988037109</v>
       </c>
     </row>
-    <row r="541" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="541" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A541" s="26" t="s">
         <v>813</v>
       </c>
@@ -37665,7 +37668,7 @@
         <v>53.616657257080078</v>
       </c>
     </row>
-    <row r="542" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="542" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A542" s="26" t="s">
         <v>814</v>
       </c>
@@ -37720,7 +37723,7 @@
         <v>54.204105377197266</v>
       </c>
     </row>
-    <row r="543" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="543" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A543" s="26" t="s">
         <v>815</v>
       </c>
@@ -37775,7 +37778,7 @@
         <v>53.904201507568359</v>
       </c>
     </row>
-    <row r="544" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="544" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A544" s="26" t="s">
         <v>816</v>
       </c>
@@ -37830,7 +37833,7 @@
         <v>45.071773529052734</v>
       </c>
     </row>
-    <row r="545" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="545" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A545" s="26" t="s">
         <v>817</v>
       </c>
@@ -37883,7 +37886,7 @@
         <v>45.908878326416016</v>
       </c>
     </row>
-    <row r="546" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="546" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A546" s="26" t="s">
         <v>818</v>
       </c>
@@ -37932,7 +37935,7 @@
         <v>45.367847442626953</v>
       </c>
     </row>
-    <row r="547" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="547" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A547" s="26" t="s">
         <v>819</v>
       </c>
@@ -37987,7 +37990,7 @@
         <v>45.501029968261719</v>
       </c>
     </row>
-    <row r="548" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="548" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A548" s="26" t="s">
         <v>820</v>
       </c>
@@ -38036,7 +38039,7 @@
         <v>44.522567749023438</v>
       </c>
     </row>
-    <row r="549" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="549" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A549" s="26" t="s">
         <v>821</v>
       </c>
@@ -38085,7 +38088,7 @@
         <v>45.018909454345703</v>
       </c>
     </row>
-    <row r="550" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="550" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A550" s="26" t="s">
         <v>822</v>
       </c>
@@ -38140,7 +38143,7 @@
         <v>50.332965850830078</v>
       </c>
     </row>
-    <row r="551" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="551" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A551" s="26" t="s">
         <v>823</v>
       </c>
@@ -38195,7 +38198,7 @@
         <v>49.529426574707031</v>
       </c>
     </row>
-    <row r="552" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="552" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A552" s="26" t="s">
         <v>824</v>
       </c>
@@ -38250,7 +38253,7 @@
         <v>51.126293182373047</v>
       </c>
     </row>
-    <row r="553" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="553" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A553" s="26" t="s">
         <v>825</v>
       </c>
@@ -38305,7 +38308,7 @@
         <v>44.654010772705078</v>
       </c>
     </row>
-    <row r="554" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="554" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A554" s="26" t="s">
         <v>826</v>
       </c>
@@ -38354,7 +38357,7 @@
         <v>50.964508056640625</v>
       </c>
     </row>
-    <row r="555" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="555" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A555" s="26" t="s">
         <v>827</v>
       </c>
@@ -38403,7 +38406,7 @@
         <v>51.009674072265625</v>
       </c>
     </row>
-    <row r="556" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="556" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A556" s="26" t="s">
         <v>828</v>
       </c>
@@ -38458,7 +38461,7 @@
         <v>49.424354553222656</v>
       </c>
     </row>
-    <row r="557" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="557" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A557" s="26" t="s">
         <v>829</v>
       </c>
@@ -38513,7 +38516,7 @@
         <v>51.437549591064453</v>
       </c>
     </row>
-    <row r="558" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="558" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A558" s="26" t="s">
         <v>830</v>
       </c>
@@ -38568,7 +38571,7 @@
         <v>49.278923034667969</v>
       </c>
     </row>
-    <row r="559" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="559" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A559" s="26" t="s">
         <v>831</v>
       </c>
@@ -38623,7 +38626,7 @@
         <v>51.311775207519531</v>
       </c>
     </row>
-    <row r="560" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="560" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A560" s="26" t="s">
         <v>832</v>
       </c>
@@ -38678,7 +38681,7 @@
         <v>51.053848266601562</v>
       </c>
     </row>
-    <row r="561" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="561" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A561" s="26" t="s">
         <v>833</v>
       </c>
@@ -38735,7 +38738,7 @@
         <v>49.078205108642578</v>
       </c>
     </row>
-    <row r="562" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="562" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A562" s="26" t="s">
         <v>834</v>
       </c>
@@ -38790,7 +38793,7 @@
         <v>50.175323486328125</v>
       </c>
     </row>
-    <row r="563" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="563" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A563" s="26" t="s">
         <v>835</v>
       </c>
@@ -38845,7 +38848,7 @@
         <v>51.059253692626953</v>
       </c>
     </row>
-    <row r="564" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="564" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A564" s="26" t="s">
         <v>836</v>
       </c>
@@ -38900,7 +38903,7 @@
         <v>50.959335327148438</v>
       </c>
     </row>
-    <row r="565" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="565" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A565" s="26" t="s">
         <v>837</v>
       </c>
@@ -38957,7 +38960,7 @@
         <v>50.795654296875</v>
       </c>
     </row>
-    <row r="566" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="566" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A566" s="26" t="s">
         <v>838</v>
       </c>
@@ -39006,7 +39009,7 @@
         <v>49.752334594726562</v>
       </c>
     </row>
-    <row r="567" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="567" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A567" s="26" t="s">
         <v>839</v>
       </c>
@@ -39055,7 +39058,7 @@
         <v>48.866832733154297</v>
       </c>
     </row>
-    <row r="568" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="568" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A568" s="26" t="s">
         <v>840</v>
       </c>
@@ -39110,7 +39113,7 @@
         <v>48.024559020996094</v>
       </c>
     </row>
-    <row r="569" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="569" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A569" s="26" t="s">
         <v>841</v>
       </c>
@@ -39165,7 +39168,7 @@
         <v>48.430690765380859</v>
       </c>
     </row>
-    <row r="570" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="570" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A570" s="26" t="s">
         <v>734</v>
       </c>
@@ -39228,7 +39231,7 @@
         <v>50.561370849609375</v>
       </c>
     </row>
-    <row r="571" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="571" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A571" s="26" t="s">
         <v>842</v>
       </c>
@@ -39284,7 +39287,7 @@
         <v>49.121337890625</v>
       </c>
     </row>
-    <row r="572" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="572" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A572" s="26" t="s">
         <v>843</v>
       </c>
@@ -39340,7 +39343,7 @@
         <v>49.883686065673828</v>
       </c>
     </row>
-    <row r="573" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="573" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A573" s="26" t="s">
         <v>844</v>
       </c>
@@ -39396,7 +39399,7 @@
         <v>49.224933624267578</v>
       </c>
     </row>
-    <row r="574" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="574" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A574" s="26" t="s">
         <v>845</v>
       </c>
@@ -39451,7 +39454,7 @@
         <v>49.3494873046875</v>
       </c>
     </row>
-    <row r="575" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="575" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A575" s="26" t="s">
         <v>846</v>
       </c>
@@ -39508,7 +39511,7 @@
         <v>49.224231719970703</v>
       </c>
     </row>
-    <row r="576" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="576" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A576" s="26" t="s">
         <v>717</v>
       </c>
@@ -39571,7 +39574,7 @@
         <v>50.121871948242188</v>
       </c>
     </row>
-    <row r="577" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="577" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A577" s="26" t="s">
         <v>847</v>
       </c>
@@ -39627,7 +39630,7 @@
         <v>48.436553955078125</v>
       </c>
     </row>
-    <row r="578" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="578" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A578" s="26" t="s">
         <v>848</v>
       </c>
@@ -39683,7 +39686,7 @@
         <v>48.713176727294922</v>
       </c>
     </row>
-    <row r="579" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="579" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A579" s="26" t="s">
         <v>849</v>
       </c>
@@ -39739,7 +39742,7 @@
         <v>48.853618621826172</v>
       </c>
     </row>
-    <row r="580" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="580" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A580" s="26" t="s">
         <v>850</v>
       </c>
@@ -39789,7 +39792,7 @@
         <v>49.761692047119141</v>
       </c>
     </row>
-    <row r="581" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="581" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A581" s="26" t="s">
         <v>851</v>
       </c>
@@ -39839,7 +39842,7 @@
         <v>46.463855743408203</v>
       </c>
     </row>
-    <row r="582" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="582" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A582" s="26" t="s">
         <v>852</v>
       </c>
@@ -39889,7 +39892,7 @@
         <v>45.715484619140625</v>
       </c>
     </row>
-    <row r="583" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="583" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A583" s="26" t="s">
         <v>853</v>
       </c>
@@ -39939,7 +39942,7 @@
         <v>46.275470733642578</v>
       </c>
     </row>
-    <row r="584" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="584" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A584" s="26" t="s">
         <v>854</v>
       </c>
@@ -39989,7 +39992,7 @@
         <v>45.367473602294922</v>
       </c>
     </row>
-    <row r="585" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="585" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A585" s="26" t="s">
         <v>855</v>
       </c>
@@ -40045,7 +40048,7 @@
         <v>46.248783111572266</v>
       </c>
     </row>
-    <row r="586" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="586" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A586" s="26" t="s">
         <v>719</v>
       </c>
@@ -40108,7 +40111,7 @@
         <v>49.074092864990234</v>
       </c>
     </row>
-    <row r="587" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="587" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A587" s="26" t="s">
         <v>720</v>
       </c>
@@ -40171,7 +40174,7 @@
         <v>48.106792449951172</v>
       </c>
     </row>
-    <row r="588" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="588" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A588" s="26" t="s">
         <v>856</v>
       </c>
@@ -40227,7 +40230,7 @@
         <v>49.087989807128906</v>
       </c>
     </row>
-    <row r="589" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="589" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A589" s="26" t="s">
         <v>715</v>
       </c>
@@ -40290,7 +40293,7 @@
         <v>48.16595458984375</v>
       </c>
     </row>
-    <row r="590" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="590" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A590" s="26" t="s">
         <v>711</v>
       </c>
@@ -40353,7 +40356,7 @@
         <v>49.467506408691406</v>
       </c>
     </row>
-    <row r="591" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="591" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A591" s="26" t="s">
         <v>730</v>
       </c>
@@ -40416,7 +40419,7 @@
         <v>49.201316833496094</v>
       </c>
     </row>
-    <row r="592" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="592" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A592" s="26" t="s">
         <v>857</v>
       </c>
@@ -40472,7 +40475,7 @@
         <v>49.467727661132812</v>
       </c>
     </row>
-    <row r="593" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="593" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A593" s="26" t="s">
         <v>858</v>
       </c>
@@ -40528,7 +40531,7 @@
         <v>47.352935791015625</v>
       </c>
     </row>
-    <row r="594" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="594" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A594" s="26" t="s">
         <v>859</v>
       </c>
@@ -40584,7 +40587,7 @@
         <v>48.549995422363281</v>
       </c>
     </row>
-    <row r="595" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="595" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A595" s="26" t="s">
         <v>860</v>
       </c>
@@ -40640,7 +40643,7 @@
         <v>49.611007690429688</v>
       </c>
     </row>
-    <row r="596" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="596" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A596" s="26" t="s">
         <v>861</v>
       </c>
@@ -40696,7 +40699,7 @@
         <v>51.05950927734375</v>
       </c>
     </row>
-    <row r="597" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="597" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A597" s="26" t="s">
         <v>862</v>
       </c>
@@ -40752,7 +40755,7 @@
         <v>51.005580902099609</v>
       </c>
     </row>
-    <row r="598" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="598" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A598" s="26" t="s">
         <v>863</v>
       </c>
@@ -40808,7 +40811,7 @@
         <v>50.535247802734375</v>
       </c>
     </row>
-    <row r="599" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="599" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A599" s="26" t="s">
         <v>864</v>
       </c>
@@ -40860,7 +40863,7 @@
         <v>49.712066650390625</v>
       </c>
     </row>
-    <row r="600" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="600" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A600" s="26" t="s">
         <v>865</v>
       </c>
@@ -40910,7 +40913,7 @@
         <v>49.682098388671875</v>
       </c>
     </row>
-    <row r="601" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="601" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A601" s="26" t="s">
         <v>735</v>
       </c>
@@ -40973,7 +40976,7 @@
         <v>46.613964080810547</v>
       </c>
     </row>
-    <row r="602" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="602" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A602" s="26" t="s">
         <v>866</v>
       </c>
@@ -41029,7 +41032,7 @@
         <v>43.113986968994141</v>
       </c>
     </row>
-    <row r="603" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="603" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A603" s="26" t="s">
         <v>731</v>
       </c>
@@ -41092,7 +41095,7 @@
         <v>46.352901458740234</v>
       </c>
     </row>
-    <row r="604" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="604" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A604" s="26" t="s">
         <v>718</v>
       </c>
@@ -41155,7 +41158,7 @@
         <v>45.919822692871094</v>
       </c>
     </row>
-    <row r="605" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="605" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A605" s="26" t="s">
         <v>867</v>
       </c>
@@ -41216,7 +41219,7 @@
         <v>45.353404998779297</v>
       </c>
     </row>
-    <row r="606" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="606" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A606" s="26" t="s">
         <v>725</v>
       </c>
@@ -41273,7 +41276,7 @@
         <v>46.785659790039062</v>
       </c>
     </row>
-    <row r="607" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="607" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A607" s="26" t="s">
         <v>868</v>
       </c>
@@ -41329,7 +41332,7 @@
         <v>45.251754760742188</v>
       </c>
     </row>
-    <row r="608" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="608" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A608" s="26" t="s">
         <v>869</v>
       </c>
@@ -41385,7 +41388,7 @@
         <v>50.603302001953125</v>
       </c>
     </row>
-    <row r="609" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="609" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A609" s="26" t="s">
         <v>870</v>
       </c>
@@ -41441,7 +41444,7 @@
         <v>48.506248474121094</v>
       </c>
     </row>
-    <row r="610" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="610" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A610" s="26" t="s">
         <v>871</v>
       </c>
@@ -41497,7 +41500,7 @@
         <v>50.214302062988281</v>
       </c>
     </row>
-    <row r="611" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="611" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A611" s="26" t="s">
         <v>872</v>
       </c>
@@ -41553,7 +41556,7 @@
         <v>49.983024597167969</v>
       </c>
     </row>
-    <row r="612" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="612" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A612" s="26" t="s">
         <v>873</v>
       </c>
@@ -41609,7 +41612,7 @@
         <v>49.971355438232422</v>
       </c>
     </row>
-    <row r="613" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="613" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A613" s="26" t="s">
         <v>874</v>
       </c>
@@ -41665,7 +41668,7 @@
         <v>49.982532501220703</v>
       </c>
     </row>
-    <row r="614" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="614" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A614" s="26" t="s">
         <v>875</v>
       </c>
@@ -41721,7 +41724,7 @@
         <v>49.278709411621094</v>
       </c>
     </row>
-    <row r="615" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="615" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A615" s="26" t="s">
         <v>876</v>
       </c>
@@ -41776,7 +41779,7 @@
         <v>48.560085296630859</v>
       </c>
     </row>
-    <row r="616" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="616" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A616" s="26" t="s">
         <v>707</v>
       </c>
@@ -41839,7 +41842,7 @@
         <v>50.170482635498047</v>
       </c>
     </row>
-    <row r="617" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="617" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A617" s="26" t="s">
         <v>877</v>
       </c>
@@ -41895,7 +41898,7 @@
         <v>49.0501708984375</v>
       </c>
     </row>
-    <row r="618" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="618" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A618" s="26" t="s">
         <v>878</v>
       </c>
@@ -41951,7 +41954,7 @@
         <v>49.969120025634766</v>
       </c>
     </row>
-    <row r="619" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="619" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A619" s="26" t="s">
         <v>708</v>
       </c>
@@ -42014,7 +42017,7 @@
         <v>48.561668395996094</v>
       </c>
     </row>
-    <row r="620" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="620" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A620" s="26" t="s">
         <v>879</v>
       </c>
@@ -42071,7 +42074,7 @@
         <v>47.398250579833984</v>
       </c>
     </row>
-    <row r="621" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="621" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A621" s="26" t="s">
         <v>880</v>
       </c>
@@ -42126,7 +42129,7 @@
         <v>47.717971801757812</v>
       </c>
     </row>
-    <row r="622" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="622" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A622" s="26" t="s">
         <v>881</v>
       </c>
@@ -42181,7 +42184,7 @@
         <v>48.0804443359375</v>
       </c>
     </row>
-    <row r="623" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="623" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A623" s="26" t="s">
         <v>882</v>
       </c>
@@ -42236,7 +42239,7 @@
         <v>47.190845489501953</v>
       </c>
     </row>
-    <row r="624" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="624" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A624" s="26" t="s">
         <v>883</v>
       </c>
@@ -42291,7 +42294,7 @@
         <v>46.551116943359375</v>
       </c>
     </row>
-    <row r="625" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="625" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A625" s="26" t="s">
         <v>884</v>
       </c>
@@ -42346,7 +42349,7 @@
         <v>47.977687835693359</v>
       </c>
     </row>
-    <row r="626" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="626" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A626" s="26" t="s">
         <v>313</v>
       </c>
@@ -42403,7 +42406,7 @@
         <v>49.052486419677734</v>
       </c>
     </row>
-    <row r="627" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="627" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A627" s="26" t="s">
         <v>310</v>
       </c>
@@ -42460,7 +42463,7 @@
         <v>46.2130394</v>
       </c>
     </row>
-    <row r="628" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="628" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A628" s="26" t="s">
         <v>311</v>
       </c>
@@ -42517,7 +42520,7 @@
         <v>46.568904879999998</v>
       </c>
     </row>
-    <row r="629" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="629" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A629" s="26" t="s">
         <v>312</v>
       </c>
@@ -42576,7 +42579,7 @@
         <v>47.341175079999999</v>
       </c>
     </row>
-    <row r="630" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="630" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A630" s="26" t="s">
         <v>314</v>
       </c>
@@ -42635,7 +42638,7 @@
         <v>49.218467712402344</v>
       </c>
     </row>
-    <row r="631" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="631" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A631" s="26" t="s">
         <v>308</v>
       </c>
@@ -42692,7 +42695,7 @@
         <v>48.557830810546875</v>
       </c>
     </row>
-    <row r="632" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="632" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A632" s="26" t="s">
         <v>315</v>
       </c>
@@ -42751,7 +42754,7 @@
         <v>49.051891326904297</v>
       </c>
     </row>
-    <row r="633" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="633" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A633" s="26" t="s">
         <v>316</v>
       </c>
@@ -42808,7 +42811,7 @@
         <v>49.345607757568359</v>
       </c>
     </row>
-    <row r="634" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="634" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A634" s="26" t="s">
         <v>317</v>
       </c>
@@ -42867,7 +42870,7 @@
         <v>49.125007629394531</v>
       </c>
     </row>
-    <row r="635" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="635" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A635" s="26" t="s">
         <v>318</v>
       </c>
@@ -42924,7 +42927,7 @@
         <v>48.561359405517578</v>
       </c>
     </row>
-    <row r="636" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="636" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A636" s="26" t="s">
         <v>319</v>
       </c>
@@ -42981,7 +42984,7 @@
         <v>47.716403961181641</v>
       </c>
     </row>
-    <row r="637" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="637" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A637" s="26" t="s">
         <v>324</v>
       </c>
@@ -43038,7 +43041,7 @@
         <v>48.258674621582031</v>
       </c>
     </row>
-    <row r="638" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="638" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A638" s="26" t="s">
         <v>321</v>
       </c>
@@ -43095,7 +43098,7 @@
         <v>47.735332489013672</v>
       </c>
     </row>
-    <row r="639" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="639" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A639" s="26" t="s">
         <v>322</v>
       </c>
@@ -43154,7 +43157,7 @@
         <v>48.199459075927734</v>
       </c>
     </row>
-    <row r="640" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="640" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A640" s="26" t="s">
         <v>323</v>
       </c>
@@ -43211,7 +43214,7 @@
         <v>48.538341522216797</v>
       </c>
     </row>
-    <row r="641" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="641" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A641" s="26" t="s">
         <v>325</v>
       </c>
@@ -43268,7 +43271,7 @@
         <v>47.500476837158203</v>
       </c>
     </row>
-    <row r="642" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="642" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A642" s="26" t="s">
         <v>320</v>
       </c>
@@ -43325,7 +43328,7 @@
         <v>49.263923645019531</v>
       </c>
     </row>
-    <row r="643" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="643" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A643" s="26" t="s">
         <v>329</v>
       </c>
@@ -43382,7 +43385,7 @@
         <v>50.071628570556641</v>
       </c>
     </row>
-    <row r="644" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="644" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A644" s="26" t="s">
         <v>330</v>
       </c>
@@ -43439,7 +43442,7 @@
         <v>49.7767333984375</v>
       </c>
     </row>
-    <row r="645" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="645" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A645" s="26" t="s">
         <v>331</v>
       </c>
@@ -43500,7 +43503,7 @@
         <v>50.925487518310547</v>
       </c>
     </row>
-    <row r="646" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="646" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A646" s="26" t="s">
         <v>326</v>
       </c>
@@ -43561,7 +43564,7 @@
         <v>49.426540374755859</v>
       </c>
     </row>
-    <row r="647" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="647" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A647" s="26" t="s">
         <v>327</v>
       </c>
@@ -43620,7 +43623,7 @@
         <v>48.925716400146484</v>
       </c>
     </row>
-    <row r="648" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="648" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A648" s="26" t="s">
         <v>328</v>
       </c>
@@ -43677,7 +43680,7 @@
         <v>48.61175537109375</v>
       </c>
     </row>
-    <row r="649" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="649" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A649" s="26" t="s">
         <v>332</v>
       </c>
@@ -43734,7 +43737,7 @@
         <v>48.329219818115234</v>
       </c>
     </row>
-    <row r="650" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="650" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A650" s="26" t="s">
         <v>333</v>
       </c>
@@ -43791,7 +43794,7 @@
         <v>47.174858093261719</v>
       </c>
     </row>
-    <row r="651" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="651" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A651" s="26" t="s">
         <v>334</v>
       </c>
@@ -43848,7 +43851,7 @@
         <v>46.634689331054688</v>
       </c>
     </row>
-    <row r="652" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="652" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A652" s="26" t="s">
         <v>335</v>
       </c>
@@ -43905,7 +43908,7 @@
         <v>45.247032165527344</v>
       </c>
     </row>
-    <row r="653" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="653" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A653" s="26" t="s">
         <v>336</v>
       </c>
@@ -43962,7 +43965,7 @@
         <v>47.905838012695312</v>
       </c>
     </row>
-    <row r="654" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="654" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A654" s="26" t="s">
         <v>736</v>
       </c>
@@ -44015,7 +44018,7 @@
         <v>48.144386291503906</v>
       </c>
     </row>
-    <row r="655" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="655" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A655" s="26" t="s">
         <v>337</v>
       </c>
@@ -44072,7 +44075,7 @@
         <v>47.461299896240234</v>
       </c>
     </row>
-    <row r="656" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="656" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A656" s="26" t="s">
         <v>338</v>
       </c>
@@ -44129,7 +44132,7 @@
         <v>48.000148773193359</v>
       </c>
     </row>
-    <row r="657" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="657" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A657" s="26" t="s">
         <v>339</v>
       </c>
@@ -44188,7 +44191,7 @@
         <v>48.887962341308594</v>
       </c>
     </row>
-    <row r="658" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="658" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A658" s="26" t="s">
         <v>340</v>
       </c>
@@ -44245,7 +44248,7 @@
         <v>47.566974639892578</v>
       </c>
     </row>
-    <row r="659" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="659" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A659" s="26" t="s">
         <v>341</v>
       </c>
@@ -44302,7 +44305,7 @@
         <v>48.381656646728516</v>
       </c>
     </row>
-    <row r="660" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="660" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A660" s="26" t="s">
         <v>342</v>
       </c>
@@ -44359,7 +44362,7 @@
         <v>49.101116180419922</v>
       </c>
     </row>
-    <row r="661" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="661" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A661" s="26" t="s">
         <v>347</v>
       </c>
@@ -44416,7 +44419,7 @@
         <v>47.581733703613281</v>
       </c>
     </row>
-    <row r="662" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="662" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A662" s="26" t="s">
         <v>348</v>
       </c>
@@ -44473,7 +44476,7 @@
         <v>47.170574188232422</v>
       </c>
     </row>
-    <row r="663" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="663" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A663" s="26" t="s">
         <v>343</v>
       </c>
@@ -44530,7 +44533,7 @@
         <v>48.271633148193359</v>
       </c>
     </row>
-    <row r="664" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="664" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A664" s="26" t="s">
         <v>344</v>
       </c>
@@ -44587,7 +44590,7 @@
         <v>47.706356048583984</v>
       </c>
     </row>
-    <row r="665" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="665" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A665" s="26" t="s">
         <v>345</v>
       </c>
@@ -44644,7 +44647,7 @@
         <v>45.971992492675781</v>
       </c>
     </row>
-    <row r="666" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="666" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A666" s="26" t="s">
         <v>346</v>
       </c>
@@ -44703,7 +44706,7 @@
         <v>47.788066864013672</v>
       </c>
     </row>
-    <row r="667" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="667" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A667" s="26" t="s">
         <v>349</v>
       </c>
@@ -44760,7 +44763,7 @@
         <v>45.730186459999999</v>
       </c>
     </row>
-    <row r="668" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="668" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A668" s="26" t="s">
         <v>350</v>
       </c>
@@ -44817,7 +44820,7 @@
         <v>46.23198318</v>
       </c>
     </row>
-    <row r="669" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="669" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A669" s="26" t="s">
         <v>351</v>
       </c>
@@ -44874,7 +44877,7 @@
         <v>46.204505920000003</v>
       </c>
     </row>
-    <row r="670" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="670" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A670" s="26" t="s">
         <v>352</v>
       </c>
@@ -44931,7 +44934,7 @@
         <v>46.01323318</v>
       </c>
     </row>
-    <row r="671" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="671" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A671" s="26" t="s">
         <v>353</v>
       </c>
@@ -44988,7 +44991,7 @@
         <v>46.398815159999998</v>
       </c>
     </row>
-    <row r="672" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="672" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A672" s="26" t="s">
         <v>354</v>
       </c>
@@ -45045,7 +45048,7 @@
         <v>45.380187990000003</v>
       </c>
     </row>
-    <row r="673" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="673" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A673" s="26" t="s">
         <v>355</v>
       </c>
@@ -45102,7 +45105,7 @@
         <v>45.814720153808594</v>
       </c>
     </row>
-    <row r="674" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="674" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A674" s="26" t="s">
         <v>356</v>
       </c>
@@ -45159,7 +45162,7 @@
         <v>45.650859830000002</v>
       </c>
     </row>
-    <row r="675" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="675" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A675" s="26" t="s">
         <v>357</v>
       </c>
@@ -45216,7 +45219,7 @@
         <v>47.375934600830078</v>
       </c>
     </row>
-    <row r="676" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="676" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A676" s="26" t="s">
         <v>358</v>
       </c>
@@ -45273,7 +45276,7 @@
         <v>48.118972778320312</v>
       </c>
     </row>
-    <row r="677" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="677" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A677" s="26" t="s">
         <v>359</v>
       </c>
@@ -45330,7 +45333,7 @@
         <v>49.411567687988281</v>
       </c>
     </row>
-    <row r="678" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="678" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A678" s="26" t="s">
         <v>360</v>
       </c>
@@ -45387,7 +45390,7 @@
         <v>48.424087524414062</v>
       </c>
     </row>
-    <row r="679" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="679" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A679" s="26" t="s">
         <v>361</v>
       </c>
@@ -45444,7 +45447,7 @@
         <v>48.853462219238281</v>
       </c>
     </row>
-    <row r="680" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="680" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A680" s="26" t="s">
         <v>362</v>
       </c>
@@ -45501,7 +45504,7 @@
         <v>47.977367401123047</v>
       </c>
     </row>
-    <row r="681" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="681" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A681" s="26" t="s">
         <v>364</v>
       </c>
@@ -45558,7 +45561,7 @@
         <v>50.11785888671875</v>
       </c>
     </row>
-    <row r="682" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="682" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A682" s="26" t="s">
         <v>368</v>
       </c>
@@ -45615,7 +45618,7 @@
         <v>49.406627655029297</v>
       </c>
     </row>
-    <row r="683" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="683" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A683" s="26" t="s">
         <v>365</v>
       </c>
@@ -45672,7 +45675,7 @@
         <v>50.727062225341797</v>
       </c>
     </row>
-    <row r="684" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="684" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A684" s="26" t="s">
         <v>366</v>
       </c>
@@ -45729,7 +45732,7 @@
         <v>48.292884826660156</v>
       </c>
     </row>
-    <row r="685" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="685" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A685" s="26" t="s">
         <v>367</v>
       </c>
@@ -45786,7 +45789,7 @@
         <v>48.200222015380859</v>
       </c>
     </row>
-    <row r="686" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="686" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A686" s="26" t="s">
         <v>363</v>
       </c>
@@ -45843,7 +45846,7 @@
         <v>47.082511901855469</v>
       </c>
     </row>
-    <row r="687" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="687" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A687" s="26" t="s">
         <v>738</v>
       </c>
@@ -45894,7 +45897,7 @@
         <v>45.302154541015625</v>
       </c>
     </row>
-    <row r="688" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="688" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A688" s="26" t="s">
         <v>739</v>
       </c>
@@ -45947,7 +45950,7 @@
         <v>44.774188995361328</v>
       </c>
     </row>
-    <row r="689" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="689" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A689" s="26" t="s">
         <v>740</v>
       </c>
@@ -46000,7 +46003,7 @@
         <v>44.894687652587891</v>
       </c>
     </row>
-    <row r="690" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="690" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A690" s="26" t="s">
         <v>741</v>
       </c>
@@ -46053,7 +46056,7 @@
         <v>45.203166961669922</v>
       </c>
     </row>
-    <row r="691" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="691" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A691" s="26" t="s">
         <v>742</v>
       </c>
@@ -46106,7 +46109,7 @@
         <v>45.220943450927734</v>
       </c>
     </row>
-    <row r="692" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="692" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A692" s="26" t="s">
         <v>743</v>
       </c>
@@ -46159,7 +46162,7 @@
         <v>44.343254089355469</v>
       </c>
     </row>
-    <row r="693" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="693" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A693" s="26" t="s">
         <v>374</v>
       </c>
@@ -46218,7 +46221,7 @@
         <v>34.947116851806641</v>
       </c>
     </row>
-    <row r="694" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="694" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A694" s="26" t="s">
         <v>369</v>
       </c>
@@ -46277,7 +46280,7 @@
         <v>48.617645263671875</v>
       </c>
     </row>
-    <row r="695" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="695" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A695" s="26" t="s">
         <v>370</v>
       </c>
@@ -46334,7 +46337,7 @@
         <v>48.559349060058594</v>
       </c>
     </row>
-    <row r="696" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="696" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A696" s="26" t="s">
         <v>371</v>
       </c>
@@ -46395,7 +46398,7 @@
         <v>48.591083526611328</v>
       </c>
     </row>
-    <row r="697" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="697" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A697" s="26" t="s">
         <v>372</v>
       </c>
@@ -46454,7 +46457,7 @@
         <v>48.546360015869141</v>
       </c>
     </row>
-    <row r="698" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="698" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A698" s="26" t="s">
         <v>373</v>
       </c>
@@ -46511,7 +46514,7 @@
         <v>48.313865661621094</v>
       </c>
     </row>
-    <row r="699" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="699" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A699" s="26" t="s">
         <v>375</v>
       </c>
@@ -46570,7 +46573,7 @@
         <v>47.700431823730469</v>
       </c>
     </row>
-    <row r="700" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="700" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A700" s="26" t="s">
         <v>376</v>
       </c>
@@ -46627,7 +46630,7 @@
         <v>47.737274169921875</v>
       </c>
     </row>
-    <row r="701" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="701" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A701" s="26" t="s">
         <v>377</v>
       </c>
@@ -46684,7 +46687,7 @@
         <v>47.464408874511719</v>
       </c>
     </row>
-    <row r="702" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="702" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A702" s="26" t="s">
         <v>378</v>
       </c>
@@ -46741,7 +46744,7 @@
         <v>47.188529969999998</v>
       </c>
     </row>
-    <row r="703" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="703" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A703" s="26" t="s">
         <v>379</v>
       </c>
@@ -46798,7 +46801,7 @@
         <v>46.953277589999999</v>
       </c>
     </row>
-    <row r="704" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="704" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A704" s="26" t="s">
         <v>380</v>
       </c>
@@ -46857,7 +46860,7 @@
         <v>47.154697419999998</v>
       </c>
     </row>
-    <row r="705" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="705" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A705" s="26" t="s">
         <v>381</v>
       </c>
@@ -46914,7 +46917,7 @@
         <v>44.00250244140625</v>
       </c>
     </row>
-    <row r="706" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="706" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A706" s="26" t="s">
         <v>382</v>
       </c>
@@ -46971,7 +46974,7 @@
         <v>43.858131408691406</v>
       </c>
     </row>
-    <row r="707" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="707" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A707" s="26" t="s">
         <v>383</v>
       </c>
@@ -47028,7 +47031,7 @@
         <v>45.764030456542969</v>
       </c>
     </row>
-    <row r="708" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="708" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A708" s="26" t="s">
         <v>384</v>
       </c>
@@ -47085,7 +47088,7 @@
         <v>46.781581878662109</v>
       </c>
     </row>
-    <row r="709" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="709" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A709" s="26" t="s">
         <v>385</v>
       </c>
@@ -47142,7 +47145,7 @@
         <v>47.166412353515625</v>
       </c>
     </row>
-    <row r="710" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="710" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A710" s="26" t="s">
         <v>386</v>
       </c>
@@ -47199,7 +47202,7 @@
         <v>46.764701843261719</v>
       </c>
     </row>
-    <row r="711" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="711" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A711" s="26" t="s">
         <v>387</v>
       </c>
@@ -47256,7 +47259,7 @@
         <v>46.707923889160156</v>
       </c>
     </row>
-    <row r="712" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="712" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A712" s="26" t="s">
         <v>388</v>
       </c>
@@ -47313,7 +47316,7 @@
         <v>46.716182708740234</v>
       </c>
     </row>
-    <row r="713" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="713" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A713" s="26" t="s">
         <v>389</v>
       </c>
@@ -47370,7 +47373,7 @@
         <v>47.350696563720703</v>
       </c>
     </row>
-    <row r="714" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="714" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A714" s="26" t="s">
         <v>391</v>
       </c>
@@ -47427,7 +47430,7 @@
         <v>47.482395172119141</v>
       </c>
     </row>
-    <row r="715" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="715" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A715" s="26" t="s">
         <v>390</v>
       </c>
@@ -47484,7 +47487,7 @@
         <v>46.677337646484375</v>
       </c>
     </row>
-    <row r="716" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="716" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A716" s="26" t="s">
         <v>392</v>
       </c>
@@ -47541,7 +47544,7 @@
         <v>46.466773986816406</v>
       </c>
     </row>
-    <row r="717" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="717" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A717" s="26" t="s">
         <v>393</v>
       </c>
@@ -47598,7 +47601,7 @@
         <v>47.979976654052734</v>
       </c>
     </row>
-    <row r="718" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="718" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A718" s="26" t="s">
         <v>395</v>
       </c>
@@ -47655,7 +47658,7 @@
         <v>46.457107540000003</v>
       </c>
     </row>
-    <row r="719" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="719" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A719" s="26" t="s">
         <v>396</v>
       </c>
@@ -47712,7 +47715,7 @@
         <v>46.876052856445312</v>
       </c>
     </row>
-    <row r="720" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="720" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A720" s="26" t="s">
         <v>397</v>
       </c>
@@ -47769,7 +47772,7 @@
         <v>46.318084716796875</v>
       </c>
     </row>
-    <row r="721" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="721" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A721" s="26" t="s">
         <v>394</v>
       </c>
@@ -47830,7 +47833,7 @@
         <v>46.528377532958984</v>
       </c>
     </row>
-    <row r="722" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="722" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A722" s="26" t="s">
         <v>398</v>
       </c>
@@ -47887,7 +47890,7 @@
         <v>46.811447143554688</v>
       </c>
     </row>
-    <row r="723" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="723" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A723" s="26" t="s">
         <v>403</v>
       </c>
@@ -47946,7 +47949,7 @@
         <v>49.16009521484375</v>
       </c>
     </row>
-    <row r="724" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="724" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A724" s="26" t="s">
         <v>404</v>
       </c>
@@ -48003,7 +48006,7 @@
         <v>50.361583709716797</v>
       </c>
     </row>
-    <row r="725" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="725" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A725" s="26" t="s">
         <v>402</v>
       </c>
@@ -48060,7 +48063,7 @@
         <v>51.637130737304688</v>
       </c>
     </row>
-    <row r="726" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="726" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A726" s="26" t="s">
         <v>399</v>
       </c>
@@ -48117,7 +48120,7 @@
         <v>50.424823760986328</v>
       </c>
     </row>
-    <row r="727" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="727" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A727" s="26" t="s">
         <v>400</v>
       </c>
@@ -48178,7 +48181,7 @@
         <v>47.474815368652344</v>
       </c>
     </row>
-    <row r="728" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="728" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A728" s="26" t="s">
         <v>401</v>
       </c>
@@ -48235,7 +48238,7 @@
         <v>51.492019653320312</v>
       </c>
     </row>
-    <row r="729" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="729" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A729" s="26" t="s">
         <v>744</v>
       </c>
@@ -48288,7 +48291,7 @@
         <v>50.404842376708984</v>
       </c>
     </row>
-    <row r="730" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="730" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A730" s="26" t="s">
         <v>410</v>
       </c>
@@ -48341,7 +48344,7 @@
         <v>51.677627559999998</v>
       </c>
     </row>
-    <row r="731" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="731" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A731" s="26" t="s">
         <v>411</v>
       </c>
@@ -48398,7 +48401,7 @@
         <v>52.926261901855469</v>
       </c>
     </row>
-    <row r="732" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="732" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A732" s="26" t="s">
         <v>405</v>
       </c>
@@ -48455,7 +48458,7 @@
         <v>53.843662261962891</v>
       </c>
     </row>
-    <row r="733" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="733" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A733" s="26" t="s">
         <v>406</v>
       </c>
@@ -48512,7 +48515,7 @@
         <v>51.080951690673828</v>
       </c>
     </row>
-    <row r="734" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="734" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A734" s="26" t="s">
         <v>407</v>
       </c>
@@ -48573,7 +48576,7 @@
         <v>53.596469879150391</v>
       </c>
     </row>
-    <row r="735" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="735" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A735" s="26" t="s">
         <v>408</v>
       </c>
@@ -48632,7 +48635,7 @@
         <v>52.244510650634766</v>
       </c>
     </row>
-    <row r="736" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="736" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A736" s="26" t="s">
         <v>409</v>
       </c>
@@ -48689,7 +48692,7 @@
         <v>53.721324920654297</v>
       </c>
     </row>
-    <row r="737" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="737" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A737" s="26" t="s">
         <v>413</v>
       </c>
@@ -48746,7 +48749,7 @@
         <v>46.318782806396484</v>
       </c>
     </row>
-    <row r="738" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="738" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A738" s="26" t="s">
         <v>414</v>
       </c>
@@ -48799,7 +48802,7 @@
         <v>45.403434753417969</v>
       </c>
     </row>
-    <row r="739" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="739" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A739" s="26" t="s">
         <v>415</v>
       </c>
@@ -48852,7 +48855,7 @@
         <v>46.059452056884766</v>
       </c>
     </row>
-    <row r="740" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="740" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A740" s="26" t="s">
         <v>416</v>
       </c>
@@ -48905,7 +48908,7 @@
         <v>46.731754302978516</v>
       </c>
     </row>
-    <row r="741" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="741" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A741" s="26" t="s">
         <v>417</v>
       </c>
@@ -48958,7 +48961,7 @@
         <v>46.118404388427734</v>
       </c>
     </row>
-    <row r="742" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="742" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A742" s="26" t="s">
         <v>412</v>
       </c>
@@ -49015,7 +49018,7 @@
         <v>46.6771240234375</v>
       </c>
     </row>
-    <row r="743" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="743" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A743" s="26" t="s">
         <v>423</v>
       </c>
@@ -49076,7 +49079,7 @@
         <v>49.871139526367188</v>
       </c>
     </row>
-    <row r="744" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="744" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A744" s="26" t="s">
         <v>418</v>
       </c>
@@ -49133,7 +49136,7 @@
         <v>50.569465637207031</v>
       </c>
     </row>
-    <row r="745" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="745" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A745" s="26" t="s">
         <v>419</v>
       </c>
@@ -49190,7 +49193,7 @@
         <v>50.005977630615234</v>
       </c>
     </row>
-    <row r="746" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="746" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A746" s="26" t="s">
         <v>420</v>
       </c>
@@ -49247,7 +49250,7 @@
         <v>49.163887023925781</v>
       </c>
     </row>
-    <row r="747" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="747" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A747" s="26" t="s">
         <v>421</v>
       </c>
@@ -49304,7 +49307,7 @@
         <v>49.992687225341797</v>
       </c>
     </row>
-    <row r="748" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="748" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A748" s="26" t="s">
         <v>422</v>
       </c>
@@ -49361,7 +49364,7 @@
         <v>48.314701080322266</v>
       </c>
     </row>
-    <row r="749" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="749" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A749" s="26" t="s">
         <v>424</v>
       </c>
@@ -49414,7 +49417,7 @@
         <v>48.704833984375</v>
       </c>
     </row>
-    <row r="750" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="750" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A750" s="26" t="s">
         <v>745</v>
       </c>
@@ -49467,7 +49470,7 @@
         <v>51.017574310302734</v>
       </c>
     </row>
-    <row r="751" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="751" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A751" s="26" t="s">
         <v>746</v>
       </c>
@@ -49516,7 +49519,7 @@
         <v>50.724063873291016</v>
       </c>
     </row>
-    <row r="752" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="752" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A752" s="26" t="s">
         <v>425</v>
       </c>
@@ -49575,7 +49578,7 @@
         <v>49.937225341796875</v>
       </c>
     </row>
-    <row r="753" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="753" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A753" s="26" t="s">
         <v>426</v>
       </c>
@@ -49632,7 +49635,7 @@
         <v>50.023799896240234</v>
       </c>
     </row>
-    <row r="754" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="754" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A754" s="26" t="s">
         <v>427</v>
       </c>
@@ -49689,7 +49692,7 @@
         <v>48.763805389404297</v>
       </c>
     </row>
-    <row r="755" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="755" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A755" s="26" t="s">
         <v>747</v>
       </c>
@@ -49742,7 +49745,7 @@
         <v>50.819957733154297</v>
       </c>
     </row>
-    <row r="756" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="756" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A756" s="26" t="s">
         <v>748</v>
       </c>
@@ -49795,7 +49798,7 @@
         <v>50.966148376464844</v>
       </c>
     </row>
-    <row r="757" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="757" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A757" s="26" t="s">
         <v>433</v>
       </c>
@@ -49852,7 +49855,7 @@
         <v>46.729179382324219</v>
       </c>
     </row>
-    <row r="758" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="758" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A758" s="26" t="s">
         <v>428</v>
       </c>
@@ -49909,7 +49912,7 @@
         <v>47.1026611328125</v>
       </c>
     </row>
-    <row r="759" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="759" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A759" s="26" t="s">
         <v>429</v>
       </c>
@@ -49966,7 +49969,7 @@
         <v>46.677555084228516</v>
       </c>
     </row>
-    <row r="760" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="760" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A760" s="26" t="s">
         <v>430</v>
       </c>
@@ -50023,7 +50026,7 @@
         <v>46.044048309326172</v>
       </c>
     </row>
-    <row r="761" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="761" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A761" s="26" t="s">
         <v>431</v>
       </c>
@@ -50080,7 +50083,7 @@
         <v>46.052345275878906</v>
       </c>
     </row>
-    <row r="762" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="762" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A762" s="26" t="s">
         <v>432</v>
       </c>
@@ -50137,7 +50140,7 @@
         <v>46.522415161132812</v>
       </c>
     </row>
-    <row r="763" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="763" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A763" s="26" t="s">
         <v>435</v>
       </c>
@@ -50192,7 +50195,7 @@
         <v>49.551082611083984</v>
       </c>
     </row>
-    <row r="764" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="764" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A764" s="26" t="s">
         <v>434</v>
       </c>
@@ -50245,7 +50248,7 @@
         <v>50.57196044921875</v>
       </c>
     </row>
-    <row r="765" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="765" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A765" s="26" t="s">
         <v>436</v>
       </c>
@@ -50300,7 +50303,7 @@
         <v>56.98085785</v>
       </c>
     </row>
-    <row r="766" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="766" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A766" s="26" t="s">
         <v>437</v>
       </c>
@@ -50357,7 +50360,7 @@
         <v>45.008270263671875</v>
       </c>
     </row>
-    <row r="767" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="767" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A767" s="26" t="s">
         <v>438</v>
       </c>
@@ -50414,7 +50417,7 @@
         <v>43.576835632324219</v>
       </c>
     </row>
-    <row r="768" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="768" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A768" s="26" t="s">
         <v>439</v>
       </c>
@@ -50471,7 +50474,7 @@
         <v>49.265117645263672</v>
       </c>
     </row>
-    <row r="769" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="769" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A769" s="26" t="s">
         <v>440</v>
       </c>
@@ -50528,7 +50531,7 @@
         <v>49.451702117919922</v>
       </c>
     </row>
-    <row r="770" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="770" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A770" s="26" t="s">
         <v>441</v>
       </c>
@@ -50585,7 +50588,7 @@
         <v>49.564117431640625</v>
       </c>
     </row>
-    <row r="771" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="771" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A771" s="26" t="s">
         <v>444</v>
       </c>
@@ -50642,7 +50645,7 @@
         <v>46.995590209960938</v>
       </c>
     </row>
-    <row r="772" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="772" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A772" s="26" t="s">
         <v>442</v>
       </c>
@@ -50701,7 +50704,7 @@
         <v>49.260360717773438</v>
       </c>
     </row>
-    <row r="773" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="773" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A773" s="26" t="s">
         <v>443</v>
       </c>
@@ -50758,7 +50761,7 @@
         <v>48.585121154785156</v>
       </c>
     </row>
-    <row r="774" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="774" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A774" s="26" t="s">
         <v>445</v>
       </c>
@@ -50815,7 +50818,7 @@
         <v>47.529808044433594</v>
       </c>
     </row>
-    <row r="775" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="775" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A775" s="26" t="s">
         <v>446</v>
       </c>
@@ -50872,7 +50875,7 @@
         <v>48.029220581054688</v>
       </c>
     </row>
-    <row r="776" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="776" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A776" s="26" t="s">
         <v>447</v>
       </c>
@@ -50929,7 +50932,7 @@
         <v>49.705001831054688</v>
       </c>
     </row>
-    <row r="777" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="777" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A777" s="26" t="s">
         <v>452</v>
       </c>
@@ -50982,7 +50985,7 @@
         <v>48.783817291259766</v>
       </c>
     </row>
-    <row r="778" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="778" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A778" s="26" t="s">
         <v>449</v>
       </c>
@@ -51039,7 +51042,7 @@
         <v>49.143836975097656</v>
       </c>
     </row>
-    <row r="779" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="779" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A779" s="26" t="s">
         <v>450</v>
       </c>
@@ -51096,7 +51099,7 @@
         <v>46.991909027099609</v>
       </c>
     </row>
-    <row r="780" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="780" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A780" s="26" t="s">
         <v>451</v>
       </c>
@@ -51153,7 +51156,7 @@
         <v>49.044326782226562</v>
       </c>
     </row>
-    <row r="781" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="781" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A781" s="26" t="s">
         <v>448</v>
       </c>
@@ -51210,7 +51213,7 @@
         <v>48.819026947021484</v>
       </c>
     </row>
-    <row r="782" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="782" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A782" s="26" t="s">
         <v>453</v>
       </c>
@@ -51267,7 +51270,7 @@
         <v>48.893424987792969</v>
       </c>
     </row>
-    <row r="783" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="783" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A783" s="26" t="s">
         <v>455</v>
       </c>
@@ -51324,7 +51327,7 @@
         <v>87.92230224609375</v>
       </c>
     </row>
-    <row r="784" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="784" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A784" s="26" t="s">
         <v>456</v>
       </c>
@@ -51381,7 +51384,7 @@
         <v>47.951923370361328</v>
       </c>
     </row>
-    <row r="785" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="785" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A785" s="26" t="s">
         <v>457</v>
       </c>
@@ -51438,7 +51441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="786" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A786" s="26" t="s">
         <v>458</v>
       </c>
@@ -51495,7 +51498,7 @@
         <v>49.620449066162109</v>
       </c>
     </row>
-    <row r="787" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="787" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A787" s="26" t="s">
         <v>750</v>
       </c>
@@ -51544,7 +51547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="788" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A788" s="26" t="s">
         <v>459</v>
       </c>
@@ -51599,7 +51602,7 @@
         <v>48.47438812</v>
       </c>
     </row>
-    <row r="789" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="789" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A789" s="26" t="s">
         <v>460</v>
       </c>
@@ -51654,7 +51657,7 @@
         <v>47.128639221191406</v>
       </c>
     </row>
-    <row r="790" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="790" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A790" s="26" t="s">
         <v>454</v>
       </c>
@@ -51711,7 +51714,7 @@
         <v>48.751937866210938</v>
       </c>
     </row>
-    <row r="791" spans="1:27" ht="15" customHeight="1">
+    <row r="791" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A791" s="28" t="s">
         <v>463</v>
       </c>
@@ -51766,7 +51769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="792" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A792" s="26" t="s">
         <v>464</v>
       </c>
@@ -51823,7 +51826,7 @@
         <v>97.826202392578125</v>
       </c>
     </row>
-    <row r="793" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="793" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A793" s="26" t="s">
         <v>465</v>
       </c>
@@ -51880,7 +51883,7 @@
         <v>48.948459625244141</v>
       </c>
     </row>
-    <row r="794" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="794" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A794" s="26" t="s">
         <v>466</v>
       </c>
@@ -51941,7 +51944,7 @@
         <v>48.426162719726562</v>
       </c>
     </row>
-    <row r="795" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="795" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A795" s="26" t="s">
         <v>461</v>
       </c>
@@ -51998,7 +52001,7 @@
         <v>48.872230529785156</v>
       </c>
     </row>
-    <row r="796" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="796" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A796" s="26" t="s">
         <v>462</v>
       </c>
@@ -52055,7 +52058,7 @@
         <v>48.912967681884766</v>
       </c>
     </row>
-    <row r="797" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="797" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A797" s="26" t="s">
         <v>467</v>
       </c>
@@ -52118,7 +52121,7 @@
         <v>47.055023193359375</v>
       </c>
     </row>
-    <row r="798" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="798" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A798" s="26" t="s">
         <v>468</v>
       </c>
@@ -52179,7 +52182,7 @@
         <v>46.296733856201172</v>
       </c>
     </row>
-    <row r="799" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="799" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A799" s="26" t="s">
         <v>469</v>
       </c>
@@ -52238,7 +52241,7 @@
         <v>48.180347442626953</v>
       </c>
     </row>
-    <row r="800" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="800" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A800" s="26" t="s">
         <v>470</v>
       </c>
@@ -52299,7 +52302,7 @@
         <v>47.225124359130859</v>
       </c>
     </row>
-    <row r="801" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="801" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A801" s="26" t="s">
         <v>471</v>
       </c>
@@ -52362,7 +52365,7 @@
         <v>46.986869812011719</v>
       </c>
     </row>
-    <row r="802" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="802" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A802" s="26" t="s">
         <v>472</v>
       </c>
@@ -52421,7 +52424,7 @@
         <v>46.816238403320312</v>
       </c>
     </row>
-    <row r="803" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="803" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A803" s="26" t="s">
         <v>473</v>
       </c>
@@ -52480,7 +52483,7 @@
         <v>48.869956970214844</v>
       </c>
     </row>
-    <row r="804" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="804" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A804" s="26" t="s">
         <v>474</v>
       </c>
@@ -52541,7 +52544,7 @@
         <v>47.639114379882812</v>
       </c>
     </row>
-    <row r="805" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="805" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A805" s="26" t="s">
         <v>475</v>
       </c>
@@ -52602,7 +52605,7 @@
         <v>47.296329498291016</v>
       </c>
     </row>
-    <row r="806" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="806" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A806" s="26" t="s">
         <v>476</v>
       </c>
@@ -52661,7 +52664,7 @@
         <v>48.371627807617188</v>
       </c>
     </row>
-    <row r="807" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="807" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A807" s="26" t="s">
         <v>477</v>
       </c>
@@ -52720,7 +52723,7 @@
         <v>49.542675018310547</v>
       </c>
     </row>
-    <row r="808" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="808" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A808" s="26" t="s">
         <v>478</v>
       </c>
@@ -52779,7 +52782,7 @@
         <v>47.595314025878906</v>
       </c>
     </row>
-    <row r="809" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="809" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A809" s="26" t="s">
         <v>479</v>
       </c>
@@ -52838,7 +52841,7 @@
         <v>46.852527618408203</v>
       </c>
     </row>
-    <row r="810" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="810" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A810" s="26" t="s">
         <v>480</v>
       </c>
@@ -52897,7 +52900,7 @@
         <v>46.911426544189453</v>
       </c>
     </row>
-    <row r="811" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="811" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A811" s="26" t="s">
         <v>481</v>
       </c>
@@ -52956,7 +52959,7 @@
         <v>43.36279296875</v>
       </c>
     </row>
-    <row r="812" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="812" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A812" s="26" t="s">
         <v>482</v>
       </c>
@@ -53015,7 +53018,7 @@
         <v>48.403995513916016</v>
       </c>
     </row>
-    <row r="813" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="813" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A813" s="26" t="s">
         <v>483</v>
       </c>
@@ -53074,7 +53077,7 @@
         <v>48.123992919921875</v>
       </c>
     </row>
-    <row r="814" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="814" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A814" s="26" t="s">
         <v>484</v>
       </c>
@@ -53133,7 +53136,7 @@
         <v>47.440841674804688</v>
       </c>
     </row>
-    <row r="815" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="815" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A815" s="26" t="s">
         <v>488</v>
       </c>
@@ -53192,7 +53195,7 @@
         <v>49.2791748046875</v>
       </c>
     </row>
-    <row r="816" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="816" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A816" s="26" t="s">
         <v>486</v>
       </c>
@@ -53251,7 +53254,7 @@
         <v>48.718448638916016</v>
       </c>
     </row>
-    <row r="817" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="817" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A817" s="26" t="s">
         <v>490</v>
       </c>
@@ -53304,7 +53307,7 @@
         <v>48.558864593505859</v>
       </c>
     </row>
-    <row r="818" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="818" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A818" s="26" t="s">
         <v>485</v>
       </c>
@@ -53361,7 +53364,7 @@
         <v>49.714954376220703</v>
       </c>
     </row>
-    <row r="819" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="819" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A819" s="26" t="s">
         <v>487</v>
       </c>
@@ -53420,7 +53423,7 @@
         <v>49.294193267822266</v>
       </c>
     </row>
-    <row r="820" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="820" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A820" s="26" t="s">
         <v>489</v>
       </c>
@@ -53479,7 +53482,7 @@
         <v>48.853374481201172</v>
       </c>
     </row>
-    <row r="821" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="821" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A821" s="26" t="s">
         <v>491</v>
       </c>
@@ -53538,7 +53541,7 @@
         <v>48.90570068359375</v>
       </c>
     </row>
-    <row r="822" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="822" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A822" s="26" t="s">
         <v>492</v>
       </c>
@@ -53597,7 +53600,7 @@
         <v>48.783832550048828</v>
       </c>
     </row>
-    <row r="823" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="823" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A823" s="26" t="s">
         <v>493</v>
       </c>
@@ -53656,7 +53659,7 @@
         <v>49.030220031738281</v>
       </c>
     </row>
-    <row r="824" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="824" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A824" s="26" t="s">
         <v>494</v>
       </c>
@@ -53715,7 +53718,7 @@
         <v>49.355293273925781</v>
       </c>
     </row>
-    <row r="825" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="825" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A825" s="26" t="s">
         <v>495</v>
       </c>
@@ -53774,7 +53777,7 @@
         <v>48.015159606933594</v>
       </c>
     </row>
-    <row r="826" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="826" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A826" s="26" t="s">
         <v>496</v>
       </c>
@@ -53835,7 +53838,7 @@
         <v>50.119232177734375</v>
       </c>
     </row>
-    <row r="827" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="827" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A827" s="26" t="s">
         <v>497</v>
       </c>
@@ -53894,7 +53897,7 @@
         <v>45.900760650634766</v>
       </c>
     </row>
-    <row r="828" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="828" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A828" s="26" t="s">
         <v>498</v>
       </c>
@@ -53953,7 +53956,7 @@
         <v>45.344173431396484</v>
       </c>
     </row>
-    <row r="829" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="829" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A829" s="26" t="s">
         <v>499</v>
       </c>
@@ -54012,7 +54015,7 @@
         <v>47.070499420166016</v>
       </c>
     </row>
-    <row r="830" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="830" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A830" s="26" t="s">
         <v>500</v>
       </c>
@@ -54065,7 +54068,7 @@
         <v>45.962955474853516</v>
       </c>
     </row>
-    <row r="831" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="831" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A831" s="26" t="s">
         <v>501</v>
       </c>
@@ -54118,7 +54121,7 @@
         <v>46.703392028808594</v>
       </c>
     </row>
-    <row r="832" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="832" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A832" s="26" t="s">
         <v>502</v>
       </c>
@@ -54177,7 +54180,7 @@
         <v>46.578365325927734</v>
       </c>
     </row>
-    <row r="833" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="833" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A833" s="26" t="s">
         <v>503</v>
       </c>
@@ -54240,7 +54243,7 @@
         <v>44.096504211425781</v>
       </c>
     </row>
-    <row r="834" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="834" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A834" s="26" t="s">
         <v>504</v>
       </c>
@@ -54299,7 +54302,7 @@
         <v>44.949844360351562</v>
       </c>
     </row>
-    <row r="835" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="835" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A835" s="26" t="s">
         <v>505</v>
       </c>
@@ -54352,7 +54355,7 @@
         <v>44.464786529541016</v>
       </c>
     </row>
-    <row r="836" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="836" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A836" s="26" t="s">
         <v>751</v>
       </c>
@@ -54407,7 +54410,7 @@
         <v>44.781131744384766</v>
       </c>
     </row>
-    <row r="837" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="837" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A837" s="26" t="s">
         <v>506</v>
       </c>
@@ -54466,7 +54469,7 @@
         <v>50.043720245361328</v>
       </c>
     </row>
-    <row r="838" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="838" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A838" s="26" t="s">
         <v>507</v>
       </c>
@@ -54525,7 +54528,7 @@
         <v>49.443557739257812</v>
       </c>
     </row>
-    <row r="839" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="839" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A839" s="26" t="s">
         <v>508</v>
       </c>
@@ -54578,7 +54581,7 @@
         <v>49.555194854736328</v>
       </c>
     </row>
-    <row r="840" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="840" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A840" s="26" t="s">
         <v>509</v>
       </c>
@@ -54631,7 +54634,7 @@
         <v>49.711639404296875</v>
       </c>
     </row>
-    <row r="841" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="841" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A841" s="26" t="s">
         <v>510</v>
       </c>
@@ -54684,7 +54687,7 @@
         <v>49.784774780273438</v>
       </c>
     </row>
-    <row r="842" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="842" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A842" s="26" t="s">
         <v>511</v>
       </c>
@@ -54737,7 +54740,7 @@
         <v>50.074428558349609</v>
       </c>
     </row>
-    <row r="843" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="843" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A843" s="26" t="s">
         <v>512</v>
       </c>
@@ -54796,7 +54799,7 @@
         <v>48.005973815917969</v>
       </c>
     </row>
-    <row r="844" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="844" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A844" s="26" t="s">
         <v>515</v>
       </c>
@@ -54859,7 +54862,7 @@
         <v>48.7952880859375</v>
       </c>
     </row>
-    <row r="845" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="845" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A845" s="26" t="s">
         <v>513</v>
       </c>
@@ -54918,7 +54921,7 @@
         <v>49.255126953125</v>
       </c>
     </row>
-    <row r="846" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="846" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A846" s="26" t="s">
         <v>514</v>
       </c>
@@ -54977,7 +54980,7 @@
         <v>49.537654876708984</v>
       </c>
     </row>
-    <row r="847" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="847" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A847" s="26" t="s">
         <v>516</v>
       </c>
@@ -55036,7 +55039,7 @@
         <v>47.319087982177734</v>
       </c>
     </row>
-    <row r="848" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="848" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A848" s="26" t="s">
         <v>517</v>
       </c>
@@ -55095,7 +55098,7 @@
         <v>46.155834197998047</v>
       </c>
     </row>
-    <row r="849" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="849" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A849" s="26" t="s">
         <v>709</v>
       </c>
@@ -55152,7 +55155,7 @@
         <v>48.023929595947266</v>
       </c>
     </row>
-    <row r="850" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="850" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A850" s="26" t="s">
         <v>522</v>
       </c>
@@ -55211,7 +55214,7 @@
         <v>47.555675506591797</v>
       </c>
     </row>
-    <row r="851" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="851" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A851" s="26" t="s">
         <v>519</v>
       </c>
@@ -55272,7 +55275,7 @@
         <v>48.115947723388672</v>
       </c>
     </row>
-    <row r="852" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="852" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A852" s="26" t="s">
         <v>520</v>
       </c>
@@ -55331,7 +55334,7 @@
         <v>47.937004089355469</v>
       </c>
     </row>
-    <row r="853" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="853" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A853" s="26" t="s">
         <v>518</v>
       </c>
@@ -55384,7 +55387,7 @@
         <v>47.745338439941406</v>
       </c>
     </row>
-    <row r="854" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="854" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A854" s="26" t="s">
         <v>523</v>
       </c>
@@ -55443,7 +55446,7 @@
         <v>46.803779602050781</v>
       </c>
     </row>
-    <row r="855" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="855" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A855" s="26" t="s">
         <v>521</v>
       </c>
@@ -55502,7 +55505,7 @@
         <v>47.454387664794922</v>
       </c>
     </row>
-    <row r="856" spans="1:27" ht="15" customHeight="1">
+    <row r="856" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A856" s="22" t="s">
         <v>1237</v>
       </c>
@@ -55519,7 +55522,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="857" spans="1:27" ht="15" customHeight="1">
+    <row r="857" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A857" s="22" t="s">
         <v>1238</v>
       </c>
@@ -55537,7 +55540,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA1"/>
+  <autoFilter ref="A1:AA857">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="H336:K397 H399:K462">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>"&lt;.001"</formula>

--- a/analyses/data/Summer 2015 Tree Traits.xlsx
+++ b/analyses/data/Summer 2015 Tree Traits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="21480" windowHeight="28260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="Summary" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Traits!$A$1:$AA$853</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Traits!$A$1:$AA$855</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -7886,7 +7886,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -12711,14 +12711,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AA855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L365" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M369" sqref="M369"/>
+      <selection pane="bottomRight" activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -12818,7 +12817,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -12860,7 +12859,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -12953,7 +12952,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -13079,7 +13078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>1176</v>
       </c>
@@ -13105,7 +13104,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>1201</v>
       </c>
@@ -13128,7 +13127,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>1211</v>
       </c>
@@ -13151,7 +13150,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="11" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>1214</v>
       </c>
@@ -13174,7 +13173,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
@@ -13273,7 +13272,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
@@ -13324,7 +13323,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>16</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>17</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:23" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -13505,7 +13504,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:23" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:23" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -13562,7 +13561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:23" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:23" ht="15" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -13625,7 +13624,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:23" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -13652,7 +13651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>25</v>
       </c>
@@ -13736,7 +13735,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>26</v>
       </c>
@@ -13772,7 +13771,7 @@
         <v>0.5</v>
       </c>
       <c r="L26" s="14">
-        <f>CEILING(-P26+Q26,1)</f>
+        <f t="shared" ref="L26:L32" si="1">CEILING(-P26+Q26,1)</f>
         <v>7</v>
       </c>
       <c r="P26" s="14">
@@ -13785,7 +13784,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>27</v>
       </c>
@@ -13821,7 +13820,7 @@
         <v>1.19</v>
       </c>
       <c r="L27" s="14">
-        <f>CEILING(-P27+Q27,1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="P27" s="14">
@@ -13837,7 +13836,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>28</v>
       </c>
@@ -13873,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="14">
-        <f>CEILING(-P28+Q28,1)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="P28" s="14">
@@ -13886,7 +13885,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
@@ -13922,7 +13921,7 @@
         <v>1.03</v>
       </c>
       <c r="L29" s="14">
-        <f>CEILING(-P29+Q29,1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="P29" s="14">
@@ -13938,7 +13937,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>30</v>
       </c>
@@ -13974,7 +13973,7 @@
         <v>0.67</v>
       </c>
       <c r="L30" s="14">
-        <f>CEILING(-P30+Q30,1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P30" s="14">
@@ -13987,7 +13986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -14023,7 +14022,7 @@
         <v>0.84</v>
       </c>
       <c r="L31" s="14">
-        <f>CEILING(-P31+Q31,1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="P31" s="14">
@@ -14036,7 +14035,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
@@ -14072,7 +14071,7 @@
         <v>1.29</v>
       </c>
       <c r="L32" s="14">
-        <f>CEILING(-P32+Q32,1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P32" s="14">
@@ -14085,7 +14084,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:23" ht="15" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -14115,7 +14114,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>34</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:23" ht="15" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -14191,7 +14190,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:23" ht="15" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -14221,7 +14220,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:23" ht="15" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -14248,7 +14247,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:23" ht="15" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -14256,7 +14255,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f t="shared" ref="C38:C60" si="1">LEFT(A38,6)</f>
+        <f t="shared" ref="C38:C60" si="2">LEFT(A38,6)</f>
         <v>ACESPI</v>
       </c>
       <c r="D38" s="6">
@@ -14275,7 +14274,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:23" ht="15" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -14283,7 +14282,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ACESPI</v>
       </c>
       <c r="D39" s="6">
@@ -14311,7 +14310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:23" ht="15" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ACESPI</v>
       </c>
       <c r="D40" s="6">
@@ -14341,7 +14340,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:23" ht="15" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -14349,7 +14348,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ACESPI</v>
       </c>
       <c r="D41" s="6">
@@ -14368,7 +14367,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:23" ht="15" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>1203</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ACESPI</v>
       </c>
       <c r="D42" s="6"/>
@@ -14389,7 +14388,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:23" ht="15" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>1213</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ACESPI</v>
       </c>
       <c r="D43" s="6"/>
@@ -14416,7 +14415,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>42</v>
       </c>
@@ -14424,7 +14423,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D44" s="15">
@@ -14461,7 +14460,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>43</v>
       </c>
@@ -14469,7 +14468,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D45" s="15">
@@ -14506,7 +14505,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>44</v>
       </c>
@@ -14514,7 +14513,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D46" s="15">
@@ -14551,7 +14550,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>45</v>
       </c>
@@ -14559,7 +14558,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D47" s="15">
@@ -14593,7 +14592,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>46</v>
       </c>
@@ -14601,7 +14600,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D48" s="15">
@@ -14645,7 +14644,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>47</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D49" s="15">
@@ -14702,7 +14701,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>48</v>
       </c>
@@ -14710,7 +14709,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D50" s="15">
@@ -14753,7 +14752,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:23" ht="15" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ALNINC</v>
       </c>
       <c r="D51" s="6">
@@ -14780,7 +14779,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>243</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMECAN</v>
       </c>
       <c r="D52" s="14">
@@ -14822,7 +14821,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>244</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMECAN</v>
       </c>
       <c r="D53" s="14">
@@ -14867,7 +14866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="15" t="s">
         <v>245</v>
       </c>
@@ -14875,7 +14874,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMECAN</v>
       </c>
       <c r="D54" s="14">
@@ -14921,7 +14920,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>246</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMECAN</v>
       </c>
       <c r="D55" s="14">
@@ -14969,7 +14968,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="15" t="s">
         <v>247</v>
       </c>
@@ -14977,7 +14976,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMECAN</v>
       </c>
       <c r="D56" s="14">
@@ -15023,7 +15022,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>248</v>
       </c>
@@ -15031,7 +15030,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMECAN</v>
       </c>
       <c r="D57" s="14">
@@ -15077,7 +15076,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="15" t="s">
         <v>1218</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMECAN</v>
       </c>
       <c r="L58" s="14">
@@ -15104,7 +15103,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="15" t="s">
         <v>249</v>
       </c>
@@ -15112,7 +15111,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMELAE</v>
       </c>
       <c r="D59" s="14">
@@ -15149,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="15" t="s">
         <v>250</v>
       </c>
@@ -15157,7 +15156,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMELAE</v>
       </c>
       <c r="D60" s="14">
@@ -15203,7 +15202,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="15" t="s">
         <v>251</v>
       </c>
@@ -15250,7 +15249,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="15" t="s">
         <v>252</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="15" t="str">
-        <f t="shared" ref="C62:C84" si="2">LEFT(A62,6)</f>
+        <f t="shared" ref="C62:C84" si="3">LEFT(A62,6)</f>
         <v>AMELAE</v>
       </c>
       <c r="D62" s="14">
@@ -15292,7 +15291,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="15" t="s">
         <v>253</v>
       </c>
@@ -15300,7 +15299,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AMELAE</v>
       </c>
       <c r="D63" s="14">
@@ -15334,7 +15333,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>254</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AMELAE</v>
       </c>
       <c r="D64" s="14">
@@ -15388,7 +15387,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="15" t="s">
         <v>50</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D65" s="15">
@@ -15436,7 +15435,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="15" t="s">
         <v>51</v>
       </c>
@@ -15444,7 +15443,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D66" s="15">
@@ -15484,7 +15483,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="15" t="s">
         <v>52</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D67" s="15">
@@ -15532,7 +15531,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="15" t="s">
         <v>53</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D68" s="15">
@@ -15580,7 +15579,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="15" t="s">
         <v>54</v>
       </c>
@@ -15588,7 +15587,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D69" s="15">
@@ -15628,7 +15627,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="15" t="s">
         <v>55</v>
       </c>
@@ -15636,7 +15635,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D70" s="15">
@@ -15677,7 +15676,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="15" t="s">
         <v>56</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D71" s="15">
@@ -15713,7 +15712,7 @@
         <v>0.83</v>
       </c>
       <c r="L71" s="14">
-        <f t="shared" ref="L71:L73" si="3">CEILING(-P71+Q71,1)</f>
+        <f t="shared" ref="L71:L72" si="4">CEILING(-P71+Q71,1)</f>
         <v>16</v>
       </c>
       <c r="P71" s="14">
@@ -15729,7 +15728,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="15" t="s">
         <v>57</v>
       </c>
@@ -15737,7 +15736,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D72" s="15">
@@ -15765,7 +15764,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="L72" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="P72" s="14">
@@ -15787,7 +15786,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="15" t="s">
         <v>58</v>
       </c>
@@ -15795,7 +15794,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D73" s="15">
@@ -15835,7 +15834,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:23" ht="15" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>59</v>
       </c>
@@ -15843,7 +15842,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D74" s="6">
@@ -15864,7 +15863,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="15" t="s">
         <v>60</v>
       </c>
@@ -15872,7 +15871,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D75" s="15">
@@ -15915,7 +15914,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="76" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="15" t="s">
         <v>61</v>
       </c>
@@ -15923,7 +15922,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D76" s="15">
@@ -15964,7 +15963,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="15" t="s">
         <v>1212</v>
       </c>
@@ -15972,7 +15971,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETALL</v>
       </c>
       <c r="D77" s="15"/>
@@ -15984,7 +15983,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="15" t="s">
         <v>62</v>
       </c>
@@ -15992,7 +15991,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETPAP</v>
       </c>
       <c r="D78" s="15">
@@ -16033,7 +16032,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="79" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="15" t="s">
         <v>63</v>
       </c>
@@ -16041,7 +16040,7 @@
         <v>6</v>
       </c>
       <c r="C79" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETPAP</v>
       </c>
       <c r="D79" s="15">
@@ -16081,7 +16080,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="15" t="s">
         <v>64</v>
       </c>
@@ -16089,7 +16088,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETPAP</v>
       </c>
       <c r="D80" s="15">
@@ -16136,7 +16135,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="15" t="s">
         <v>65</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>6</v>
       </c>
       <c r="C81" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETPAP</v>
       </c>
       <c r="D81" s="15">
@@ -16198,7 +16197,7 @@
       </c>
       <c r="W81" s="52"/>
     </row>
-    <row r="82" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="82" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="15" t="s">
         <v>66</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETPAP</v>
       </c>
       <c r="D82" s="15">
@@ -16250,7 +16249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="15" t="s">
         <v>67</v>
       </c>
@@ -16258,7 +16257,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETPAP</v>
       </c>
       <c r="D83" s="15">
@@ -16308,7 +16307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:27" ht="15" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>68</v>
       </c>
@@ -16316,7 +16315,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BETPOP</v>
       </c>
       <c r="D84" s="6">
@@ -16338,7 +16337,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="19" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>306</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="17" t="str">
-        <f t="shared" ref="C85:C87" si="4">LEFT(A85,6)</f>
+        <f t="shared" ref="C85:C87" si="5">LEFT(A85,6)</f>
         <v>BETPOP</v>
       </c>
       <c r="D85" s="17"/>
@@ -16362,7 +16361,7 @@
       <c r="Z85"/>
       <c r="AA85"/>
     </row>
-    <row r="86" spans="1:27" s="19" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="17" t="s">
         <v>307</v>
       </c>
@@ -16370,7 +16369,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BETPOP</v>
       </c>
       <c r="D86" s="17"/>
@@ -16393,7 +16392,7 @@
       <c r="Z86"/>
       <c r="AA86"/>
     </row>
-    <row r="87" spans="1:27" s="19" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="17" t="s">
         <v>1181</v>
       </c>
@@ -16401,7 +16400,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BETPOP</v>
       </c>
       <c r="D87" s="17"/>
@@ -16432,7 +16431,7 @@
       <c r="Z87"/>
       <c r="AA87"/>
     </row>
-    <row r="88" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="15" t="s">
         <v>69</v>
       </c>
@@ -16440,7 +16439,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="15" t="str">
-        <f t="shared" ref="C88:C125" si="5">LEFT(A88,6)</f>
+        <f t="shared" ref="C88:C125" si="6">LEFT(A88,6)</f>
         <v>CORALT</v>
       </c>
       <c r="D88" s="15">
@@ -16474,7 +16473,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:27" ht="15" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>70</v>
       </c>
@@ -16482,7 +16481,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="D89" s="6">
@@ -16504,7 +16503,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="15" t="s">
         <v>71</v>
       </c>
@@ -16512,7 +16511,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="D90" s="15">
@@ -16546,7 +16545,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="15" t="s">
         <v>72</v>
       </c>
@@ -16554,7 +16553,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="D91" s="15">
@@ -16588,7 +16587,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="15" t="s">
         <v>73</v>
       </c>
@@ -16596,7 +16595,7 @@
         <v>6</v>
       </c>
       <c r="C92" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="D92" s="15">
@@ -16642,7 +16641,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="15" t="s">
         <v>255</v>
       </c>
@@ -16650,7 +16649,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="D93" s="14">
@@ -16677,8 +16676,8 @@
       <c r="K93" s="14">
         <v>1.37</v>
       </c>
-      <c r="L93" s="14" t="s">
-        <v>295</v>
+      <c r="L93" s="14">
+        <v>1</v>
       </c>
       <c r="R93" s="46" t="s">
         <v>295</v>
@@ -16687,7 +16686,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="15" t="s">
         <v>281</v>
       </c>
@@ -16695,7 +16694,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="D94" s="14">
@@ -16738,7 +16737,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="15" t="s">
         <v>1189</v>
       </c>
@@ -16746,7 +16745,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="L95" s="14">
@@ -16757,7 +16756,7 @@
       </c>
       <c r="U95" s="52"/>
     </row>
-    <row r="96" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="15" t="s">
         <v>1204</v>
       </c>
@@ -16765,7 +16764,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORALT</v>
       </c>
       <c r="R96" s="46">
@@ -16784,7 +16783,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="15" t="s">
         <v>74</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D97" s="15">
@@ -16829,7 +16828,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="15" t="s">
         <v>75</v>
       </c>
@@ -16837,7 +16836,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D98" s="15">
@@ -16880,7 +16879,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="15" t="s">
         <v>76</v>
       </c>
@@ -16888,7 +16887,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D99" s="15">
@@ -16925,7 +16924,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="15" t="s">
         <v>77</v>
       </c>
@@ -16933,7 +16932,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D100" s="15">
@@ -16976,7 +16975,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="15" t="s">
         <v>78</v>
       </c>
@@ -16984,7 +16983,7 @@
         <v>6</v>
       </c>
       <c r="C101" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D101" s="15">
@@ -17021,7 +17020,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="15" t="s">
         <v>79</v>
       </c>
@@ -17029,7 +17028,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D102" s="15">
@@ -17078,7 +17077,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="15" t="s">
         <v>80</v>
       </c>
@@ -17086,7 +17085,7 @@
         <v>6</v>
       </c>
       <c r="C103" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D103" s="15">
@@ -17135,7 +17134,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="15" t="s">
         <v>294</v>
       </c>
@@ -17143,7 +17142,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="H104" s="14">
@@ -17163,7 +17162,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:27" ht="15" customHeight="1">
       <c r="A105" s="6" t="s">
         <v>81</v>
       </c>
@@ -17171,7 +17170,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CORCOR</v>
       </c>
       <c r="D105" s="6">
@@ -17193,7 +17192,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:27" ht="15" customHeight="1">
       <c r="A106" s="6" t="s">
         <v>82</v>
       </c>
@@ -17201,7 +17200,7 @@
         <v>6</v>
       </c>
       <c r="C106" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D106" s="6">
@@ -17223,7 +17222,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:27" ht="15" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>83</v>
       </c>
@@ -17231,7 +17230,7 @@
         <v>6</v>
       </c>
       <c r="C107" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D107" s="6">
@@ -17256,7 +17255,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:27" ht="15" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>84</v>
       </c>
@@ -17264,7 +17263,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D108" s="6">
@@ -17286,7 +17285,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:27" ht="15" customHeight="1">
       <c r="A109" s="6" t="s">
         <v>85</v>
       </c>
@@ -17294,7 +17293,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D109" s="6">
@@ -17316,7 +17315,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:27" ht="15" customHeight="1">
       <c r="A110" s="6" t="s">
         <v>86</v>
       </c>
@@ -17324,7 +17323,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D110" s="6">
@@ -17343,7 +17342,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="16" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:27" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="6" t="s">
         <v>87</v>
       </c>
@@ -17351,7 +17350,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D111" s="6">
@@ -17389,7 +17388,7 @@
       <c r="Z111"/>
       <c r="AA111"/>
     </row>
-    <row r="112" spans="1:27" s="16" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:27" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="6" t="s">
         <v>88</v>
       </c>
@@ -17397,7 +17396,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D112" s="6">
@@ -17435,7 +17434,7 @@
       <c r="Z112"/>
       <c r="AA112"/>
     </row>
-    <row r="113" spans="1:27" s="13" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="6" t="s">
         <v>89</v>
       </c>
@@ -17443,7 +17442,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DIELON</v>
       </c>
       <c r="D113" s="6">
@@ -17485,7 +17484,7 @@
       <c r="Z113"/>
       <c r="AA113"/>
     </row>
-    <row r="114" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="15" t="s">
         <v>90</v>
       </c>
@@ -17493,7 +17492,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D114" s="15">
@@ -17534,7 +17533,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="15" t="s">
         <v>91</v>
       </c>
@@ -17542,7 +17541,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D115" s="15">
@@ -17576,7 +17575,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="116" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="15" t="s">
         <v>92</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D116" s="15">
@@ -17624,7 +17623,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="15" t="s">
         <v>93</v>
       </c>
@@ -17632,7 +17631,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D117" s="15">
@@ -17675,7 +17674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="15" t="s">
         <v>94</v>
       </c>
@@ -17683,7 +17682,7 @@
         <v>6</v>
       </c>
       <c r="C118" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D118" s="15">
@@ -17717,7 +17716,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="15" t="s">
         <v>95</v>
       </c>
@@ -17725,7 +17724,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D119" s="15">
@@ -17766,7 +17765,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="120" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="15" t="s">
         <v>1205</v>
       </c>
@@ -17774,7 +17773,7 @@
         <v>6</v>
       </c>
       <c r="C120" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D120" s="15"/>
@@ -17789,7 +17788,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="15" t="s">
         <v>1207</v>
       </c>
@@ -17797,7 +17796,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D121" s="15"/>
@@ -17809,7 +17808,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="15" t="s">
         <v>1208</v>
       </c>
@@ -17817,7 +17816,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FAGGRA</v>
       </c>
       <c r="D122" s="15"/>
@@ -17832,7 +17831,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="15" t="s">
         <v>1217</v>
       </c>
@@ -17840,7 +17839,7 @@
         <v>6</v>
       </c>
       <c r="C123" s="15" t="str">
-        <f t="shared" ref="C123" si="6">LEFT(A123,6)</f>
+        <f t="shared" ref="C123" si="7">LEFT(A123,6)</f>
         <v>FAGGRA</v>
       </c>
       <c r="D123" s="15"/>
@@ -17852,7 +17851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:27" ht="15" customHeight="1">
       <c r="A124" s="6" t="s">
         <v>96</v>
       </c>
@@ -17860,7 +17859,7 @@
         <v>6</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRAAME</v>
       </c>
       <c r="D124" s="6">
@@ -17882,7 +17881,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="15" t="s">
         <v>97</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>6</v>
       </c>
       <c r="C125" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRAAME</v>
       </c>
       <c r="D125" s="15">
@@ -17927,7 +17926,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="126" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="15" t="s">
         <v>98</v>
       </c>
@@ -17935,7 +17934,7 @@
         <v>6</v>
       </c>
       <c r="C126" s="15" t="str">
-        <f t="shared" ref="C126:C162" si="7">LEFT(A126,6)</f>
+        <f t="shared" ref="C126:C162" si="8">LEFT(A126,6)</f>
         <v>FRAAME</v>
       </c>
       <c r="D126" s="15">
@@ -17969,7 +17968,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="15" t="s">
         <v>256</v>
       </c>
@@ -17977,7 +17976,7 @@
         <v>6</v>
       </c>
       <c r="C127" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRAAME</v>
       </c>
       <c r="D127" s="14">
@@ -18014,7 +18013,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="128" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="15" t="s">
         <v>298</v>
       </c>
@@ -18022,7 +18021,7 @@
         <v>6</v>
       </c>
       <c r="C128" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRAAME</v>
       </c>
       <c r="H128" s="14">
@@ -18038,7 +18037,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="15" t="s">
         <v>282</v>
       </c>
@@ -18046,7 +18045,7 @@
         <v>6</v>
       </c>
       <c r="C129" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRAAME</v>
       </c>
       <c r="D129" s="14">
@@ -18080,7 +18079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="15" t="s">
         <v>283</v>
       </c>
@@ -18088,7 +18087,7 @@
         <v>6</v>
       </c>
       <c r="C130" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRAAME</v>
       </c>
       <c r="G130" s="14">
@@ -18116,7 +18115,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="15" t="s">
         <v>99</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>6</v>
       </c>
       <c r="C131" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D131" s="15">
@@ -18158,7 +18157,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="15" t="s">
         <v>100</v>
       </c>
@@ -18166,7 +18165,7 @@
         <v>6</v>
       </c>
       <c r="C132" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D132" s="15">
@@ -18200,7 +18199,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="15" t="s">
         <v>101</v>
       </c>
@@ -18208,7 +18207,7 @@
         <v>6</v>
       </c>
       <c r="C133" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D133" s="15">
@@ -18242,7 +18241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="15" t="s">
         <v>102</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>6</v>
       </c>
       <c r="C134" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D134" s="15">
@@ -18284,7 +18283,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="15" t="s">
         <v>103</v>
       </c>
@@ -18292,7 +18291,7 @@
         <v>6</v>
       </c>
       <c r="C135" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D135" s="15">
@@ -18326,7 +18325,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="15" t="s">
         <v>104</v>
       </c>
@@ -18334,7 +18333,7 @@
         <v>6</v>
       </c>
       <c r="C136" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D136" s="15">
@@ -18368,7 +18367,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="15" t="s">
         <v>105</v>
       </c>
@@ -18376,7 +18375,7 @@
         <v>6</v>
       </c>
       <c r="C137" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D137" s="15">
@@ -18410,7 +18409,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="15" t="s">
         <v>106</v>
       </c>
@@ -18418,7 +18417,7 @@
         <v>6</v>
       </c>
       <c r="C138" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D138" s="15">
@@ -18452,7 +18451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="139" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="15" t="s">
         <v>1192</v>
       </c>
@@ -18460,7 +18459,7 @@
         <v>6</v>
       </c>
       <c r="C139" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>FRANIG</v>
       </c>
       <c r="D139" s="15"/>
@@ -18475,7 +18474,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="15" t="s">
         <v>107</v>
       </c>
@@ -18483,7 +18482,7 @@
         <v>6</v>
       </c>
       <c r="C140" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="D140" s="15">
@@ -18517,7 +18516,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="141" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="15" t="s">
         <v>108</v>
       </c>
@@ -18525,7 +18524,7 @@
         <v>6</v>
       </c>
       <c r="C141" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="D141" s="15">
@@ -18562,7 +18561,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="15" t="s">
         <v>109</v>
       </c>
@@ -18570,7 +18569,7 @@
         <v>6</v>
       </c>
       <c r="C142" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="D142" s="15">
@@ -18604,7 +18603,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="15" t="s">
         <v>110</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>6</v>
       </c>
       <c r="C143" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="D143" s="15">
@@ -18655,7 +18654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="15" t="s">
         <v>111</v>
       </c>
@@ -18663,7 +18662,7 @@
         <v>6</v>
       </c>
       <c r="C144" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="D144" s="15">
@@ -18703,7 +18702,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="15" t="s">
         <v>257</v>
       </c>
@@ -18711,7 +18710,7 @@
         <v>6</v>
       </c>
       <c r="C145" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="D145" s="14">
@@ -18745,7 +18744,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="15" t="s">
         <v>1183</v>
       </c>
@@ -18753,7 +18752,7 @@
         <v>6</v>
       </c>
       <c r="C146" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="L146" s="14">
@@ -18763,7 +18762,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="15" t="s">
         <v>1184</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>6</v>
       </c>
       <c r="C147" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ILEMUC</v>
       </c>
       <c r="L147" s="14">
@@ -18784,7 +18783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="15" t="s">
         <v>1215</v>
       </c>
@@ -18792,7 +18791,7 @@
         <v>6</v>
       </c>
       <c r="C148" s="15" t="str">
-        <f t="shared" ref="C148:C149" si="8">LEFT(A148,6)</f>
+        <f t="shared" ref="C148:C149" si="9">LEFT(A148,6)</f>
         <v>ILEMUC</v>
       </c>
       <c r="L148" s="14">
@@ -18805,7 +18804,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="15" t="s">
         <v>1216</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>6</v>
       </c>
       <c r="C149" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ILEMUC</v>
       </c>
       <c r="L149" s="14">
@@ -18823,7 +18822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="15" t="s">
         <v>284</v>
       </c>
@@ -18831,7 +18830,7 @@
         <v>6</v>
       </c>
       <c r="C150" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KALANG</v>
       </c>
       <c r="D150" s="14">
@@ -18865,7 +18864,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="15" t="s">
         <v>285</v>
       </c>
@@ -18873,7 +18872,7 @@
         <v>6</v>
       </c>
       <c r="C151" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KALANG</v>
       </c>
       <c r="D151" s="14">
@@ -18907,7 +18906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="15" t="s">
         <v>286</v>
       </c>
@@ -18915,7 +18914,7 @@
         <v>6</v>
       </c>
       <c r="C152" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KALANG</v>
       </c>
       <c r="D152" s="14">
@@ -18949,7 +18948,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="15" t="s">
         <v>287</v>
       </c>
@@ -18957,7 +18956,7 @@
         <v>6</v>
       </c>
       <c r="C153" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KALANG</v>
       </c>
       <c r="D153" s="14">
@@ -18991,7 +18990,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="15" t="s">
         <v>288</v>
       </c>
@@ -18999,7 +18998,7 @@
         <v>6</v>
       </c>
       <c r="C154" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KALANG</v>
       </c>
       <c r="G154" s="14">
@@ -19024,7 +19023,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="15" t="s">
         <v>289</v>
       </c>
@@ -19032,7 +19031,7 @@
         <v>6</v>
       </c>
       <c r="C155" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>KALANG</v>
       </c>
       <c r="G155" s="14">
@@ -19057,7 +19056,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="156" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="15" t="s">
         <v>112</v>
       </c>
@@ -19065,7 +19064,7 @@
         <v>6</v>
       </c>
       <c r="C156" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LONCAN</v>
       </c>
       <c r="D156" s="15">
@@ -19102,7 +19101,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="157" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="15" t="s">
         <v>113</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LONCAN</v>
       </c>
       <c r="D157" s="15">
@@ -19159,7 +19158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="158" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="15" t="s">
         <v>114</v>
       </c>
@@ -19167,7 +19166,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LONCAN</v>
       </c>
       <c r="D158" s="15">
@@ -19207,7 +19206,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="15" t="s">
         <v>114</v>
       </c>
@@ -19215,7 +19214,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LONCAN</v>
       </c>
       <c r="D159" s="15">
@@ -19249,7 +19248,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:23" ht="15" customHeight="1">
       <c r="A160" s="6" t="s">
         <v>115</v>
       </c>
@@ -19257,7 +19256,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LONCAN</v>
       </c>
       <c r="D160" s="6">
@@ -19276,7 +19275,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A161" s="15" t="s">
         <v>116</v>
       </c>
@@ -19284,7 +19283,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LONCAN</v>
       </c>
       <c r="D161" s="15">
@@ -19324,7 +19323,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="15" t="s">
         <v>117</v>
       </c>
@@ -19332,7 +19331,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LONCAN</v>
       </c>
       <c r="D162" s="15">
@@ -19366,7 +19365,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A163" s="15" t="s">
         <v>118</v>
       </c>
@@ -19374,7 +19373,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="15" t="str">
-        <f t="shared" ref="C163:C198" si="9">LEFT(A163,6)</f>
+        <f t="shared" ref="C163:C198" si="10">LEFT(A163,6)</f>
         <v>LONCAN</v>
       </c>
       <c r="D163" s="15">
@@ -19411,7 +19410,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="15" t="s">
         <v>1188</v>
       </c>
@@ -19419,7 +19418,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>LONCAN</v>
       </c>
       <c r="D164" s="15"/>
@@ -19434,7 +19433,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A165" s="15" t="s">
         <v>258</v>
       </c>
@@ -19442,7 +19441,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MYRGAL</v>
       </c>
       <c r="D165" s="14">
@@ -19476,7 +19475,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="15" t="s">
         <v>259</v>
       </c>
@@ -19484,7 +19483,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MYRGAL</v>
       </c>
       <c r="D166" s="14">
@@ -19518,7 +19517,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="15" t="s">
         <v>260</v>
       </c>
@@ -19526,7 +19525,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MYRGAL</v>
       </c>
       <c r="D167" s="14">
@@ -19560,7 +19559,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="15" t="s">
         <v>261</v>
       </c>
@@ -19568,7 +19567,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MYRGAL</v>
       </c>
       <c r="D168" s="14">
@@ -19602,7 +19601,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="15" t="s">
         <v>262</v>
       </c>
@@ -19610,7 +19609,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MYRGAL</v>
       </c>
       <c r="G169" s="14">
@@ -19635,7 +19634,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="15" t="s">
         <v>263</v>
       </c>
@@ -19643,7 +19642,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>MYRGAL</v>
       </c>
       <c r="D170" s="14">
@@ -19677,7 +19676,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:27" s="13" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="6" t="s">
         <v>119</v>
       </c>
@@ -19685,7 +19684,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="D171" s="6">
@@ -19723,7 +19722,7 @@
       <c r="Z171"/>
       <c r="AA171"/>
     </row>
-    <row r="172" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="15" t="s">
         <v>120</v>
       </c>
@@ -19731,7 +19730,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="D172" s="15">
@@ -19772,7 +19771,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="15" t="s">
         <v>121</v>
       </c>
@@ -19780,7 +19779,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="D173" s="15">
@@ -19821,7 +19820,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="174" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="15" t="s">
         <v>122</v>
       </c>
@@ -19829,7 +19828,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="D174" s="15">
@@ -19863,7 +19862,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:27" s="13" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="6" t="s">
         <v>123</v>
       </c>
@@ -19871,7 +19870,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="D175" s="6">
@@ -19909,7 +19908,7 @@
       <c r="Z175"/>
       <c r="AA175"/>
     </row>
-    <row r="176" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="15" t="s">
         <v>124</v>
       </c>
@@ -19917,7 +19916,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="D176" s="15">
@@ -19951,7 +19950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="177" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="15" t="s">
         <v>264</v>
       </c>
@@ -19959,7 +19958,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="D177" s="14">
@@ -20006,7 +20005,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="15" t="s">
         <v>1175</v>
       </c>
@@ -20014,7 +20013,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>POPTRE</v>
       </c>
       <c r="L178" s="14">
@@ -20024,7 +20023,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="179" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="15" t="s">
         <v>125</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D179" s="15">
@@ -20072,7 +20071,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:23" ht="15" customHeight="1">
       <c r="A180" s="6" t="s">
         <v>126</v>
       </c>
@@ -20080,7 +20079,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D180" s="6">
@@ -20099,7 +20098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="15" t="s">
         <v>127</v>
       </c>
@@ -20107,7 +20106,7 @@
         <v>6</v>
       </c>
       <c r="C181" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D181" s="15">
@@ -20150,7 +20149,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="182" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="15" t="s">
         <v>128</v>
       </c>
@@ -20158,7 +20157,7 @@
         <v>6</v>
       </c>
       <c r="C182" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D182" s="15">
@@ -20195,7 +20194,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="183" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="15" t="s">
         <v>129</v>
       </c>
@@ -20203,7 +20202,7 @@
         <v>6</v>
       </c>
       <c r="C183" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D183" s="15">
@@ -20240,7 +20239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="15" t="s">
         <v>130</v>
       </c>
@@ -20248,7 +20247,7 @@
         <v>6</v>
       </c>
       <c r="C184" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D184" s="15">
@@ -20288,7 +20287,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="185" spans="1:23" ht="15" customHeight="1">
       <c r="A185" s="6" t="s">
         <v>131</v>
       </c>
@@ -20296,7 +20295,7 @@
         <v>6</v>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D185" s="6">
@@ -20315,7 +20314,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="186" spans="1:23" ht="15" customHeight="1">
       <c r="A186" s="6" t="s">
         <v>132</v>
       </c>
@@ -20323,7 +20322,7 @@
         <v>6</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D186" s="6">
@@ -20342,7 +20341,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="187" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="187" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="15" t="s">
         <v>265</v>
       </c>
@@ -20350,7 +20349,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="D187" s="14">
@@ -20393,7 +20392,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="188" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="188" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="15" t="s">
         <v>1187</v>
       </c>
@@ -20401,7 +20400,7 @@
         <v>6</v>
       </c>
       <c r="C188" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>PRUPEN</v>
       </c>
       <c r="L188" s="14">
@@ -20411,7 +20410,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="189" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="189" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="15" t="s">
         <v>266</v>
       </c>
@@ -20419,7 +20418,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>QUERUB</v>
       </c>
       <c r="D189" s="14">
@@ -20459,7 +20458,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="190" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="190" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="15" t="s">
         <v>267</v>
       </c>
@@ -20467,7 +20466,7 @@
         <v>6</v>
       </c>
       <c r="C190" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RHAFRA</v>
       </c>
       <c r="D190" s="14">
@@ -20504,7 +20503,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="191" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="15" t="s">
         <v>133</v>
       </c>
@@ -20512,7 +20511,7 @@
         <v>6</v>
       </c>
       <c r="C191" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RHOPRI</v>
       </c>
       <c r="D191" s="15">
@@ -20546,7 +20545,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="192" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="192" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="15" t="s">
         <v>268</v>
       </c>
@@ -20554,7 +20553,7 @@
         <v>6</v>
       </c>
       <c r="C192" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RHOPRI</v>
       </c>
       <c r="D192" s="14">
@@ -20588,7 +20587,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="193" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="193" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="15" t="s">
         <v>269</v>
       </c>
@@ -20596,7 +20595,7 @@
         <v>6</v>
       </c>
       <c r="C193" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RHOPRI</v>
       </c>
       <c r="D193" s="14">
@@ -20630,7 +20629,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="194" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="194" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="15" t="s">
         <v>290</v>
       </c>
@@ -20638,7 +20637,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RHOPRI</v>
       </c>
       <c r="G194" s="14">
@@ -20663,7 +20662,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="195" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="195" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="15" t="s">
         <v>291</v>
       </c>
@@ -20671,7 +20670,7 @@
         <v>6</v>
       </c>
       <c r="C195" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RHOPRI</v>
       </c>
       <c r="G195" s="14">
@@ -20696,7 +20695,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="196" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="15" t="s">
         <v>134</v>
       </c>
@@ -20704,7 +20703,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RIBGLA</v>
       </c>
       <c r="D196" s="15">
@@ -20741,7 +20740,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="197" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="197" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="15" t="s">
         <v>270</v>
       </c>
@@ -20749,7 +20748,7 @@
         <v>6</v>
       </c>
       <c r="C197" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RIBGLA</v>
       </c>
       <c r="D197" s="14">
@@ -20778,7 +20777,7 @@
       </c>
       <c r="R197" s="46"/>
     </row>
-    <row r="198" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="15" t="s">
         <v>271</v>
       </c>
@@ -20786,7 +20785,7 @@
         <v>6</v>
       </c>
       <c r="C198" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>RIBGLA</v>
       </c>
       <c r="D198" s="14">
@@ -20815,7 +20814,7 @@
       </c>
       <c r="R198" s="46"/>
     </row>
-    <row r="199" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="199" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="15" t="s">
         <v>272</v>
       </c>
@@ -20851,7 +20850,7 @@
       </c>
       <c r="R199" s="46"/>
     </row>
-    <row r="200" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="15" t="s">
         <v>292</v>
       </c>
@@ -20892,7 +20891,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="15" t="s">
         <v>293</v>
       </c>
@@ -20928,7 +20927,7 @@
       </c>
       <c r="R201" s="46"/>
     </row>
-    <row r="202" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="202" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="15" t="s">
         <v>1199</v>
       </c>
@@ -20936,7 +20935,7 @@
         <v>6</v>
       </c>
       <c r="C202" s="15" t="str">
-        <f t="shared" ref="C202:C246" si="10">LEFT(A202,6)</f>
+        <f t="shared" ref="C202:C246" si="11">LEFT(A202,6)</f>
         <v>SALLUC</v>
       </c>
       <c r="L202" s="14">
@@ -20958,7 +20957,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="203" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="15" t="s">
         <v>1210</v>
       </c>
@@ -20966,7 +20965,7 @@
         <v>6</v>
       </c>
       <c r="C203" s="15" t="str">
-        <f t="shared" ref="C203" si="11">LEFT(A203,6)</f>
+        <f t="shared" ref="C203" si="12">LEFT(A203,6)</f>
         <v>SALLUC</v>
       </c>
       <c r="L203" s="14">
@@ -20978,7 +20977,7 @@
       <c r="U203" s="52"/>
       <c r="V203" s="52"/>
     </row>
-    <row r="204" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="15" t="s">
         <v>135</v>
       </c>
@@ -20986,7 +20985,7 @@
         <v>6</v>
       </c>
       <c r="C204" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D204" s="15">
@@ -21029,7 +21028,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="205" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="205" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="15" t="s">
         <v>136</v>
       </c>
@@ -21037,7 +21036,7 @@
         <v>6</v>
       </c>
       <c r="C205" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D205" s="15">
@@ -21074,7 +21073,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="206" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="206" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="15" t="s">
         <v>137</v>
       </c>
@@ -21082,7 +21081,7 @@
         <v>6</v>
       </c>
       <c r="C206" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D206" s="15">
@@ -21119,7 +21118,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="207" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="15" t="s">
         <v>138</v>
       </c>
@@ -21127,7 +21126,7 @@
         <v>6</v>
       </c>
       <c r="C207" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D207" s="15">
@@ -21176,7 +21175,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="208" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="208" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="15" t="s">
         <v>139</v>
       </c>
@@ -21184,7 +21183,7 @@
         <v>6</v>
       </c>
       <c r="C208" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D208" s="15">
@@ -21230,7 +21229,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="209" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="209" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="15" t="s">
         <v>140</v>
       </c>
@@ -21238,7 +21237,7 @@
         <v>6</v>
       </c>
       <c r="C209" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D209" s="15">
@@ -21272,7 +21271,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="210" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="210" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="15" t="s">
         <v>1191</v>
       </c>
@@ -21280,7 +21279,7 @@
         <v>6</v>
       </c>
       <c r="C210" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D210" s="15"/>
@@ -21293,7 +21292,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="211" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="211" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A211" s="15" t="s">
         <v>1198</v>
       </c>
@@ -21301,7 +21300,7 @@
         <v>6</v>
       </c>
       <c r="C211" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D211" s="15"/>
@@ -21314,7 +21313,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="212" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="212" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="15" t="s">
         <v>1200</v>
       </c>
@@ -21322,7 +21321,7 @@
         <v>6</v>
       </c>
       <c r="C212" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SAMRAC</v>
       </c>
       <c r="D212" s="15"/>
@@ -21338,7 +21337,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="213" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="213" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="15" t="s">
         <v>141</v>
       </c>
@@ -21346,7 +21345,7 @@
         <v>6</v>
       </c>
       <c r="C213" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="D213" s="15">
@@ -21380,7 +21379,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="214" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="15" t="s">
         <v>142</v>
       </c>
@@ -21388,7 +21387,7 @@
         <v>6</v>
       </c>
       <c r="C214" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="D214" s="15">
@@ -21422,7 +21421,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="215" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="215" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="15" t="s">
         <v>143</v>
       </c>
@@ -21430,7 +21429,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="D215" s="15">
@@ -21464,7 +21463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="15" t="s">
         <v>144</v>
       </c>
@@ -21472,7 +21471,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="D216" s="15">
@@ -21512,7 +21511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="217" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A217" s="15" t="s">
         <v>273</v>
       </c>
@@ -21520,7 +21519,7 @@
         <v>6</v>
       </c>
       <c r="C217" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="D217" s="14">
@@ -21563,7 +21562,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="218" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="218" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="15" t="s">
         <v>274</v>
       </c>
@@ -21571,7 +21570,7 @@
         <v>6</v>
       </c>
       <c r="C218" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="D218" s="14">
@@ -21605,7 +21604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="219" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="219" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="15" t="s">
         <v>275</v>
       </c>
@@ -21613,7 +21612,7 @@
         <v>6</v>
       </c>
       <c r="C219" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="D219" s="14">
@@ -21647,7 +21646,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="220" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="15" t="s">
         <v>1202</v>
       </c>
@@ -21655,7 +21654,7 @@
         <v>6</v>
       </c>
       <c r="C220" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SORAME</v>
       </c>
       <c r="L220" s="14">
@@ -21665,7 +21664,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="221" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="15" t="s">
         <v>145</v>
       </c>
@@ -21673,7 +21672,7 @@
         <v>6</v>
       </c>
       <c r="C221" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D221" s="15">
@@ -21713,7 +21712,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="222" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="15" t="s">
         <v>146</v>
       </c>
@@ -21721,7 +21720,7 @@
         <v>6</v>
       </c>
       <c r="C222" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D222" s="15">
@@ -21761,7 +21760,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="223" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="15" t="s">
         <v>147</v>
       </c>
@@ -21769,7 +21768,7 @@
         <v>6</v>
       </c>
       <c r="C223" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D223" s="15">
@@ -21806,7 +21805,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="224" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="15" t="s">
         <v>148</v>
       </c>
@@ -21814,7 +21813,7 @@
         <v>6</v>
       </c>
       <c r="C224" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D224" s="15">
@@ -21848,7 +21847,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="225" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="15" t="s">
         <v>149</v>
       </c>
@@ -21856,7 +21855,7 @@
         <v>6</v>
       </c>
       <c r="C225" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D225" s="15">
@@ -21890,7 +21889,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="226" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="226" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="15" t="s">
         <v>150</v>
       </c>
@@ -21898,7 +21897,7 @@
         <v>6</v>
       </c>
       <c r="C226" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D226" s="15">
@@ -21938,7 +21937,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="227" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="15" t="s">
         <v>151</v>
       </c>
@@ -21946,7 +21945,7 @@
         <v>6</v>
       </c>
       <c r="C227" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D227" s="15">
@@ -21983,7 +21982,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:23" ht="15" customHeight="1">
       <c r="A228" s="6" t="s">
         <v>152</v>
       </c>
@@ -21991,7 +21990,7 @@
         <v>6</v>
       </c>
       <c r="C228" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D228" s="6">
@@ -22014,7 +22013,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="229" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="229" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="15" t="s">
         <v>153</v>
       </c>
@@ -22022,7 +22021,7 @@
         <v>6</v>
       </c>
       <c r="C229" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D229" s="15">
@@ -22059,7 +22058,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="230" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="15" t="s">
         <v>154</v>
       </c>
@@ -22067,7 +22066,7 @@
         <v>6</v>
       </c>
       <c r="C230" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>SPIALB</v>
       </c>
       <c r="D230" s="15">
@@ -22107,7 +22106,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="231" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="231" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A231" s="15" t="s">
         <v>155</v>
       </c>
@@ -22115,7 +22114,7 @@
         <v>6</v>
       </c>
       <c r="C231" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="D231" s="15">
@@ -22152,7 +22151,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="232" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="232" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A232" s="15" t="s">
         <v>276</v>
       </c>
@@ -22160,7 +22159,7 @@
         <v>6</v>
       </c>
       <c r="C232" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="D232" s="14">
@@ -22197,7 +22196,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="233" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A233" s="15" t="s">
         <v>277</v>
       </c>
@@ -22205,7 +22204,7 @@
         <v>6</v>
       </c>
       <c r="C233" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="D233" s="14">
@@ -22249,7 +22248,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="234" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="234" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A234" s="15" t="s">
         <v>278</v>
       </c>
@@ -22257,7 +22256,7 @@
         <v>6</v>
       </c>
       <c r="C234" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="D234" s="14">
@@ -22298,7 +22297,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="235" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="235" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A235" s="15" t="s">
         <v>279</v>
       </c>
@@ -22306,7 +22305,7 @@
         <v>6</v>
       </c>
       <c r="C235" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="D235" s="14">
@@ -22347,7 +22346,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="236" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="236" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A236" s="15" t="s">
         <v>280</v>
       </c>
@@ -22355,7 +22354,7 @@
         <v>6</v>
       </c>
       <c r="C236" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="D236" s="14">
@@ -22396,7 +22395,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="237" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="237" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A237" s="15" t="s">
         <v>1174</v>
       </c>
@@ -22404,7 +22403,7 @@
         <v>6</v>
       </c>
       <c r="C237" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="L237" s="14">
@@ -22414,7 +22413,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="238" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="238" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A238" s="15" t="s">
         <v>1193</v>
       </c>
@@ -22422,14 +22421,14 @@
         <v>6</v>
       </c>
       <c r="C238" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="R238" s="46">
         <v>10.8</v>
       </c>
     </row>
-    <row r="239" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="239" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A239" s="15" t="s">
         <v>1194</v>
       </c>
@@ -22437,7 +22436,7 @@
         <v>6</v>
       </c>
       <c r="C239" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="R239" s="46">
@@ -22450,7 +22449,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="240" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="240" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A240" s="15" t="s">
         <v>1195</v>
       </c>
@@ -22458,7 +22457,7 @@
         <v>6</v>
       </c>
       <c r="C240" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="L240" s="14">
@@ -22468,7 +22467,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="241" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="241" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A241" s="15" t="s">
         <v>1196</v>
       </c>
@@ -22476,14 +22475,14 @@
         <v>6</v>
       </c>
       <c r="C241" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="R241" s="46">
         <v>12.7</v>
       </c>
     </row>
-    <row r="242" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="242" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A242" s="15" t="s">
         <v>1197</v>
       </c>
@@ -22491,7 +22490,7 @@
         <v>6</v>
       </c>
       <c r="C242" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="L242" s="14">
@@ -22501,7 +22500,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="243" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="243" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A243" s="15" t="s">
         <v>1209</v>
       </c>
@@ -22509,14 +22508,14 @@
         <v>6</v>
       </c>
       <c r="C243" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ULMAME</v>
       </c>
       <c r="R243" s="46">
         <v>14.3</v>
       </c>
     </row>
-    <row r="244" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="244" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A244" s="15" t="s">
         <v>156</v>
       </c>
@@ -22524,7 +22523,7 @@
         <v>6</v>
       </c>
       <c r="C244" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>VACMYR</v>
       </c>
       <c r="D244" s="15">
@@ -22558,7 +22557,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="245" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A245" s="15" t="s">
         <v>157</v>
       </c>
@@ -22566,7 +22565,7 @@
         <v>6</v>
       </c>
       <c r="C245" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>VACMYR</v>
       </c>
       <c r="D245" s="15">
@@ -22600,7 +22599,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="246" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="246" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A246" s="15" t="s">
         <v>158</v>
       </c>
@@ -22608,7 +22607,7 @@
         <v>6</v>
       </c>
       <c r="C246" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>VACMYR</v>
       </c>
       <c r="D246" s="15">
@@ -22645,7 +22644,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="247" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A247" s="15" t="s">
         <v>159</v>
       </c>
@@ -22653,7 +22652,7 @@
         <v>6</v>
       </c>
       <c r="C247" s="15" t="str">
-        <f t="shared" ref="C247:C270" si="12">LEFT(A247,6)</f>
+        <f t="shared" ref="C247:C270" si="13">LEFT(A247,6)</f>
         <v>VACMYR</v>
       </c>
       <c r="D247" s="15">
@@ -22690,7 +22689,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="248" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="248" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A248" s="15" t="s">
         <v>160</v>
       </c>
@@ -22698,7 +22697,7 @@
         <v>6</v>
       </c>
       <c r="C248" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VACMYR</v>
       </c>
       <c r="D248" s="15">
@@ -22735,7 +22734,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="249" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="249" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A249" s="15" t="s">
         <v>161</v>
       </c>
@@ -22743,7 +22742,7 @@
         <v>6</v>
       </c>
       <c r="C249" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VACMYR</v>
       </c>
       <c r="D249" s="15">
@@ -22777,7 +22776,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="250" spans="1:23" ht="15" customHeight="1">
       <c r="A250" s="6" t="s">
         <v>162</v>
       </c>
@@ -22785,7 +22784,7 @@
         <v>6</v>
       </c>
       <c r="C250" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VACMYR</v>
       </c>
       <c r="D250" s="6">
@@ -22807,7 +22806,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="251" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="251" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A251" s="15" t="s">
         <v>163</v>
       </c>
@@ -22815,7 +22814,7 @@
         <v>6</v>
       </c>
       <c r="C251" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D251" s="15">
@@ -22855,7 +22854,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="252" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="252" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A252" s="15" t="s">
         <v>164</v>
       </c>
@@ -22863,7 +22862,7 @@
         <v>6</v>
       </c>
       <c r="C252" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D252" s="15">
@@ -22906,7 +22905,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="253" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A253" s="15" t="s">
         <v>165</v>
       </c>
@@ -22914,7 +22913,7 @@
         <v>6</v>
       </c>
       <c r="C253" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D253" s="15">
@@ -22951,7 +22950,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="254" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="254" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A254" s="15" t="s">
         <v>166</v>
       </c>
@@ -22959,7 +22958,7 @@
         <v>6</v>
       </c>
       <c r="C254" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D254" s="15">
@@ -23002,7 +23001,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="255" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="255" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A255" s="15" t="s">
         <v>167</v>
       </c>
@@ -23010,7 +23009,7 @@
         <v>6</v>
       </c>
       <c r="C255" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D255" s="15">
@@ -23053,7 +23052,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="256" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="256" spans="1:23" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="15" t="s">
         <v>168</v>
       </c>
@@ -23061,7 +23060,7 @@
         <v>6</v>
       </c>
       <c r="C256" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D256" s="15">
@@ -23101,7 +23100,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="257" spans="1:25" ht="15" customHeight="1">
       <c r="A257" s="6" t="s">
         <v>169</v>
       </c>
@@ -23109,7 +23108,7 @@
         <v>6</v>
       </c>
       <c r="C257" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D257" s="6">
@@ -23128,7 +23127,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="258" spans="1:25" ht="15" customHeight="1">
       <c r="A258" s="6" t="s">
         <v>170</v>
       </c>
@@ -23136,7 +23135,7 @@
         <v>6</v>
       </c>
       <c r="C258" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D258" s="6">
@@ -23158,7 +23157,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="259" spans="1:25" ht="15" customHeight="1">
       <c r="A259" s="6" t="s">
         <v>172</v>
       </c>
@@ -23166,7 +23165,7 @@
         <v>6</v>
       </c>
       <c r="C259" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D259" s="6">
@@ -23185,7 +23184,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="260" spans="1:25" ht="15" customHeight="1">
       <c r="A260" s="6" t="s">
         <v>173</v>
       </c>
@@ -23193,7 +23192,7 @@
         <v>6</v>
       </c>
       <c r="C260" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D260" s="6">
@@ -23215,7 +23214,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="261" spans="1:25" ht="15" customHeight="1">
       <c r="A261" s="6" t="s">
         <v>174</v>
       </c>
@@ -23223,7 +23222,7 @@
         <v>6</v>
       </c>
       <c r="C261" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D261" s="6">
@@ -23254,7 +23253,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="262" spans="1:25" ht="15" customHeight="1">
       <c r="A262" s="6" t="s">
         <v>171</v>
       </c>
@@ -23262,7 +23261,7 @@
         <v>6</v>
       </c>
       <c r="C262" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBCAS</v>
       </c>
       <c r="D262" s="6">
@@ -23275,7 +23274,7 @@
         <v>450.73297100000002</v>
       </c>
     </row>
-    <row r="263" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="263" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A263" s="15" t="s">
         <v>175</v>
       </c>
@@ -23283,7 +23282,7 @@
         <v>6</v>
       </c>
       <c r="C263" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D263" s="15">
@@ -23326,7 +23325,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="264" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="264" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="15" t="s">
         <v>176</v>
       </c>
@@ -23334,7 +23333,7 @@
         <v>6</v>
       </c>
       <c r="C264" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D264" s="15">
@@ -23371,7 +23370,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="265" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="265" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A265" s="15" t="s">
         <v>177</v>
       </c>
@@ -23379,7 +23378,7 @@
         <v>6</v>
       </c>
       <c r="C265" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D265" s="15">
@@ -23413,7 +23412,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="266" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="266" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A266" s="15" t="s">
         <v>178</v>
       </c>
@@ -23421,7 +23420,7 @@
         <v>6</v>
       </c>
       <c r="C266" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D266" s="15">
@@ -23455,7 +23454,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="267" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="267" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A267" s="15" t="s">
         <v>179</v>
       </c>
@@ -23463,7 +23462,7 @@
         <v>6</v>
       </c>
       <c r="C267" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D267" s="15">
@@ -23497,7 +23496,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="268" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="268" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A268" s="15" t="s">
         <v>180</v>
       </c>
@@ -23505,7 +23504,7 @@
         <v>6</v>
       </c>
       <c r="C268" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D268" s="15">
@@ -23542,7 +23541,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:25" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="269" spans="1:25" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A269" s="15" t="s">
         <v>181</v>
       </c>
@@ -23550,7 +23549,7 @@
         <v>6</v>
       </c>
       <c r="C269" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D269" s="15">
@@ -23584,7 +23583,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="270" spans="1:25" ht="15" customHeight="1">
       <c r="A270" s="6" t="s">
         <v>182</v>
       </c>
@@ -23592,7 +23591,7 @@
         <v>6</v>
       </c>
       <c r="C270" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>VIBLAN</v>
       </c>
       <c r="D270" s="6">
@@ -23725,7 +23724,7 @@
         <v>703</v>
       </c>
       <c r="C273" s="22" t="str">
-        <f t="shared" ref="C273:C344" si="13">LEFT(A273,6)</f>
+        <f t="shared" ref="C273:C344" si="14">LEFT(A273,6)</f>
         <v>ACEPEN</v>
       </c>
       <c r="D273" s="22">
@@ -23777,7 +23776,7 @@
         <v>703</v>
       </c>
       <c r="C274" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D274" s="22">
@@ -23829,7 +23828,7 @@
         <v>703</v>
       </c>
       <c r="C275" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D275" s="22"/>
@@ -23870,7 +23869,7 @@
         <v>703</v>
       </c>
       <c r="C276" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D276" s="22"/>
@@ -23898,7 +23897,7 @@
         <v>703</v>
       </c>
       <c r="C277" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D277" s="22"/>
@@ -23926,7 +23925,7 @@
         <v>703</v>
       </c>
       <c r="C278" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D278" s="22">
@@ -23979,7 +23978,7 @@
         <v>703</v>
       </c>
       <c r="C279" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D279" s="22">
@@ -24031,7 +24030,7 @@
         <v>703</v>
       </c>
       <c r="C280" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D280" s="22">
@@ -24079,9 +24078,11 @@
       <c r="A281" s="22" t="s">
         <v>1239</v>
       </c>
-      <c r="B281" s="22"/>
+      <c r="B281" s="22" t="s">
+        <v>703</v>
+      </c>
       <c r="C281" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACEPEN</v>
       </c>
       <c r="D281" s="22"/>
@@ -24119,7 +24120,7 @@
         <v>703</v>
       </c>
       <c r="C282" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACERUB</v>
       </c>
       <c r="D282" s="22">
@@ -24173,7 +24174,7 @@
         <v>703</v>
       </c>
       <c r="C283" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACERUB</v>
       </c>
       <c r="D283" s="22">
@@ -24231,7 +24232,7 @@
         <v>703</v>
       </c>
       <c r="C284" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACERUB</v>
       </c>
       <c r="D284" s="22">
@@ -24283,7 +24284,7 @@
         <v>703</v>
       </c>
       <c r="C285" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACERUB</v>
       </c>
       <c r="D285" s="22">
@@ -24335,7 +24336,7 @@
         <v>703</v>
       </c>
       <c r="C286" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACERUB</v>
       </c>
       <c r="D286" s="22">
@@ -24396,7 +24397,7 @@
         <v>703</v>
       </c>
       <c r="C287" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACERUB</v>
       </c>
       <c r="D287" s="22">
@@ -24444,7 +24445,7 @@
         <v>703</v>
       </c>
       <c r="C288" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACESAC</v>
       </c>
       <c r="D288" s="22">
@@ -24496,7 +24497,7 @@
         <v>703</v>
       </c>
       <c r="C289" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACESAC</v>
       </c>
       <c r="D289" s="22">
@@ -24548,7 +24549,7 @@
         <v>703</v>
       </c>
       <c r="C290" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACESAC</v>
       </c>
       <c r="D290" s="22">
@@ -24600,7 +24601,7 @@
         <v>703</v>
       </c>
       <c r="C291" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACESAC</v>
       </c>
       <c r="D291" s="22">
@@ -24652,7 +24653,7 @@
         <v>703</v>
       </c>
       <c r="C292" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACESAC</v>
       </c>
       <c r="D292" s="22">
@@ -24704,7 +24705,7 @@
         <v>703</v>
       </c>
       <c r="C293" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACESAC</v>
       </c>
       <c r="D293" s="22">
@@ -24756,7 +24757,7 @@
         <v>703</v>
       </c>
       <c r="C294" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ACESPI</v>
       </c>
       <c r="D294" s="22"/>
@@ -24793,7 +24794,7 @@
         <v>703</v>
       </c>
       <c r="C295" s="22" t="str">
-        <f t="shared" ref="C295" si="14">LEFT(A295,6)</f>
+        <f t="shared" ref="C295" si="15">LEFT(A295,6)</f>
         <v>ACESPI</v>
       </c>
       <c r="D295" s="22"/>
@@ -24824,7 +24825,7 @@
         <v>703</v>
       </c>
       <c r="C296" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ALNINC</v>
       </c>
       <c r="D296" s="22">
@@ -24878,7 +24879,7 @@
         <v>703</v>
       </c>
       <c r="C297" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ALNINC</v>
       </c>
       <c r="D297" s="22">
@@ -24938,7 +24939,7 @@
         <v>703</v>
       </c>
       <c r="C298" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ALNINC</v>
       </c>
       <c r="D298" s="22">
@@ -24998,7 +24999,7 @@
         <v>703</v>
       </c>
       <c r="C299" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ALNINC</v>
       </c>
       <c r="D299" s="22">
@@ -25058,7 +25059,7 @@
         <v>703</v>
       </c>
       <c r="C300" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ALNINC</v>
       </c>
       <c r="D300" s="22">
@@ -25102,7 +25103,7 @@
         <v>703</v>
       </c>
       <c r="C301" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ALNINC</v>
       </c>
       <c r="D301" s="22">
@@ -25146,7 +25147,7 @@
         <v>703</v>
       </c>
       <c r="C302" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMECAN</v>
       </c>
       <c r="D302" s="22">
@@ -25197,7 +25198,7 @@
         <v>703</v>
       </c>
       <c r="C303" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMECAN</v>
       </c>
       <c r="D303" s="22">
@@ -25248,7 +25249,7 @@
         <v>703</v>
       </c>
       <c r="C304" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMECAN</v>
       </c>
       <c r="D304" s="22">
@@ -25296,7 +25297,7 @@
         <v>703</v>
       </c>
       <c r="C305" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMECAN</v>
       </c>
       <c r="D305" s="22">
@@ -25344,7 +25345,7 @@
         <v>703</v>
       </c>
       <c r="C306" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMECAN</v>
       </c>
       <c r="D306" s="22">
@@ -25396,7 +25397,7 @@
         <v>703</v>
       </c>
       <c r="C307" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMECAN</v>
       </c>
       <c r="D307" s="22">
@@ -25447,7 +25448,7 @@
         <v>703</v>
       </c>
       <c r="C308" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMECAN</v>
       </c>
       <c r="D308" s="22">
@@ -25495,7 +25496,7 @@
         <v>703</v>
       </c>
       <c r="C309" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMELAE</v>
       </c>
       <c r="D309" s="22">
@@ -25543,7 +25544,7 @@
         <v>703</v>
       </c>
       <c r="C310" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMELAE</v>
       </c>
       <c r="D310" s="22">
@@ -25587,7 +25588,7 @@
         <v>703</v>
       </c>
       <c r="C311" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMELAE</v>
       </c>
       <c r="D311" s="22">
@@ -25631,7 +25632,7 @@
         <v>703</v>
       </c>
       <c r="C312" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMELAE</v>
       </c>
       <c r="D312" s="22">
@@ -25675,7 +25676,7 @@
         <v>703</v>
       </c>
       <c r="C313" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMELAE</v>
       </c>
       <c r="D313" s="22">
@@ -25719,7 +25720,7 @@
         <v>703</v>
       </c>
       <c r="C314" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AMELAE</v>
       </c>
       <c r="D314" s="22">
@@ -25763,7 +25764,7 @@
         <v>703</v>
       </c>
       <c r="C315" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AROMEL</v>
       </c>
       <c r="D315" s="22">
@@ -25811,7 +25812,7 @@
         <v>703</v>
       </c>
       <c r="C316" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AROMEL</v>
       </c>
       <c r="D316" s="22">
@@ -25859,7 +25860,7 @@
         <v>703</v>
       </c>
       <c r="C317" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AROMEL</v>
       </c>
       <c r="D317" s="22">
@@ -25907,7 +25908,7 @@
         <v>703</v>
       </c>
       <c r="C318" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AROMEL</v>
       </c>
       <c r="D318" s="22">
@@ -25955,7 +25956,7 @@
         <v>703</v>
       </c>
       <c r="C319" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AROMEL</v>
       </c>
       <c r="D319" s="22">
@@ -26003,7 +26004,7 @@
         <v>703</v>
       </c>
       <c r="C320" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>AROMEL</v>
       </c>
       <c r="D320" s="22">
@@ -26051,7 +26052,7 @@
         <v>703</v>
       </c>
       <c r="C321" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETALL</v>
       </c>
       <c r="D321" s="22">
@@ -26103,7 +26104,7 @@
         <v>703</v>
       </c>
       <c r="C322" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETALL</v>
       </c>
       <c r="D322" s="22">
@@ -26155,7 +26156,7 @@
         <v>703</v>
       </c>
       <c r="C323" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETALL</v>
       </c>
       <c r="D323" s="22">
@@ -26207,7 +26208,7 @@
         <v>703</v>
       </c>
       <c r="C324" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETALL</v>
       </c>
       <c r="D324" s="22">
@@ -26259,7 +26260,7 @@
         <v>703</v>
       </c>
       <c r="C325" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETALL</v>
       </c>
       <c r="D325" s="22">
@@ -26311,7 +26312,7 @@
         <v>703</v>
       </c>
       <c r="C326" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETALL</v>
       </c>
       <c r="D326" s="22">
@@ -26363,7 +26364,7 @@
         <v>703</v>
       </c>
       <c r="C327" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETALL</v>
       </c>
       <c r="D327" s="22">
@@ -26418,7 +26419,7 @@
         <v>703</v>
       </c>
       <c r="C328" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPAP</v>
       </c>
       <c r="D328" s="22">
@@ -26470,7 +26471,7 @@
         <v>703</v>
       </c>
       <c r="C329" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPAP</v>
       </c>
       <c r="D329" s="22">
@@ -26522,7 +26523,7 @@
         <v>703</v>
       </c>
       <c r="C330" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPAP</v>
       </c>
       <c r="D330" s="22">
@@ -26574,7 +26575,7 @@
         <v>703</v>
       </c>
       <c r="C331" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPAP</v>
       </c>
       <c r="D331" s="22">
@@ -26626,7 +26627,7 @@
         <v>703</v>
       </c>
       <c r="C332" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPAP</v>
       </c>
       <c r="D332" s="22">
@@ -26678,7 +26679,7 @@
         <v>703</v>
       </c>
       <c r="C333" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPAP</v>
       </c>
       <c r="D333" s="22">
@@ -26730,7 +26731,7 @@
         <v>703</v>
       </c>
       <c r="C334" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPOP</v>
       </c>
       <c r="D334" s="22">
@@ -26778,7 +26779,7 @@
         <v>703</v>
       </c>
       <c r="C335" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPOP</v>
       </c>
       <c r="D335" s="22">
@@ -26822,7 +26823,7 @@
         <v>703</v>
       </c>
       <c r="C336" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPOP</v>
       </c>
       <c r="D336" s="22">
@@ -26866,7 +26867,7 @@
         <v>703</v>
       </c>
       <c r="C337" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPOP</v>
       </c>
       <c r="D337" s="22">
@@ -26910,7 +26911,7 @@
         <v>703</v>
       </c>
       <c r="C338" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPOP</v>
       </c>
       <c r="D338" s="22">
@@ -26954,7 +26955,7 @@
         <v>703</v>
       </c>
       <c r="C339" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BETPOP</v>
       </c>
       <c r="D339" s="22">
@@ -26998,7 +26999,7 @@
         <v>703</v>
       </c>
       <c r="C340" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>CORALT</v>
       </c>
       <c r="D340" s="22"/>
@@ -27029,7 +27030,7 @@
         <v>703</v>
       </c>
       <c r="C341" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>CORALT</v>
       </c>
       <c r="D341" s="22"/>
@@ -27060,7 +27061,7 @@
         <v>703</v>
       </c>
       <c r="C342" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>CORALT</v>
       </c>
       <c r="D342" s="22">
@@ -27111,7 +27112,7 @@
         <v>703</v>
       </c>
       <c r="C343" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>CORALT</v>
       </c>
       <c r="D343" s="22">
@@ -27162,7 +27163,7 @@
         <v>703</v>
       </c>
       <c r="C344" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>CORALT</v>
       </c>
       <c r="D344" s="22">
@@ -27206,7 +27207,7 @@
         <v>703</v>
       </c>
       <c r="C345" s="22" t="str">
-        <f t="shared" ref="C345:C410" si="15">LEFT(A345,6)</f>
+        <f t="shared" ref="C345:C410" si="16">LEFT(A345,6)</f>
         <v>CORALT</v>
       </c>
       <c r="D345" s="22">
@@ -27250,7 +27251,7 @@
         <v>703</v>
       </c>
       <c r="C346" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORALT</v>
       </c>
       <c r="D346" s="22">
@@ -27294,7 +27295,7 @@
         <v>703</v>
       </c>
       <c r="C347" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORALT</v>
       </c>
       <c r="D347" s="22">
@@ -27338,7 +27339,7 @@
         <v>703</v>
       </c>
       <c r="C348" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORCOR</v>
       </c>
       <c r="D348" s="22">
@@ -27386,7 +27387,7 @@
         <v>703</v>
       </c>
       <c r="C349" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORCOR</v>
       </c>
       <c r="D349" s="22">
@@ -27437,7 +27438,7 @@
         <v>703</v>
       </c>
       <c r="C350" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORCOR</v>
       </c>
       <c r="D350" s="22">
@@ -27491,7 +27492,7 @@
         <v>703</v>
       </c>
       <c r="C351" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORCOR</v>
       </c>
       <c r="D351" s="22">
@@ -27536,7 +27537,7 @@
         <v>703</v>
       </c>
       <c r="C352" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORCOR</v>
       </c>
       <c r="D352" s="22">
@@ -27596,7 +27597,7 @@
         <v>703</v>
       </c>
       <c r="C353" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORCOR</v>
       </c>
       <c r="D353" s="22">
@@ -27653,7 +27654,7 @@
         <v>703</v>
       </c>
       <c r="C354" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>CORCOR</v>
       </c>
       <c r="D354" s="22"/>
@@ -27690,7 +27691,7 @@
         <v>703</v>
       </c>
       <c r="C355" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>DIELON</v>
       </c>
       <c r="D355" s="22"/>
@@ -27721,7 +27722,7 @@
         <v>703</v>
       </c>
       <c r="C356" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D356" s="22">
@@ -27776,7 +27777,7 @@
         <v>703</v>
       </c>
       <c r="C357" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D357" s="22">
@@ -27828,7 +27829,7 @@
         <v>703</v>
       </c>
       <c r="C358" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D358" s="22">
@@ -27880,7 +27881,7 @@
         <v>703</v>
       </c>
       <c r="C359" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D359" s="22">
@@ -27932,7 +27933,7 @@
         <v>703</v>
       </c>
       <c r="C360" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D360" s="22">
@@ -27984,7 +27985,7 @@
         <v>703</v>
       </c>
       <c r="C361" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D361" s="22">
@@ -28036,7 +28037,7 @@
         <v>703</v>
       </c>
       <c r="C362" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D362" s="22">
@@ -28089,7 +28090,7 @@
         <v>703</v>
       </c>
       <c r="C363" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FAGGRA</v>
       </c>
       <c r="D363" s="22">
@@ -28142,7 +28143,7 @@
         <v>703</v>
       </c>
       <c r="C364" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FRAAME</v>
       </c>
       <c r="D364" s="22"/>
@@ -28186,7 +28187,7 @@
         <v>703</v>
       </c>
       <c r="C365" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FRAAME</v>
       </c>
       <c r="D365" s="22">
@@ -28238,7 +28239,7 @@
         <v>703</v>
       </c>
       <c r="C366" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FRAAME</v>
       </c>
       <c r="D366" s="22">
@@ -28290,7 +28291,7 @@
         <v>703</v>
       </c>
       <c r="C367" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FRAAME</v>
       </c>
       <c r="D367" s="22">
@@ -28342,7 +28343,7 @@
         <v>703</v>
       </c>
       <c r="C368" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FRAAME</v>
       </c>
       <c r="D368" s="22">
@@ -28394,7 +28395,7 @@
         <v>703</v>
       </c>
       <c r="C369" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>FRAAME</v>
       </c>
       <c r="D369" s="22">
@@ -28438,7 +28439,7 @@
         <v>703</v>
       </c>
       <c r="C370" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>HAMVIR</v>
       </c>
       <c r="D370" s="22">
@@ -28486,7 +28487,7 @@
         <v>703</v>
       </c>
       <c r="C371" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>HAMVIR</v>
       </c>
       <c r="D371" s="22">
@@ -28534,7 +28535,7 @@
         <v>703</v>
       </c>
       <c r="C372" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>HAMVIR</v>
       </c>
       <c r="D372" s="22">
@@ -28582,7 +28583,7 @@
         <v>703</v>
       </c>
       <c r="C373" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>HAMVIR</v>
       </c>
       <c r="D373" s="22">
@@ -28630,7 +28631,7 @@
         <v>703</v>
       </c>
       <c r="C374" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>HAMVIR</v>
       </c>
       <c r="D374" s="22">
@@ -28674,7 +28675,7 @@
         <v>703</v>
       </c>
       <c r="C375" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>HAMVIR</v>
       </c>
       <c r="D375" s="22">
@@ -28718,7 +28719,7 @@
         <v>703</v>
       </c>
       <c r="C376" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ILEMUC</v>
       </c>
       <c r="D376" s="22">
@@ -28766,7 +28767,7 @@
         <v>703</v>
       </c>
       <c r="C377" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ILEMUC</v>
       </c>
       <c r="D377" s="22">
@@ -28814,7 +28815,7 @@
         <v>703</v>
       </c>
       <c r="C378" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ILEMUC</v>
       </c>
       <c r="D378" s="22">
@@ -28871,7 +28872,7 @@
         <v>703</v>
       </c>
       <c r="C379" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ILEMUC</v>
       </c>
       <c r="D379" s="22">
@@ -28925,7 +28926,7 @@
         <v>703</v>
       </c>
       <c r="C380" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ILEMUC</v>
       </c>
       <c r="D380" s="22">
@@ -28976,7 +28977,7 @@
         <v>703</v>
       </c>
       <c r="C381" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ILEMUC</v>
       </c>
       <c r="D381" s="22">
@@ -29033,7 +29034,7 @@
         <v>703</v>
       </c>
       <c r="C382" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ILEMUC</v>
       </c>
       <c r="D382" s="22">
@@ -29081,7 +29082,7 @@
         <v>703</v>
       </c>
       <c r="C383" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>KALANG</v>
       </c>
       <c r="D383" s="22">
@@ -29129,7 +29130,7 @@
         <v>703</v>
       </c>
       <c r="C384" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>KALANG</v>
       </c>
       <c r="D384" s="22">
@@ -29177,7 +29178,7 @@
         <v>703</v>
       </c>
       <c r="C385" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>KALANG</v>
       </c>
       <c r="D385" s="22">
@@ -29225,7 +29226,7 @@
         <v>703</v>
       </c>
       <c r="C386" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>KALANG</v>
       </c>
       <c r="D386" s="22">
@@ -29273,7 +29274,7 @@
         <v>703</v>
       </c>
       <c r="C387" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>KALANG</v>
       </c>
       <c r="D387" s="22">
@@ -29321,7 +29322,7 @@
         <v>703</v>
       </c>
       <c r="C388" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>KALANG</v>
       </c>
       <c r="D388" s="22">
@@ -29370,7 +29371,7 @@
         <v>703</v>
       </c>
       <c r="C389" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>KALANG</v>
       </c>
       <c r="D389" s="22">
@@ -29418,7 +29419,7 @@
         <v>703</v>
       </c>
       <c r="C390" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>LONCAN</v>
       </c>
       <c r="D390" s="22">
@@ -29466,7 +29467,7 @@
         <v>703</v>
       </c>
       <c r="C391" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>MYRGAL</v>
       </c>
       <c r="D391" s="22">
@@ -29514,7 +29515,7 @@
         <v>703</v>
       </c>
       <c r="C392" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>MYRGAL</v>
       </c>
       <c r="D392" s="22">
@@ -29563,7 +29564,7 @@
         <v>703</v>
       </c>
       <c r="C393" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>MYRGAL</v>
       </c>
       <c r="D393" s="22">
@@ -29612,7 +29613,7 @@
         <v>703</v>
       </c>
       <c r="C394" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>MYRGAL</v>
       </c>
       <c r="D394" s="22">
@@ -29661,7 +29662,7 @@
         <v>703</v>
       </c>
       <c r="C395" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>MYRGAL</v>
       </c>
       <c r="D395" s="22">
@@ -29710,7 +29711,7 @@
         <v>703</v>
       </c>
       <c r="C396" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>MYRGAL</v>
       </c>
       <c r="D396" s="22">
@@ -29758,7 +29759,7 @@
         <v>703</v>
       </c>
       <c r="C397" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>POPGRA</v>
       </c>
       <c r="D397" s="22">
@@ -29802,7 +29803,7 @@
         <v>703</v>
       </c>
       <c r="C398" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>POPTRE</v>
       </c>
       <c r="D398" s="22">
@@ -29846,7 +29847,7 @@
         <v>703</v>
       </c>
       <c r="C399" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>POPTRE</v>
       </c>
       <c r="D399" s="22">
@@ -29890,7 +29891,7 @@
         <v>703</v>
       </c>
       <c r="C400" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>POPTRE</v>
       </c>
       <c r="D400" s="22">
@@ -29934,7 +29935,7 @@
         <v>703</v>
       </c>
       <c r="C401" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>POPTRE</v>
       </c>
       <c r="D401" s="22">
@@ -29978,7 +29979,7 @@
         <v>703</v>
       </c>
       <c r="C402" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>POPTRE</v>
       </c>
       <c r="D402" s="22">
@@ -30022,7 +30023,7 @@
         <v>703</v>
       </c>
       <c r="C403" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PRUPEN</v>
       </c>
       <c r="D403" s="22">
@@ -30066,7 +30067,7 @@
         <v>703</v>
       </c>
       <c r="C404" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PRUPEN</v>
       </c>
       <c r="D404" s="22">
@@ -30110,7 +30111,7 @@
         <v>703</v>
       </c>
       <c r="C405" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PRUPEN</v>
       </c>
       <c r="D405" s="22">
@@ -30154,7 +30155,7 @@
         <v>703</v>
       </c>
       <c r="C406" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PRUPEN</v>
       </c>
       <c r="D406" s="22">
@@ -30198,7 +30199,7 @@
         <v>703</v>
       </c>
       <c r="C407" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PRUPEN</v>
       </c>
       <c r="D407" s="22">
@@ -30242,7 +30243,7 @@
         <v>703</v>
       </c>
       <c r="C408" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PRUPEN</v>
       </c>
       <c r="D408" s="22"/>
@@ -30280,7 +30281,7 @@
         <v>703</v>
       </c>
       <c r="C409" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>QUERUB</v>
       </c>
       <c r="D409" s="22">
@@ -30324,7 +30325,7 @@
         <v>703</v>
       </c>
       <c r="C410" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>QUERUB</v>
       </c>
       <c r="D410" s="22">
@@ -30369,7 +30370,7 @@
         <v>703</v>
       </c>
       <c r="C411" s="22" t="str">
-        <f t="shared" ref="C411:C460" si="16">LEFT(A411,6)</f>
+        <f t="shared" ref="C411:C460" si="17">LEFT(A411,6)</f>
         <v>QUERUB</v>
       </c>
       <c r="D411" s="22">
@@ -30413,7 +30414,7 @@
         <v>703</v>
       </c>
       <c r="C412" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>QUERUB</v>
       </c>
       <c r="D412" s="22">
@@ -30457,7 +30458,7 @@
         <v>703</v>
       </c>
       <c r="C413" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>QUERUB</v>
       </c>
       <c r="D413" s="22">
@@ -30501,7 +30502,7 @@
         <v>703</v>
       </c>
       <c r="C414" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>QUERUB</v>
       </c>
       <c r="D414" s="22">
@@ -30545,7 +30546,7 @@
         <v>703</v>
       </c>
       <c r="C415" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>RHAFRA</v>
       </c>
       <c r="D415" s="22">
@@ -30590,7 +30591,7 @@
         <v>703</v>
       </c>
       <c r="C416" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>RHOPRI</v>
       </c>
       <c r="D416" s="22">
@@ -30638,7 +30639,7 @@
         <v>703</v>
       </c>
       <c r="C417" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>RHOPRI</v>
       </c>
       <c r="D417" s="22">
@@ -30687,7 +30688,7 @@
         <v>703</v>
       </c>
       <c r="C418" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>RHOPRI</v>
       </c>
       <c r="D418" s="22">
@@ -30736,7 +30737,7 @@
         <v>703</v>
       </c>
       <c r="C419" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>RHOPRI</v>
       </c>
       <c r="D419" s="22">
@@ -30785,7 +30786,7 @@
         <v>703</v>
       </c>
       <c r="C420" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>RHOPRI</v>
       </c>
       <c r="D420" s="22">
@@ -30833,7 +30834,7 @@
         <v>703</v>
       </c>
       <c r="C421" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>RHOPRI</v>
       </c>
       <c r="D421" s="22">
@@ -30881,7 +30882,7 @@
         <v>703</v>
       </c>
       <c r="C422" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPIALB</v>
       </c>
       <c r="D422" s="22">
@@ -30929,7 +30930,7 @@
         <v>703</v>
       </c>
       <c r="C423" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPIALB</v>
       </c>
       <c r="D423" s="22">
@@ -30977,7 +30978,7 @@
         <v>703</v>
       </c>
       <c r="C424" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPIALB</v>
       </c>
       <c r="D424" s="22">
@@ -31025,7 +31026,7 @@
         <v>703</v>
       </c>
       <c r="C425" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPIALB</v>
       </c>
       <c r="D425" s="22">
@@ -31073,7 +31074,7 @@
         <v>703</v>
       </c>
       <c r="C426" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPIALB</v>
       </c>
       <c r="D426" s="22">
@@ -31121,7 +31122,7 @@
         <v>703</v>
       </c>
       <c r="C427" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPIALB</v>
       </c>
       <c r="D427" s="22">
@@ -31165,7 +31166,7 @@
         <v>703</v>
       </c>
       <c r="C428" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPITOM</v>
       </c>
       <c r="D428" s="22">
@@ -31213,7 +31214,7 @@
         <v>703</v>
       </c>
       <c r="C429" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPITOM</v>
       </c>
       <c r="D429" s="22">
@@ -31261,7 +31262,7 @@
         <v>703</v>
       </c>
       <c r="C430" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPITOM</v>
       </c>
       <c r="D430" s="22">
@@ -31305,7 +31306,7 @@
         <v>703</v>
       </c>
       <c r="C431" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPITOM</v>
       </c>
       <c r="D431" s="22">
@@ -31349,7 +31350,7 @@
         <v>703</v>
       </c>
       <c r="C432" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPITOM</v>
       </c>
       <c r="D432" s="22">
@@ -31393,7 +31394,7 @@
         <v>703</v>
       </c>
       <c r="C433" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPITOM</v>
       </c>
       <c r="D433" s="22">
@@ -31437,7 +31438,7 @@
         <v>703</v>
       </c>
       <c r="C434" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ULMAME</v>
       </c>
       <c r="D434" s="22">
@@ -31489,7 +31490,7 @@
         <v>703</v>
       </c>
       <c r="C435" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ULMAME</v>
       </c>
       <c r="D435" s="22">
@@ -31541,7 +31542,7 @@
         <v>703</v>
       </c>
       <c r="C436" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ULMAME</v>
       </c>
       <c r="D436" s="22">
@@ -31593,7 +31594,7 @@
         <v>703</v>
       </c>
       <c r="C437" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ULMAME</v>
       </c>
       <c r="D437" s="22">
@@ -31645,7 +31646,7 @@
         <v>703</v>
       </c>
       <c r="C438" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ULMAME</v>
       </c>
       <c r="D438" s="22">
@@ -31689,7 +31690,7 @@
         <v>703</v>
       </c>
       <c r="C439" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ULMAME</v>
       </c>
       <c r="D439" s="22">
@@ -31733,7 +31734,7 @@
         <v>703</v>
       </c>
       <c r="C440" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VACMYR</v>
       </c>
       <c r="D440" s="22">
@@ -31781,7 +31782,7 @@
         <v>703</v>
       </c>
       <c r="C441" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VACMYR</v>
       </c>
       <c r="D441" s="22">
@@ -31829,7 +31830,7 @@
         <v>703</v>
       </c>
       <c r="C442" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VACMYR</v>
       </c>
       <c r="D442" s="22">
@@ -31877,7 +31878,7 @@
         <v>703</v>
       </c>
       <c r="C443" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VACMYR</v>
       </c>
       <c r="D443" s="22">
@@ -31925,7 +31926,7 @@
         <v>703</v>
       </c>
       <c r="C444" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VACMYR</v>
       </c>
       <c r="D444" s="22">
@@ -31973,7 +31974,7 @@
         <v>703</v>
       </c>
       <c r="C445" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VACMYR</v>
       </c>
       <c r="D445" s="22">
@@ -32021,7 +32022,7 @@
         <v>703</v>
       </c>
       <c r="C446" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VACMYR</v>
       </c>
       <c r="D446" s="22">
@@ -32069,7 +32070,7 @@
         <v>703</v>
       </c>
       <c r="C447" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D447" s="22">
@@ -32117,7 +32118,7 @@
         <v>703</v>
       </c>
       <c r="C448" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D448" s="22">
@@ -32165,7 +32166,7 @@
         <v>703</v>
       </c>
       <c r="C449" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D449" s="22">
@@ -32213,7 +32214,7 @@
         <v>703</v>
       </c>
       <c r="C450" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D450" s="22">
@@ -32264,7 +32265,7 @@
         <v>703</v>
       </c>
       <c r="C451" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D451" s="22">
@@ -32324,7 +32325,7 @@
         <v>703</v>
       </c>
       <c r="C452" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D452" s="22">
@@ -32372,7 +32373,7 @@
         <v>703</v>
       </c>
       <c r="C453" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D453" s="22">
@@ -32429,7 +32430,7 @@
         <v>703</v>
       </c>
       <c r="C454" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBCAS</v>
       </c>
       <c r="D454" s="22">
@@ -32480,7 +32481,7 @@
         <v>703</v>
       </c>
       <c r="C455" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBLAN</v>
       </c>
       <c r="D455" s="22">
@@ -32528,7 +32529,7 @@
         <v>703</v>
       </c>
       <c r="C456" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBLAN</v>
       </c>
       <c r="D456" s="22">
@@ -32576,7 +32577,7 @@
         <v>703</v>
       </c>
       <c r="C457" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBLAN</v>
       </c>
       <c r="D457" s="22">
@@ -32625,7 +32626,7 @@
         <v>703</v>
       </c>
       <c r="C458" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBLAN</v>
       </c>
       <c r="D458" s="22">
@@ -32674,7 +32675,7 @@
         <v>703</v>
       </c>
       <c r="C459" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBLAN</v>
       </c>
       <c r="D459" s="22">
@@ -32723,7 +32724,7 @@
         <v>703</v>
       </c>
       <c r="C460" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>VIBLAN</v>
       </c>
       <c r="D460" s="22">
@@ -32760,7 +32761,7 @@
       <c r="X460" s="25"/>
       <c r="Y460" s="22"/>
     </row>
-    <row r="461" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="461" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A461" s="26" t="s">
         <v>752</v>
       </c>
@@ -32816,7 +32817,7 @@
         <v>46.504219055175781</v>
       </c>
     </row>
-    <row r="462" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="462" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A462" s="26" t="s">
         <v>753</v>
       </c>
@@ -32872,7 +32873,7 @@
         <v>47.249778747558594</v>
       </c>
     </row>
-    <row r="463" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="463" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A463" s="26" t="s">
         <v>722</v>
       </c>
@@ -32935,7 +32936,7 @@
         <v>47.013458251953125</v>
       </c>
     </row>
-    <row r="464" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="464" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A464" s="26" t="s">
         <v>723</v>
       </c>
@@ -32998,7 +32999,7 @@
         <v>47.910102844238281</v>
       </c>
     </row>
-    <row r="465" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="465" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A465" s="26" t="s">
         <v>754</v>
       </c>
@@ -33054,7 +33055,7 @@
         <v>46.813705444335938</v>
       </c>
     </row>
-    <row r="466" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="466" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A466" s="26" t="s">
         <v>729</v>
       </c>
@@ -33117,7 +33118,7 @@
         <v>47.471855163574219</v>
       </c>
     </row>
-    <row r="467" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="467" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A467" s="26" t="s">
         <v>755</v>
       </c>
@@ -33173,7 +33174,7 @@
         <v>49.896781921386719</v>
       </c>
     </row>
-    <row r="468" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="468" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A468" s="26" t="s">
         <v>756</v>
       </c>
@@ -33229,7 +33230,7 @@
         <v>48.87286376953125</v>
       </c>
     </row>
-    <row r="469" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="469" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A469" s="26" t="s">
         <v>757</v>
       </c>
@@ -33285,7 +33286,7 @@
         <v>49.282939910888672</v>
       </c>
     </row>
-    <row r="470" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="470" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A470" s="26" t="s">
         <v>758</v>
       </c>
@@ -33341,7 +33342,7 @@
         <v>49.107826232910156</v>
       </c>
     </row>
-    <row r="471" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="471" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A471" s="26" t="s">
         <v>759</v>
       </c>
@@ -33397,7 +33398,7 @@
         <v>49.317405700683594</v>
       </c>
     </row>
-    <row r="472" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="472" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A472" s="26" t="s">
         <v>760</v>
       </c>
@@ -33453,7 +33454,7 @@
         <v>49.925582885742188</v>
       </c>
     </row>
-    <row r="473" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="473" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A473" s="26" t="s">
         <v>761</v>
       </c>
@@ -33509,7 +33510,7 @@
         <v>46.900230407714844</v>
       </c>
     </row>
-    <row r="474" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="474" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A474" s="26" t="s">
         <v>762</v>
       </c>
@@ -33565,7 +33566,7 @@
         <v>47.921794891357422</v>
       </c>
     </row>
-    <row r="475" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="475" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A475" s="26" t="s">
         <v>721</v>
       </c>
@@ -33628,7 +33629,7 @@
         <v>47.444461822509766</v>
       </c>
     </row>
-    <row r="476" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="476" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A476" s="26" t="s">
         <v>733</v>
       </c>
@@ -33691,7 +33692,7 @@
         <v>47.812065124511719</v>
       </c>
     </row>
-    <row r="477" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="477" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A477" s="26" t="s">
         <v>763</v>
       </c>
@@ -33748,7 +33749,7 @@
         <v>47.713325500488281</v>
       </c>
     </row>
-    <row r="478" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="478" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A478" s="26" t="s">
         <v>764</v>
       </c>
@@ -33797,7 +33798,7 @@
         <v>46.914936065673828</v>
       </c>
     </row>
-    <row r="479" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="479" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A479" s="26" t="s">
         <v>724</v>
       </c>
@@ -33860,7 +33861,7 @@
         <v>50.832294464111328</v>
       </c>
     </row>
-    <row r="480" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="480" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A480" s="26" t="s">
         <v>726</v>
       </c>
@@ -33923,7 +33924,7 @@
         <v>47.927730560302734</v>
       </c>
     </row>
-    <row r="481" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="481" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A481" s="26" t="s">
         <v>713</v>
       </c>
@@ -33986,7 +33987,7 @@
         <v>50.644515991210938</v>
       </c>
     </row>
-    <row r="482" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="482" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A482" s="26" t="s">
         <v>728</v>
       </c>
@@ -34049,7 +34050,7 @@
         <v>49.819347381591797</v>
       </c>
     </row>
-    <row r="483" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="483" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A483" s="26" t="s">
         <v>765</v>
       </c>
@@ -34105,7 +34106,7 @@
         <v>48.676601409912109</v>
       </c>
     </row>
-    <row r="484" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="484" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A484" s="26" t="s">
         <v>727</v>
       </c>
@@ -34168,7 +34169,7 @@
         <v>47.606288909912109</v>
       </c>
     </row>
-    <row r="485" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="485" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A485" s="26" t="s">
         <v>766</v>
       </c>
@@ -34224,7 +34225,7 @@
         <v>48.831161499023438</v>
       </c>
     </row>
-    <row r="486" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="486" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A486" s="26" t="s">
         <v>767</v>
       </c>
@@ -34274,7 +34275,7 @@
         <v>47.127212524414062</v>
       </c>
     </row>
-    <row r="487" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="487" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A487" s="26" t="s">
         <v>768</v>
       </c>
@@ -34327,7 +34328,7 @@
         <v>47.913642883300781</v>
       </c>
     </row>
-    <row r="488" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="488" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A488" s="26" t="s">
         <v>769</v>
       </c>
@@ -34376,7 +34377,7 @@
         <v>47.210594177246094</v>
       </c>
     </row>
-    <row r="489" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="489" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A489" s="26" t="s">
         <v>770</v>
       </c>
@@ -34425,7 +34426,7 @@
         <v>46.864116668701172</v>
       </c>
     </row>
-    <row r="490" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="490" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A490" s="26" t="s">
         <v>771</v>
       </c>
@@ -34479,7 +34480,7 @@
         <v>46.447967529296875</v>
       </c>
     </row>
-    <row r="491" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="491" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A491" s="26" t="s">
         <v>772</v>
       </c>
@@ -34534,7 +34535,7 @@
         <v>46.119483947753906</v>
       </c>
     </row>
-    <row r="492" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="492" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A492" s="26" t="s">
         <v>773</v>
       </c>
@@ -34589,7 +34590,7 @@
         <v>47.021778106689453</v>
       </c>
     </row>
-    <row r="493" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="493" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A493" s="26" t="s">
         <v>774</v>
       </c>
@@ -34644,7 +34645,7 @@
         <v>46.668357849121094</v>
       </c>
     </row>
-    <row r="494" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="494" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A494" s="26" t="s">
         <v>775</v>
       </c>
@@ -34699,7 +34700,7 @@
         <v>46.436817169189453</v>
       </c>
     </row>
-    <row r="495" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="495" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A495" s="26" t="s">
         <v>776</v>
       </c>
@@ -34754,7 +34755,7 @@
         <v>46.316917419433594</v>
       </c>
     </row>
-    <row r="496" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="496" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A496" s="26" t="s">
         <v>777</v>
       </c>
@@ -34809,7 +34810,7 @@
         <v>47.411052703857422</v>
       </c>
     </row>
-    <row r="497" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="497" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A497" s="26" t="s">
         <v>778</v>
       </c>
@@ -34866,7 +34867,7 @@
         <v>47.471641540527344</v>
       </c>
     </row>
-    <row r="498" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="498" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A498" s="26" t="s">
         <v>779</v>
       </c>
@@ -34923,7 +34924,7 @@
         <v>47.90655517578125</v>
       </c>
     </row>
-    <row r="499" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="499" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A499" s="26" t="s">
         <v>780</v>
       </c>
@@ -34978,7 +34979,7 @@
         <v>47.509220123291016</v>
       </c>
     </row>
-    <row r="500" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="500" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A500" s="26" t="s">
         <v>781</v>
       </c>
@@ -35033,7 +35034,7 @@
         <v>47.105663299560547</v>
       </c>
     </row>
-    <row r="501" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="501" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A501" s="26" t="s">
         <v>782</v>
       </c>
@@ -35088,7 +35089,7 @@
         <v>47.228816986083984</v>
       </c>
     </row>
-    <row r="502" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="502" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A502" s="26" t="s">
         <v>783</v>
       </c>
@@ -35145,7 +35146,7 @@
         <v>45.514572143554688</v>
       </c>
     </row>
-    <row r="503" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="503" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A503" s="26" t="s">
         <v>732</v>
       </c>
@@ -35208,7 +35209,7 @@
         <v>46.22808837890625</v>
       </c>
     </row>
-    <row r="504" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="504" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A504" s="26" t="s">
         <v>784</v>
       </c>
@@ -35264,7 +35265,7 @@
         <v>45.234603881835938</v>
       </c>
     </row>
-    <row r="505" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="505" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A505" s="26" t="s">
         <v>785</v>
       </c>
@@ -35314,7 +35315,7 @@
         <v>45.050449371337891</v>
       </c>
     </row>
-    <row r="506" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="506" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A506" s="26" t="s">
         <v>786</v>
       </c>
@@ -35364,7 +35365,7 @@
         <v>44.044944763183594</v>
       </c>
     </row>
-    <row r="507" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="507" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A507" s="26" t="s">
         <v>787</v>
       </c>
@@ -35412,7 +35413,7 @@
         <v>44.012218475341797</v>
       </c>
     </row>
-    <row r="508" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="508" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A508" s="26" t="s">
         <v>788</v>
       </c>
@@ -35462,7 +35463,7 @@
         <v>44.17901611328125</v>
       </c>
     </row>
-    <row r="509" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="509" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A509" s="26" t="s">
         <v>789</v>
       </c>
@@ -35512,7 +35513,7 @@
         <v>45.044589996337891</v>
       </c>
     </row>
-    <row r="510" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="510" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A510" s="26" t="s">
         <v>790</v>
       </c>
@@ -35562,7 +35563,7 @@
         <v>45.255538940429688</v>
       </c>
     </row>
-    <row r="511" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="511" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A511" s="26" t="s">
         <v>791</v>
       </c>
@@ -35618,7 +35619,7 @@
         <v>46.899845123291016</v>
       </c>
     </row>
-    <row r="512" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="512" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A512" s="26" t="s">
         <v>792</v>
       </c>
@@ -35674,7 +35675,7 @@
         <v>46.445976257324219</v>
       </c>
     </row>
-    <row r="513" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="513" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A513" s="26" t="s">
         <v>714</v>
       </c>
@@ -35735,7 +35736,7 @@
         <v>46.869121551513672</v>
       </c>
     </row>
-    <row r="514" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="514" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A514" s="26" t="s">
         <v>793</v>
       </c>
@@ -35792,7 +35793,7 @@
         <v>46.753223419189453</v>
       </c>
     </row>
-    <row r="515" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="515" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A515" s="26" t="s">
         <v>794</v>
       </c>
@@ -35849,7 +35850,7 @@
         <v>46.504138946533203</v>
       </c>
     </row>
-    <row r="516" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="516" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A516" s="26" t="s">
         <v>795</v>
       </c>
@@ -35906,7 +35907,7 @@
         <v>45.175601959228516</v>
       </c>
     </row>
-    <row r="517" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="517" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A517" s="26" t="s">
         <v>710</v>
       </c>
@@ -35969,7 +35970,7 @@
         <v>47.221279144287109</v>
       </c>
     </row>
-    <row r="518" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="518" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A518" s="26" t="s">
         <v>796</v>
       </c>
@@ -36025,7 +36026,7 @@
         <v>47.057445526123047</v>
       </c>
     </row>
-    <row r="519" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="519" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A519" s="26" t="s">
         <v>797</v>
       </c>
@@ -36081,7 +36082,7 @@
         <v>48.099262237548828</v>
       </c>
     </row>
-    <row r="520" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="520" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A520" s="26" t="s">
         <v>798</v>
       </c>
@@ -36137,7 +36138,7 @@
         <v>47.785682678222656</v>
       </c>
     </row>
-    <row r="521" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="521" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A521" s="26" t="s">
         <v>799</v>
       </c>
@@ -36193,7 +36194,7 @@
         <v>47.690925598144531</v>
       </c>
     </row>
-    <row r="522" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="522" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A522" s="26" t="s">
         <v>800</v>
       </c>
@@ -36249,7 +36250,7 @@
         <v>47.661865234375</v>
       </c>
     </row>
-    <row r="523" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="523" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A523" s="26" t="s">
         <v>801</v>
       </c>
@@ -36305,7 +36306,7 @@
         <v>47.976593017578125</v>
       </c>
     </row>
-    <row r="524" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="524" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A524" s="26" t="s">
         <v>802</v>
       </c>
@@ -36361,7 +36362,7 @@
         <v>44.866504669189453</v>
       </c>
     </row>
-    <row r="525" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="525" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A525" s="26" t="s">
         <v>803</v>
       </c>
@@ -36417,7 +36418,7 @@
         <v>45.626701354980469</v>
       </c>
     </row>
-    <row r="526" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="526" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A526" s="26" t="s">
         <v>804</v>
       </c>
@@ -36473,7 +36474,7 @@
         <v>46.408428192138672</v>
       </c>
     </row>
-    <row r="527" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="527" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A527" s="26" t="s">
         <v>805</v>
       </c>
@@ -36529,7 +36530,7 @@
         <v>45.691715240478516</v>
       </c>
     </row>
-    <row r="528" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="528" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A528" s="26" t="s">
         <v>806</v>
       </c>
@@ -36585,7 +36586,7 @@
         <v>44.831638336181641</v>
       </c>
     </row>
-    <row r="529" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="529" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A529" s="26" t="s">
         <v>807</v>
       </c>
@@ -36641,7 +36642,7 @@
         <v>45.345321655273438</v>
       </c>
     </row>
-    <row r="530" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="530" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A530" s="26" t="s">
         <v>712</v>
       </c>
@@ -36704,7 +36705,7 @@
         <v>49.407119750976562</v>
       </c>
     </row>
-    <row r="531" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="531" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A531" s="26" t="s">
         <v>716</v>
       </c>
@@ -36767,7 +36768,7 @@
         <v>49.495273590087891</v>
       </c>
     </row>
-    <row r="532" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="532" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A532" s="26" t="s">
         <v>808</v>
       </c>
@@ -36823,7 +36824,7 @@
         <v>50.404838562011719</v>
       </c>
     </row>
-    <row r="533" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="533" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A533" s="26" t="s">
         <v>704</v>
       </c>
@@ -36886,7 +36887,7 @@
         <v>48.855987548828125</v>
       </c>
     </row>
-    <row r="534" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="534" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A534" s="26" t="s">
         <v>809</v>
       </c>
@@ -36942,7 +36943,7 @@
         <v>49.152496337890625</v>
       </c>
     </row>
-    <row r="535" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="535" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A535" s="26" t="s">
         <v>706</v>
       </c>
@@ -37005,7 +37006,7 @@
         <v>49.416854858398438</v>
       </c>
     </row>
-    <row r="536" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="536" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A536" s="26" t="s">
         <v>810</v>
       </c>
@@ -37060,7 +37061,7 @@
         <v>52.407707214355469</v>
       </c>
     </row>
-    <row r="537" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="537" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A537" s="26" t="s">
         <v>811</v>
       </c>
@@ -37115,7 +37116,7 @@
         <v>53.471836090087891</v>
       </c>
     </row>
-    <row r="538" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="538" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A538" s="26" t="s">
         <v>812</v>
       </c>
@@ -37170,7 +37171,7 @@
         <v>53.378993988037109</v>
       </c>
     </row>
-    <row r="539" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="539" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A539" s="26" t="s">
         <v>813</v>
       </c>
@@ -37225,7 +37226,7 @@
         <v>53.616657257080078</v>
       </c>
     </row>
-    <row r="540" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="540" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A540" s="26" t="s">
         <v>814</v>
       </c>
@@ -37280,7 +37281,7 @@
         <v>54.204105377197266</v>
       </c>
     </row>
-    <row r="541" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="541" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A541" s="26" t="s">
         <v>815</v>
       </c>
@@ -37335,7 +37336,7 @@
         <v>53.904201507568359</v>
       </c>
     </row>
-    <row r="542" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="542" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A542" s="26" t="s">
         <v>816</v>
       </c>
@@ -37390,7 +37391,7 @@
         <v>45.071773529052734</v>
       </c>
     </row>
-    <row r="543" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="543" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A543" s="26" t="s">
         <v>817</v>
       </c>
@@ -37443,7 +37444,7 @@
         <v>45.908878326416016</v>
       </c>
     </row>
-    <row r="544" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="544" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A544" s="26" t="s">
         <v>818</v>
       </c>
@@ -37492,7 +37493,7 @@
         <v>45.367847442626953</v>
       </c>
     </row>
-    <row r="545" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="545" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A545" s="26" t="s">
         <v>819</v>
       </c>
@@ -37547,7 +37548,7 @@
         <v>45.501029968261719</v>
       </c>
     </row>
-    <row r="546" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="546" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A546" s="26" t="s">
         <v>820</v>
       </c>
@@ -37596,7 +37597,7 @@
         <v>44.522567749023438</v>
       </c>
     </row>
-    <row r="547" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="547" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A547" s="26" t="s">
         <v>821</v>
       </c>
@@ -37645,7 +37646,7 @@
         <v>45.018909454345703</v>
       </c>
     </row>
-    <row r="548" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="548" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A548" s="26" t="s">
         <v>822</v>
       </c>
@@ -37700,7 +37701,7 @@
         <v>50.332965850830078</v>
       </c>
     </row>
-    <row r="549" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="549" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A549" s="26" t="s">
         <v>823</v>
       </c>
@@ -37755,7 +37756,7 @@
         <v>49.529426574707031</v>
       </c>
     </row>
-    <row r="550" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="550" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A550" s="26" t="s">
         <v>824</v>
       </c>
@@ -37810,7 +37811,7 @@
         <v>51.126293182373047</v>
       </c>
     </row>
-    <row r="551" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="551" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A551" s="26" t="s">
         <v>825</v>
       </c>
@@ -37865,7 +37866,7 @@
         <v>44.654010772705078</v>
       </c>
     </row>
-    <row r="552" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="552" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A552" s="26" t="s">
         <v>826</v>
       </c>
@@ -37914,7 +37915,7 @@
         <v>50.964508056640625</v>
       </c>
     </row>
-    <row r="553" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="553" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A553" s="26" t="s">
         <v>827</v>
       </c>
@@ -37963,7 +37964,7 @@
         <v>51.009674072265625</v>
       </c>
     </row>
-    <row r="554" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="554" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A554" s="26" t="s">
         <v>828</v>
       </c>
@@ -38018,7 +38019,7 @@
         <v>49.424354553222656</v>
       </c>
     </row>
-    <row r="555" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="555" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A555" s="26" t="s">
         <v>829</v>
       </c>
@@ -38073,7 +38074,7 @@
         <v>51.437549591064453</v>
       </c>
     </row>
-    <row r="556" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="556" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A556" s="26" t="s">
         <v>830</v>
       </c>
@@ -38128,7 +38129,7 @@
         <v>49.278923034667969</v>
       </c>
     </row>
-    <row r="557" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="557" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A557" s="26" t="s">
         <v>831</v>
       </c>
@@ -38183,7 +38184,7 @@
         <v>51.311775207519531</v>
       </c>
     </row>
-    <row r="558" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="558" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A558" s="26" t="s">
         <v>832</v>
       </c>
@@ -38238,7 +38239,7 @@
         <v>51.053848266601562</v>
       </c>
     </row>
-    <row r="559" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="559" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A559" s="26" t="s">
         <v>833</v>
       </c>
@@ -38295,7 +38296,7 @@
         <v>49.078205108642578</v>
       </c>
     </row>
-    <row r="560" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="560" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A560" s="26" t="s">
         <v>834</v>
       </c>
@@ -38350,7 +38351,7 @@
         <v>50.175323486328125</v>
       </c>
     </row>
-    <row r="561" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="561" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A561" s="26" t="s">
         <v>835</v>
       </c>
@@ -38405,7 +38406,7 @@
         <v>51.059253692626953</v>
       </c>
     </row>
-    <row r="562" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="562" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A562" s="26" t="s">
         <v>836</v>
       </c>
@@ -38460,7 +38461,7 @@
         <v>50.959335327148438</v>
       </c>
     </row>
-    <row r="563" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="563" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A563" s="26" t="s">
         <v>837</v>
       </c>
@@ -38517,7 +38518,7 @@
         <v>50.795654296875</v>
       </c>
     </row>
-    <row r="564" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="564" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A564" s="26" t="s">
         <v>838</v>
       </c>
@@ -38566,7 +38567,7 @@
         <v>49.752334594726562</v>
       </c>
     </row>
-    <row r="565" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="565" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A565" s="26" t="s">
         <v>839</v>
       </c>
@@ -38615,7 +38616,7 @@
         <v>48.866832733154297</v>
       </c>
     </row>
-    <row r="566" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="566" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A566" s="26" t="s">
         <v>840</v>
       </c>
@@ -38670,7 +38671,7 @@
         <v>48.024559020996094</v>
       </c>
     </row>
-    <row r="567" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="567" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A567" s="26" t="s">
         <v>841</v>
       </c>
@@ -38725,7 +38726,7 @@
         <v>48.430690765380859</v>
       </c>
     </row>
-    <row r="568" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="568" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A568" s="26" t="s">
         <v>734</v>
       </c>
@@ -38788,7 +38789,7 @@
         <v>50.561370849609375</v>
       </c>
     </row>
-    <row r="569" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="569" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A569" s="26" t="s">
         <v>842</v>
       </c>
@@ -38844,7 +38845,7 @@
         <v>49.121337890625</v>
       </c>
     </row>
-    <row r="570" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="570" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A570" s="26" t="s">
         <v>843</v>
       </c>
@@ -38900,7 +38901,7 @@
         <v>49.883686065673828</v>
       </c>
     </row>
-    <row r="571" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="571" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A571" s="26" t="s">
         <v>844</v>
       </c>
@@ -38956,7 +38957,7 @@
         <v>49.224933624267578</v>
       </c>
     </row>
-    <row r="572" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="572" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A572" s="26" t="s">
         <v>845</v>
       </c>
@@ -39011,7 +39012,7 @@
         <v>49.3494873046875</v>
       </c>
     </row>
-    <row r="573" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="573" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A573" s="26" t="s">
         <v>846</v>
       </c>
@@ -39068,7 +39069,7 @@
         <v>49.224231719970703</v>
       </c>
     </row>
-    <row r="574" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="574" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A574" s="26" t="s">
         <v>717</v>
       </c>
@@ -39131,7 +39132,7 @@
         <v>50.121871948242188</v>
       </c>
     </row>
-    <row r="575" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="575" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A575" s="26" t="s">
         <v>847</v>
       </c>
@@ -39187,7 +39188,7 @@
         <v>48.436553955078125</v>
       </c>
     </row>
-    <row r="576" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="576" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A576" s="26" t="s">
         <v>848</v>
       </c>
@@ -39243,7 +39244,7 @@
         <v>48.713176727294922</v>
       </c>
     </row>
-    <row r="577" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="577" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A577" s="26" t="s">
         <v>849</v>
       </c>
@@ -39299,7 +39300,7 @@
         <v>48.853618621826172</v>
       </c>
     </row>
-    <row r="578" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="578" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A578" s="26" t="s">
         <v>850</v>
       </c>
@@ -39349,7 +39350,7 @@
         <v>49.761692047119141</v>
       </c>
     </row>
-    <row r="579" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="579" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A579" s="26" t="s">
         <v>851</v>
       </c>
@@ -39399,7 +39400,7 @@
         <v>46.463855743408203</v>
       </c>
     </row>
-    <row r="580" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="580" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A580" s="26" t="s">
         <v>852</v>
       </c>
@@ -39449,7 +39450,7 @@
         <v>45.715484619140625</v>
       </c>
     </row>
-    <row r="581" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="581" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A581" s="26" t="s">
         <v>853</v>
       </c>
@@ -39499,7 +39500,7 @@
         <v>46.275470733642578</v>
       </c>
     </row>
-    <row r="582" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="582" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A582" s="26" t="s">
         <v>854</v>
       </c>
@@ -39549,7 +39550,7 @@
         <v>45.367473602294922</v>
       </c>
     </row>
-    <row r="583" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="583" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A583" s="26" t="s">
         <v>855</v>
       </c>
@@ -39605,7 +39606,7 @@
         <v>46.248783111572266</v>
       </c>
     </row>
-    <row r="584" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="584" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A584" s="26" t="s">
         <v>719</v>
       </c>
@@ -39668,7 +39669,7 @@
         <v>49.074092864990234</v>
       </c>
     </row>
-    <row r="585" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="585" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A585" s="26" t="s">
         <v>720</v>
       </c>
@@ -39731,7 +39732,7 @@
         <v>48.106792449951172</v>
       </c>
     </row>
-    <row r="586" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="586" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A586" s="26" t="s">
         <v>856</v>
       </c>
@@ -39787,7 +39788,7 @@
         <v>49.087989807128906</v>
       </c>
     </row>
-    <row r="587" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="587" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A587" s="26" t="s">
         <v>715</v>
       </c>
@@ -39850,7 +39851,7 @@
         <v>48.16595458984375</v>
       </c>
     </row>
-    <row r="588" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="588" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A588" s="26" t="s">
         <v>711</v>
       </c>
@@ -39913,7 +39914,7 @@
         <v>49.467506408691406</v>
       </c>
     </row>
-    <row r="589" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="589" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A589" s="26" t="s">
         <v>730</v>
       </c>
@@ -39976,7 +39977,7 @@
         <v>49.201316833496094</v>
       </c>
     </row>
-    <row r="590" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="590" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A590" s="26" t="s">
         <v>857</v>
       </c>
@@ -40032,7 +40033,7 @@
         <v>49.467727661132812</v>
       </c>
     </row>
-    <row r="591" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="591" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A591" s="26" t="s">
         <v>858</v>
       </c>
@@ -40088,7 +40089,7 @@
         <v>47.352935791015625</v>
       </c>
     </row>
-    <row r="592" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="592" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A592" s="26" t="s">
         <v>859</v>
       </c>
@@ -40144,7 +40145,7 @@
         <v>48.549995422363281</v>
       </c>
     </row>
-    <row r="593" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="593" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A593" s="26" t="s">
         <v>860</v>
       </c>
@@ -40200,7 +40201,7 @@
         <v>49.611007690429688</v>
       </c>
     </row>
-    <row r="594" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="594" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A594" s="26" t="s">
         <v>861</v>
       </c>
@@ -40256,7 +40257,7 @@
         <v>51.05950927734375</v>
       </c>
     </row>
-    <row r="595" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="595" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A595" s="26" t="s">
         <v>862</v>
       </c>
@@ -40312,7 +40313,7 @@
         <v>51.005580902099609</v>
       </c>
     </row>
-    <row r="596" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="596" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A596" s="26" t="s">
         <v>863</v>
       </c>
@@ -40368,7 +40369,7 @@
         <v>50.535247802734375</v>
       </c>
     </row>
-    <row r="597" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="597" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A597" s="26" t="s">
         <v>864</v>
       </c>
@@ -40420,7 +40421,7 @@
         <v>49.712066650390625</v>
       </c>
     </row>
-    <row r="598" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="598" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A598" s="26" t="s">
         <v>865</v>
       </c>
@@ -40470,7 +40471,7 @@
         <v>49.682098388671875</v>
       </c>
     </row>
-    <row r="599" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="599" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A599" s="26" t="s">
         <v>735</v>
       </c>
@@ -40533,7 +40534,7 @@
         <v>46.613964080810547</v>
       </c>
     </row>
-    <row r="600" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="600" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A600" s="26" t="s">
         <v>866</v>
       </c>
@@ -40589,7 +40590,7 @@
         <v>43.113986968994141</v>
       </c>
     </row>
-    <row r="601" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="601" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A601" s="26" t="s">
         <v>731</v>
       </c>
@@ -40652,7 +40653,7 @@
         <v>46.352901458740234</v>
       </c>
     </row>
-    <row r="602" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="602" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A602" s="26" t="s">
         <v>718</v>
       </c>
@@ -40715,7 +40716,7 @@
         <v>45.919822692871094</v>
       </c>
     </row>
-    <row r="603" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="603" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A603" s="26" t="s">
         <v>867</v>
       </c>
@@ -40776,7 +40777,7 @@
         <v>45.353404998779297</v>
       </c>
     </row>
-    <row r="604" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="604" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A604" s="26" t="s">
         <v>725</v>
       </c>
@@ -40833,7 +40834,7 @@
         <v>46.785659790039062</v>
       </c>
     </row>
-    <row r="605" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="605" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A605" s="26" t="s">
         <v>868</v>
       </c>
@@ -40889,7 +40890,7 @@
         <v>45.251754760742188</v>
       </c>
     </row>
-    <row r="606" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="606" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A606" s="26" t="s">
         <v>869</v>
       </c>
@@ -40945,7 +40946,7 @@
         <v>50.603302001953125</v>
       </c>
     </row>
-    <row r="607" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="607" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A607" s="26" t="s">
         <v>870</v>
       </c>
@@ -41001,7 +41002,7 @@
         <v>48.506248474121094</v>
       </c>
     </row>
-    <row r="608" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="608" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A608" s="26" t="s">
         <v>871</v>
       </c>
@@ -41057,7 +41058,7 @@
         <v>50.214302062988281</v>
       </c>
     </row>
-    <row r="609" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="609" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A609" s="26" t="s">
         <v>872</v>
       </c>
@@ -41113,7 +41114,7 @@
         <v>49.983024597167969</v>
       </c>
     </row>
-    <row r="610" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="610" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A610" s="26" t="s">
         <v>873</v>
       </c>
@@ -41169,7 +41170,7 @@
         <v>49.971355438232422</v>
       </c>
     </row>
-    <row r="611" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="611" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A611" s="26" t="s">
         <v>874</v>
       </c>
@@ -41225,7 +41226,7 @@
         <v>49.982532501220703</v>
       </c>
     </row>
-    <row r="612" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="612" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A612" s="26" t="s">
         <v>875</v>
       </c>
@@ -41281,7 +41282,7 @@
         <v>49.278709411621094</v>
       </c>
     </row>
-    <row r="613" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="613" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A613" s="26" t="s">
         <v>876</v>
       </c>
@@ -41336,7 +41337,7 @@
         <v>48.560085296630859</v>
       </c>
     </row>
-    <row r="614" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="614" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A614" s="26" t="s">
         <v>707</v>
       </c>
@@ -41399,7 +41400,7 @@
         <v>50.170482635498047</v>
       </c>
     </row>
-    <row r="615" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="615" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A615" s="26" t="s">
         <v>877</v>
       </c>
@@ -41455,7 +41456,7 @@
         <v>49.0501708984375</v>
       </c>
     </row>
-    <row r="616" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="616" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A616" s="26" t="s">
         <v>878</v>
       </c>
@@ -41511,7 +41512,7 @@
         <v>49.969120025634766</v>
       </c>
     </row>
-    <row r="617" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="617" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A617" s="26" t="s">
         <v>708</v>
       </c>
@@ -41574,7 +41575,7 @@
         <v>48.561668395996094</v>
       </c>
     </row>
-    <row r="618" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="618" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A618" s="26" t="s">
         <v>879</v>
       </c>
@@ -41631,7 +41632,7 @@
         <v>47.398250579833984</v>
       </c>
     </row>
-    <row r="619" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="619" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A619" s="26" t="s">
         <v>880</v>
       </c>
@@ -41686,7 +41687,7 @@
         <v>47.717971801757812</v>
       </c>
     </row>
-    <row r="620" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="620" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A620" s="26" t="s">
         <v>881</v>
       </c>
@@ -41741,7 +41742,7 @@
         <v>48.0804443359375</v>
       </c>
     </row>
-    <row r="621" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="621" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A621" s="26" t="s">
         <v>882</v>
       </c>
@@ -41796,7 +41797,7 @@
         <v>47.190845489501953</v>
       </c>
     </row>
-    <row r="622" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="622" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A622" s="26" t="s">
         <v>883</v>
       </c>
@@ -41851,7 +41852,7 @@
         <v>46.551116943359375</v>
       </c>
     </row>
-    <row r="623" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="623" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A623" s="26" t="s">
         <v>884</v>
       </c>
@@ -41906,7 +41907,7 @@
         <v>47.977687835693359</v>
       </c>
     </row>
-    <row r="624" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="624" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A624" s="26" t="s">
         <v>313</v>
       </c>
@@ -41963,7 +41964,7 @@
         <v>49.052486419677734</v>
       </c>
     </row>
-    <row r="625" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="625" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A625" s="26" t="s">
         <v>310</v>
       </c>
@@ -42020,7 +42021,7 @@
         <v>46.2130394</v>
       </c>
     </row>
-    <row r="626" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="626" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A626" s="26" t="s">
         <v>311</v>
       </c>
@@ -42077,7 +42078,7 @@
         <v>46.568904879999998</v>
       </c>
     </row>
-    <row r="627" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="627" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A627" s="26" t="s">
         <v>312</v>
       </c>
@@ -42136,7 +42137,7 @@
         <v>47.341175079999999</v>
       </c>
     </row>
-    <row r="628" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="628" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A628" s="26" t="s">
         <v>314</v>
       </c>
@@ -42195,7 +42196,7 @@
         <v>49.218467712402344</v>
       </c>
     </row>
-    <row r="629" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="629" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A629" s="26" t="s">
         <v>308</v>
       </c>
@@ -42252,7 +42253,7 @@
         <v>48.557830810546875</v>
       </c>
     </row>
-    <row r="630" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="630" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A630" s="26" t="s">
         <v>315</v>
       </c>
@@ -42311,7 +42312,7 @@
         <v>49.051891326904297</v>
       </c>
     </row>
-    <row r="631" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="631" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A631" s="26" t="s">
         <v>316</v>
       </c>
@@ -42368,7 +42369,7 @@
         <v>49.345607757568359</v>
       </c>
     </row>
-    <row r="632" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="632" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A632" s="26" t="s">
         <v>317</v>
       </c>
@@ -42427,7 +42428,7 @@
         <v>49.125007629394531</v>
       </c>
     </row>
-    <row r="633" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="633" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A633" s="26" t="s">
         <v>318</v>
       </c>
@@ -42484,7 +42485,7 @@
         <v>48.561359405517578</v>
       </c>
     </row>
-    <row r="634" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="634" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A634" s="26" t="s">
         <v>319</v>
       </c>
@@ -42541,7 +42542,7 @@
         <v>47.716403961181641</v>
       </c>
     </row>
-    <row r="635" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="635" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A635" s="26" t="s">
         <v>324</v>
       </c>
@@ -42598,7 +42599,7 @@
         <v>48.258674621582031</v>
       </c>
     </row>
-    <row r="636" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="636" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A636" s="26" t="s">
         <v>321</v>
       </c>
@@ -42655,7 +42656,7 @@
         <v>47.735332489013672</v>
       </c>
     </row>
-    <row r="637" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="637" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A637" s="26" t="s">
         <v>322</v>
       </c>
@@ -42714,7 +42715,7 @@
         <v>48.199459075927734</v>
       </c>
     </row>
-    <row r="638" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="638" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A638" s="26" t="s">
         <v>323</v>
       </c>
@@ -42771,7 +42772,7 @@
         <v>48.538341522216797</v>
       </c>
     </row>
-    <row r="639" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="639" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A639" s="26" t="s">
         <v>325</v>
       </c>
@@ -42828,7 +42829,7 @@
         <v>47.500476837158203</v>
       </c>
     </row>
-    <row r="640" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="640" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A640" s="26" t="s">
         <v>320</v>
       </c>
@@ -42885,7 +42886,7 @@
         <v>49.263923645019531</v>
       </c>
     </row>
-    <row r="641" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="641" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A641" s="26" t="s">
         <v>329</v>
       </c>
@@ -42942,7 +42943,7 @@
         <v>50.071628570556641</v>
       </c>
     </row>
-    <row r="642" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="642" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A642" s="26" t="s">
         <v>330</v>
       </c>
@@ -42999,7 +43000,7 @@
         <v>49.7767333984375</v>
       </c>
     </row>
-    <row r="643" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="643" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A643" s="26" t="s">
         <v>331</v>
       </c>
@@ -43060,7 +43061,7 @@
         <v>50.925487518310547</v>
       </c>
     </row>
-    <row r="644" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="644" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A644" s="26" t="s">
         <v>326</v>
       </c>
@@ -43121,7 +43122,7 @@
         <v>49.426540374755859</v>
       </c>
     </row>
-    <row r="645" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="645" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A645" s="26" t="s">
         <v>327</v>
       </c>
@@ -43180,7 +43181,7 @@
         <v>48.925716400146484</v>
       </c>
     </row>
-    <row r="646" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="646" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A646" s="26" t="s">
         <v>328</v>
       </c>
@@ -43237,7 +43238,7 @@
         <v>48.61175537109375</v>
       </c>
     </row>
-    <row r="647" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="647" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A647" s="26" t="s">
         <v>332</v>
       </c>
@@ -43294,7 +43295,7 @@
         <v>48.329219818115234</v>
       </c>
     </row>
-    <row r="648" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="648" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A648" s="26" t="s">
         <v>333</v>
       </c>
@@ -43351,7 +43352,7 @@
         <v>47.174858093261719</v>
       </c>
     </row>
-    <row r="649" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="649" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A649" s="26" t="s">
         <v>334</v>
       </c>
@@ -43408,7 +43409,7 @@
         <v>46.634689331054688</v>
       </c>
     </row>
-    <row r="650" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="650" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A650" s="26" t="s">
         <v>335</v>
       </c>
@@ -43465,7 +43466,7 @@
         <v>45.247032165527344</v>
       </c>
     </row>
-    <row r="651" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="651" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A651" s="26" t="s">
         <v>336</v>
       </c>
@@ -43522,7 +43523,7 @@
         <v>47.905838012695312</v>
       </c>
     </row>
-    <row r="652" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="652" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A652" s="26" t="s">
         <v>736</v>
       </c>
@@ -43575,7 +43576,7 @@
         <v>48.144386291503906</v>
       </c>
     </row>
-    <row r="653" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="653" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A653" s="26" t="s">
         <v>337</v>
       </c>
@@ -43632,7 +43633,7 @@
         <v>47.461299896240234</v>
       </c>
     </row>
-    <row r="654" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="654" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A654" s="26" t="s">
         <v>338</v>
       </c>
@@ -43689,7 +43690,7 @@
         <v>48.000148773193359</v>
       </c>
     </row>
-    <row r="655" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="655" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A655" s="26" t="s">
         <v>339</v>
       </c>
@@ -43748,7 +43749,7 @@
         <v>48.887962341308594</v>
       </c>
     </row>
-    <row r="656" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="656" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A656" s="26" t="s">
         <v>340</v>
       </c>
@@ -43805,7 +43806,7 @@
         <v>47.566974639892578</v>
       </c>
     </row>
-    <row r="657" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="657" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A657" s="26" t="s">
         <v>341</v>
       </c>
@@ -43862,7 +43863,7 @@
         <v>48.381656646728516</v>
       </c>
     </row>
-    <row r="658" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="658" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A658" s="26" t="s">
         <v>342</v>
       </c>
@@ -43919,7 +43920,7 @@
         <v>49.101116180419922</v>
       </c>
     </row>
-    <row r="659" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="659" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A659" s="26" t="s">
         <v>347</v>
       </c>
@@ -43976,7 +43977,7 @@
         <v>47.581733703613281</v>
       </c>
     </row>
-    <row r="660" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="660" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A660" s="26" t="s">
         <v>348</v>
       </c>
@@ -44033,7 +44034,7 @@
         <v>47.170574188232422</v>
       </c>
     </row>
-    <row r="661" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="661" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A661" s="26" t="s">
         <v>343</v>
       </c>
@@ -44090,7 +44091,7 @@
         <v>48.271633148193359</v>
       </c>
     </row>
-    <row r="662" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="662" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A662" s="26" t="s">
         <v>344</v>
       </c>
@@ -44147,7 +44148,7 @@
         <v>47.706356048583984</v>
       </c>
     </row>
-    <row r="663" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="663" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A663" s="26" t="s">
         <v>345</v>
       </c>
@@ -44204,7 +44205,7 @@
         <v>45.971992492675781</v>
       </c>
     </row>
-    <row r="664" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="664" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A664" s="26" t="s">
         <v>346</v>
       </c>
@@ -44263,7 +44264,7 @@
         <v>47.788066864013672</v>
       </c>
     </row>
-    <row r="665" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="665" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A665" s="26" t="s">
         <v>349</v>
       </c>
@@ -44320,7 +44321,7 @@
         <v>45.730186459999999</v>
       </c>
     </row>
-    <row r="666" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="666" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A666" s="26" t="s">
         <v>350</v>
       </c>
@@ -44377,7 +44378,7 @@
         <v>46.23198318</v>
       </c>
     </row>
-    <row r="667" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="667" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A667" s="26" t="s">
         <v>351</v>
       </c>
@@ -44434,7 +44435,7 @@
         <v>46.204505920000003</v>
       </c>
     </row>
-    <row r="668" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="668" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A668" s="26" t="s">
         <v>352</v>
       </c>
@@ -44491,7 +44492,7 @@
         <v>46.01323318</v>
       </c>
     </row>
-    <row r="669" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="669" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A669" s="26" t="s">
         <v>353</v>
       </c>
@@ -44548,7 +44549,7 @@
         <v>46.398815159999998</v>
       </c>
     </row>
-    <row r="670" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="670" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A670" s="26" t="s">
         <v>354</v>
       </c>
@@ -44605,7 +44606,7 @@
         <v>45.380187990000003</v>
       </c>
     </row>
-    <row r="671" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="671" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A671" s="26" t="s">
         <v>355</v>
       </c>
@@ -44662,7 +44663,7 @@
         <v>45.814720153808594</v>
       </c>
     </row>
-    <row r="672" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="672" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A672" s="26" t="s">
         <v>356</v>
       </c>
@@ -44719,7 +44720,7 @@
         <v>45.650859830000002</v>
       </c>
     </row>
-    <row r="673" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="673" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A673" s="26" t="s">
         <v>357</v>
       </c>
@@ -44776,7 +44777,7 @@
         <v>47.375934600830078</v>
       </c>
     </row>
-    <row r="674" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="674" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A674" s="26" t="s">
         <v>358</v>
       </c>
@@ -44833,7 +44834,7 @@
         <v>48.118972778320312</v>
       </c>
     </row>
-    <row r="675" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="675" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A675" s="26" t="s">
         <v>359</v>
       </c>
@@ -44890,7 +44891,7 @@
         <v>49.411567687988281</v>
       </c>
     </row>
-    <row r="676" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="676" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A676" s="26" t="s">
         <v>360</v>
       </c>
@@ -44947,7 +44948,7 @@
         <v>48.424087524414062</v>
       </c>
     </row>
-    <row r="677" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="677" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A677" s="26" t="s">
         <v>361</v>
       </c>
@@ -45004,7 +45005,7 @@
         <v>48.853462219238281</v>
       </c>
     </row>
-    <row r="678" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="678" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A678" s="26" t="s">
         <v>362</v>
       </c>
@@ -45061,7 +45062,7 @@
         <v>47.977367401123047</v>
       </c>
     </row>
-    <row r="679" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="679" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A679" s="26" t="s">
         <v>364</v>
       </c>
@@ -45118,7 +45119,7 @@
         <v>50.11785888671875</v>
       </c>
     </row>
-    <row r="680" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="680" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A680" s="26" t="s">
         <v>368</v>
       </c>
@@ -45175,7 +45176,7 @@
         <v>49.406627655029297</v>
       </c>
     </row>
-    <row r="681" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="681" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A681" s="26" t="s">
         <v>365</v>
       </c>
@@ -45232,7 +45233,7 @@
         <v>50.727062225341797</v>
       </c>
     </row>
-    <row r="682" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="682" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A682" s="26" t="s">
         <v>366</v>
       </c>
@@ -45289,7 +45290,7 @@
         <v>48.292884826660156</v>
       </c>
     </row>
-    <row r="683" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="683" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A683" s="26" t="s">
         <v>367</v>
       </c>
@@ -45346,7 +45347,7 @@
         <v>48.200222015380859</v>
       </c>
     </row>
-    <row r="684" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="684" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A684" s="26" t="s">
         <v>363</v>
       </c>
@@ -45403,7 +45404,7 @@
         <v>47.082511901855469</v>
       </c>
     </row>
-    <row r="685" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="685" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A685" s="26" t="s">
         <v>738</v>
       </c>
@@ -45454,7 +45455,7 @@
         <v>45.302154541015625</v>
       </c>
     </row>
-    <row r="686" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="686" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A686" s="26" t="s">
         <v>739</v>
       </c>
@@ -45507,7 +45508,7 @@
         <v>44.774188995361328</v>
       </c>
     </row>
-    <row r="687" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="687" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A687" s="26" t="s">
         <v>740</v>
       </c>
@@ -45560,7 +45561,7 @@
         <v>44.894687652587891</v>
       </c>
     </row>
-    <row r="688" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="688" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A688" s="26" t="s">
         <v>741</v>
       </c>
@@ -45613,7 +45614,7 @@
         <v>45.203166961669922</v>
       </c>
     </row>
-    <row r="689" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="689" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A689" s="26" t="s">
         <v>742</v>
       </c>
@@ -45666,7 +45667,7 @@
         <v>45.220943450927734</v>
       </c>
     </row>
-    <row r="690" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="690" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A690" s="26" t="s">
         <v>743</v>
       </c>
@@ -45719,7 +45720,7 @@
         <v>44.343254089355469</v>
       </c>
     </row>
-    <row r="691" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="691" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A691" s="26" t="s">
         <v>374</v>
       </c>
@@ -45778,7 +45779,7 @@
         <v>34.947116851806641</v>
       </c>
     </row>
-    <row r="692" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="692" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A692" s="26" t="s">
         <v>369</v>
       </c>
@@ -45837,7 +45838,7 @@
         <v>48.617645263671875</v>
       </c>
     </row>
-    <row r="693" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="693" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A693" s="26" t="s">
         <v>370</v>
       </c>
@@ -45894,7 +45895,7 @@
         <v>48.559349060058594</v>
       </c>
     </row>
-    <row r="694" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="694" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A694" s="26" t="s">
         <v>371</v>
       </c>
@@ -45955,7 +45956,7 @@
         <v>48.591083526611328</v>
       </c>
     </row>
-    <row r="695" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="695" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A695" s="26" t="s">
         <v>372</v>
       </c>
@@ -46014,7 +46015,7 @@
         <v>48.546360015869141</v>
       </c>
     </row>
-    <row r="696" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="696" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A696" s="26" t="s">
         <v>373</v>
       </c>
@@ -46071,7 +46072,7 @@
         <v>48.313865661621094</v>
       </c>
     </row>
-    <row r="697" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="697" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A697" s="26" t="s">
         <v>375</v>
       </c>
@@ -46130,7 +46131,7 @@
         <v>47.700431823730469</v>
       </c>
     </row>
-    <row r="698" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="698" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A698" s="26" t="s">
         <v>376</v>
       </c>
@@ -46187,7 +46188,7 @@
         <v>47.737274169921875</v>
       </c>
     </row>
-    <row r="699" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="699" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A699" s="26" t="s">
         <v>377</v>
       </c>
@@ -46244,7 +46245,7 @@
         <v>47.464408874511719</v>
       </c>
     </row>
-    <row r="700" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="700" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A700" s="26" t="s">
         <v>378</v>
       </c>
@@ -46301,7 +46302,7 @@
         <v>47.188529969999998</v>
       </c>
     </row>
-    <row r="701" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="701" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A701" s="26" t="s">
         <v>379</v>
       </c>
@@ -46358,7 +46359,7 @@
         <v>46.953277589999999</v>
       </c>
     </row>
-    <row r="702" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="702" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A702" s="26" t="s">
         <v>380</v>
       </c>
@@ -46417,7 +46418,7 @@
         <v>47.154697419999998</v>
       </c>
     </row>
-    <row r="703" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="703" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A703" s="26" t="s">
         <v>381</v>
       </c>
@@ -46474,7 +46475,7 @@
         <v>44.00250244140625</v>
       </c>
     </row>
-    <row r="704" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="704" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A704" s="26" t="s">
         <v>382</v>
       </c>
@@ -46531,7 +46532,7 @@
         <v>43.858131408691406</v>
       </c>
     </row>
-    <row r="705" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="705" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A705" s="26" t="s">
         <v>383</v>
       </c>
@@ -46588,7 +46589,7 @@
         <v>45.764030456542969</v>
       </c>
     </row>
-    <row r="706" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="706" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A706" s="26" t="s">
         <v>384</v>
       </c>
@@ -46645,7 +46646,7 @@
         <v>46.781581878662109</v>
       </c>
     </row>
-    <row r="707" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="707" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A707" s="26" t="s">
         <v>385</v>
       </c>
@@ -46702,7 +46703,7 @@
         <v>47.166412353515625</v>
       </c>
     </row>
-    <row r="708" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="708" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A708" s="26" t="s">
         <v>386</v>
       </c>
@@ -46759,7 +46760,7 @@
         <v>46.764701843261719</v>
       </c>
     </row>
-    <row r="709" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="709" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A709" s="26" t="s">
         <v>387</v>
       </c>
@@ -46816,7 +46817,7 @@
         <v>46.707923889160156</v>
       </c>
     </row>
-    <row r="710" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="710" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A710" s="26" t="s">
         <v>388</v>
       </c>
@@ -46873,7 +46874,7 @@
         <v>46.716182708740234</v>
       </c>
     </row>
-    <row r="711" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="711" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A711" s="26" t="s">
         <v>389</v>
       </c>
@@ -46930,7 +46931,7 @@
         <v>47.350696563720703</v>
       </c>
     </row>
-    <row r="712" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="712" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A712" s="26" t="s">
         <v>391</v>
       </c>
@@ -46987,7 +46988,7 @@
         <v>47.482395172119141</v>
       </c>
     </row>
-    <row r="713" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="713" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A713" s="26" t="s">
         <v>390</v>
       </c>
@@ -47044,7 +47045,7 @@
         <v>46.677337646484375</v>
       </c>
     </row>
-    <row r="714" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="714" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A714" s="26" t="s">
         <v>392</v>
       </c>
@@ -47101,7 +47102,7 @@
         <v>46.466773986816406</v>
       </c>
     </row>
-    <row r="715" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="715" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A715" s="26" t="s">
         <v>393</v>
       </c>
@@ -47158,7 +47159,7 @@
         <v>47.979976654052734</v>
       </c>
     </row>
-    <row r="716" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="716" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A716" s="26" t="s">
         <v>395</v>
       </c>
@@ -47215,7 +47216,7 @@
         <v>46.457107540000003</v>
       </c>
     </row>
-    <row r="717" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="717" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A717" s="26" t="s">
         <v>396</v>
       </c>
@@ -47272,7 +47273,7 @@
         <v>46.876052856445312</v>
       </c>
     </row>
-    <row r="718" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="718" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A718" s="26" t="s">
         <v>397</v>
       </c>
@@ -47329,7 +47330,7 @@
         <v>46.318084716796875</v>
       </c>
     </row>
-    <row r="719" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="719" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A719" s="26" t="s">
         <v>394</v>
       </c>
@@ -47390,7 +47391,7 @@
         <v>46.528377532958984</v>
       </c>
     </row>
-    <row r="720" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="720" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A720" s="26" t="s">
         <v>398</v>
       </c>
@@ -47447,7 +47448,7 @@
         <v>46.811447143554688</v>
       </c>
     </row>
-    <row r="721" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="721" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A721" s="26" t="s">
         <v>403</v>
       </c>
@@ -47506,7 +47507,7 @@
         <v>49.16009521484375</v>
       </c>
     </row>
-    <row r="722" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="722" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A722" s="26" t="s">
         <v>404</v>
       </c>
@@ -47563,7 +47564,7 @@
         <v>50.361583709716797</v>
       </c>
     </row>
-    <row r="723" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="723" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A723" s="26" t="s">
         <v>402</v>
       </c>
@@ -47620,7 +47621,7 @@
         <v>51.637130737304688</v>
       </c>
     </row>
-    <row r="724" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="724" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A724" s="26" t="s">
         <v>399</v>
       </c>
@@ -47677,7 +47678,7 @@
         <v>50.424823760986328</v>
       </c>
     </row>
-    <row r="725" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="725" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A725" s="26" t="s">
         <v>400</v>
       </c>
@@ -47738,7 +47739,7 @@
         <v>47.474815368652344</v>
       </c>
     </row>
-    <row r="726" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="726" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A726" s="26" t="s">
         <v>401</v>
       </c>
@@ -47795,7 +47796,7 @@
         <v>51.492019653320312</v>
       </c>
     </row>
-    <row r="727" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="727" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A727" s="26" t="s">
         <v>744</v>
       </c>
@@ -47848,7 +47849,7 @@
         <v>50.404842376708984</v>
       </c>
     </row>
-    <row r="728" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="728" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A728" s="26" t="s">
         <v>410</v>
       </c>
@@ -47901,7 +47902,7 @@
         <v>51.677627559999998</v>
       </c>
     </row>
-    <row r="729" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="729" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A729" s="26" t="s">
         <v>411</v>
       </c>
@@ -47958,7 +47959,7 @@
         <v>52.926261901855469</v>
       </c>
     </row>
-    <row r="730" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="730" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A730" s="26" t="s">
         <v>405</v>
       </c>
@@ -48015,7 +48016,7 @@
         <v>53.843662261962891</v>
       </c>
     </row>
-    <row r="731" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="731" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A731" s="26" t="s">
         <v>406</v>
       </c>
@@ -48072,7 +48073,7 @@
         <v>51.080951690673828</v>
       </c>
     </row>
-    <row r="732" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="732" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A732" s="26" t="s">
         <v>407</v>
       </c>
@@ -48133,7 +48134,7 @@
         <v>53.596469879150391</v>
       </c>
     </row>
-    <row r="733" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="733" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A733" s="26" t="s">
         <v>408</v>
       </c>
@@ -48192,7 +48193,7 @@
         <v>52.244510650634766</v>
       </c>
     </row>
-    <row r="734" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="734" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A734" s="26" t="s">
         <v>409</v>
       </c>
@@ -48249,7 +48250,7 @@
         <v>53.721324920654297</v>
       </c>
     </row>
-    <row r="735" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="735" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A735" s="26" t="s">
         <v>413</v>
       </c>
@@ -48306,7 +48307,7 @@
         <v>46.318782806396484</v>
       </c>
     </row>
-    <row r="736" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="736" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A736" s="26" t="s">
         <v>414</v>
       </c>
@@ -48359,7 +48360,7 @@
         <v>45.403434753417969</v>
       </c>
     </row>
-    <row r="737" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="737" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A737" s="26" t="s">
         <v>415</v>
       </c>
@@ -48412,7 +48413,7 @@
         <v>46.059452056884766</v>
       </c>
     </row>
-    <row r="738" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="738" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A738" s="26" t="s">
         <v>416</v>
       </c>
@@ -48465,7 +48466,7 @@
         <v>46.731754302978516</v>
       </c>
     </row>
-    <row r="739" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="739" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A739" s="26" t="s">
         <v>417</v>
       </c>
@@ -48518,7 +48519,7 @@
         <v>46.118404388427734</v>
       </c>
     </row>
-    <row r="740" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="740" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A740" s="26" t="s">
         <v>412</v>
       </c>
@@ -48575,7 +48576,7 @@
         <v>46.6771240234375</v>
       </c>
     </row>
-    <row r="741" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="741" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A741" s="26" t="s">
         <v>423</v>
       </c>
@@ -48636,7 +48637,7 @@
         <v>49.871139526367188</v>
       </c>
     </row>
-    <row r="742" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="742" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A742" s="26" t="s">
         <v>418</v>
       </c>
@@ -48693,7 +48694,7 @@
         <v>50.569465637207031</v>
       </c>
     </row>
-    <row r="743" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="743" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A743" s="26" t="s">
         <v>419</v>
       </c>
@@ -48750,7 +48751,7 @@
         <v>50.005977630615234</v>
       </c>
     </row>
-    <row r="744" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="744" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A744" s="26" t="s">
         <v>420</v>
       </c>
@@ -48807,7 +48808,7 @@
         <v>49.163887023925781</v>
       </c>
     </row>
-    <row r="745" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="745" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A745" s="26" t="s">
         <v>421</v>
       </c>
@@ -48864,7 +48865,7 @@
         <v>49.992687225341797</v>
       </c>
     </row>
-    <row r="746" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="746" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A746" s="26" t="s">
         <v>422</v>
       </c>
@@ -48921,7 +48922,7 @@
         <v>48.314701080322266</v>
       </c>
     </row>
-    <row r="747" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="747" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A747" s="26" t="s">
         <v>424</v>
       </c>
@@ -48974,7 +48975,7 @@
         <v>48.704833984375</v>
       </c>
     </row>
-    <row r="748" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="748" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A748" s="26" t="s">
         <v>745</v>
       </c>
@@ -49027,7 +49028,7 @@
         <v>51.017574310302734</v>
       </c>
     </row>
-    <row r="749" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="749" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A749" s="26" t="s">
         <v>746</v>
       </c>
@@ -49076,7 +49077,7 @@
         <v>50.724063873291016</v>
       </c>
     </row>
-    <row r="750" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="750" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A750" s="26" t="s">
         <v>425</v>
       </c>
@@ -49135,7 +49136,7 @@
         <v>49.937225341796875</v>
       </c>
     </row>
-    <row r="751" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="751" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A751" s="26" t="s">
         <v>426</v>
       </c>
@@ -49192,7 +49193,7 @@
         <v>50.023799896240234</v>
       </c>
     </row>
-    <row r="752" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="752" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A752" s="26" t="s">
         <v>427</v>
       </c>
@@ -49249,7 +49250,7 @@
         <v>48.763805389404297</v>
       </c>
     </row>
-    <row r="753" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="753" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A753" s="26" t="s">
         <v>747</v>
       </c>
@@ -49302,7 +49303,7 @@
         <v>50.819957733154297</v>
       </c>
     </row>
-    <row r="754" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="754" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A754" s="26" t="s">
         <v>748</v>
       </c>
@@ -49355,7 +49356,7 @@
         <v>50.966148376464844</v>
       </c>
     </row>
-    <row r="755" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="755" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A755" s="26" t="s">
         <v>433</v>
       </c>
@@ -49412,7 +49413,7 @@
         <v>46.729179382324219</v>
       </c>
     </row>
-    <row r="756" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="756" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A756" s="26" t="s">
         <v>428</v>
       </c>
@@ -49469,7 +49470,7 @@
         <v>47.1026611328125</v>
       </c>
     </row>
-    <row r="757" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="757" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A757" s="26" t="s">
         <v>429</v>
       </c>
@@ -49526,7 +49527,7 @@
         <v>46.677555084228516</v>
       </c>
     </row>
-    <row r="758" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="758" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A758" s="26" t="s">
         <v>430</v>
       </c>
@@ -49583,7 +49584,7 @@
         <v>46.044048309326172</v>
       </c>
     </row>
-    <row r="759" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="759" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A759" s="26" t="s">
         <v>431</v>
       </c>
@@ -49640,7 +49641,7 @@
         <v>46.052345275878906</v>
       </c>
     </row>
-    <row r="760" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="760" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A760" s="26" t="s">
         <v>432</v>
       </c>
@@ -49697,7 +49698,7 @@
         <v>46.522415161132812</v>
       </c>
     </row>
-    <row r="761" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="761" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A761" s="26" t="s">
         <v>435</v>
       </c>
@@ -49752,7 +49753,7 @@
         <v>49.551082611083984</v>
       </c>
     </row>
-    <row r="762" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="762" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A762" s="26" t="s">
         <v>434</v>
       </c>
@@ -49805,7 +49806,7 @@
         <v>50.57196044921875</v>
       </c>
     </row>
-    <row r="763" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="763" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A763" s="26" t="s">
         <v>436</v>
       </c>
@@ -49860,7 +49861,7 @@
         <v>56.98085785</v>
       </c>
     </row>
-    <row r="764" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="764" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A764" s="26" t="s">
         <v>437</v>
       </c>
@@ -49917,7 +49918,7 @@
         <v>45.008270263671875</v>
       </c>
     </row>
-    <row r="765" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="765" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A765" s="26" t="s">
         <v>438</v>
       </c>
@@ -49974,7 +49975,7 @@
         <v>43.576835632324219</v>
       </c>
     </row>
-    <row r="766" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="766" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A766" s="26" t="s">
         <v>439</v>
       </c>
@@ -50031,7 +50032,7 @@
         <v>49.265117645263672</v>
       </c>
     </row>
-    <row r="767" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="767" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A767" s="26" t="s">
         <v>440</v>
       </c>
@@ -50088,7 +50089,7 @@
         <v>49.451702117919922</v>
       </c>
     </row>
-    <row r="768" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="768" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A768" s="26" t="s">
         <v>441</v>
       </c>
@@ -50145,7 +50146,7 @@
         <v>49.564117431640625</v>
       </c>
     </row>
-    <row r="769" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="769" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A769" s="26" t="s">
         <v>444</v>
       </c>
@@ -50202,7 +50203,7 @@
         <v>46.995590209960938</v>
       </c>
     </row>
-    <row r="770" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="770" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A770" s="26" t="s">
         <v>442</v>
       </c>
@@ -50261,7 +50262,7 @@
         <v>49.260360717773438</v>
       </c>
     </row>
-    <row r="771" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="771" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A771" s="26" t="s">
         <v>443</v>
       </c>
@@ -50318,7 +50319,7 @@
         <v>48.585121154785156</v>
       </c>
     </row>
-    <row r="772" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="772" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A772" s="26" t="s">
         <v>445</v>
       </c>
@@ -50373,7 +50374,7 @@
         <v>47.529808044433594</v>
       </c>
     </row>
-    <row r="773" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="773" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A773" s="26" t="s">
         <v>446</v>
       </c>
@@ -50428,7 +50429,7 @@
         <v>48.029220581054688</v>
       </c>
     </row>
-    <row r="774" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="774" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A774" s="26" t="s">
         <v>447</v>
       </c>
@@ -50483,7 +50484,7 @@
         <v>49.705001831054688</v>
       </c>
     </row>
-    <row r="775" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="775" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A775" s="26" t="s">
         <v>452</v>
       </c>
@@ -50536,7 +50537,7 @@
         <v>48.783817291259766</v>
       </c>
     </row>
-    <row r="776" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="776" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A776" s="26" t="s">
         <v>449</v>
       </c>
@@ -50593,7 +50594,7 @@
         <v>49.143836975097656</v>
       </c>
     </row>
-    <row r="777" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="777" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A777" s="26" t="s">
         <v>450</v>
       </c>
@@ -50650,7 +50651,7 @@
         <v>46.991909027099609</v>
       </c>
     </row>
-    <row r="778" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="778" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A778" s="26" t="s">
         <v>451</v>
       </c>
@@ -50707,7 +50708,7 @@
         <v>49.044326782226562</v>
       </c>
     </row>
-    <row r="779" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="779" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A779" s="26" t="s">
         <v>448</v>
       </c>
@@ -50764,7 +50765,7 @@
         <v>48.819026947021484</v>
       </c>
     </row>
-    <row r="780" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="780" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A780" s="26" t="s">
         <v>453</v>
       </c>
@@ -50817,7 +50818,7 @@
         <v>48.893424987792969</v>
       </c>
     </row>
-    <row r="781" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="781" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A781" s="26" t="s">
         <v>455</v>
       </c>
@@ -50874,7 +50875,7 @@
         <v>87.92230224609375</v>
       </c>
     </row>
-    <row r="782" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="782" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A782" s="26" t="s">
         <v>456</v>
       </c>
@@ -50931,7 +50932,7 @@
         <v>47.951923370361328</v>
       </c>
     </row>
-    <row r="783" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="783" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A783" s="26" t="s">
         <v>457</v>
       </c>
@@ -50988,7 +50989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="784" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A784" s="26" t="s">
         <v>458</v>
       </c>
@@ -51045,7 +51046,7 @@
         <v>49.620449066162109</v>
       </c>
     </row>
-    <row r="785" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="785" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A785" s="26" t="s">
         <v>750</v>
       </c>
@@ -51094,7 +51095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="786" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A786" s="26" t="s">
         <v>459</v>
       </c>
@@ -51149,7 +51150,7 @@
         <v>48.47438812</v>
       </c>
     </row>
-    <row r="787" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="787" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A787" s="26" t="s">
         <v>460</v>
       </c>
@@ -51204,7 +51205,7 @@
         <v>47.128639221191406</v>
       </c>
     </row>
-    <row r="788" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="788" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A788" s="26" t="s">
         <v>454</v>
       </c>
@@ -51261,7 +51262,7 @@
         <v>48.751937866210938</v>
       </c>
     </row>
-    <row r="789" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="789" spans="1:27" ht="15" customHeight="1">
       <c r="A789" s="28" t="s">
         <v>463</v>
       </c>
@@ -51316,7 +51317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="790" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A790" s="26" t="s">
         <v>464</v>
       </c>
@@ -51373,7 +51374,7 @@
         <v>97.826202392578125</v>
       </c>
     </row>
-    <row r="791" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="791" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A791" s="26" t="s">
         <v>465</v>
       </c>
@@ -51430,7 +51431,7 @@
         <v>48.948459625244141</v>
       </c>
     </row>
-    <row r="792" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="792" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A792" s="26" t="s">
         <v>466</v>
       </c>
@@ -51489,7 +51490,7 @@
         <v>48.426162719726562</v>
       </c>
     </row>
-    <row r="793" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="793" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A793" s="26" t="s">
         <v>461</v>
       </c>
@@ -51546,7 +51547,7 @@
         <v>48.872230529785156</v>
       </c>
     </row>
-    <row r="794" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="794" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A794" s="26" t="s">
         <v>462</v>
       </c>
@@ -51603,7 +51604,7 @@
         <v>48.912967681884766</v>
       </c>
     </row>
-    <row r="795" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="795" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A795" s="26" t="s">
         <v>467</v>
       </c>
@@ -51662,7 +51663,7 @@
         <v>47.055023193359375</v>
       </c>
     </row>
-    <row r="796" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="796" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A796" s="26" t="s">
         <v>468</v>
       </c>
@@ -51723,7 +51724,7 @@
         <v>46.296733856201172</v>
       </c>
     </row>
-    <row r="797" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="797" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A797" s="26" t="s">
         <v>469</v>
       </c>
@@ -51780,7 +51781,7 @@
         <v>48.180347442626953</v>
       </c>
     </row>
-    <row r="798" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="798" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A798" s="26" t="s">
         <v>470</v>
       </c>
@@ -51841,7 +51842,7 @@
         <v>47.225124359130859</v>
       </c>
     </row>
-    <row r="799" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="799" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A799" s="26" t="s">
         <v>471</v>
       </c>
@@ -51900,7 +51901,7 @@
         <v>46.986869812011719</v>
       </c>
     </row>
-    <row r="800" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="800" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A800" s="26" t="s">
         <v>472</v>
       </c>
@@ -51957,7 +51958,7 @@
         <v>46.816238403320312</v>
       </c>
     </row>
-    <row r="801" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="801" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A801" s="26" t="s">
         <v>473</v>
       </c>
@@ -52014,7 +52015,7 @@
         <v>48.869956970214844</v>
       </c>
     </row>
-    <row r="802" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="802" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A802" s="26" t="s">
         <v>474</v>
       </c>
@@ -52075,7 +52076,7 @@
         <v>47.639114379882812</v>
       </c>
     </row>
-    <row r="803" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="803" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A803" s="26" t="s">
         <v>475</v>
       </c>
@@ -52134,7 +52135,7 @@
         <v>47.296329498291016</v>
       </c>
     </row>
-    <row r="804" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="804" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A804" s="26" t="s">
         <v>476</v>
       </c>
@@ -52191,7 +52192,7 @@
         <v>48.371627807617188</v>
       </c>
     </row>
-    <row r="805" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="805" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A805" s="26" t="s">
         <v>477</v>
       </c>
@@ -52248,7 +52249,7 @@
         <v>49.542675018310547</v>
       </c>
     </row>
-    <row r="806" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="806" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A806" s="26" t="s">
         <v>478</v>
       </c>
@@ -52305,7 +52306,7 @@
         <v>47.595314025878906</v>
       </c>
     </row>
-    <row r="807" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="807" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A807" s="26" t="s">
         <v>479</v>
       </c>
@@ -52362,7 +52363,7 @@
         <v>46.852527618408203</v>
       </c>
     </row>
-    <row r="808" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="808" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A808" s="26" t="s">
         <v>480</v>
       </c>
@@ -52419,7 +52420,7 @@
         <v>46.911426544189453</v>
       </c>
     </row>
-    <row r="809" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="809" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A809" s="26" t="s">
         <v>481</v>
       </c>
@@ -52476,7 +52477,7 @@
         <v>43.36279296875</v>
       </c>
     </row>
-    <row r="810" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="810" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A810" s="26" t="s">
         <v>482</v>
       </c>
@@ -52533,7 +52534,7 @@
         <v>48.403995513916016</v>
       </c>
     </row>
-    <row r="811" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="811" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A811" s="26" t="s">
         <v>483</v>
       </c>
@@ -52590,7 +52591,7 @@
         <v>48.123992919921875</v>
       </c>
     </row>
-    <row r="812" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="812" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A812" s="26" t="s">
         <v>484</v>
       </c>
@@ -52647,7 +52648,7 @@
         <v>47.440841674804688</v>
       </c>
     </row>
-    <row r="813" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="813" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A813" s="26" t="s">
         <v>488</v>
       </c>
@@ -52704,7 +52705,7 @@
         <v>49.2791748046875</v>
       </c>
     </row>
-    <row r="814" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="814" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A814" s="26" t="s">
         <v>486</v>
       </c>
@@ -52761,7 +52762,7 @@
         <v>48.718448638916016</v>
       </c>
     </row>
-    <row r="815" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="815" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A815" s="26" t="s">
         <v>490</v>
       </c>
@@ -52814,7 +52815,7 @@
         <v>48.558864593505859</v>
       </c>
     </row>
-    <row r="816" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="816" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A816" s="26" t="s">
         <v>485</v>
       </c>
@@ -52871,7 +52872,7 @@
         <v>49.714954376220703</v>
       </c>
     </row>
-    <row r="817" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="817" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A817" s="26" t="s">
         <v>487</v>
       </c>
@@ -52928,7 +52929,7 @@
         <v>49.294193267822266</v>
       </c>
     </row>
-    <row r="818" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="818" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A818" s="26" t="s">
         <v>489</v>
       </c>
@@ -52985,7 +52986,7 @@
         <v>48.853374481201172</v>
       </c>
     </row>
-    <row r="819" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="819" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A819" s="26" t="s">
         <v>491</v>
       </c>
@@ -53042,7 +53043,7 @@
         <v>48.90570068359375</v>
       </c>
     </row>
-    <row r="820" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="820" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A820" s="26" t="s">
         <v>492</v>
       </c>
@@ -53099,7 +53100,7 @@
         <v>48.783832550048828</v>
       </c>
     </row>
-    <row r="821" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="821" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A821" s="26" t="s">
         <v>493</v>
       </c>
@@ -53156,7 +53157,7 @@
         <v>49.030220031738281</v>
       </c>
     </row>
-    <row r="822" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="822" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A822" s="26" t="s">
         <v>494</v>
       </c>
@@ -53213,7 +53214,7 @@
         <v>49.355293273925781</v>
       </c>
     </row>
-    <row r="823" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="823" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A823" s="26" t="s">
         <v>495</v>
       </c>
@@ -53270,7 +53271,7 @@
         <v>48.015159606933594</v>
       </c>
     </row>
-    <row r="824" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="824" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A824" s="26" t="s">
         <v>496</v>
       </c>
@@ -53331,7 +53332,7 @@
         <v>50.119232177734375</v>
       </c>
     </row>
-    <row r="825" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="825" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A825" s="26" t="s">
         <v>497</v>
       </c>
@@ -53388,7 +53389,7 @@
         <v>45.900760650634766</v>
       </c>
     </row>
-    <row r="826" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="826" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A826" s="26" t="s">
         <v>498</v>
       </c>
@@ -53445,7 +53446,7 @@
         <v>45.344173431396484</v>
       </c>
     </row>
-    <row r="827" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="827" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A827" s="26" t="s">
         <v>499</v>
       </c>
@@ -53502,7 +53503,7 @@
         <v>47.070499420166016</v>
       </c>
     </row>
-    <row r="828" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="828" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A828" s="26" t="s">
         <v>500</v>
       </c>
@@ -53555,7 +53556,7 @@
         <v>45.962955474853516</v>
       </c>
     </row>
-    <row r="829" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="829" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A829" s="26" t="s">
         <v>501</v>
       </c>
@@ -53608,7 +53609,7 @@
         <v>46.703392028808594</v>
       </c>
     </row>
-    <row r="830" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="830" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A830" s="26" t="s">
         <v>502</v>
       </c>
@@ -53665,7 +53666,7 @@
         <v>46.578365325927734</v>
       </c>
     </row>
-    <row r="831" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="831" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A831" s="26" t="s">
         <v>503</v>
       </c>
@@ -53724,7 +53725,7 @@
         <v>44.096504211425781</v>
       </c>
     </row>
-    <row r="832" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="832" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A832" s="26" t="s">
         <v>504</v>
       </c>
@@ -53781,7 +53782,7 @@
         <v>44.949844360351562</v>
       </c>
     </row>
-    <row r="833" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="833" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A833" s="26" t="s">
         <v>505</v>
       </c>
@@ -53834,7 +53835,7 @@
         <v>44.464786529541016</v>
       </c>
     </row>
-    <row r="834" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="834" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A834" s="26" t="s">
         <v>751</v>
       </c>
@@ -53887,7 +53888,7 @@
         <v>44.781131744384766</v>
       </c>
     </row>
-    <row r="835" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="835" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A835" s="26" t="s">
         <v>506</v>
       </c>
@@ -53944,7 +53945,7 @@
         <v>50.043720245361328</v>
       </c>
     </row>
-    <row r="836" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="836" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A836" s="26" t="s">
         <v>507</v>
       </c>
@@ -54001,7 +54002,7 @@
         <v>49.443557739257812</v>
       </c>
     </row>
-    <row r="837" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="837" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A837" s="26" t="s">
         <v>508</v>
       </c>
@@ -54054,7 +54055,7 @@
         <v>49.555194854736328</v>
       </c>
     </row>
-    <row r="838" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="838" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A838" s="26" t="s">
         <v>509</v>
       </c>
@@ -54107,7 +54108,7 @@
         <v>49.711639404296875</v>
       </c>
     </row>
-    <row r="839" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="839" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A839" s="26" t="s">
         <v>510</v>
       </c>
@@ -54160,7 +54161,7 @@
         <v>49.784774780273438</v>
       </c>
     </row>
-    <row r="840" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="840" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A840" s="26" t="s">
         <v>511</v>
       </c>
@@ -54213,7 +54214,7 @@
         <v>50.074428558349609</v>
       </c>
     </row>
-    <row r="841" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="841" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A841" s="26" t="s">
         <v>512</v>
       </c>
@@ -54270,7 +54271,7 @@
         <v>48.005973815917969</v>
       </c>
     </row>
-    <row r="842" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="842" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A842" s="26" t="s">
         <v>515</v>
       </c>
@@ -54329,7 +54330,7 @@
         <v>48.7952880859375</v>
       </c>
     </row>
-    <row r="843" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="843" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A843" s="26" t="s">
         <v>513</v>
       </c>
@@ -54386,7 +54387,7 @@
         <v>49.255126953125</v>
       </c>
     </row>
-    <row r="844" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="844" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A844" s="26" t="s">
         <v>514</v>
       </c>
@@ -54443,7 +54444,7 @@
         <v>49.537654876708984</v>
       </c>
     </row>
-    <row r="845" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="845" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A845" s="26" t="s">
         <v>516</v>
       </c>
@@ -54500,7 +54501,7 @@
         <v>47.319087982177734</v>
       </c>
     </row>
-    <row r="846" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="846" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A846" s="26" t="s">
         <v>517</v>
       </c>
@@ -54557,7 +54558,7 @@
         <v>46.155834197998047</v>
       </c>
     </row>
-    <row r="847" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="847" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A847" s="26" t="s">
         <v>709</v>
       </c>
@@ -54614,7 +54615,7 @@
         <v>48.023929595947266</v>
       </c>
     </row>
-    <row r="848" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="848" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A848" s="26" t="s">
         <v>522</v>
       </c>
@@ -54671,7 +54672,7 @@
         <v>47.555675506591797</v>
       </c>
     </row>
-    <row r="849" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="849" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A849" s="26" t="s">
         <v>519</v>
       </c>
@@ -54732,7 +54733,7 @@
         <v>48.115947723388672</v>
       </c>
     </row>
-    <row r="850" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="850" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A850" s="26" t="s">
         <v>520</v>
       </c>
@@ -54789,7 +54790,7 @@
         <v>47.937004089355469</v>
       </c>
     </row>
-    <row r="851" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="851" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A851" s="26" t="s">
         <v>518</v>
       </c>
@@ -54842,7 +54843,7 @@
         <v>47.745338439941406</v>
       </c>
     </row>
-    <row r="852" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="852" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A852" s="26" t="s">
         <v>523</v>
       </c>
@@ -54899,7 +54900,7 @@
         <v>46.803779602050781</v>
       </c>
     </row>
-    <row r="853" spans="1:27" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="853" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A853" s="26" t="s">
         <v>521</v>
       </c>
@@ -54991,13 +54992,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA853">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="WM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA855"/>
   <conditionalFormatting sqref="H336:K395 H397:K460">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>"&lt;.001"</formula>

--- a/analyses/data/Summer 2015 Tree Traits.xlsx
+++ b/analyses/data/Summer 2015 Tree Traits.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="28220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2685,12 +2685,6 @@
     <t>VIBLAN09_SH</t>
   </si>
   <si>
-    <t>%N</t>
-  </si>
-  <si>
-    <t>%C</t>
-  </si>
-  <si>
     <t>Small loose piece included in stem weight, which was .120</t>
   </si>
   <si>
@@ -3784,6 +3778,12 @@
   </si>
   <si>
     <t>Mean number of stomata per image view.</t>
+  </si>
+  <si>
+    <t>pctN</t>
+  </si>
+  <si>
+    <t>pctC</t>
   </si>
 </sst>
 </file>
@@ -7947,7 +7947,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -8502,7 +8502,7 @@
   <dimension ref="A1:D1007"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -8517,31 +8517,31 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="30" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B6" s="4"/>
     </row>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B8" s="5"/>
     </row>
@@ -8561,13 +8561,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>889</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D12" s="30"/>
     </row>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D13" s="30"/>
     </row>
@@ -8603,7 +8603,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -8613,7 +8613,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -8623,7 +8623,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -8633,7 +8633,7 @@
         <v>228</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -8643,7 +8643,7 @@
         <v>229</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -8653,7 +8653,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -8663,7 +8663,7 @@
         <v>231</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -8673,7 +8673,7 @@
         <v>232</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -8683,7 +8683,7 @@
         <v>233</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -8693,10 +8693,10 @@
         <v>234</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D23" s="30"/>
     </row>
@@ -8705,7 +8705,7 @@
         <v>235</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -8715,7 +8715,7 @@
         <v>236</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -8725,10 +8725,10 @@
         <v>237</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D26" s="30"/>
     </row>
@@ -8737,10 +8737,10 @@
         <v>238</v>
       </c>
       <c r="B27" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>898</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>900</v>
       </c>
       <c r="D27" s="30"/>
     </row>
@@ -8749,10 +8749,10 @@
         <v>239</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D28" s="30"/>
     </row>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D30" s="30"/>
     </row>
@@ -8784,49 +8784,49 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>905</v>
-      </c>
       <c r="C32" s="30" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>905</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>907</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="30" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>1246</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>1248</v>
-      </c>
       <c r="C34" s="30" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D35" s="30"/>
     </row>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -8852,10 +8852,10 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>889</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>891</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -8865,87 +8865,87 @@
         <v>183</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="30" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="30" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="30" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="30" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="30" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="30" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="30" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="30" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="30" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="30" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
@@ -12791,10 +12791,10 @@
   <dimension ref="A1:AC855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -12852,10 +12852,10 @@
         <v>234</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>235</v>
@@ -12873,10 +12873,10 @@
         <v>239</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>240</v>
@@ -12888,16 +12888,16 @@
         <v>242</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>885</v>
+        <v>1250</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>886</v>
+        <v>1251</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
@@ -13223,7 +13223,7 @@
     </row>
     <row r="8" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>6</v>
@@ -13246,16 +13246,10 @@
       <c r="S8" s="14">
         <v>5.5</v>
       </c>
-      <c r="Z8" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="9" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>6</v>
@@ -13275,16 +13269,10 @@
       <c r="R9" s="46">
         <v>2.8</v>
       </c>
-      <c r="Z9" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA9" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="10" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>6</v>
@@ -13304,16 +13292,10 @@
       <c r="R10" s="46">
         <v>3.3</v>
       </c>
-      <c r="Z10" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="11" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>6</v>
@@ -13333,12 +13315,6 @@
       <c r="R11" s="46">
         <v>3.6</v>
       </c>
-      <c r="Z11" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="12" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -13394,7 +13370,7 @@
         <v>5.7</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="Z12" s="14">
         <v>2.2676509736137991</v>
@@ -13730,12 +13706,8 @@
       <c r="U18">
         <v>21.9</v>
       </c>
-      <c r="Z18" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
     </row>
@@ -13766,14 +13738,10 @@
         <v>4.3</v>
       </c>
       <c r="W19" t="s">
-        <v>1169</v>
-      </c>
-      <c r="Z19" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
     </row>
@@ -13803,12 +13771,8 @@
       <c r="R20" s="47">
         <v>8</v>
       </c>
-      <c r="Z20" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
     </row>
@@ -13838,12 +13802,8 @@
       <c r="R21" s="47">
         <v>9.5</v>
       </c>
-      <c r="Z21" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
     </row>
@@ -13882,12 +13842,8 @@
       <c r="U22">
         <v>13.1</v>
       </c>
-      <c r="Z22" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
     </row>
@@ -13917,12 +13873,8 @@
       <c r="R23" s="47">
         <v>13</v>
       </c>
-      <c r="Z23" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
@@ -13965,13 +13917,7 @@
         <v>13.5</v>
       </c>
       <c r="W24" s="14" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Z24" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" s="14" t="e">
-        <v>#N/A</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
@@ -14460,12 +14406,8 @@
       <c r="S33">
         <v>3.4</v>
       </c>
-      <c r="Z33" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA33" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
@@ -14550,12 +14492,8 @@
       <c r="R35" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z35" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA35" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
@@ -14588,12 +14526,8 @@
       <c r="S36" t="s">
         <v>295</v>
       </c>
-      <c r="Z36" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA36" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
     </row>
@@ -14623,12 +14557,8 @@
       <c r="R37" s="47">
         <v>1.2</v>
       </c>
-      <c r="Z37" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA37" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
     </row>
@@ -14658,12 +14588,8 @@
       <c r="R38" s="47">
         <v>3.4</v>
       </c>
-      <c r="Z38" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA38" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
       <c r="AC38" s="14"/>
     </row>
@@ -14702,12 +14628,8 @@
       <c r="U39">
         <v>2</v>
       </c>
-      <c r="Z39" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA39" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
       <c r="AC39" s="14"/>
     </row>
@@ -14740,12 +14662,8 @@
       <c r="S40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z40" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA40" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
       <c r="AC40" s="14"/>
     </row>
@@ -14775,18 +14693,14 @@
       <c r="R41" s="47">
         <v>3.9</v>
       </c>
-      <c r="Z41" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA41" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
       <c r="AC41" s="14"/>
     </row>
     <row r="42" spans="1:29" ht="15" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>6</v>
@@ -14804,18 +14718,14 @@
       <c r="S42">
         <v>3.7</v>
       </c>
-      <c r="Z42" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA42" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
       <c r="AC42" s="14"/>
     </row>
     <row r="43" spans="1:29" ht="15" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
@@ -14839,12 +14749,8 @@
       <c r="T43">
         <v>3.4</v>
       </c>
-      <c r="Z43" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA43" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
     </row>
@@ -14890,7 +14796,7 @@
         <v>3.7</v>
       </c>
       <c r="W44" s="14" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="Z44" s="14">
         <v>3.5559509731869667</v>
@@ -14947,7 +14853,7 @@
         <v>295</v>
       </c>
       <c r="W45" s="14" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="Z45" s="14">
         <v>3.0541946560113082</v>
@@ -15004,7 +14910,7 @@
         <v>3.7</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="Z46" s="14">
         <v>3.6030771668190376</v>
@@ -15122,7 +15028,7 @@
         <v>6</v>
       </c>
       <c r="W48" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Z48" s="14">
         <v>3.721390132519462</v>
@@ -15185,7 +15091,7 @@
         <v>12.1</v>
       </c>
       <c r="W49" s="14" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Z49" s="14">
         <v>3.4002146083843492</v>
@@ -15277,12 +15183,8 @@
       <c r="R51" s="47">
         <v>3.9</v>
       </c>
-      <c r="Z51" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA51" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
       <c r="AC51" s="14"/>
     </row>
@@ -15562,7 +15464,7 @@
         <v>1.4</v>
       </c>
       <c r="V56" s="52" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Z56" s="14">
         <v>2.5330268670579201</v>
@@ -15628,7 +15530,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V57" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="Z57" s="14">
         <v>2.2139195313143829</v>
@@ -15645,7 +15547,7 @@
     </row>
     <row r="58" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="15" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>6</v>
@@ -15667,13 +15569,7 @@
         <v>1.5</v>
       </c>
       <c r="U58" s="52" t="s">
-        <v>1206</v>
-      </c>
-      <c r="Z58" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA58" s="14" t="e">
-        <v>#N/A</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="59" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
@@ -15784,7 +15680,7 @@
         <v>2.7</v>
       </c>
       <c r="V60" s="52" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="Z60" s="14">
         <v>2.4591041250874426</v>
@@ -16011,7 +15907,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="W64" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Z64" s="14">
         <v>2.3776111555126334</v>
@@ -16470,7 +16366,7 @@
         <v>10</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="Z72" s="14">
         <v>2.4269189949913277</v>
@@ -16561,12 +16457,8 @@
       <c r="R74" s="47">
         <v>30.2</v>
       </c>
-      <c r="Z74" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA74" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
       <c r="AB74" s="14"/>
       <c r="AC74" s="14"/>
     </row>
@@ -16690,7 +16582,7 @@
     </row>
     <row r="77" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="15" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>6</v>
@@ -16707,12 +16599,6 @@
       <c r="R77" s="46">
         <v>39.9</v>
       </c>
-      <c r="Z77" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA77" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="78" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="15" t="s">
@@ -16881,7 +16767,7 @@
         <v>15.7</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Z80" s="14">
         <v>2.6747453376130559</v>
@@ -16948,7 +16834,7 @@
         <v>14.9</v>
       </c>
       <c r="V81" s="52" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="W81" s="52"/>
       <c r="Z81" s="14">
@@ -17127,12 +17013,8 @@
       <c r="S84" s="52">
         <v>1.7</v>
       </c>
-      <c r="Z84" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA84" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="14"/>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
     </row>
@@ -17157,12 +17039,8 @@
       <c r="R85" s="48">
         <v>3.1</v>
       </c>
-      <c r="Z85" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA85" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="14"/>
       <c r="AB85" s="14"/>
       <c r="AC85" s="14"/>
     </row>
@@ -17194,18 +17072,14 @@
       <c r="R86" s="48">
         <v>7.9</v>
       </c>
-      <c r="Z86" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA86" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
       <c r="AB86" s="14"/>
       <c r="AC86" s="14"/>
     </row>
     <row r="87" spans="1:29" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="17" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>6</v>
@@ -17237,14 +17111,10 @@
         <v>6.2</v>
       </c>
       <c r="W87" s="19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="Z87" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA87" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+        <v>1180</v>
+      </c>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="14"/>
       <c r="AB87" s="14"/>
       <c r="AC87" s="14"/>
     </row>
@@ -17329,7 +17199,7 @@
         <v>295</v>
       </c>
       <c r="W89" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Z89" s="14">
         <v>3.0569148073964114</v>
@@ -17624,7 +17494,7 @@
     </row>
     <row r="95" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="15" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>6</v>
@@ -17640,16 +17510,10 @@
         <v>295</v>
       </c>
       <c r="U95" s="52"/>
-      <c r="Z95" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA95" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="96" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="15" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>6</v>
@@ -17673,12 +17537,6 @@
       <c r="V96" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="Z96" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA96" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="97" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="15" t="s">
@@ -17722,13 +17580,7 @@
         <v>1</v>
       </c>
       <c r="W97" s="14" t="s">
-        <v>1129</v>
-      </c>
-      <c r="Z97" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA97" s="14" t="e">
-        <v>#N/A</v>
+        <v>1127</v>
       </c>
       <c r="AB97" s="14">
         <v>19.224399999999999</v>
@@ -17782,16 +17634,10 @@
         <v>1.2</v>
       </c>
       <c r="T98" s="14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="W98" s="14" t="s">
-        <v>1132</v>
-      </c>
-      <c r="Z98" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA98" s="14" t="e">
-        <v>#N/A</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="99" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
@@ -17836,7 +17682,7 @@
         <v>295</v>
       </c>
       <c r="W99" s="14" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="Z99" s="14">
         <v>2.1353515890040673</v>
@@ -17893,7 +17739,7 @@
         <v>1</v>
       </c>
       <c r="W100" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="Z100" s="14">
         <v>2.7758986644855876</v>
@@ -17944,7 +17790,7 @@
         <v>3.8</v>
       </c>
       <c r="W101" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="Z101" s="14">
         <v>2.7681290235702498</v>
@@ -18013,7 +17859,7 @@
         <v>295</v>
       </c>
       <c r="W102" s="52" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Z102" s="14">
         <v>2.9343931452285306</v>
@@ -18082,7 +17928,7 @@
         <v>1.4</v>
       </c>
       <c r="W103" s="52" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="Z103" s="14">
         <v>2.8997708259499255</v>
@@ -18160,12 +18006,8 @@
       <c r="S105" s="14">
         <v>2.8</v>
       </c>
-      <c r="Z105" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA105" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z105" s="14"/>
+      <c r="AA105" s="14"/>
       <c r="AB105" s="14"/>
       <c r="AC105" s="14"/>
     </row>
@@ -18196,14 +18038,10 @@
         <v>295</v>
       </c>
       <c r="W106" t="s">
-        <v>1134</v>
-      </c>
-      <c r="Z106" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA106" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+        <v>1132</v>
+      </c>
+      <c r="Z106" s="14"/>
+      <c r="AA106" s="14"/>
       <c r="AB106" s="14"/>
       <c r="AC106" s="14"/>
     </row>
@@ -18237,14 +18075,10 @@
         <v>295</v>
       </c>
       <c r="W107" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Z107" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA107" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="Z107" s="14"/>
+      <c r="AA107" s="14"/>
       <c r="AB107" s="14"/>
       <c r="AC107" s="14"/>
     </row>
@@ -18275,14 +18109,10 @@
         <v>295</v>
       </c>
       <c r="W108" t="s">
-        <v>1139</v>
-      </c>
-      <c r="Z108" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA108" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+        <v>1137</v>
+      </c>
+      <c r="Z108" s="14"/>
+      <c r="AA108" s="14"/>
       <c r="AB108" s="14"/>
       <c r="AC108" s="14"/>
     </row>
@@ -18315,12 +18145,8 @@
       <c r="S109" t="s">
         <v>295</v>
       </c>
-      <c r="Z109" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA109" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z109" s="14"/>
+      <c r="AA109" s="14"/>
       <c r="AB109" s="14"/>
       <c r="AC109" s="14"/>
     </row>
@@ -18350,12 +18176,8 @@
       <c r="R110" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z110" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA110" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z110" s="14"/>
+      <c r="AA110" s="14"/>
       <c r="AB110" s="14"/>
       <c r="AC110" s="14"/>
     </row>
@@ -18402,12 +18224,8 @@
       <c r="W111"/>
       <c r="X111"/>
       <c r="Y111"/>
-      <c r="Z111" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA111" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z111" s="14"/>
+      <c r="AA111" s="14"/>
       <c r="AB111" s="14"/>
       <c r="AC111" s="14"/>
     </row>
@@ -18454,12 +18272,8 @@
       <c r="W112"/>
       <c r="X112"/>
       <c r="Y112"/>
-      <c r="Z112" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA112" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z112" s="14"/>
+      <c r="AA112" s="14"/>
       <c r="AB112" s="14"/>
       <c r="AC112" s="14"/>
     </row>
@@ -18510,12 +18324,8 @@
       <c r="W113"/>
       <c r="X113"/>
       <c r="Y113"/>
-      <c r="Z113" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA113" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z113" s="14"/>
+      <c r="AA113" s="14"/>
       <c r="AB113" s="14"/>
       <c r="AC113" s="14"/>
     </row>
@@ -18862,7 +18672,7 @@
     </row>
     <row r="120" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="15" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>6</v>
@@ -18882,16 +18692,10 @@
       <c r="R120" s="46">
         <v>4.8</v>
       </c>
-      <c r="Z120" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA120" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="121" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="15" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>6</v>
@@ -18908,16 +18712,10 @@
       <c r="R121" s="46">
         <v>29.1</v>
       </c>
-      <c r="Z121" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA121" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="122" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="15" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>6</v>
@@ -18937,16 +18735,10 @@
       <c r="S122" s="14">
         <v>11.8</v>
       </c>
-      <c r="Z122" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA122" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="123" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="15" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>6</v>
@@ -18963,12 +18755,6 @@
       <c r="R123" s="46">
         <v>20</v>
       </c>
-      <c r="Z123" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA123" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="124" spans="1:29" ht="15" customHeight="1">
       <c r="A124" s="6" t="s">
@@ -18997,14 +18783,10 @@
         <v>2.8</v>
       </c>
       <c r="W124" t="s">
-        <v>1148</v>
-      </c>
-      <c r="Z124" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA124" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="Z124" s="14"/>
+      <c r="AA124" s="14"/>
       <c r="AB124" s="14"/>
       <c r="AC124" s="14"/>
     </row>
@@ -19199,12 +18981,6 @@
       <c r="K128" s="14">
         <v>0.8</v>
       </c>
-      <c r="Z128" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA128" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="129" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="15" t="s">
@@ -19706,7 +19482,7 @@
     </row>
     <row r="139" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="15" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>6</v>
@@ -19726,12 +19502,6 @@
       <c r="S139" s="14">
         <v>16.2</v>
       </c>
-      <c r="Z139" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA139" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="140" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="15" t="s">
@@ -20065,7 +19835,7 @@
     </row>
     <row r="146" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="15" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B146" s="15" t="s">
         <v>6</v>
@@ -20080,16 +19850,10 @@
       <c r="R146" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="Z146" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA146" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="147" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="15" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>6</v>
@@ -20107,16 +19871,10 @@
       <c r="S147" s="14">
         <v>1</v>
       </c>
-      <c r="Z147" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA147" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="148" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="15" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B148" s="15" t="s">
         <v>6</v>
@@ -20134,16 +19892,10 @@
       <c r="S148" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z148" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA148" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="149" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="15" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B149" s="15" t="s">
         <v>6</v>
@@ -20158,12 +19910,6 @@
       <c r="R149" s="46">
         <v>2</v>
       </c>
-      <c r="Z149" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA149" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="150" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="15" t="s">
@@ -20719,12 +20465,8 @@
       <c r="R160" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="Z160" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA160" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z160" s="14"/>
+      <c r="AA160" s="14"/>
       <c r="AB160" s="14"/>
       <c r="AC160" s="14"/>
     </row>
@@ -20895,7 +20637,7 @@
     </row>
     <row r="164" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="15" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B164" s="15" t="s">
         <v>6</v>
@@ -20914,12 +20656,6 @@
       </c>
       <c r="R164" s="46" t="s">
         <v>295</v>
-      </c>
-      <c r="Z164" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA164" s="14" t="e">
-        <v>#N/A</v>
       </c>
     </row>
     <row r="165" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
@@ -21264,16 +21000,12 @@
       <c r="U171"/>
       <c r="V171"/>
       <c r="W171" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="X171"/>
       <c r="Y171"/>
-      <c r="Z171" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA171" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z171" s="14"/>
+      <c r="AA171" s="14"/>
       <c r="AB171" s="14"/>
       <c r="AC171" s="14"/>
     </row>
@@ -21496,12 +21228,8 @@
       <c r="W175"/>
       <c r="X175"/>
       <c r="Y175"/>
-      <c r="Z175" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA175" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z175" s="14"/>
+      <c r="AA175" s="14"/>
       <c r="AB175" s="14"/>
       <c r="AC175" s="14"/>
     </row>
@@ -21622,7 +21350,7 @@
     </row>
     <row r="178" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="15" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B178" s="15" t="s">
         <v>6</v>
@@ -21637,12 +21365,6 @@
       <c r="R178" s="46">
         <v>3.6</v>
       </c>
-      <c r="Z178" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA178" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="179" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="15" t="s">
@@ -21689,7 +21411,7 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="Z179" s="14">
         <v>2.7659643323340179</v>
@@ -21730,12 +21452,8 @@
       <c r="R180" s="47">
         <v>4</v>
       </c>
-      <c r="Z180" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA180" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z180" s="14"/>
+      <c r="AA180" s="14"/>
       <c r="AB180" s="14"/>
       <c r="AC180" s="14"/>
     </row>
@@ -21787,7 +21505,7 @@
         <v>1.3</v>
       </c>
       <c r="W181" s="14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="Z181" s="14">
         <v>3.6564743108682816</v>
@@ -21838,7 +21556,7 @@
         <v>7.3</v>
       </c>
       <c r="W182" s="14" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Z182" s="14">
         <v>2.5677719626371145</v>
@@ -21949,7 +21667,7 @@
         <v>1</v>
       </c>
       <c r="W184" s="14" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="Z184" s="14">
         <v>3.092040248344706</v>
@@ -21990,12 +21708,8 @@
       <c r="R185" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z185" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA185" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z185" s="14"/>
+      <c r="AA185" s="14"/>
       <c r="AB185" s="14"/>
       <c r="AC185" s="14"/>
     </row>
@@ -22025,12 +21739,8 @@
       <c r="R186" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z186" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA186" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z186" s="14"/>
+      <c r="AA186" s="14"/>
       <c r="AB186" s="14"/>
       <c r="AC186" s="14"/>
     </row>
@@ -22099,7 +21809,7 @@
     </row>
     <row r="188" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="15" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B188" s="15" t="s">
         <v>6</v>
@@ -22114,12 +21824,6 @@
       <c r="R188" s="46">
         <v>7.25</v>
       </c>
-      <c r="Z188" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA188" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="189" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="15" t="s">
@@ -22166,7 +21870,7 @@
         <v>3.5</v>
       </c>
       <c r="W189" s="14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="Z189" s="14">
         <v>2.3047668185819008</v>
@@ -22223,7 +21927,7 @@
         <v>1.125</v>
       </c>
       <c r="W190" s="53" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Z190" s="14">
         <v>3.1004818811887112</v>
@@ -22520,7 +22224,7 @@
         <v>295</v>
       </c>
       <c r="W196" s="14" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="Z196" s="14">
         <v>2.237402695080899</v>
@@ -22748,7 +22452,7 @@
     </row>
     <row r="202" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="15" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B202" s="15" t="s">
         <v>6</v>
@@ -22775,16 +22479,10 @@
       <c r="V202" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="Z202" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA202" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="203" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="15" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B203" s="15" t="s">
         <v>6</v>
@@ -22801,12 +22499,6 @@
       </c>
       <c r="U203" s="52"/>
       <c r="V203" s="52"/>
-      <c r="Z203" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA203" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="204" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="15" t="s">
@@ -22853,10 +22545,10 @@
         <v>1</v>
       </c>
       <c r="T204" s="14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="W204" s="14" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="Z204" s="14">
         <v>4.5233978883314556</v>
@@ -22913,7 +22605,7 @@
         <v>295</v>
       </c>
       <c r="W205" s="14" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="Z205" s="14">
         <v>4.3543997852511627</v>
@@ -23039,7 +22731,7 @@
         <v>295</v>
       </c>
       <c r="W207" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="Z207" s="14">
         <v>4.3526086847945926</v>
@@ -23105,7 +22797,7 @@
         <v>4</v>
       </c>
       <c r="V208" s="52" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="Z208" s="14">
         <v>4.267272438683654</v>
@@ -23164,7 +22856,7 @@
     </row>
     <row r="210" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="15" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>6</v>
@@ -23182,16 +22874,10 @@
       <c r="R210" s="46">
         <v>1.3</v>
       </c>
-      <c r="Z210" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA210" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="211" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A211" s="15" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>6</v>
@@ -23209,16 +22895,10 @@
       <c r="R211" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="Z211" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA211" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="212" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="15" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>6</v>
@@ -23239,12 +22919,6 @@
       <c r="S212" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="Z212" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA212" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="213" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="15" t="s">
@@ -23623,7 +23297,7 @@
     </row>
     <row r="220" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="15" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>6</v>
@@ -23638,12 +23312,6 @@
       <c r="R220" s="46">
         <v>1.3</v>
       </c>
-      <c r="Z220" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA220" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="221" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="15" t="s">
@@ -23690,7 +23358,7 @@
         <v>295</v>
       </c>
       <c r="W221" s="14" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="Z221" s="14">
         <v>2.1053447950399113</v>
@@ -23744,7 +23412,7 @@
         <v>295</v>
       </c>
       <c r="W222" s="14" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="Z222" s="14">
         <v>2.6924325614034457</v>
@@ -23801,7 +23469,7 @@
         <v>295</v>
       </c>
       <c r="W223" s="14" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="Z223" s="14">
         <v>3.322671633833671</v>
@@ -24053,12 +23721,8 @@
       <c r="S228" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="Z228" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA228" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z228" s="14"/>
+      <c r="AA228" s="14"/>
       <c r="AB228" s="14"/>
       <c r="AC228" s="14"/>
     </row>
@@ -24215,7 +23879,7 @@
         <v>1.7</v>
       </c>
       <c r="W231" s="14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="Z231" s="14">
         <v>2.5000071455634694</v>
@@ -24524,7 +24188,7 @@
     </row>
     <row r="237" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A237" s="15" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B237" s="15" t="s">
         <v>6</v>
@@ -24539,16 +24203,10 @@
       <c r="R237" s="46">
         <v>2.4</v>
       </c>
-      <c r="Z237" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA237" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="238" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A238" s="15" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B238" s="15" t="s">
         <v>6</v>
@@ -24560,16 +24218,10 @@
       <c r="R238" s="46">
         <v>10.8</v>
       </c>
-      <c r="Z238" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA238" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="239" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A239" s="15" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B239" s="15" t="s">
         <v>6</v>
@@ -24587,16 +24239,10 @@
       <c r="T239" s="14">
         <v>1.9</v>
       </c>
-      <c r="Z239" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA239" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="240" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A240" s="15" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B240" s="15" t="s">
         <v>6</v>
@@ -24611,16 +24257,10 @@
       <c r="R240" s="46">
         <v>3.5</v>
       </c>
-      <c r="Z240" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA240" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="241" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A241" s="15" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B241" s="15" t="s">
         <v>6</v>
@@ -24632,16 +24272,10 @@
       <c r="R241" s="46">
         <v>12.7</v>
       </c>
-      <c r="Z241" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA241" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="242" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A242" s="15" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>6</v>
@@ -24656,16 +24290,10 @@
       <c r="R242" s="46">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Z242" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA242" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="243" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A243" s="15" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B243" s="15" t="s">
         <v>6</v>
@@ -24677,12 +24305,6 @@
       <c r="R243" s="46">
         <v>14.3</v>
       </c>
-      <c r="Z243" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA243" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="244" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A244" s="15" t="s">
@@ -24885,7 +24507,7 @@
         <v>295</v>
       </c>
       <c r="W247" s="14" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="Z247" s="14">
         <v>2.3511096525250696</v>
@@ -25034,12 +24656,8 @@
       <c r="R250" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z250" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA250" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z250" s="14"/>
+      <c r="AA250" s="14"/>
       <c r="AB250" s="14"/>
       <c r="AC250" s="14"/>
     </row>
@@ -25088,7 +24706,7 @@
         <v>1.4</v>
       </c>
       <c r="T251" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="Z251" s="14">
         <v>2.5437961035451861</v>
@@ -25196,7 +24814,7 @@
         <v>295</v>
       </c>
       <c r="W253" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Z253" s="14">
         <v>2.2550345550895341</v>
@@ -25259,7 +24877,7 @@
         <v>1.2</v>
       </c>
       <c r="W254" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="Z254" s="14">
         <v>2.1615899940316337</v>
@@ -25423,12 +25041,8 @@
       <c r="R257" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z257" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA257" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z257" s="14"/>
+      <c r="AA257" s="14"/>
       <c r="AB257" s="14"/>
       <c r="AC257" s="14"/>
     </row>
@@ -25461,12 +25075,8 @@
       <c r="S258" t="s">
         <v>295</v>
       </c>
-      <c r="Z258" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA258" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z258" s="14"/>
+      <c r="AA258" s="14"/>
       <c r="AB258" s="14"/>
       <c r="AC258" s="14"/>
     </row>
@@ -25496,12 +25106,8 @@
       <c r="R259" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z259" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA259" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z259" s="14"/>
+      <c r="AA259" s="14"/>
       <c r="AB259" s="14"/>
       <c r="AC259" s="14"/>
     </row>
@@ -25532,14 +25138,10 @@
         <v>295</v>
       </c>
       <c r="W260" t="s">
-        <v>1173</v>
-      </c>
-      <c r="Z260" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA260" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+        <v>1171</v>
+      </c>
+      <c r="Z260" s="14"/>
+      <c r="AA260" s="14"/>
       <c r="AB260" s="14"/>
       <c r="AC260" s="14"/>
     </row>
@@ -25581,12 +25183,8 @@
       <c r="V261" t="s">
         <v>295</v>
       </c>
-      <c r="Z261" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA261" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z261" s="14"/>
+      <c r="AA261" s="14"/>
       <c r="AB261" s="14"/>
       <c r="AC261" s="14"/>
     </row>
@@ -25610,12 +25208,8 @@
       <c r="F262" s="7">
         <v>450.73297100000002</v>
       </c>
-      <c r="Z262" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA262" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z262" s="14"/>
+      <c r="AA262" s="14"/>
       <c r="AB262" s="14"/>
       <c r="AC262" s="14"/>
     </row>
@@ -25667,7 +25261,7 @@
         <v>295</v>
       </c>
       <c r="W263" s="14" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="Z263" s="14">
         <v>2.1445754069558403</v>
@@ -25724,7 +25318,7 @@
         <v>1.4</v>
       </c>
       <c r="W264" s="14" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="Z264" s="14">
         <v>2.032368093385974</v>
@@ -26020,12 +25614,8 @@
       <c r="R270" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="Z270" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA270" s="14" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="Z270" s="14"/>
+      <c r="AA270" s="14"/>
       <c r="AB270" s="14"/>
       <c r="AC270" s="14"/>
     </row>
@@ -26277,7 +25867,7 @@
     </row>
     <row r="275" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A275" s="22" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B275" s="22" t="s">
         <v>703</v>
@@ -26312,19 +25902,13 @@
         <v>1.3</v>
       </c>
       <c r="W275" s="14" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="Y275" s="22"/>
-      <c r="Z275" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA275" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="276" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A276" s="22" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B276" s="22" t="s">
         <v>703</v>
@@ -26349,16 +25933,10 @@
       <c r="R276" s="49"/>
       <c r="S276" s="55"/>
       <c r="Y276" s="22"/>
-      <c r="Z276" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA276" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="277" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A277" s="22" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B277" s="22" t="s">
         <v>703</v>
@@ -26383,12 +25961,6 @@
       <c r="R277" s="49"/>
       <c r="S277" s="55"/>
       <c r="Y277" s="22"/>
-      <c r="Z277" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA277" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="278" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A278" s="22" t="s">
@@ -26567,7 +26139,7 @@
     </row>
     <row r="281" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A281" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B281" s="22" t="s">
         <v>703</v>
@@ -26599,15 +26171,9 @@
         <v>10.3</v>
       </c>
       <c r="W281" s="14" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="Y281" s="22"/>
-      <c r="Z281" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA281" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="282" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A282" s="22" t="s">
@@ -27356,7 +26922,7 @@
     </row>
     <row r="294" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A294" s="22" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B294" s="22" t="s">
         <v>703</v>
@@ -27390,16 +26956,10 @@
         <v>1.8</v>
       </c>
       <c r="Y294" s="22"/>
-      <c r="Z294" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA294" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="295" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A295" s="22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B295" s="22" t="s">
         <v>703</v>
@@ -27427,12 +26987,6 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Y295" s="22"/>
-      <c r="Z295" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA295" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="296" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A296" s="22" t="s">
@@ -27556,7 +27110,7 @@
         <v>2.9</v>
       </c>
       <c r="V297" s="14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Y297" s="22"/>
       <c r="Z297" s="14">
@@ -30042,7 +29596,7 @@
     </row>
     <row r="340" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A340" s="22" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B340" s="22" t="s">
         <v>703</v>
@@ -30070,16 +29624,10 @@
         <v>295</v>
       </c>
       <c r="Y340" s="22"/>
-      <c r="Z340" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA340" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="341" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A341" s="22" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B341" s="22" t="s">
         <v>703</v>
@@ -30107,12 +29655,6 @@
         <v>295</v>
       </c>
       <c r="Y341" s="22"/>
-      <c r="Z341" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA341" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="342" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A342" s="22" t="s">
@@ -30161,7 +29703,7 @@
         <v>295</v>
       </c>
       <c r="W342" s="14" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Y342" s="22"/>
       <c r="Z342" s="14">
@@ -30224,7 +29766,7 @@
         <v>3.2</v>
       </c>
       <c r="W343" s="22" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="Y343" s="22"/>
       <c r="Z343" s="14">
@@ -30829,7 +30371,7 @@
     </row>
     <row r="354" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A354" s="22" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B354" s="22" t="s">
         <v>703</v>
@@ -30863,16 +30405,10 @@
         <v>295</v>
       </c>
       <c r="Y354" s="22"/>
-      <c r="Z354" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA354" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="355" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A355" s="22" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B355" s="22" t="s">
         <v>703</v>
@@ -30900,12 +30436,6 @@
         <v>295</v>
       </c>
       <c r="Y355" s="22"/>
-      <c r="Z355" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA355" s="14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="356" spans="1:29" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A356" s="22" t="s">
@@ -31022,7 +30552,7 @@
         <v>10.9</v>
       </c>
       <c r="W357" s="53" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y357" s="22"/>
       <c r="Z357" s="14">
@@ -32509,7 +32039,7 @@
       <c r="P382" s="22"/>
       <c r="Q382" s="22"/>
       <c r="R382" s="47" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="Y382" s="22"/>
       <c r="Z382" s="14">
@@ -32725,7 +32255,7 @@
       <c r="P386" s="22"/>
       <c r="Q386" s="22"/>
       <c r="R386" s="49" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="Y386" s="22"/>
       <c r="Z386" s="14">
@@ -32785,7 +32315,7 @@
       <c r="P387" s="22"/>
       <c r="Q387" s="22"/>
       <c r="R387" s="49" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Y387" s="22"/>
       <c r="Z387" s="14">
@@ -32845,7 +32375,7 @@
       <c r="P388" s="22"/>
       <c r="Q388" s="22"/>
       <c r="R388" s="49" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="X388" s="25"/>
       <c r="Y388" s="22"/>
@@ -32906,7 +32436,7 @@
       <c r="P389" s="22"/>
       <c r="Q389" s="22"/>
       <c r="R389" s="49" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Y389" s="22"/>
       <c r="Z389" s="14">
@@ -34651,7 +34181,7 @@
       <c r="P420" s="22"/>
       <c r="Q420" s="22"/>
       <c r="R420" s="49" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Y420" s="22"/>
       <c r="Z420" s="14">
@@ -36400,7 +35930,7 @@
         <v>1.5</v>
       </c>
       <c r="V451" s="14" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Y451" s="22"/>
       <c r="Z451" s="14">
@@ -36574,7 +36104,7 @@
         <v>1</v>
       </c>
       <c r="S454" s="14" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="Y454" s="22"/>
       <c r="Z454" s="14">
@@ -45494,7 +45024,7 @@
         <v>2.5</v>
       </c>
       <c r="V603" s="26" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="W603" s="26"/>
       <c r="X603" s="26"/>
@@ -60494,7 +60024,7 @@
     </row>
     <row r="854" spans="1:29" ht="15" customHeight="1">
       <c r="A854" s="22" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B854" s="22" t="s">
         <v>703</v>
@@ -60515,7 +60045,7 @@
     </row>
     <row r="855" spans="1:29" ht="15" customHeight="1">
       <c r="A855" s="22" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B855" s="22" t="s">
         <v>703</v>
@@ -60591,1579 +60121,1579 @@
         <v>183</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>908</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>911</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>912</v>
-      </c>
       <c r="E1" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>1024</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>1025</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>1026</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>1027</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>1028</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>912</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>913</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>914</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>915</v>
       </c>
       <c r="D2" s="33" t="str">
         <f>CONCATENATE(UPPER(LEFT(B2,3)),UPPER(LEFT(C2,3)))</f>
         <v>ACEPEN</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F2" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>913</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>914</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>915</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="33" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D3" s="33" t="str">
         <f>CONCATENATE(UPPER(LEFT(B3,3)),UPPER(LEFT(C3,3)))</f>
         <v>ACERUB</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F3" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>915</v>
+      </c>
+      <c r="K3" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>914</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>917</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="A4" s="33" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D4" s="33" t="str">
         <f>CONCATENATE(UPPER(LEFT(B4,3)),UPPER(LEFT(C4,3)))</f>
         <v>ACESAC</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F4" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="A5" s="33" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D5" s="33" t="str">
         <f>CONCATENATE(UPPER(LEFT(B5,3)),UPPER(LEFT(C5,3)))</f>
         <v>ACESPI</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F5" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="A6" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>919</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>920</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>922</v>
       </c>
       <c r="D6" s="33" t="str">
         <f>CONCATENATE(UPPER(LEFT(B6,3)),UPPER(LEFT(C6,3)))</f>
         <v>ALNINC</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F6" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13">
       <c r="A7" s="34" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>218</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F7" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13">
       <c r="A8" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>219</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F8" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13">
       <c r="A9" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>924</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>925</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>926</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>927</v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:D17" si="0">CONCATENATE(UPPER(LEFT(B9,3)),UPPER(LEFT(C9,3)))</f>
         <v>AROMEL</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F9" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13">
       <c r="A10" s="33" t="s">
+        <v>926</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>928</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>929</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>930</v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>BETALL</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F10" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13">
       <c r="A11" s="33" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>BETLEN</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F11" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G11" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>930</v>
+      </c>
+      <c r="K11" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>929</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>932</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13">
       <c r="A12" s="33" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>BETPAP</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F12" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13">
       <c r="A13" s="33" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>BETPOP</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F13" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13">
       <c r="A14" s="34" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>CORALT</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F14" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13">
       <c r="A15" s="33" t="s">
+        <v>934</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>935</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>936</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>938</v>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>CORCOR</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F15" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13">
       <c r="A16" s="33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>1021</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>1023</v>
       </c>
       <c r="D16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>DIELON</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F16" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13">
       <c r="A17" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>939</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>940</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>941</v>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>FAGGRA</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F17" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13">
       <c r="A18" s="35" t="s">
+        <v>940</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>944</v>
-      </c>
       <c r="C18" s="33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F18" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>942</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="K18" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>944</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>1000</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13">
       <c r="A19" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>943</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>944</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>945</v>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ref="D19:D25" si="1">CONCATENATE(UPPER(LEFT(B19,3)),UPPER(LEFT(C19,3)))</f>
         <v>FRANIG</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F19" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13">
       <c r="A20" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>946</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>947</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>948</v>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" si="1"/>
         <v>HAMVIR</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F20" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G20" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>945</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>946</v>
+      </c>
+      <c r="K20" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>947</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>948</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13">
       <c r="A21" s="33" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" si="1"/>
         <v>ILEMUC</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F21" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13">
       <c r="A22" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>951</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>952</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>953</v>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" si="1"/>
         <v>KALANG</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F22" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G22" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="K22" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>952</v>
-      </c>
-      <c r="J22" s="41" t="s">
-        <v>953</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13">
       <c r="A23" s="33" t="s">
+        <v>952</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>953</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>954</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>955</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>956</v>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" si="1"/>
         <v>LONCAN</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F23" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13">
       <c r="A24" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>958</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" si="1"/>
         <v>LYOLIG</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F24" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13">
       <c r="A25" s="34" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" si="1"/>
         <v>MYRGAL</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F25" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G25" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>999</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J25" s="41" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13">
       <c r="A26" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>960</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>961</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>962</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>963</v>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ref="D26:D28" si="2">CONCATENATE(UPPER(LEFT(B26,3)),UPPER(LEFT(C26,3)))</f>
         <v>NYSSYL</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F26" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13">
       <c r="A27" s="33" t="s">
+        <v>962</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>963</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>964</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>965</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>966</v>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" si="2"/>
         <v>POPGRA</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F27" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13">
       <c r="A28" s="39" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D28" s="39" t="str">
         <f t="shared" si="2"/>
         <v>POPTRE</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F28" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13">
       <c r="A29" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>966</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>967</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>968</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>969</v>
       </c>
       <c r="D29" s="33" t="str">
         <f t="shared" ref="D29:D44" si="3">CONCATENATE(UPPER(LEFT(B29,3)),UPPER(LEFT(C29,3)))</f>
         <v>PRUPEN</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F29" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13">
       <c r="A30" s="33" t="s">
+        <v>968</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>969</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>970</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>972</v>
       </c>
       <c r="D30" s="33" t="str">
         <f t="shared" si="3"/>
         <v>QUEALB</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F30" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G30" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>969</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>970</v>
+      </c>
+      <c r="K30" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>971</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>972</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="13">
       <c r="A31" s="33" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D31" s="33" t="str">
         <f t="shared" si="3"/>
         <v>QUERUB</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F31" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G31" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>969</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>972</v>
+      </c>
+      <c r="K31" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>971</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>974</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13">
       <c r="A32" s="33" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D32" s="33" t="str">
         <f t="shared" si="3"/>
         <v>QUEVEL</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F32" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13">
       <c r="A33" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>977</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>978</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>979</v>
       </c>
       <c r="D33" s="33" t="str">
         <f t="shared" si="3"/>
         <v>RHAFRA</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F33" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G33" s="42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I33" s="42" t="s">
         <v>1088</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="J33" s="42" t="s">
         <v>1089</v>
       </c>
-      <c r="I33" s="42" t="s">
-        <v>1090</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>1091</v>
-      </c>
       <c r="K33" s="41" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13">
       <c r="A34" s="33" t="s">
+        <v>978</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>979</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>980</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>981</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>982</v>
       </c>
       <c r="D34" s="33" t="str">
         <f t="shared" si="3"/>
         <v>RHOPRI</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F34" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13">
       <c r="A35" s="37" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D35" s="39" t="str">
         <f t="shared" si="3"/>
         <v>RIBGLA</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F35" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13">
       <c r="A36" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>1018</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>1020</v>
       </c>
       <c r="D36" s="39" t="str">
         <f t="shared" si="3"/>
         <v>SAMRAC</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F36" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G36" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K36" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J36" s="41" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K36" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13">
       <c r="A37" s="37" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D37" s="39" t="str">
         <f t="shared" si="3"/>
         <v>SORAME</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F37" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="13">
       <c r="A38" s="33" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D38" s="33" t="str">
         <f t="shared" si="3"/>
         <v>SPIALB</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F38" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13">
       <c r="A39" s="37" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D39" s="39" t="str">
         <f t="shared" si="3"/>
         <v>SPITOM</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F39" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G39" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>984</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K39" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I39" s="41" t="s">
-        <v>986</v>
-      </c>
-      <c r="J39" s="41" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K39" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="13">
       <c r="A40" s="37" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D40" s="39" t="str">
         <f t="shared" si="3"/>
         <v>TILAME</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F40" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G40" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="K40" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>1000</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13">
       <c r="A41" s="37" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D41" s="39" t="str">
         <f t="shared" si="3"/>
         <v>ULMAME</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F41" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G41" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="K41" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>1000</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13">
       <c r="A42" s="38" t="s">
+        <v>988</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>989</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>990</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>991</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>992</v>
       </c>
       <c r="D42" s="33" t="str">
         <f t="shared" si="3"/>
         <v>VACMYR</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F42" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K42" s="41" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="13">
       <c r="A43" s="33" t="s">
+        <v>991</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>992</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>993</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>994</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>995</v>
       </c>
       <c r="D43" s="33" t="str">
         <f t="shared" si="3"/>
         <v>VIBCAS</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F43" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G43" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>992</v>
+      </c>
+      <c r="J43" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="K43" s="41" t="s">
         <v>1032</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I43" s="41" t="s">
-        <v>994</v>
-      </c>
-      <c r="J43" s="41" t="s">
-        <v>995</v>
-      </c>
-      <c r="K43" s="41" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="13">
       <c r="A44" s="33" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D44" s="33" t="str">
         <f t="shared" si="3"/>
         <v>VIBLAN</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F44" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I44" s="41" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="J44" s="41" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -62182,7 +61712,7 @@
   <dimension ref="A3:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -62197,7 +61727,7 @@
         <v>213</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:6">
